--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>push test 1</t>
+          <t>push test 2</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>push test 3</t>
+          <t>push test 4</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>download test</t>
+          <t>download test 2</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>download test 2</t>
+          <t>new session</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -656,11 +656,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>new session</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
         <v>10000</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -656,7 +656,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>latest run</t>
+        </is>
+      </c>
       <c r="B2" t="n">
         <v>10000</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>latest run</t>
+          <t>almost done</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>almost done</t>
+          <t>final run without status updates</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -656,11 +656,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>final run without status updates</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
         <v>10000</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -656,7 +656,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>first try</t>
+        </is>
+      </c>
       <c r="B2" t="n">
         <v>10000</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>first try</t>
+          <t>second try</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>second try</t>
+          <t>thirth try</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>thirth try</t>
+          <t>fourth try</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fourth try</t>
+          <t>fifth try</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fifth try</t>
+          <t>sixth try</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sixth try</t>
+          <t>seventh try</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>seventh try</t>
+          <t>eight try</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eight try</t>
+          <t>ninth try</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ninth try</t>
+          <t>tenth try</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tenth try</t>
+          <t>eleventh try</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eleventh try</t>
+          <t>error correction</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>error correction</t>
+          <t>error1</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>error1</t>
+          <t>new error1</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>new error1</t>
+          <t>finding errors</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>finding errors</t>
+          <t>error3</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>error3</t>
+          <t>error4</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>error4</t>
+          <t>error5</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>error5</t>
+          <t>error10</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>error10</t>
+          <t>error11</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>error11</t>
+          <t>simulation 2</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,359 +436,7338 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>scenarioName</t>
+          <t>month</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>insurancePrice</t>
+          <t>customers</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>riskAssessmentPrice</t>
+          <t>new customers</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>socPrice</t>
+          <t>referred customers</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>consultSecurityProductsHours</t>
+          <t>lead customers</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>consultSecurityProductsPrice</t>
+          <t>existing customers</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>workerEducationHours</t>
+          <t>Risk assessment pakages sold</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>workerEducationPrice</t>
+          <t>Risk assessment pakages sold to new customers</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>riskAssessmentInitialCost</t>
+          <t>Risk assessment pakages sold to referred customers</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>riskAssessmentMonthlyCost</t>
+          <t>Risk assessment pakages sold to lead customers</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>socCost</t>
+          <t>Risk assessment pakages sold to existing customers</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>consultSecurityProductsCost</t>
+          <t>SOC pakages sold</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>workerEducationCost</t>
+          <t>SOC pakages sold to new customers</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>newCustomers</t>
+          <t>SOC pakages sold to referred customers</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>referredCustomers</t>
+          <t>SOC pakages sold to lead customers</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>leadCustomers</t>
+          <t>SOC pakages sold to existing customers</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>year1</t>
+          <t>Insurance packages sold</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>year2</t>
+          <t>Insurance packages sold to new customers</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>year3</t>
+          <t>Insurance packages sold to referred customers</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>year4</t>
+          <t>Insurance packages sold to lead customers</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>year5</t>
+          <t>Insurance packages sold to existing customers</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>newCommission</t>
+          <t>Income from risk assessment packages</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>referredCommission</t>
+          <t>Income from SOC packages</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>leadCommission</t>
+          <t>Income from insurance packages</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>existingCommission</t>
+          <t>Total income</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>newRisk</t>
+          <t>Admin staff</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>referredRisk</t>
+          <t>Tele staff</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>leadRisk</t>
+          <t>Sales staff</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>existingRisk</t>
+          <t>Cyber staff</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>newCost</t>
+          <t>Logistics staff</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>referredCost</t>
+          <t>Total staff</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>leadCost</t>
+          <t>Labor cost</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>adminStaff</t>
+          <t>Risk assessment packages cost</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>teleStaff</t>
+          <t>SOC packages cost</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>salesStaff</t>
+          <t>Marketing cost</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>cyberStaff</t>
+          <t>General overhead</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>logisticsStaff</t>
+          <t>Legal &amp; Accounting cost</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>adminSalary</t>
+          <t>Total cost</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>teleSalary</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>salesSalary</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>cyberSalary</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>logisticsSalary</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>teleIncentive</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>salesIncentive</t>
+          <t>Gross profit</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>simulation 2</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36</v>
+      </c>
+      <c r="E2" t="n">
+        <v>54</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>14</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>12</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>12</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>8</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>147600</v>
+      </c>
+      <c r="W2" t="n">
+        <v>897311.9999999999</v>
+      </c>
+      <c r="X2" t="n">
+        <v>24000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1068912</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>289380</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>118080</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>747760</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>28000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>43750</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>21378</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1248348</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-179436</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>111</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44</v>
+      </c>
+      <c r="E3" t="n">
+        <v>51</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>14</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>12</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>144000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>771417.5999999997</v>
+      </c>
+      <c r="X3" t="n">
+        <v>24000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>939417.5999999997</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>289835</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>115200</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>642848</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>28000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>43750</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>18788</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1138421</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-199003.4000000003</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>120</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42</v>
+      </c>
+      <c r="E4" t="n">
+        <v>67</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>20</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>16</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>169200</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1133126.4</v>
+      </c>
+      <c r="X4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1342326.4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>292500</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>135360</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>944272</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>43750</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26846</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1482728</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-140401.6000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>133</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>57</v>
+      </c>
+      <c r="E5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>18</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>12</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>23</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6</v>
+      </c>
+      <c r="T5" t="n">
+        <v>17</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>198000</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1268803.200000001</v>
+      </c>
+      <c r="X5" t="n">
+        <v>46000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1512803.200000001</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>306150</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>158400</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1057336</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>44500</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>46875</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>30256</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1643517</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-130713.7999999989</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>147</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>59</v>
+      </c>
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>16</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>16</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>13</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>169200</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1026028.799999999</v>
+      </c>
+      <c r="X6" t="n">
+        <v>32000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1227228.799999999</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>302380</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>135360</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>855024</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>34000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>46875</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>24544</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1398183</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-170954.2000000007</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>161</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>68</v>
+      </c>
+      <c r="E7" t="n">
+        <v>72</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>23</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>22</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>21</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>15</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>237600</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1435804.800000001</v>
+      </c>
+      <c r="X7" t="n">
+        <v>42000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1715404.800000001</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>307775</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>190080</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1196504</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>41500</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>46875</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34308</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1817042</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-101637.1999999993</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>177</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>73</v>
+      </c>
+      <c r="E8" t="n">
+        <v>94</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>21</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>19</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>33</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="n">
+        <v>23</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>284400</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1689465.6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>66000</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2039865.6</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>313885</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>227520</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1407888</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>59500</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>46875</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>2095668</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-55802.40000000037</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>195</v>
+      </c>
+      <c r="C9" t="n">
+        <v>29</v>
+      </c>
+      <c r="D9" t="n">
+        <v>71</v>
+      </c>
+      <c r="E9" t="n">
+        <v>95</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>20</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>19</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>230400</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1448841.600000001</v>
+      </c>
+      <c r="X9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1729241.600000001</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>308750</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>184320</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1207368</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>47500</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>46875</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34584</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1829397</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-100155.3999999985</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>214</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D10" t="n">
+        <v>88</v>
+      </c>
+      <c r="E10" t="n">
+        <v>108</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>32</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>26</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>18</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>24</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>316800</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1556832.000000004</v>
+      </c>
+      <c r="X10" t="n">
+        <v>62000</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1935632.000000004</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>317005</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>253440</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1297360</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>56500</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>46875</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>38712</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>2009892</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-74259.99999999627</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>236</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17</v>
+      </c>
+      <c r="D11" t="n">
+        <v>107</v>
+      </c>
+      <c r="E11" t="n">
+        <v>112</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>18</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>37</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>24</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>19</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>309600</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2037321.6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>48000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2394921.6</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>316160</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>247680</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1697768</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>46000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>46875</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>2394483</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>438.5999999996275</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>259</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35</v>
+      </c>
+      <c r="D12" t="n">
+        <v>102</v>
+      </c>
+      <c r="E12" t="n">
+        <v>122</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>28</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>22</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>34</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>27</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>22</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>20</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>302400</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1717535.999999998</v>
+      </c>
+      <c r="X12" t="n">
+        <v>44000</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2063935.999999998</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>313885</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>241920</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1431280</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>43000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>46875</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>2116960</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-53024.00000000186</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>285</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>110</v>
+      </c>
+      <c r="E13" t="n">
+        <v>148</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>47</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>34</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>38</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>28</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>22</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>406800</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2059027.199999994</v>
+      </c>
+      <c r="X13" t="n">
+        <v>56000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2521827.199999994</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>338195</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>325440</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1715856</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>52000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2521491</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>336.199999993667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>355</v>
+      </c>
+      <c r="C14" t="n">
+        <v>32</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125</v>
+      </c>
+      <c r="E14" t="n">
+        <v>157</v>
+      </c>
+      <c r="F14" t="n">
+        <v>41</v>
+      </c>
+      <c r="G14" t="n">
+        <v>38</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>30</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>42</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>73</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8</v>
+      </c>
+      <c r="T14" t="n">
+        <v>29</v>
+      </c>
+      <c r="U14" t="n">
+        <v>36</v>
+      </c>
+      <c r="V14" t="n">
+        <v>550800</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3609628.799999997</v>
+      </c>
+      <c r="X14" t="n">
+        <v>146000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4306428.799999997</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>352625</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>440640</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>3008024</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>119500</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>4010789</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>295639.799999997</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>367</v>
+      </c>
+      <c r="C15" t="n">
+        <v>27</v>
+      </c>
+      <c r="D15" t="n">
+        <v>132</v>
+      </c>
+      <c r="E15" t="n">
+        <v>168</v>
+      </c>
+      <c r="F15" t="n">
+        <v>40</v>
+      </c>
+      <c r="G15" t="n">
+        <v>46</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>14</v>
+      </c>
+      <c r="J15" t="n">
+        <v>31</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>42</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>33</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>70</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>9</v>
+      </c>
+      <c r="T15" t="n">
+        <v>25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>36</v>
+      </c>
+      <c r="V15" t="n">
+        <v>568800</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3260371.200000007</v>
+      </c>
+      <c r="X15" t="n">
+        <v>140000</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3969171.200000007</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>354250</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>455040</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>2716976</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>115000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>3731266</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>237905.2000000067</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>386</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31</v>
+      </c>
+      <c r="D16" t="n">
+        <v>142</v>
+      </c>
+      <c r="E16" t="n">
+        <v>166</v>
+      </c>
+      <c r="F16" t="n">
+        <v>47</v>
+      </c>
+      <c r="G16" t="n">
+        <v>37</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>27</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>50</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>35</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>89</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>11</v>
+      </c>
+      <c r="T16" t="n">
+        <v>37</v>
+      </c>
+      <c r="U16" t="n">
+        <v>41</v>
+      </c>
+      <c r="V16" t="n">
+        <v>633600</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4293283.199999999</v>
+      </c>
+      <c r="X16" t="n">
+        <v>178000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>5104883.199999999</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>361530</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>506880</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>3577736</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>143500</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>4679646</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>425237.1999999993</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>408</v>
+      </c>
+      <c r="C17" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" t="n">
+        <v>138</v>
+      </c>
+      <c r="E17" t="n">
+        <v>180</v>
+      </c>
+      <c r="F17" t="n">
+        <v>55</v>
+      </c>
+      <c r="G17" t="n">
+        <v>59</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11</v>
+      </c>
+      <c r="J17" t="n">
+        <v>45</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>45</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>30</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>68</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>8</v>
+      </c>
+      <c r="T17" t="n">
+        <v>22</v>
+      </c>
+      <c r="U17" t="n">
+        <v>38</v>
+      </c>
+      <c r="V17" t="n">
+        <v>619200</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3409449.59999999</v>
+      </c>
+      <c r="X17" t="n">
+        <v>136000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>4164649.59999999</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>358475</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>495360</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2841208</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>112000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>3897043</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>267606.5999999903</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>414</v>
+      </c>
+      <c r="C18" t="n">
+        <v>40</v>
+      </c>
+      <c r="D18" t="n">
+        <v>148</v>
+      </c>
+      <c r="E18" t="n">
+        <v>179</v>
+      </c>
+      <c r="F18" t="n">
+        <v>47</v>
+      </c>
+      <c r="G18" t="n">
+        <v>44</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>31</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>45</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>29</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>75</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>30</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41</v>
+      </c>
+      <c r="V18" t="n">
+        <v>590400</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3944966.400000002</v>
+      </c>
+      <c r="X18" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>4685366.400000002</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>369915</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>472320</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>3287472</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>122500</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>4342207</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>343159.4000000022</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>448</v>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>164</v>
+      </c>
+      <c r="E19" t="n">
+        <v>181</v>
+      </c>
+      <c r="F19" t="n">
+        <v>66</v>
+      </c>
+      <c r="G19" t="n">
+        <v>46</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>36</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>42</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>30</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>88</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>7</v>
+      </c>
+      <c r="T19" t="n">
+        <v>31</v>
+      </c>
+      <c r="U19" t="n">
+        <v>50</v>
+      </c>
+      <c r="V19" t="n">
+        <v>633600</v>
+      </c>
+      <c r="W19" t="n">
+        <v>4220620.800000004</v>
+      </c>
+      <c r="X19" t="n">
+        <v>176000</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>5030220.800000004</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>377390</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>506880</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>3517184</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>142000</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>4633454</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>396766.8000000045</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>476</v>
+      </c>
+      <c r="C20" t="n">
+        <v>52</v>
+      </c>
+      <c r="D20" t="n">
+        <v>159</v>
+      </c>
+      <c r="E20" t="n">
+        <v>186</v>
+      </c>
+      <c r="F20" t="n">
+        <v>79</v>
+      </c>
+      <c r="G20" t="n">
+        <v>36</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>26</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>52</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>39</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>97</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>11</v>
+      </c>
+      <c r="T20" t="n">
+        <v>27</v>
+      </c>
+      <c r="U20" t="n">
+        <v>59</v>
+      </c>
+      <c r="V20" t="n">
+        <v>666000</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4652400.00000003</v>
+      </c>
+      <c r="X20" t="n">
+        <v>194000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>5512400.00000003</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>381940</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>532800</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>3877000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>155500</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>5037240</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>475160.0000000298</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>477</v>
+      </c>
+      <c r="C21" t="n">
+        <v>32</v>
+      </c>
+      <c r="D21" t="n">
+        <v>164</v>
+      </c>
+      <c r="E21" t="n">
+        <v>217</v>
+      </c>
+      <c r="F21" t="n">
+        <v>64</v>
+      </c>
+      <c r="G21" t="n">
+        <v>40</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>14</v>
+      </c>
+      <c r="J21" t="n">
+        <v>26</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>47</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>35</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>96</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="n">
+        <v>39</v>
+      </c>
+      <c r="U21" t="n">
+        <v>47</v>
+      </c>
+      <c r="V21" t="n">
+        <v>658800</v>
+      </c>
+      <c r="W21" t="n">
+        <v>4593590.399999984</v>
+      </c>
+      <c r="X21" t="n">
+        <v>192000</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>5444390.399999984</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>384735</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>527040</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>3827992</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>154000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>4983767</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>460623.3999999836</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>518</v>
+      </c>
+      <c r="C22" t="n">
+        <v>40</v>
+      </c>
+      <c r="D22" t="n">
+        <v>173</v>
+      </c>
+      <c r="E22" t="n">
+        <v>217</v>
+      </c>
+      <c r="F22" t="n">
+        <v>88</v>
+      </c>
+      <c r="G22" t="n">
+        <v>54</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>34</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>44</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>35</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>103</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6</v>
+      </c>
+      <c r="T22" t="n">
+        <v>40</v>
+      </c>
+      <c r="U22" t="n">
+        <v>57</v>
+      </c>
+      <c r="V22" t="n">
+        <v>723600</v>
+      </c>
+      <c r="W22" t="n">
+        <v>4603075.199999996</v>
+      </c>
+      <c r="X22" t="n">
+        <v>206000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>5532675.199999996</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>389675</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>578880</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>3835896</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>164500</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>5058951</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>473724.1999999955</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>532</v>
+      </c>
+      <c r="C23" t="n">
+        <v>43</v>
+      </c>
+      <c r="D23" t="n">
+        <v>188</v>
+      </c>
+      <c r="E23" t="n">
+        <v>215</v>
+      </c>
+      <c r="F23" t="n">
+        <v>86</v>
+      </c>
+      <c r="G23" t="n">
+        <v>46</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>39</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>51</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12</v>
+      </c>
+      <c r="O23" t="n">
+        <v>32</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>114</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>8</v>
+      </c>
+      <c r="T23" t="n">
+        <v>34</v>
+      </c>
+      <c r="U23" t="n">
+        <v>72</v>
+      </c>
+      <c r="V23" t="n">
+        <v>759600</v>
+      </c>
+      <c r="W23" t="n">
+        <v>5043888.00000003</v>
+      </c>
+      <c r="X23" t="n">
+        <v>228000</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>6031488.00000003</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>394290</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>607680</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>4203240</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>181000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>5476210</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>555278.0000000298</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>549</v>
+      </c>
+      <c r="C24" t="n">
+        <v>51</v>
+      </c>
+      <c r="D24" t="n">
+        <v>185</v>
+      </c>
+      <c r="E24" t="n">
+        <v>229</v>
+      </c>
+      <c r="F24" t="n">
+        <v>84</v>
+      </c>
+      <c r="G24" t="n">
+        <v>50</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>14</v>
+      </c>
+      <c r="J24" t="n">
+        <v>34</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>41</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>28</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>119</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>8</v>
+      </c>
+      <c r="T24" t="n">
+        <v>41</v>
+      </c>
+      <c r="U24" t="n">
+        <v>70</v>
+      </c>
+      <c r="V24" t="n">
+        <v>756000</v>
+      </c>
+      <c r="W24" t="n">
+        <v>4958937.600000016</v>
+      </c>
+      <c r="X24" t="n">
+        <v>238000</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>5952937.600000016</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>395460</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>604800</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>4132448</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>188500</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>5411208</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>541729.6000000164</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>596</v>
+      </c>
+      <c r="C25" t="n">
+        <v>38</v>
+      </c>
+      <c r="D25" t="n">
+        <v>204</v>
+      </c>
+      <c r="E25" t="n">
+        <v>241</v>
+      </c>
+      <c r="F25" t="n">
+        <v>113</v>
+      </c>
+      <c r="G25" t="n">
+        <v>42</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>32</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>57</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>14</v>
+      </c>
+      <c r="O25" t="n">
+        <v>41</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>133</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9</v>
+      </c>
+      <c r="T25" t="n">
+        <v>35</v>
+      </c>
+      <c r="U25" t="n">
+        <v>89</v>
+      </c>
+      <c r="V25" t="n">
+        <v>835200</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5955417.600000016</v>
+      </c>
+      <c r="X25" t="n">
+        <v>266000</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>7056617.600000016</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>404105</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>668160</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>4962848</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>209500</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>6334613</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>722004.6000000164</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>696</v>
+      </c>
+      <c r="C26" t="n">
+        <v>54</v>
+      </c>
+      <c r="D26" t="n">
+        <v>210</v>
+      </c>
+      <c r="E26" t="n">
+        <v>238</v>
+      </c>
+      <c r="F26" t="n">
+        <v>194</v>
+      </c>
+      <c r="G26" t="n">
+        <v>41</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10</v>
+      </c>
+      <c r="J26" t="n">
+        <v>29</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>50</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13</v>
+      </c>
+      <c r="O26" t="n">
+        <v>31</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>198</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>9</v>
+      </c>
+      <c r="T26" t="n">
+        <v>40</v>
+      </c>
+      <c r="U26" t="n">
+        <v>148</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1040400</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8048351.999999955</v>
+      </c>
+      <c r="X26" t="n">
+        <v>396000</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9484751.999999955</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>444535</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>832320</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>6706960</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>307000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>8380815</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1103936.999999955</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>716</v>
+      </c>
+      <c r="C27" t="n">
+        <v>41</v>
+      </c>
+      <c r="D27" t="n">
+        <v>213</v>
+      </c>
+      <c r="E27" t="n">
+        <v>264</v>
+      </c>
+      <c r="F27" t="n">
+        <v>198</v>
+      </c>
+      <c r="G27" t="n">
+        <v>59</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>17</v>
+      </c>
+      <c r="J27" t="n">
+        <v>40</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>49</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>35</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>199</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>9</v>
+      </c>
+      <c r="T27" t="n">
+        <v>45</v>
+      </c>
+      <c r="U27" t="n">
+        <v>145</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1105200</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7869503.999999955</v>
+      </c>
+      <c r="X27" t="n">
+        <v>398000</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9372703.999999955</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>451945</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>884160</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>6557920</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>308500</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>8292525</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1080178.999999955</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>756</v>
+      </c>
+      <c r="C28" t="n">
+        <v>61</v>
+      </c>
+      <c r="D28" t="n">
+        <v>214</v>
+      </c>
+      <c r="E28" t="n">
+        <v>258</v>
+      </c>
+      <c r="F28" t="n">
+        <v>223</v>
+      </c>
+      <c r="G28" t="n">
+        <v>45</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>38</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>52</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>11</v>
+      </c>
+      <c r="O28" t="n">
+        <v>35</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>204</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>11</v>
+      </c>
+      <c r="T28" t="n">
+        <v>41</v>
+      </c>
+      <c r="U28" t="n">
+        <v>152</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1083600</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7786348.800000086</v>
+      </c>
+      <c r="X28" t="n">
+        <v>408000</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9277948.800000086</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>499005</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>866880</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>6488624</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>316000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>8260509</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1017439.800000086</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>776</v>
+      </c>
+      <c r="C29" t="n">
+        <v>60</v>
+      </c>
+      <c r="D29" t="n">
+        <v>213</v>
+      </c>
+      <c r="E29" t="n">
+        <v>276</v>
+      </c>
+      <c r="F29" t="n">
+        <v>227</v>
+      </c>
+      <c r="G29" t="n">
+        <v>51</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13</v>
+      </c>
+      <c r="J29" t="n">
+        <v>35</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>47</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>34</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>190</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>6</v>
+      </c>
+      <c r="T29" t="n">
+        <v>30</v>
+      </c>
+      <c r="U29" t="n">
+        <v>154</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1036800</v>
+      </c>
+      <c r="W29" t="n">
+        <v>7134768.000000104</v>
+      </c>
+      <c r="X29" t="n">
+        <v>380000</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8551568.000000104</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>494780</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>829440</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>5945640</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>295000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>7654860</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>896708.0000001043</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>777</v>
+      </c>
+      <c r="C30" t="n">
+        <v>49</v>
+      </c>
+      <c r="D30" t="n">
+        <v>230</v>
+      </c>
+      <c r="E30" t="n">
+        <v>287</v>
+      </c>
+      <c r="F30" t="n">
+        <v>211</v>
+      </c>
+      <c r="G30" t="n">
+        <v>62</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" t="n">
+        <v>45</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>62</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>16</v>
+      </c>
+      <c r="O30" t="n">
+        <v>42</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>200</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>13</v>
+      </c>
+      <c r="T30" t="n">
+        <v>43</v>
+      </c>
+      <c r="U30" t="n">
+        <v>144</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1166400</v>
+      </c>
+      <c r="W30" t="n">
+        <v>8371334.399999961</v>
+      </c>
+      <c r="X30" t="n">
+        <v>400000</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9937734.399999961</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>542360</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>933120</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>6976112</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>310000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>8851592</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1086142.399999961</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>824</v>
+      </c>
+      <c r="C31" t="n">
+        <v>65</v>
+      </c>
+      <c r="D31" t="n">
+        <v>228</v>
+      </c>
+      <c r="E31" t="n">
+        <v>289</v>
+      </c>
+      <c r="F31" t="n">
+        <v>242</v>
+      </c>
+      <c r="G31" t="n">
+        <v>59</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14</v>
+      </c>
+      <c r="J31" t="n">
+        <v>44</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>49</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>38</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>247</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>14</v>
+      </c>
+      <c r="T31" t="n">
+        <v>48</v>
+      </c>
+      <c r="U31" t="n">
+        <v>185</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1278000</v>
+      </c>
+      <c r="W31" t="n">
+        <v>9189120.000000045</v>
+      </c>
+      <c r="X31" t="n">
+        <v>494000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>10961120.00000004</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>553540</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1022400</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>7657600</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>380500</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>9704040</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1257080.000000045</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>864</v>
+      </c>
+      <c r="C32" t="n">
+        <v>57</v>
+      </c>
+      <c r="D32" t="n">
+        <v>238</v>
+      </c>
+      <c r="E32" t="n">
+        <v>305</v>
+      </c>
+      <c r="F32" t="n">
+        <v>264</v>
+      </c>
+      <c r="G32" t="n">
+        <v>70</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>16</v>
+      </c>
+      <c r="J32" t="n">
+        <v>49</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>60</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" t="n">
+        <v>50</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>273</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>12</v>
+      </c>
+      <c r="T32" t="n">
+        <v>48</v>
+      </c>
+      <c r="U32" t="n">
+        <v>213</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1450800</v>
+      </c>
+      <c r="W32" t="n">
+        <v>10441180.79999998</v>
+      </c>
+      <c r="X32" t="n">
+        <v>546000</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>12437980.79999998</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>580970</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1160640</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>8700984</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>419500</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>10952094</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1485886.799999982</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>865</v>
+      </c>
+      <c r="C33" t="n">
+        <v>81</v>
+      </c>
+      <c r="D33" t="n">
+        <v>223</v>
+      </c>
+      <c r="E33" t="n">
+        <v>314</v>
+      </c>
+      <c r="F33" t="n">
+        <v>247</v>
+      </c>
+      <c r="G33" t="n">
+        <v>55</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10</v>
+      </c>
+      <c r="J33" t="n">
+        <v>42</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>59</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>45</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>268</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>17</v>
+      </c>
+      <c r="T33" t="n">
+        <v>51</v>
+      </c>
+      <c r="U33" t="n">
+        <v>199</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1375200</v>
+      </c>
+      <c r="W33" t="n">
+        <v>10312905.60000037</v>
+      </c>
+      <c r="X33" t="n">
+        <v>536000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>12224105.60000037</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>578045</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1100160</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>8594088</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>412000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>10774293</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1449812.600000367</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>926</v>
+      </c>
+      <c r="C34" t="n">
+        <v>56</v>
+      </c>
+      <c r="D34" t="n">
+        <v>238</v>
+      </c>
+      <c r="E34" t="n">
+        <v>343</v>
+      </c>
+      <c r="F34" t="n">
+        <v>289</v>
+      </c>
+      <c r="G34" t="n">
+        <v>85</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>20</v>
+      </c>
+      <c r="J34" t="n">
+        <v>63</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>77</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>11</v>
+      </c>
+      <c r="O34" t="n">
+        <v>56</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" t="n">
         <v>300</v>
       </c>
-      <c r="D2" t="n">
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>16</v>
+      </c>
+      <c r="T34" t="n">
+        <v>52</v>
+      </c>
+      <c r="U34" t="n">
+        <v>230</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1663200</v>
+      </c>
+      <c r="W34" t="n">
+        <v>11689622.40000024</v>
+      </c>
+      <c r="X34" t="n">
+        <v>600000</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>13952822.40000024</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>637065</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1330560</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>9741352</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>460000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>12258977</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1693845.400000244</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>952</v>
+      </c>
+      <c r="C35" t="n">
+        <v>68</v>
+      </c>
+      <c r="D35" t="n">
+        <v>259</v>
+      </c>
+      <c r="E35" t="n">
+        <v>328</v>
+      </c>
+      <c r="F35" t="n">
+        <v>297</v>
+      </c>
+      <c r="G35" t="n">
+        <v>78</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
         <v>12</v>
       </c>
-      <c r="E2" t="n">
+      <c r="J35" t="n">
+        <v>59</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4</v>
+      </c>
+      <c r="L35" t="n">
+        <v>75</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>15</v>
+      </c>
+      <c r="O35" t="n">
+        <v>50</v>
+      </c>
+      <c r="P35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>307</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>12</v>
+      </c>
+      <c r="T35" t="n">
+        <v>50</v>
+      </c>
+      <c r="U35" t="n">
+        <v>244</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1656000</v>
+      </c>
+      <c r="W35" t="n">
+        <v>12502924.79999998</v>
+      </c>
+      <c r="X35" t="n">
+        <v>614000</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>14772924.79999998</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>637065</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1324800</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>10419104</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>470500</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>12941469</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1831455.799999982</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>969</v>
+      </c>
+      <c r="C36" t="n">
+        <v>65</v>
+      </c>
+      <c r="D36" t="n">
+        <v>265</v>
+      </c>
+      <c r="E36" t="n">
+        <v>345</v>
+      </c>
+      <c r="F36" t="n">
+        <v>294</v>
+      </c>
+      <c r="G36" t="n">
+        <v>83</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>21</v>
+      </c>
+      <c r="J36" t="n">
+        <v>57</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>62</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>9</v>
+      </c>
+      <c r="O36" t="n">
+        <v>42</v>
+      </c>
+      <c r="P36" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>316</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="n">
+        <v>66</v>
+      </c>
+      <c r="U36" t="n">
+        <v>240</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1659600</v>
+      </c>
+      <c r="W36" t="n">
+        <v>12020659.19999987</v>
+      </c>
+      <c r="X36" t="n">
+        <v>632000</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>14312259.19999987</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>639600</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1327680</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>10017216</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>484000</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>12558496</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1753763.199999869</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1041</v>
+      </c>
+      <c r="C37" t="n">
+        <v>75</v>
+      </c>
+      <c r="D37" t="n">
+        <v>262</v>
+      </c>
+      <c r="E37" t="n">
+        <v>359</v>
+      </c>
+      <c r="F37" t="n">
+        <v>345</v>
+      </c>
+      <c r="G37" t="n">
+        <v>60</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>11</v>
+      </c>
+      <c r="J37" t="n">
+        <v>47</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>80</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>14</v>
+      </c>
+      <c r="O37" t="n">
+        <v>56</v>
+      </c>
+      <c r="P37" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>328</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>12</v>
+      </c>
+      <c r="T37" t="n">
+        <v>45</v>
+      </c>
+      <c r="U37" t="n">
+        <v>270</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1684800</v>
+      </c>
+      <c r="W37" t="n">
+        <v>13005734.40000015</v>
+      </c>
+      <c r="X37" t="n">
+        <v>656000</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>15346534.40000015</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>660790</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1347840</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>10838112</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>502000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>13438742</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1907792.400000155</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1199</v>
+      </c>
+      <c r="C38" t="n">
+        <v>66</v>
+      </c>
+      <c r="D38" t="n">
+        <v>271</v>
+      </c>
+      <c r="E38" t="n">
+        <v>379</v>
+      </c>
+      <c r="F38" t="n">
+        <v>483</v>
+      </c>
+      <c r="G38" t="n">
+        <v>64</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9</v>
+      </c>
+      <c r="J38" t="n">
+        <v>52</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3</v>
+      </c>
+      <c r="L38" t="n">
+        <v>58</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>9</v>
+      </c>
+      <c r="O38" t="n">
+        <v>47</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>412</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>8</v>
+      </c>
+      <c r="T38" t="n">
+        <v>47</v>
+      </c>
+      <c r="U38" t="n">
+        <v>357</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1922400</v>
+      </c>
+      <c r="W38" t="n">
+        <v>15071347.19999966</v>
+      </c>
+      <c r="X38" t="n">
+        <v>824000</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>17817747.19999966</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>750620</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1537920</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>12559456</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>628000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>15565996</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>2251751.19999966</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C39" t="n">
+        <v>64</v>
+      </c>
+      <c r="D39" t="n">
+        <v>285</v>
+      </c>
+      <c r="E39" t="n">
+        <v>382</v>
+      </c>
+      <c r="F39" t="n">
+        <v>505</v>
+      </c>
+      <c r="G39" t="n">
+        <v>76</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10</v>
+      </c>
+      <c r="J39" t="n">
+        <v>61</v>
+      </c>
+      <c r="K39" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
-        <v>600</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="L39" t="n">
+        <v>86</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>11</v>
+      </c>
+      <c r="O39" t="n">
+        <v>67</v>
+      </c>
+      <c r="P39" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>471</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>16</v>
+      </c>
+      <c r="T39" t="n">
+        <v>64</v>
+      </c>
+      <c r="U39" t="n">
+        <v>391</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2278800</v>
+      </c>
+      <c r="W39" t="n">
+        <v>17305622.39999959</v>
+      </c>
+      <c r="X39" t="n">
+        <v>942000</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>20526422.39999959</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB39" t="n">
         <v>10</v>
       </c>
-      <c r="H2" t="n">
-        <v>300</v>
-      </c>
-      <c r="I2" t="n">
-        <v>200</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="AC39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>801190</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1823040</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>14421352</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>716500</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>17852082</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>2674340.399999589</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1269</v>
+      </c>
+      <c r="C40" t="n">
+        <v>82</v>
+      </c>
+      <c r="D40" t="n">
+        <v>303</v>
+      </c>
+      <c r="E40" t="n">
+        <v>360</v>
+      </c>
+      <c r="F40" t="n">
+        <v>524</v>
+      </c>
+      <c r="G40" t="n">
+        <v>73</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>13</v>
+      </c>
+      <c r="J40" t="n">
+        <v>59</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>85</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>19</v>
+      </c>
+      <c r="O40" t="n">
+        <v>58</v>
+      </c>
+      <c r="P40" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>486</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>15</v>
+      </c>
+      <c r="T40" t="n">
+        <v>55</v>
+      </c>
+      <c r="U40" t="n">
+        <v>416</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2318400</v>
+      </c>
+      <c r="W40" t="n">
+        <v>17738505.59999982</v>
+      </c>
+      <c r="X40" t="n">
+        <v>972000</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>21028905.59999982</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>852410</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1854720</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>14782088</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>739000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>18318218</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>2710687.599999815</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1276</v>
+      </c>
+      <c r="C41" t="n">
+        <v>80</v>
+      </c>
+      <c r="D41" t="n">
+        <v>309</v>
+      </c>
+      <c r="E41" t="n">
+        <v>372</v>
+      </c>
+      <c r="F41" t="n">
+        <v>515</v>
+      </c>
+      <c r="G41" t="n">
+        <v>95</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>23</v>
+      </c>
+      <c r="J41" t="n">
+        <v>66</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>104</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>20</v>
+      </c>
+      <c r="O41" t="n">
+        <v>76</v>
+      </c>
+      <c r="P41" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>494</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>21</v>
+      </c>
+      <c r="T41" t="n">
+        <v>53</v>
+      </c>
+      <c r="U41" t="n">
+        <v>418</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2494800</v>
+      </c>
+      <c r="W41" t="n">
+        <v>18725279.99999997</v>
+      </c>
+      <c r="X41" t="n">
+        <v>988000</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>22208079.99999997</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>872235</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1995840</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>15604400</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>751000</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>19313475</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>2894604.99999997</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1310</v>
+      </c>
+      <c r="C42" t="n">
+        <v>83</v>
+      </c>
+      <c r="D42" t="n">
+        <v>321</v>
+      </c>
+      <c r="E42" t="n">
+        <v>371</v>
+      </c>
+      <c r="F42" t="n">
+        <v>535</v>
+      </c>
+      <c r="G42" t="n">
+        <v>69</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>13</v>
+      </c>
+      <c r="J42" t="n">
+        <v>51</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5</v>
+      </c>
+      <c r="L42" t="n">
+        <v>98</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>13</v>
+      </c>
+      <c r="O42" t="n">
+        <v>76</v>
+      </c>
+      <c r="P42" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>550</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>18</v>
+      </c>
+      <c r="T42" t="n">
+        <v>73</v>
+      </c>
+      <c r="U42" t="n">
+        <v>458</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2581200</v>
+      </c>
+      <c r="W42" t="n">
+        <v>20910182.4000001</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>24591382.4000001</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>892775</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>2064960</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>17425152</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>835000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>21307887</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>3283495.400000095</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1388</v>
+      </c>
+      <c r="C43" t="n">
+        <v>73</v>
+      </c>
+      <c r="D43" t="n">
+        <v>321</v>
+      </c>
+      <c r="E43" t="n">
+        <v>397</v>
+      </c>
+      <c r="F43" t="n">
+        <v>597</v>
+      </c>
+      <c r="G43" t="n">
+        <v>92</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>19</v>
+      </c>
+      <c r="J43" t="n">
+        <v>71</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>72</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>20</v>
+      </c>
+      <c r="O43" t="n">
+        <v>49</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>585</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>15</v>
+      </c>
+      <c r="T43" t="n">
+        <v>74</v>
+      </c>
+      <c r="U43" t="n">
+        <v>495</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2696400</v>
+      </c>
+      <c r="W43" t="n">
+        <v>20026915.19999969</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>23893315.19999969</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>906425</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>2157120</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>16689096</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>887500</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>20730141</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>3163174.19999969</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1474</v>
+      </c>
+      <c r="C44" t="n">
+        <v>82</v>
+      </c>
+      <c r="D44" t="n">
+        <v>317</v>
+      </c>
+      <c r="E44" t="n">
+        <v>408</v>
+      </c>
+      <c r="F44" t="n">
+        <v>667</v>
+      </c>
+      <c r="G44" t="n">
+        <v>79</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>16</v>
+      </c>
+      <c r="J44" t="n">
+        <v>59</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4</v>
+      </c>
+      <c r="L44" t="n">
+        <v>94</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>24</v>
+      </c>
+      <c r="O44" t="n">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>612</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>13</v>
+      </c>
+      <c r="T44" t="n">
+        <v>60</v>
+      </c>
+      <c r="U44" t="n">
+        <v>538</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2826000</v>
+      </c>
+      <c r="W44" t="n">
+        <v>22420435.19999987</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1224000</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>26470435.19999987</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>935935</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>2260800</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>18683696</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>928000</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>22898431</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>3572004.199999869</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C45" t="n">
+        <v>102</v>
+      </c>
+      <c r="D45" t="n">
+        <v>304</v>
+      </c>
+      <c r="E45" t="n">
+        <v>417</v>
+      </c>
+      <c r="F45" t="n">
+        <v>629</v>
+      </c>
+      <c r="G45" t="n">
+        <v>73</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>11</v>
+      </c>
+      <c r="J45" t="n">
+        <v>61</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>80</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>16</v>
+      </c>
+      <c r="O45" t="n">
+        <v>58</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>613</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>17</v>
+      </c>
+      <c r="T45" t="n">
+        <v>47</v>
+      </c>
+      <c r="U45" t="n">
+        <v>548</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2757600</v>
+      </c>
+      <c r="W45" t="n">
+        <v>21939120.00000072</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1226000</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>25922720.00000072</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>931125</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>2206080</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>18282600</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>929500</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>22439305</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>3483415.000000715</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1590</v>
+      </c>
+      <c r="C46" t="n">
+        <v>94</v>
+      </c>
+      <c r="D46" t="n">
+        <v>358</v>
+      </c>
+      <c r="E46" t="n">
+        <v>387</v>
+      </c>
+      <c r="F46" t="n">
+        <v>751</v>
+      </c>
+      <c r="G46" t="n">
+        <v>78</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9</v>
+      </c>
+      <c r="J46" t="n">
+        <v>58</v>
+      </c>
+      <c r="K46" t="n">
+        <v>9</v>
+      </c>
+      <c r="L46" t="n">
+        <v>65</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>13</v>
+      </c>
+      <c r="O46" t="n">
+        <v>41</v>
+      </c>
+      <c r="P46" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>706</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>21</v>
+      </c>
+      <c r="T46" t="n">
+        <v>59</v>
+      </c>
+      <c r="U46" t="n">
+        <v>625</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3056400</v>
+      </c>
+      <c r="W46" t="n">
+        <v>24102806.39999866</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1412000</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>28571206.39999866</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>970060</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>2445120</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>20085672</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1069000</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>24659852</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>3911354.399998665</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1613</v>
+      </c>
+      <c r="C47" t="n">
+        <v>92</v>
+      </c>
+      <c r="D47" t="n">
+        <v>312</v>
+      </c>
+      <c r="E47" t="n">
+        <v>452</v>
+      </c>
+      <c r="F47" t="n">
+        <v>757</v>
+      </c>
+      <c r="G47" t="n">
+        <v>84</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>15</v>
+      </c>
+      <c r="J47" t="n">
+        <v>63</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4</v>
+      </c>
+      <c r="L47" t="n">
+        <v>77</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>13</v>
+      </c>
+      <c r="O47" t="n">
+        <v>57</v>
+      </c>
+      <c r="P47" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>687</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>15</v>
+      </c>
+      <c r="T47" t="n">
+        <v>57</v>
+      </c>
+      <c r="U47" t="n">
+        <v>615</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3052800</v>
+      </c>
+      <c r="W47" t="n">
+        <v>24600979.19999939</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1374000</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>29027779.19999939</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1009775</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>2442240</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>20500816</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1040500</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>25083331</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>3944448.199999392</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1629</v>
+      </c>
+      <c r="C48" t="n">
+        <v>99</v>
+      </c>
+      <c r="D48" t="n">
+        <v>347</v>
+      </c>
+      <c r="E48" t="n">
+        <v>428</v>
+      </c>
+      <c r="F48" t="n">
+        <v>755</v>
+      </c>
+      <c r="G48" t="n">
+        <v>84</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>17</v>
+      </c>
+      <c r="J48" t="n">
+        <v>63</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4</v>
+      </c>
+      <c r="L48" t="n">
+        <v>80</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>16</v>
+      </c>
+      <c r="O48" t="n">
+        <v>55</v>
+      </c>
+      <c r="P48" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>715</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>23</v>
+      </c>
+      <c r="T48" t="n">
+        <v>60</v>
+      </c>
+      <c r="U48" t="n">
+        <v>629</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3164400</v>
+      </c>
+      <c r="W48" t="n">
+        <v>25022851.20000064</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>29617251.20000064</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1015495</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>2531520</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>20852376</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1082500</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>25571891</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>4045360.200000644</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1703</v>
+      </c>
+      <c r="C49" t="n">
+        <v>97</v>
+      </c>
+      <c r="D49" t="n">
+        <v>327</v>
+      </c>
+      <c r="E49" t="n">
+        <v>466</v>
+      </c>
+      <c r="F49" t="n">
+        <v>813</v>
+      </c>
+      <c r="G49" t="n">
+        <v>82</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>19</v>
+      </c>
+      <c r="J49" t="n">
+        <v>59</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>105</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="n">
+        <v>15</v>
+      </c>
+      <c r="O49" t="n">
+        <v>77</v>
+      </c>
+      <c r="P49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>736</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>15</v>
+      </c>
+      <c r="T49" t="n">
+        <v>74</v>
+      </c>
+      <c r="U49" t="n">
+        <v>644</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3322800</v>
+      </c>
+      <c r="W49" t="n">
+        <v>26877897.60000002</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1472000</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>31672697.60000002</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1030705</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>2658240</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>22398248</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1114000</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>27291193</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>4381504.600000024</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C50" t="n">
+        <v>91</v>
+      </c>
+      <c r="D50" t="n">
+        <v>362</v>
+      </c>
+      <c r="E50" t="n">
+        <v>456</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1017</v>
+      </c>
+      <c r="G50" t="n">
+        <v>62</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>47</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3</v>
+      </c>
+      <c r="L50" t="n">
+        <v>83</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>16</v>
+      </c>
+      <c r="O50" t="n">
+        <v>57</v>
+      </c>
+      <c r="P50" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>818</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>14</v>
+      </c>
+      <c r="T50" t="n">
+        <v>59</v>
+      </c>
+      <c r="U50" t="n">
+        <v>744</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3466800</v>
+      </c>
+      <c r="W50" t="n">
+        <v>28654684.79999983</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1636000</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>33757484.79999983</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1078285</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>2773440</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>23878904</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1237000</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>29057629</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>4699855.799999833</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="K2" t="n">
+      <c r="B51" t="n">
+        <v>2055</v>
+      </c>
+      <c r="C51" t="n">
+        <v>90</v>
+      </c>
+      <c r="D51" t="n">
+        <v>357</v>
+      </c>
+      <c r="E51" t="n">
+        <v>470</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1138</v>
+      </c>
+      <c r="G51" t="n">
+        <v>80</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>11</v>
+      </c>
+      <c r="J51" t="n">
+        <v>68</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>65</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>16</v>
+      </c>
+      <c r="O51" t="n">
+        <v>43</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>833</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>13</v>
+      </c>
+      <c r="T51" t="n">
+        <v>44</v>
+      </c>
+      <c r="U51" t="n">
+        <v>775</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3520800</v>
+      </c>
+      <c r="W51" t="n">
+        <v>28002163.20000017</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1666000</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>33188963.20000017</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA51" t="n">
         <v>10</v>
       </c>
-      <c r="L2" t="n">
-        <v>500</v>
-      </c>
-      <c r="M2" t="n">
-        <v>250</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="AB51" t="n">
         <v>10</v>
       </c>
-      <c r="O2" t="n">
+      <c r="AC51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1094275</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>2816640</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>23335136</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1259500</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>28595551</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>4593412.200000167</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2095</v>
+      </c>
+      <c r="C52" t="n">
+        <v>97</v>
+      </c>
+      <c r="D52" t="n">
+        <v>365</v>
+      </c>
+      <c r="E52" t="n">
+        <v>465</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1168</v>
+      </c>
+      <c r="G52" t="n">
+        <v>75</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>15</v>
+      </c>
+      <c r="J52" t="n">
+        <v>57</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L52" t="n">
+        <v>87</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>10</v>
+      </c>
+      <c r="O52" t="n">
+        <v>63</v>
+      </c>
+      <c r="P52" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>831</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>16</v>
+      </c>
+      <c r="T52" t="n">
+        <v>53</v>
+      </c>
+      <c r="U52" t="n">
+        <v>761</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3574800</v>
+      </c>
+      <c r="W52" t="n">
+        <v>27953683.20000041</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1662000</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>33190483.20000041</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1117220</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>2859840</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>23294736</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1256500</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>28618296</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>4572187.200000405</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2144</v>
+      </c>
+      <c r="C53" t="n">
+        <v>95</v>
+      </c>
+      <c r="D53" t="n">
+        <v>346</v>
+      </c>
+      <c r="E53" t="n">
+        <v>495</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1208</v>
+      </c>
+      <c r="G53" t="n">
+        <v>78</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>56</v>
+      </c>
+      <c r="K53" t="n">
+        <v>8</v>
+      </c>
+      <c r="L53" t="n">
+        <v>82</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="n">
+        <v>18</v>
+      </c>
+      <c r="O53" t="n">
+        <v>51</v>
+      </c>
+      <c r="P53" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>860</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>10</v>
+      </c>
+      <c r="T53" t="n">
+        <v>55</v>
+      </c>
+      <c r="U53" t="n">
+        <v>794</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3672000</v>
+      </c>
+      <c r="W53" t="n">
+        <v>29336140.79999995</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>34728140.79999995</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1132820</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>2937600</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>24446784</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>29907204</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>4820936.799999952</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2198</v>
+      </c>
+      <c r="C54" t="n">
+        <v>89</v>
+      </c>
+      <c r="D54" t="n">
+        <v>392</v>
+      </c>
+      <c r="E54" t="n">
+        <v>465</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1252</v>
+      </c>
+      <c r="G54" t="n">
+        <v>60</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>14</v>
+      </c>
+      <c r="J54" t="n">
+        <v>45</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>62</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="n">
+        <v>13</v>
+      </c>
+      <c r="O54" t="n">
+        <v>41</v>
+      </c>
+      <c r="P54" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>849</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>12</v>
+      </c>
+      <c r="T54" t="n">
+        <v>46</v>
+      </c>
+      <c r="U54" t="n">
+        <v>791</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3495600</v>
+      </c>
+      <c r="W54" t="n">
+        <v>29423337.60000062</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1698000</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>34616937.60000062</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1157910</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>2796480</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>24519448</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1283500</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>29847338</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>4769599.60000062</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2301</v>
+      </c>
+      <c r="C55" t="n">
+        <v>87</v>
+      </c>
+      <c r="D55" t="n">
+        <v>376</v>
+      </c>
+      <c r="E55" t="n">
+        <v>492</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1346</v>
+      </c>
+      <c r="G55" t="n">
+        <v>68</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>16</v>
+      </c>
+      <c r="J55" t="n">
+        <v>47</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>56</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8</v>
+      </c>
+      <c r="O55" t="n">
+        <v>42</v>
+      </c>
+      <c r="P55" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>917</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>12</v>
+      </c>
+      <c r="T55" t="n">
+        <v>44</v>
+      </c>
+      <c r="U55" t="n">
+        <v>861</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3747600</v>
+      </c>
+      <c r="W55" t="n">
+        <v>30056092.80000043</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1834000</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>35637692.80000043</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE55" t="n">
         <v>40</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AF55" t="n">
+        <v>1205100</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>2998080</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>25046744</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1385500</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>30725424</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>4912268.800000429</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2416</v>
+      </c>
+      <c r="C56" t="n">
+        <v>91</v>
+      </c>
+      <c r="D56" t="n">
+        <v>377</v>
+      </c>
+      <c r="E56" t="n">
+        <v>496</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1452</v>
+      </c>
+      <c r="G56" t="n">
+        <v>70</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>16</v>
+      </c>
+      <c r="J56" t="n">
+        <v>51</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3</v>
+      </c>
+      <c r="L56" t="n">
+        <v>74</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>4</v>
+      </c>
+      <c r="O56" t="n">
+        <v>64</v>
+      </c>
+      <c r="P56" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>969</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>15</v>
+      </c>
+      <c r="T56" t="n">
+        <v>58</v>
+      </c>
+      <c r="U56" t="n">
+        <v>895</v>
+      </c>
+      <c r="V56" t="n">
+        <v>4006800</v>
+      </c>
+      <c r="W56" t="n">
+        <v>32912572.80000138</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1938000</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>38857372.80000138</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1251640</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>3205440</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>27427144</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1463500</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>33437724</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>5419648.800001383</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2369</v>
+      </c>
+      <c r="C57" t="n">
+        <v>91</v>
+      </c>
+      <c r="D57" t="n">
+        <v>393</v>
+      </c>
+      <c r="E57" t="n">
+        <v>490</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1395</v>
+      </c>
+      <c r="G57" t="n">
+        <v>69</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14</v>
+      </c>
+      <c r="J57" t="n">
         <v>50</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="K57" t="n">
+        <v>4</v>
+      </c>
+      <c r="L57" t="n">
+        <v>87</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>16</v>
+      </c>
+      <c r="O57" t="n">
+        <v>59</v>
+      </c>
+      <c r="P57" t="n">
         <v>10</v>
       </c>
-      <c r="R2" t="n">
+      <c r="Q57" t="n">
+        <v>983</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>13</v>
+      </c>
+      <c r="T57" t="n">
+        <v>69</v>
+      </c>
+      <c r="U57" t="n">
+        <v>899</v>
+      </c>
+      <c r="V57" t="n">
+        <v>4100400</v>
+      </c>
+      <c r="W57" t="n">
+        <v>33350361.59999895</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1966000</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>39416761.59999895</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1250210</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>3280320</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>27791968</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1484500</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>33896998</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>5519763.599998951</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2584</v>
+      </c>
+      <c r="C58" t="n">
+        <v>121</v>
+      </c>
+      <c r="D58" t="n">
+        <v>397</v>
+      </c>
+      <c r="E58" t="n">
+        <v>466</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G58" t="n">
+        <v>81</v>
+      </c>
+      <c r="H58" t="n">
         <v>4</v>
       </c>
-      <c r="S2" t="n">
+      <c r="I58" t="n">
+        <v>19</v>
+      </c>
+      <c r="J58" t="n">
+        <v>55</v>
+      </c>
+      <c r="K58" t="n">
         <v>3</v>
       </c>
-      <c r="T2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>20</v>
-      </c>
-      <c r="W2" t="n">
-        <v>20</v>
-      </c>
-      <c r="X2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="L58" t="n">
+        <v>103</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="n">
+        <v>18</v>
+      </c>
+      <c r="O58" t="n">
+        <v>74</v>
+      </c>
+      <c r="P58" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1186</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>11</v>
+      </c>
+      <c r="T58" t="n">
+        <v>55</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1117</v>
+      </c>
+      <c r="V58" t="n">
+        <v>4932000</v>
+      </c>
+      <c r="W58" t="n">
+        <v>40610409.60000062</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2372000</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>47914409.60000062</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1401075</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>3945600</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>33842008</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1789000</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>41067683</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>6846726.60000062</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2599</v>
+      </c>
+      <c r="C59" t="n">
+        <v>96</v>
+      </c>
+      <c r="D59" t="n">
+        <v>393</v>
+      </c>
+      <c r="E59" t="n">
+        <v>505</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1605</v>
+      </c>
+      <c r="G59" t="n">
+        <v>79</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>17</v>
+      </c>
+      <c r="J59" t="n">
+        <v>56</v>
+      </c>
+      <c r="K59" t="n">
         <v>5</v>
       </c>
-      <c r="AA2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="L59" t="n">
+        <v>86</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>9</v>
+      </c>
+      <c r="O59" t="n">
+        <v>67</v>
+      </c>
+      <c r="P59" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1241</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>15</v>
+      </c>
+      <c r="T59" t="n">
+        <v>70</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1156</v>
+      </c>
+      <c r="V59" t="n">
+        <v>5061600</v>
+      </c>
+      <c r="W59" t="n">
+        <v>42406569.6000011</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2482000</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>49950169.6000011</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1430780</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>4049280</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>35338808</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1871500</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>42780368</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>7169801.600001097</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2638</v>
+      </c>
+      <c r="C60" t="n">
+        <v>100</v>
+      </c>
+      <c r="D60" t="n">
+        <v>393</v>
+      </c>
+      <c r="E60" t="n">
+        <v>511</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1634</v>
+      </c>
+      <c r="G60" t="n">
+        <v>116</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>85</v>
+      </c>
+      <c r="K60" t="n">
+        <v>6</v>
+      </c>
+      <c r="L60" t="n">
+        <v>91</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>16</v>
+      </c>
+      <c r="O60" t="n">
+        <v>57</v>
+      </c>
+      <c r="P60" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1271</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>18</v>
+      </c>
+      <c r="T60" t="n">
+        <v>83</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1170</v>
+      </c>
+      <c r="V60" t="n">
+        <v>5320800</v>
+      </c>
+      <c r="W60" t="n">
+        <v>43207545.60000026</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2542000</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>51070345.60000026</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1444040</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>4256640</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>36006288</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1916500</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>43713468</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>7356877.600000262</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="AC2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>200</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>20000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>7500</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>30000</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>12500</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="B61" t="n">
+        <v>2749</v>
+      </c>
+      <c r="C61" t="n">
+        <v>90</v>
+      </c>
+      <c r="D61" t="n">
+        <v>403</v>
+      </c>
+      <c r="E61" t="n">
+        <v>520</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1736</v>
+      </c>
+      <c r="G61" t="n">
+        <v>100</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>22</v>
+      </c>
+      <c r="J61" t="n">
+        <v>74</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2</v>
+      </c>
+      <c r="L61" t="n">
+        <v>94</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>16</v>
+      </c>
+      <c r="O61" t="n">
+        <v>69</v>
+      </c>
+      <c r="P61" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1291</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>16</v>
+      </c>
+      <c r="T61" t="n">
+        <v>68</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1205</v>
+      </c>
+      <c r="V61" t="n">
+        <v>5346000</v>
+      </c>
+      <c r="W61" t="n">
+        <v>43677839.9999994</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2582000</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>51605839.9999994</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC61" t="n">
         <v>10</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1469910</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>4276800</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>36398200</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1946500</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>44181410</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>7424429.999999404</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -835,365 +835,365 @@
         <v>285</v>
       </c>
       <c r="M3" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N3" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="O3" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P3" t="n">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q3" t="n">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="R3" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="S3" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="T3" t="n">
         <v>491</v>
       </c>
       <c r="U3" t="n">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="V3" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="W3" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="X3" t="n">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="Y3" t="n">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="Z3" t="n">
-        <v>678</v>
+        <v>706</v>
       </c>
       <c r="AA3" t="n">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="AB3" t="n">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="AC3" t="n">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="AD3" t="n">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="AE3" t="n">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="AF3" t="n">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="AG3" t="n">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="AH3" t="n">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="AI3" t="n">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1060</v>
+        <v>1109</v>
       </c>
       <c r="AK3" t="n">
-        <v>1197</v>
+        <v>1248</v>
       </c>
       <c r="AL3" t="n">
-        <v>1236</v>
+        <v>1269</v>
       </c>
       <c r="AM3" t="n">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="AN3" t="n">
-        <v>1399</v>
+        <v>1380</v>
       </c>
       <c r="AO3" t="n">
-        <v>1412</v>
+        <v>1386</v>
       </c>
       <c r="AP3" t="n">
-        <v>1439</v>
+        <v>1488</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1456</v>
+        <v>1488</v>
       </c>
       <c r="AR3" t="n">
         <v>1515</v>
       </c>
       <c r="AS3" t="n">
-        <v>1554</v>
+        <v>1581</v>
       </c>
       <c r="AT3" t="n">
-        <v>1620</v>
+        <v>1683</v>
       </c>
       <c r="AU3" t="n">
-        <v>1697</v>
+        <v>1725</v>
       </c>
       <c r="AV3" t="n">
-        <v>1818</v>
+        <v>1891</v>
       </c>
       <c r="AW3" t="n">
-        <v>1991</v>
+        <v>2075</v>
       </c>
       <c r="AX3" t="n">
-        <v>2069</v>
+        <v>2145</v>
       </c>
       <c r="AY3" t="n">
-        <v>2223</v>
+        <v>2249</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2358</v>
+        <v>2331</v>
       </c>
       <c r="BA3" t="n">
-        <v>2351</v>
+        <v>2322</v>
       </c>
       <c r="BB3" t="n">
-        <v>2378</v>
+        <v>2454</v>
       </c>
       <c r="BC3" t="n">
-        <v>2372</v>
+        <v>2397</v>
       </c>
       <c r="BD3" t="n">
-        <v>2418</v>
+        <v>2436</v>
       </c>
       <c r="BE3" t="n">
-        <v>2517</v>
+        <v>2533</v>
       </c>
       <c r="BF3" t="n">
-        <v>2613</v>
+        <v>2679</v>
       </c>
       <c r="BG3" t="n">
-        <v>2704</v>
+        <v>2762</v>
       </c>
       <c r="BH3" t="n">
-        <v>2889</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
         <v>11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14</v>
       </c>
       <c r="F4" t="n">
         <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
         <v>20</v>
       </c>
-      <c r="J4" t="n">
-        <v>22</v>
-      </c>
       <c r="K4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L4" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P4" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>27</v>
+      </c>
+      <c r="R4" t="n">
+        <v>42</v>
+      </c>
+      <c r="S4" t="n">
+        <v>39</v>
+      </c>
+      <c r="T4" t="n">
+        <v>55</v>
+      </c>
+      <c r="U4" t="n">
+        <v>38</v>
+      </c>
+      <c r="V4" t="n">
+        <v>35</v>
+      </c>
+      <c r="W4" t="n">
         <v>41</v>
       </c>
-      <c r="Q4" t="n">
-        <v>34</v>
-      </c>
-      <c r="R4" t="n">
-        <v>41</v>
-      </c>
-      <c r="S4" t="n">
-        <v>38</v>
-      </c>
-      <c r="T4" t="n">
-        <v>38</v>
-      </c>
-      <c r="U4" t="n">
-        <v>40</v>
-      </c>
-      <c r="V4" t="n">
-        <v>43</v>
-      </c>
-      <c r="W4" t="n">
-        <v>49</v>
-      </c>
       <c r="X4" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Y4" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="Z4" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="AA4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="AB4" t="n">
         <v>54</v>
       </c>
       <c r="AC4" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AD4" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AE4" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AF4" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="AG4" t="n">
         <v>48</v>
       </c>
       <c r="AH4" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AI4" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="AJ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>62</v>
+      </c>
+      <c r="AM4" t="n">
         <v>68</v>
       </c>
-      <c r="AK4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>61</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>58</v>
-      </c>
       <c r="AN4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO4" t="n">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="AP4" t="n">
+        <v>72</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>86</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>99</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>92</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>92</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>99</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>73</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>97</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>93</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>86</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>63</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>91</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>92</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>78</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>79</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>85</v>
-      </c>
       <c r="BA4" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="BB4" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="BC4" t="n">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="BD4" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="BE4" t="n">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="BF4" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="BG4" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="BH4" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E5" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" t="n">
         <v>59</v>
       </c>
       <c r="G5" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I5" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J5" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="K5" t="n">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="L5" t="n">
         <v>111</v>
@@ -1202,153 +1202,153 @@
         <v>136</v>
       </c>
       <c r="N5" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O5" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P5" t="n">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="Q5" t="n">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="R5" t="n">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="S5" t="n">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="T5" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="U5" t="n">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="V5" t="n">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="W5" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="X5" t="n">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="Y5" t="n">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="Z5" t="n">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="AA5" t="n">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="AB5" t="n">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AC5" t="n">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AD5" t="n">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="AE5" t="n">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="AF5" t="n">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="AG5" t="n">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="AH5" t="n">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="AI5" t="n">
         <v>291</v>
       </c>
       <c r="AJ5" t="n">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AK5" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AL5" t="n">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="AM5" t="n">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="AN5" t="n">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="AO5" t="n">
+        <v>285</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>332</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>315</v>
       </c>
-      <c r="AP5" t="n">
-        <v>315</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>299</v>
-      </c>
       <c r="AR5" t="n">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AS5" t="n">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="AT5" t="n">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="AU5" t="n">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="AV5" t="n">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="AW5" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AX5" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AY5" t="n">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="AZ5" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="BA5" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="BB5" t="n">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="BC5" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="BD5" t="n">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="BE5" t="n">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="BF5" t="n">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="BG5" t="n">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="BH5" t="n">
-        <v>409</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B6" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C6" t="n">
         <v>57</v>
@@ -1357,172 +1357,172 @@
         <v>65</v>
       </c>
       <c r="E6" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
         <v>85</v>
       </c>
       <c r="G6" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J6" t="n">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K6" t="n">
+        <v>119</v>
+      </c>
+      <c r="L6" t="n">
         <v>141</v>
       </c>
-      <c r="L6" t="n">
-        <v>152</v>
-      </c>
       <c r="M6" t="n">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N6" t="n">
         <v>179</v>
       </c>
       <c r="O6" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P6" t="n">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="Q6" t="n">
+        <v>181</v>
+      </c>
+      <c r="R6" t="n">
+        <v>182</v>
+      </c>
+      <c r="S6" t="n">
+        <v>211</v>
+      </c>
+      <c r="T6" t="n">
         <v>191</v>
       </c>
-      <c r="R6" t="n">
-        <v>198</v>
-      </c>
-      <c r="S6" t="n">
-        <v>201</v>
-      </c>
-      <c r="T6" t="n">
-        <v>218</v>
-      </c>
       <c r="U6" t="n">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="V6" t="n">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="W6" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X6" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y6" t="n">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="Z6" t="n">
-        <v>285</v>
+        <v>221</v>
       </c>
       <c r="AA6" t="n">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="AB6" t="n">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AC6" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AD6" t="n">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="AE6" t="n">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="AF6" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AG6" t="n">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="AH6" t="n">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="AI6" t="n">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="AJ6" t="n">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AK6" t="n">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="AL6" t="n">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="AM6" t="n">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="AN6" t="n">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="AO6" t="n">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AP6" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AQ6" t="n">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AR6" t="n">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="AS6" t="n">
-        <v>448</v>
+        <v>388</v>
       </c>
       <c r="AT6" t="n">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="AU6" t="n">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AV6" t="n">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="AW6" t="n">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AX6" t="n">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="AY6" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AZ6" t="n">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="BA6" t="n">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="BB6" t="n">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="BC6" t="n">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="BD6" t="n">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="BE6" t="n">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="BF6" t="n">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="BG6" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="BH6" t="n">
-        <v>503</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7">
@@ -1563,330 +1563,330 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N7" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O7" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q7" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="R7" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S7" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T7" t="n">
         <v>78</v>
       </c>
       <c r="U7" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="V7" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="W7" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X7" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y7" t="n">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="Z7" t="n">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="AA7" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB7" t="n">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="AC7" t="n">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="AD7" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AE7" t="n">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="AF7" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AG7" t="n">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="AH7" t="n">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="AI7" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AJ7" t="n">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="AK7" t="n">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="AL7" t="n">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="AM7" t="n">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AN7" t="n">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="AO7" t="n">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="AP7" t="n">
-        <v>648</v>
+        <v>697</v>
       </c>
       <c r="AQ7" t="n">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="AR7" t="n">
         <v>692</v>
       </c>
       <c r="AS7" t="n">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="AT7" t="n">
-        <v>764</v>
+        <v>827</v>
       </c>
       <c r="AU7" t="n">
-        <v>823</v>
+        <v>851</v>
       </c>
       <c r="AV7" t="n">
-        <v>928</v>
+        <v>1001</v>
       </c>
       <c r="AW7" t="n">
-        <v>1082</v>
+        <v>1166</v>
       </c>
       <c r="AX7" t="n">
-        <v>1152</v>
+        <v>1228</v>
       </c>
       <c r="AY7" t="n">
-        <v>1296</v>
+        <v>1322</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1422</v>
+        <v>1395</v>
       </c>
       <c r="BA7" t="n">
-        <v>1405</v>
+        <v>1376</v>
       </c>
       <c r="BB7" t="n">
-        <v>1423</v>
+        <v>1499</v>
       </c>
       <c r="BC7" t="n">
-        <v>1408</v>
+        <v>1433</v>
       </c>
       <c r="BD7" t="n">
-        <v>1444</v>
+        <v>1462</v>
       </c>
       <c r="BE7" t="n">
-        <v>1533</v>
+        <v>1549</v>
       </c>
       <c r="BF7" t="n">
-        <v>1619</v>
+        <v>1685</v>
       </c>
       <c r="BG7" t="n">
-        <v>1700</v>
+        <v>1758</v>
       </c>
       <c r="BH7" t="n">
-        <v>1876</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
+        <v>23</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16</v>
+      </c>
+      <c r="H8" t="n">
         <v>24</v>
       </c>
-      <c r="G8" t="n">
-        <v>18</v>
-      </c>
-      <c r="H8" t="n">
-        <v>27</v>
-      </c>
       <c r="I8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M8" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N8" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O8" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P8" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Q8" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="R8" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S8" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="T8" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="U8" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="V8" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="W8" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="X8" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Y8" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="AA8" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AB8" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="AC8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>66</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>66</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>73</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>76</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>105</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>87</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>65</v>
       </c>
-      <c r="AD8" t="n">
-        <v>54</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>71</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AK8" t="n">
+        <v>79</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>79</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>94</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>76</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>73</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>73</v>
+      </c>
+      <c r="AR8" t="n">
         <v>78</v>
       </c>
-      <c r="AH8" t="n">
-        <v>72</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>64</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>91</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>66</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>73</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>76</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>71</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>87</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>89</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>88</v>
-      </c>
       <c r="AS8" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="AT8" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AU8" t="n">
         <v>95</v>
       </c>
       <c r="AV8" t="n">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="AW8" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="AX8" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AY8" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="AZ8" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="BA8" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="BB8" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="BC8" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="BD8" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="BE8" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BF8" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="BG8" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BH8" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1939,13 +1939,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
@@ -1957,13 +1957,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
         <v>1</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1981,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ9" t="n">
         <v>1</v>
@@ -2002,73 +2002,73 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA9" t="n">
         <v>3</v>
       </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>2</v>
-      </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9" t="n">
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG9" t="n">
         <v>1</v>
       </c>
       <c r="BH9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2079,94 +2079,94 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7</v>
+      </c>
+      <c r="L10" t="n">
         <v>9</v>
       </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
+        <v>7</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>13</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>10</v>
+      </c>
+      <c r="R10" t="n">
+        <v>15</v>
+      </c>
+      <c r="S10" t="n">
+        <v>19</v>
+      </c>
+      <c r="T10" t="n">
         <v>6</v>
       </c>
-      <c r="K10" t="n">
+      <c r="U10" t="n">
+        <v>11</v>
+      </c>
+      <c r="V10" t="n">
         <v>6</v>
       </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="W10" t="n">
         <v>5</v>
       </c>
-      <c r="N10" t="n">
-        <v>6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>7</v>
-      </c>
-      <c r="P10" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>7</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="X10" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
         <v>11</v>
       </c>
-      <c r="S10" t="n">
-        <v>9</v>
-      </c>
-      <c r="T10" t="n">
-        <v>16</v>
-      </c>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
-      <c r="V10" t="n">
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE10" t="n">
         <v>14</v>
       </c>
-      <c r="W10" t="n">
-        <v>13</v>
-      </c>
-      <c r="X10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
         <v>17</v>
@@ -2175,147 +2175,147 @@
         <v>20</v>
       </c>
       <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BE10" t="n">
         <v>11</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="BF10" t="n">
+        <v>18</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH10" t="n">
         <v>19</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>11</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>21</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>19</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>14</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J11" t="n">
         <v>24</v>
       </c>
       <c r="K11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L11" t="n">
         <v>27</v>
       </c>
       <c r="M11" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
+        <v>40</v>
+      </c>
+      <c r="O11" t="n">
+        <v>32</v>
+      </c>
+      <c r="P11" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>30</v>
+      </c>
+      <c r="R11" t="n">
         <v>35</v>
       </c>
-      <c r="O11" t="n">
-        <v>30</v>
-      </c>
-      <c r="P11" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>40</v>
-      </c>
-      <c r="R11" t="n">
-        <v>37</v>
-      </c>
       <c r="S11" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="T11" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U11" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V11" t="n">
         <v>45</v>
@@ -2324,115 +2324,115 @@
         <v>43</v>
       </c>
       <c r="X11" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="Y11" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Z11" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AA11" t="n">
         <v>50</v>
       </c>
       <c r="AB11" t="n">
+        <v>54</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>53</v>
+      </c>
+      <c r="AE11" t="n">
         <v>48</v>
       </c>
-      <c r="AC11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AF11" t="n">
+        <v>54</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>54</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>77</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>62</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>47</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>61</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>77</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>57</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>56</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>56</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>61</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>59</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>52</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>72</v>
+      </c>
+      <c r="AV11" t="n">
         <v>42</v>
       </c>
-      <c r="AE11" t="n">
-        <v>39</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>57</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>59</v>
-      </c>
-      <c r="AH11" t="n">
+      <c r="AW11" t="n">
+        <v>61</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>79</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>63</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>62</v>
+      </c>
+      <c r="BB11" t="n">
         <v>52</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>49</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>54</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>52</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>56</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>66</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>72</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>68</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>68</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>58</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>69</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>76</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>63</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>59</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>54</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>45</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>42</v>
       </c>
       <c r="BC11" t="n">
         <v>45</v>
       </c>
       <c r="BD11" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="BE11" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="BF11" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="BG11" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="BH11" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -2476,133 +2476,133 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD12" t="n">
         <v>3</v>
       </c>
-      <c r="Y12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1</v>
-      </c>
       <c r="AE12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>2</v>
       </c>
       <c r="AG12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ12" t="n">
         <v>4</v>
       </c>
       <c r="AK12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM12" t="n">
         <v>3</v>
       </c>
-      <c r="AL12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="n">
         <v>4</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AS12" t="n">
         <v>3</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AT12" t="n">
         <v>4</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AU12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW12" t="n">
         <v>4</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV12" t="n">
+      <c r="AX12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD12" t="n">
         <v>5</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>3</v>
       </c>
       <c r="BE12" t="n">
         <v>6</v>
@@ -2611,192 +2611,192 @@
         <v>4</v>
       </c>
       <c r="BG12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BH12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H13" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I13" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K13" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L13" t="n">
+        <v>40</v>
+      </c>
+      <c r="M13" t="n">
+        <v>55</v>
+      </c>
+      <c r="N13" t="n">
+        <v>40</v>
+      </c>
+      <c r="O13" t="n">
+        <v>28</v>
+      </c>
+      <c r="P13" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>43</v>
+      </c>
+      <c r="R13" t="n">
+        <v>39</v>
+      </c>
+      <c r="S13" t="n">
+        <v>51</v>
+      </c>
+      <c r="T13" t="n">
+        <v>40</v>
+      </c>
+      <c r="U13" t="n">
         <v>32</v>
       </c>
-      <c r="M13" t="n">
-        <v>44</v>
-      </c>
-      <c r="N13" t="n">
-        <v>36</v>
-      </c>
-      <c r="O13" t="n">
-        <v>40</v>
-      </c>
-      <c r="P13" t="n">
-        <v>49</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>35</v>
-      </c>
-      <c r="R13" t="n">
-        <v>46</v>
-      </c>
-      <c r="S13" t="n">
-        <v>41</v>
-      </c>
-      <c r="T13" t="n">
-        <v>43</v>
-      </c>
-      <c r="U13" t="n">
-        <v>49</v>
-      </c>
       <c r="V13" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W13" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="X13" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y13" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="Z13" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AA13" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AB13" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC13" t="n">
+        <v>71</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>79</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>71</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>83</v>
+      </c>
+      <c r="AH13" t="n">
         <v>68</v>
       </c>
-      <c r="AD13" t="n">
-        <v>62</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>73</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>77</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>59</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>69</v>
-      </c>
       <c r="AI13" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="AJ13" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AK13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL13" t="n">
         <v>86</v>
       </c>
       <c r="AM13" t="n">
+        <v>88</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>102</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>78</v>
+      </c>
+      <c r="AP13" t="n">
         <v>85</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
+        <v>82</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>88</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>84</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>91</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>87</v>
       </c>
-      <c r="AO13" t="n">
-        <v>91</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>87</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>84</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="BA13" t="n">
+        <v>85</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>76</v>
+      </c>
+      <c r="BC13" t="n">
         <v>83</v>
       </c>
-      <c r="AS13" t="n">
-        <v>91</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>73</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>76</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>99</v>
-      </c>
-      <c r="AW13" t="n">
+      <c r="BD13" t="n">
         <v>93</v>
       </c>
-      <c r="AX13" t="n">
-        <v>95</v>
-      </c>
-      <c r="AY13" t="n">
+      <c r="BE13" t="n">
+        <v>86</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>70</v>
+      </c>
+      <c r="BG13" t="n">
         <v>78</v>
       </c>
-      <c r="AZ13" t="n">
-        <v>64</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>55</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>73</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>71</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>78</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>75</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>94</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>99</v>
-      </c>
       <c r="BH13" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2831,19 +2831,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -2855,95 +2855,95 @@
         <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="n">
         <v>1</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
         <v>3</v>
       </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
@@ -2951,28 +2951,28 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" t="n">
         <v>0</v>
@@ -2986,178 +2986,178 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
       </c>
       <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
         <v>4</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
+        <v>11</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>6</v>
       </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
         <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q15" t="n">
         <v>8</v>
-      </c>
-      <c r="P15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>6</v>
       </c>
       <c r="R15" t="n">
         <v>6</v>
       </c>
       <c r="S15" t="n">
+        <v>9</v>
+      </c>
+      <c r="T15" t="n">
+        <v>11</v>
+      </c>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
         <v>7</v>
       </c>
-      <c r="T15" t="n">
-        <v>4</v>
-      </c>
-      <c r="U15" t="n">
-        <v>8</v>
-      </c>
-      <c r="V15" t="n">
-        <v>12</v>
-      </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Z15" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
         <v>10</v>
       </c>
       <c r="AB15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC15" t="n">
         <v>10</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>12</v>
       </c>
-      <c r="AD15" t="n">
-        <v>11</v>
-      </c>
       <c r="AE15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP15" t="n">
         <v>16</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AQ15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR15" t="n">
         <v>17</v>
       </c>
-      <c r="AG15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ15" t="n">
+      <c r="AS15" t="n">
         <v>20</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AT15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV15" t="n">
         <v>13</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>21</v>
       </c>
       <c r="AW15" t="n">
         <v>18</v>
       </c>
       <c r="AX15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>22</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF15" t="n">
         <v>12</v>
       </c>
-      <c r="AY15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>19</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>18</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>18</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>17</v>
-      </c>
       <c r="BG15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BH15" t="n">
         <v>17</v>
@@ -3165,184 +3165,184 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
         <v>12</v>
       </c>
-      <c r="C16" t="n">
-        <v>10</v>
-      </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
         <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L16" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M16" t="n">
         <v>36</v>
       </c>
       <c r="N16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O16" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P16" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q16" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="n">
+        <v>36</v>
+      </c>
+      <c r="T16" t="n">
+        <v>26</v>
+      </c>
+      <c r="U16" t="n">
+        <v>24</v>
+      </c>
+      <c r="V16" t="n">
+        <v>41</v>
+      </c>
+      <c r="W16" t="n">
+        <v>48</v>
+      </c>
+      <c r="X16" t="n">
         <v>33</v>
       </c>
-      <c r="S16" t="n">
-        <v>34</v>
-      </c>
-      <c r="T16" t="n">
-        <v>38</v>
-      </c>
-      <c r="U16" t="n">
-        <v>39</v>
-      </c>
-      <c r="V16" t="n">
-        <v>34</v>
-      </c>
-      <c r="W16" t="n">
-        <v>40</v>
-      </c>
-      <c r="X16" t="n">
-        <v>40</v>
-      </c>
       <c r="Y16" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z16" t="n">
         <v>33</v>
       </c>
-      <c r="Z16" t="n">
-        <v>57</v>
-      </c>
       <c r="AA16" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>54</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>64</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF16" t="n">
         <v>47</v>
       </c>
-      <c r="AC16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AG16" t="n">
+        <v>62</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>53</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK16" t="n">
         <v>52</v>
       </c>
-      <c r="AF16" t="n">
-        <v>49</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>37</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>49</v>
-      </c>
       <c r="AL16" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AM16" t="n">
+        <v>61</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>56</v>
+      </c>
+      <c r="AP16" t="n">
         <v>62</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>66</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>59</v>
       </c>
       <c r="AQ16" t="n">
         <v>53</v>
       </c>
       <c r="AR16" t="n">
+        <v>59</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AU16" t="n">
         <v>61</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AV16" t="n">
+        <v>57</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>64</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>64</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>54</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>58</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>57</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC16" t="n">
         <v>65</v>
       </c>
-      <c r="AT16" t="n">
-        <v>53</v>
-      </c>
-      <c r="AU16" t="n">
+      <c r="BD16" t="n">
+        <v>62</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>57</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>44</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BH16" t="n">
         <v>59</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>68</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>73</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>56</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>40</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>43</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>49</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>56</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>52</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>46</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>72</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>66</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -3383,73 +3383,73 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6</v>
+      </c>
+      <c r="W17" t="n">
         <v>3</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
+      <c r="X17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z17" t="n">
         <v>6</v>
       </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AA17" t="n">
         <v>3</v>
       </c>
-      <c r="AA17" t="n">
-        <v>4</v>
-      </c>
       <c r="AB17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
         <v>3</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
@@ -3458,70 +3458,70 @@
         <v>5</v>
       </c>
       <c r="AL17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>8</v>
       </c>
-      <c r="AN17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU17" t="n">
         <v>8</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>5</v>
       </c>
       <c r="AV17" t="n">
         <v>11</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AY17" t="n">
         <v>6</v>
       </c>
       <c r="AZ17" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BA17" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BB17" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BC17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD17" t="n">
         <v>9</v>
       </c>
-      <c r="BD17" t="n">
-        <v>6</v>
-      </c>
       <c r="BE17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF17" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BG17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BH17" t="n">
         <v>9</v>
@@ -3529,184 +3529,184 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E18" t="n">
+        <v>13</v>
+      </c>
+      <c r="F18" t="n">
         <v>23</v>
-      </c>
-      <c r="F18" t="n">
-        <v>16</v>
       </c>
       <c r="G18" t="n">
         <v>28</v>
       </c>
       <c r="H18" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I18" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J18" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M18" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N18" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="O18" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P18" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="Q18" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="R18" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="S18" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="T18" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U18" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V18" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="W18" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="X18" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Y18" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Z18" t="n">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="AA18" t="n">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="AB18" t="n">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="AC18" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AD18" t="n">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AE18" t="n">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AF18" t="n">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="AG18" t="n">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="AH18" t="n">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="AI18" t="n">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="AJ18" t="n">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="AK18" t="n">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="AL18" t="n">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="AM18" t="n">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="AN18" t="n">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="AO18" t="n">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="AP18" t="n">
-        <v>599</v>
+        <v>644</v>
       </c>
       <c r="AQ18" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="AR18" t="n">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="AS18" t="n">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="AT18" t="n">
         <v>693</v>
       </c>
       <c r="AU18" t="n">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="AV18" t="n">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="AW18" t="n">
-        <v>782</v>
+        <v>899</v>
       </c>
       <c r="AX18" t="n">
-        <v>798</v>
+        <v>961</v>
       </c>
       <c r="AY18" t="n">
-        <v>877</v>
+        <v>943</v>
       </c>
       <c r="AZ18" t="n">
-        <v>881</v>
+        <v>945</v>
       </c>
       <c r="BA18" t="n">
-        <v>908</v>
+        <v>972</v>
       </c>
       <c r="BB18" t="n">
-        <v>898</v>
+        <v>1025</v>
       </c>
       <c r="BC18" t="n">
-        <v>875</v>
+        <v>976</v>
       </c>
       <c r="BD18" t="n">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="BE18" t="n">
-        <v>1074</v>
+        <v>1084</v>
       </c>
       <c r="BF18" t="n">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="BG18" t="n">
-        <v>1190</v>
+        <v>1274</v>
       </c>
       <c r="BH18" t="n">
-        <v>1225</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="19">
@@ -3729,10 +3729,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -3741,46 +3741,46 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
         <v>2</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF19" t="n">
         <v>2</v>
@@ -3810,59 +3810,59 @@
         <v>2</v>
       </c>
       <c r="AH19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>1</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>1</v>
       </c>
       <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
         <v>3</v>
       </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>1</v>
-      </c>
       <c r="AZ19" t="n">
         <v>0</v>
       </c>
@@ -3870,19 +3870,19 @@
         <v>1</v>
       </c>
       <c r="BB19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" t="n">
         <v>2</v>
@@ -3893,366 +3893,366 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
         <v>3</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>9</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
         <v>9</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S20" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U20" t="n">
         <v>8</v>
       </c>
       <c r="V20" t="n">
+        <v>18</v>
+      </c>
+      <c r="W20" t="n">
         <v>13</v>
       </c>
-      <c r="W20" t="n">
-        <v>11</v>
-      </c>
       <c r="X20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD20" t="n">
         <v>12</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
       </c>
       <c r="AF20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM20" t="n">
         <v>11</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AN20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA20" t="n">
         <v>16</v>
       </c>
-      <c r="AH20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI20" t="n">
+      <c r="BB20" t="n">
         <v>21</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AW20" t="n">
+      <c r="BC20" t="n">
         <v>12</v>
       </c>
-      <c r="AX20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>9</v>
-      </c>
       <c r="BD20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BE20" t="n">
         <v>16</v>
       </c>
       <c r="BF20" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="BG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH20" t="n">
         <v>16</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" t="n">
         <v>14</v>
       </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9</v>
-      </c>
-      <c r="D21" t="n">
-        <v>21</v>
-      </c>
       <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
         <v>17</v>
       </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
       <c r="G21" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J21" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" t="n">
+        <v>27</v>
+      </c>
+      <c r="M21" t="n">
+        <v>23</v>
+      </c>
+      <c r="N21" t="n">
         <v>35</v>
       </c>
-      <c r="M21" t="n">
-        <v>26</v>
-      </c>
-      <c r="N21" t="n">
-        <v>21</v>
-      </c>
       <c r="O21" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P21" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>37</v>
+      </c>
+      <c r="R21" t="n">
+        <v>33</v>
+      </c>
+      <c r="S21" t="n">
+        <v>33</v>
+      </c>
+      <c r="T21" t="n">
+        <v>37</v>
+      </c>
+      <c r="U21" t="n">
+        <v>41</v>
+      </c>
+      <c r="V21" t="n">
         <v>38</v>
       </c>
-      <c r="Q21" t="n">
-        <v>35</v>
-      </c>
-      <c r="R21" t="n">
-        <v>31</v>
-      </c>
-      <c r="S21" t="n">
-        <v>26</v>
-      </c>
-      <c r="T21" t="n">
-        <v>27</v>
-      </c>
-      <c r="U21" t="n">
-        <v>30</v>
-      </c>
-      <c r="V21" t="n">
-        <v>36</v>
-      </c>
       <c r="W21" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="X21" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Y21" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB21" t="n">
         <v>46</v>
       </c>
-      <c r="AA21" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB21" t="n">
+      <c r="AC21" t="n">
         <v>48</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>54</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>73</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>57</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>53</v>
+      </c>
+      <c r="AK21" t="n">
         <v>56</v>
       </c>
-      <c r="AD21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>49</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>58</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>62</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>66</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>52</v>
-      </c>
       <c r="AL21" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AM21" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
         <v>61</v>
       </c>
       <c r="AO21" t="n">
+        <v>79</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>61</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>53</v>
+      </c>
+      <c r="AR21" t="n">
         <v>51</v>
       </c>
-      <c r="AP21" t="n">
-        <v>57</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>53</v>
+      </c>
+      <c r="AT21" t="n">
         <v>48</v>
       </c>
-      <c r="AS21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AT21" t="n">
+      <c r="AU21" t="n">
+        <v>62</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>64</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>74</v>
+      </c>
+      <c r="AY21" t="n">
         <v>61</v>
       </c>
-      <c r="AU21" t="n">
-        <v>73</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>56</v>
-      </c>
-      <c r="AW21" t="n">
+      <c r="AZ21" t="n">
+        <v>47</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>48</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>46</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>52</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>58</v>
+      </c>
+      <c r="BF21" t="n">
         <v>54</v>
       </c>
-      <c r="AX21" t="n">
-        <v>47</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>57</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>31</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>45</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>56</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>66</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>59</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>58</v>
-      </c>
       <c r="BG21" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="BH21" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -4293,876 +4293,876 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O22" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P22" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q22" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="R22" t="n">
+        <v>60</v>
+      </c>
+      <c r="S22" t="n">
         <v>49</v>
       </c>
-      <c r="S22" t="n">
-        <v>52</v>
-      </c>
       <c r="T22" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U22" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="V22" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="W22" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="X22" t="n">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="Y22" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="Z22" t="n">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="AA22" t="n">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AB22" t="n">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AC22" t="n">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD22" t="n">
+        <v>218</v>
+      </c>
+      <c r="AE22" t="n">
         <v>222</v>
       </c>
-      <c r="AE22" t="n">
-        <v>214</v>
-      </c>
       <c r="AF22" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AH22" t="n">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="AI22" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AJ22" t="n">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="AK22" t="n">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="AL22" t="n">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="AM22" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AN22" t="n">
-        <v>551</v>
+        <v>511</v>
       </c>
       <c r="AO22" t="n">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AP22" t="n">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="AQ22" t="n">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="AR22" t="n">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="AS22" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AT22" t="n">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="AU22" t="n">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="AV22" t="n">
-        <v>680</v>
+        <v>719</v>
       </c>
       <c r="AW22" t="n">
-        <v>716</v>
+        <v>826</v>
       </c>
       <c r="AX22" t="n">
-        <v>735</v>
+        <v>875</v>
       </c>
       <c r="AY22" t="n">
-        <v>805</v>
+        <v>862</v>
       </c>
       <c r="AZ22" t="n">
-        <v>834</v>
+        <v>879</v>
       </c>
       <c r="BA22" t="n">
-        <v>865</v>
+        <v>907</v>
       </c>
       <c r="BB22" t="n">
-        <v>840</v>
+        <v>956</v>
       </c>
       <c r="BC22" t="n">
-        <v>810</v>
+        <v>910</v>
       </c>
       <c r="BD22" t="n">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="BE22" t="n">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="BF22" t="n">
-        <v>1092</v>
+        <v>1101</v>
       </c>
       <c r="BG22" t="n">
-        <v>1098</v>
+        <v>1192</v>
       </c>
       <c r="BH22" t="n">
-        <v>1159</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>122400</v>
+        <v>129600</v>
       </c>
       <c r="B23" t="n">
-        <v>118800</v>
+        <v>111600</v>
       </c>
       <c r="C23" t="n">
-        <v>162000</v>
+        <v>169200</v>
       </c>
       <c r="D23" t="n">
-        <v>201600</v>
+        <v>187200</v>
       </c>
       <c r="E23" t="n">
-        <v>219600</v>
+        <v>190800</v>
       </c>
       <c r="F23" t="n">
-        <v>241200</v>
+        <v>252000</v>
       </c>
       <c r="G23" t="n">
-        <v>230400</v>
+        <v>237600</v>
       </c>
       <c r="H23" t="n">
         <v>280800</v>
       </c>
       <c r="I23" t="n">
-        <v>284400</v>
+        <v>230400</v>
       </c>
       <c r="J23" t="n">
-        <v>291600</v>
+        <v>302400</v>
       </c>
       <c r="K23" t="n">
-        <v>331200</v>
+        <v>334800</v>
       </c>
       <c r="L23" t="n">
-        <v>370800</v>
+        <v>396000</v>
       </c>
       <c r="M23" t="n">
-        <v>471600</v>
+        <v>522000</v>
       </c>
       <c r="N23" t="n">
-        <v>457200</v>
+        <v>565200</v>
       </c>
       <c r="O23" t="n">
-        <v>579600</v>
+        <v>558000</v>
       </c>
       <c r="P23" t="n">
-        <v>680400</v>
+        <v>637200</v>
       </c>
       <c r="Q23" t="n">
-        <v>640800</v>
+        <v>615600</v>
       </c>
       <c r="R23" t="n">
-        <v>673200</v>
+        <v>691200</v>
       </c>
       <c r="S23" t="n">
-        <v>633600</v>
+        <v>730800</v>
       </c>
       <c r="T23" t="n">
-        <v>684000</v>
+        <v>666000</v>
       </c>
       <c r="U23" t="n">
-        <v>705600</v>
+        <v>702000</v>
       </c>
       <c r="V23" t="n">
-        <v>799200</v>
+        <v>824400</v>
       </c>
       <c r="W23" t="n">
-        <v>871200</v>
+        <v>874800</v>
       </c>
       <c r="X23" t="n">
-        <v>939600</v>
+        <v>1090800</v>
       </c>
       <c r="Y23" t="n">
-        <v>1137600</v>
+        <v>1263600</v>
       </c>
       <c r="Z23" t="n">
-        <v>1242000</v>
+        <v>1260000</v>
       </c>
       <c r="AA23" t="n">
-        <v>1324800</v>
+        <v>1328400</v>
       </c>
       <c r="AB23" t="n">
-        <v>1414800</v>
+        <v>1404000</v>
       </c>
       <c r="AC23" t="n">
-        <v>1432800</v>
+        <v>1393200</v>
       </c>
       <c r="AD23" t="n">
-        <v>1418400</v>
+        <v>1566000</v>
       </c>
       <c r="AE23" t="n">
-        <v>1472400</v>
+        <v>1483200</v>
       </c>
       <c r="AF23" t="n">
-        <v>1526400</v>
+        <v>1544400</v>
       </c>
       <c r="AG23" t="n">
-        <v>1584000</v>
+        <v>1738800</v>
       </c>
       <c r="AH23" t="n">
-        <v>1659600</v>
+        <v>1850400</v>
       </c>
       <c r="AI23" t="n">
-        <v>1760400</v>
+        <v>1854000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>2030400</v>
+        <v>2116800</v>
       </c>
       <c r="AK23" t="n">
-        <v>2163600</v>
+        <v>2282400</v>
       </c>
       <c r="AL23" t="n">
-        <v>2329200</v>
+        <v>2484000</v>
       </c>
       <c r="AM23" t="n">
-        <v>2599200</v>
+        <v>2703600</v>
       </c>
       <c r="AN23" t="n">
-        <v>2822400</v>
+        <v>2793600</v>
       </c>
       <c r="AO23" t="n">
-        <v>2764800</v>
+        <v>2754000</v>
       </c>
       <c r="AP23" t="n">
-        <v>2790000</v>
+        <v>2887200</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2732400</v>
+        <v>2707200</v>
       </c>
       <c r="AR23" t="n">
-        <v>2707200</v>
+        <v>2772000</v>
       </c>
       <c r="AS23" t="n">
-        <v>2944800</v>
+        <v>2905200</v>
       </c>
       <c r="AT23" t="n">
-        <v>3078000</v>
+        <v>3088800</v>
       </c>
       <c r="AU23" t="n">
-        <v>3157200</v>
+        <v>3265200</v>
       </c>
       <c r="AV23" t="n">
-        <v>3412800</v>
+        <v>3344400</v>
       </c>
       <c r="AW23" t="n">
-        <v>3362400</v>
+        <v>3848400</v>
       </c>
       <c r="AX23" t="n">
-        <v>3499200</v>
+        <v>4014000</v>
       </c>
       <c r="AY23" t="n">
-        <v>3686400</v>
+        <v>4010400</v>
       </c>
       <c r="AZ23" t="n">
-        <v>3650400</v>
+        <v>4003200</v>
       </c>
       <c r="BA23" t="n">
-        <v>3686400</v>
+        <v>4104000</v>
       </c>
       <c r="BB23" t="n">
-        <v>3693600</v>
+        <v>4222800</v>
       </c>
       <c r="BC23" t="n">
-        <v>3610800</v>
+        <v>4039200</v>
       </c>
       <c r="BD23" t="n">
-        <v>4176000</v>
+        <v>4122000</v>
       </c>
       <c r="BE23" t="n">
-        <v>4417200</v>
+        <v>4478400</v>
       </c>
       <c r="BF23" t="n">
-        <v>4896000</v>
+        <v>4813200</v>
       </c>
       <c r="BG23" t="n">
-        <v>4950000</v>
+        <v>5180400</v>
       </c>
       <c r="BH23" t="n">
-        <v>5025600</v>
+        <v>5616000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>994406.4</v>
+        <v>981072.0000000002</v>
       </c>
       <c r="B24" t="n">
-        <v>793478.4000000003</v>
+        <v>760742.4000000004</v>
       </c>
       <c r="C24" t="n">
-        <v>729792</v>
+        <v>1009516.8</v>
       </c>
       <c r="D24" t="n">
-        <v>1384406.399999999</v>
+        <v>1046918.400000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1234588.799999999</v>
+        <v>1142303.999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>1517193.600000001</v>
+        <v>1308432.000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>1346496</v>
+        <v>1741152</v>
       </c>
       <c r="H24" t="n">
-        <v>1518537.599999998</v>
+        <v>1411603.199999996</v>
       </c>
       <c r="I24" t="n">
-        <v>1939411.200000001</v>
+        <v>1261248</v>
       </c>
       <c r="J24" t="n">
-        <v>1481731.199999999</v>
+        <v>1643107.200000003</v>
       </c>
       <c r="K24" t="n">
-        <v>2077603.200000001</v>
+        <v>2039836.800000006</v>
       </c>
       <c r="L24" t="n">
-        <v>2316384.000000002</v>
+        <v>2619724.799999995</v>
       </c>
       <c r="M24" t="n">
-        <v>3421958.400000017</v>
+        <v>3675091.199999999</v>
       </c>
       <c r="N24" t="n">
-        <v>2847763.200000018</v>
+        <v>3863049.600000005</v>
       </c>
       <c r="O24" t="n">
-        <v>4019692.79999999</v>
+        <v>3470169.599999987</v>
       </c>
       <c r="P24" t="n">
-        <v>4741036.799999982</v>
+        <v>3760492.799999982</v>
       </c>
       <c r="Q24" t="n">
-        <v>3861072</v>
+        <v>3943199.999999978</v>
       </c>
       <c r="R24" t="n">
-        <v>4579958.400000013</v>
+        <v>3986764.800000057</v>
       </c>
       <c r="S24" t="n">
-        <v>4006598.399999984</v>
+        <v>4184342.400000021</v>
       </c>
       <c r="T24" t="n">
-        <v>4298841.599999964</v>
+        <v>4160947.200000048</v>
       </c>
       <c r="U24" t="n">
-        <v>4939747.200000018</v>
+        <v>4468204.800000012</v>
       </c>
       <c r="V24" t="n">
-        <v>5069654.399999991</v>
+        <v>5775811.20000001</v>
       </c>
       <c r="W24" t="n">
-        <v>5881276.800000004</v>
+        <v>6124492.799999997</v>
       </c>
       <c r="X24" t="n">
-        <v>6430137.599999964</v>
+        <v>7621315.200000055</v>
       </c>
       <c r="Y24" t="n">
-        <v>7999113.599999905</v>
+        <v>9273004.799999997</v>
       </c>
       <c r="Z24" t="n">
-        <v>9167164.799999967</v>
+        <v>9528671.999999955</v>
       </c>
       <c r="AA24" t="n">
-        <v>9740419.200000182</v>
+        <v>9539193.600000009</v>
       </c>
       <c r="AB24" t="n">
-        <v>10816137.60000014</v>
+        <v>9605059.200000077</v>
       </c>
       <c r="AC24" t="n">
-        <v>10303286.40000002</v>
+        <v>10401033.60000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>11120294.39999998</v>
+        <v>11552457.60000001</v>
       </c>
       <c r="AE24" t="n">
-        <v>10571328.00000001</v>
+        <v>10934937.59999976</v>
       </c>
       <c r="AF24" t="n">
-        <v>10970716.79999989</v>
+        <v>10317388.79999977</v>
       </c>
       <c r="AG24" t="n">
-        <v>11822534.39999995</v>
+        <v>13051056.00000018</v>
       </c>
       <c r="AH24" t="n">
-        <v>12563068.80000004</v>
+        <v>13082236.79999986</v>
       </c>
       <c r="AI24" t="n">
-        <v>13460246.40000007</v>
+        <v>14216966.40000007</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15363062.39999965</v>
+        <v>17246774.39999983</v>
       </c>
       <c r="AK24" t="n">
-        <v>16664035.19999993</v>
+        <v>17950953.60000008</v>
       </c>
       <c r="AL24" t="n">
-        <v>18753388.79999977</v>
+        <v>19860815.99999991</v>
       </c>
       <c r="AM24" t="n">
-        <v>20399481.60000002</v>
+        <v>20812809.60000008</v>
       </c>
       <c r="AN24" t="n">
-        <v>22948694.39999938</v>
+        <v>21101980.7999993</v>
       </c>
       <c r="AO24" t="n">
-        <v>21665980.80000055</v>
+        <v>21661103.99999958</v>
       </c>
       <c r="AP24" t="n">
-        <v>22290585.5999999</v>
+        <v>22619606.4000001</v>
       </c>
       <c r="AQ24" t="n">
-        <v>20384640.00000012</v>
+        <v>21079593.60000068</v>
       </c>
       <c r="AR24" t="n">
-        <v>20350924.80000049</v>
+        <v>20708140.80000037</v>
       </c>
       <c r="AS24" t="n">
-        <v>24537417.59999949</v>
+        <v>23220278.40000075</v>
       </c>
       <c r="AT24" t="n">
-        <v>24690739.2000007</v>
+        <v>25026988.79999894</v>
       </c>
       <c r="AU24" t="n">
-        <v>25015353.59999889</v>
+        <v>26920070.39999974</v>
       </c>
       <c r="AV24" t="n">
-        <v>27468009.5999999</v>
+        <v>28120761.59999931</v>
       </c>
       <c r="AW24" t="n">
-        <v>27615331.20000076</v>
+        <v>31941388.80000067</v>
       </c>
       <c r="AX24" t="n">
-        <v>29358364.80000031</v>
+        <v>34091635.20000046</v>
       </c>
       <c r="AY24" t="n">
-        <v>30411023.99999964</v>
+        <v>32372966.39999831</v>
       </c>
       <c r="AZ24" t="n">
-        <v>29444342.39999807</v>
+        <v>31749638.40000069</v>
       </c>
       <c r="BA24" t="n">
-        <v>30386966.40000272</v>
+        <v>33593769.59999979</v>
       </c>
       <c r="BB24" t="n">
-        <v>31459324.79999983</v>
+        <v>34434748.80000234</v>
       </c>
       <c r="BC24" t="n">
-        <v>29083315.19999826</v>
+        <v>33331536.00000381</v>
       </c>
       <c r="BD24" t="n">
-        <v>32851814.40000105</v>
+        <v>32105462.40000212</v>
       </c>
       <c r="BE24" t="n">
-        <v>37496188.80000007</v>
+        <v>36984556.79999995</v>
       </c>
       <c r="BF24" t="n">
-        <v>39872553.60000026</v>
+        <v>39272496.00000036</v>
       </c>
       <c r="BG24" t="n">
-        <v>40939075.19999874</v>
+        <v>44080665.59999907</v>
       </c>
       <c r="BH24" t="n">
-        <v>41901024.00000334</v>
+        <v>48185510.40000224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="B25" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="C25" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="D25" t="n">
-        <v>54000</v>
+        <v>36000</v>
       </c>
       <c r="E25" t="n">
+        <v>26000</v>
+      </c>
+      <c r="F25" t="n">
         <v>46000</v>
-      </c>
-      <c r="F25" t="n">
-        <v>32000</v>
       </c>
       <c r="G25" t="n">
         <v>56000</v>
       </c>
       <c r="H25" t="n">
-        <v>50000</v>
+        <v>38000</v>
       </c>
       <c r="I25" t="n">
-        <v>60000</v>
+        <v>42000</v>
       </c>
       <c r="J25" t="n">
-        <v>58000</v>
+        <v>48000</v>
       </c>
       <c r="K25" t="n">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="L25" t="n">
-        <v>80000</v>
+        <v>68000</v>
       </c>
       <c r="M25" t="n">
-        <v>128000</v>
+        <v>114000</v>
       </c>
       <c r="N25" t="n">
-        <v>100000</v>
+        <v>146000</v>
       </c>
       <c r="O25" t="n">
-        <v>164000</v>
+        <v>160000</v>
       </c>
       <c r="P25" t="n">
-        <v>186000</v>
+        <v>150000</v>
       </c>
       <c r="Q25" t="n">
-        <v>188000</v>
+        <v>170000</v>
       </c>
       <c r="R25" t="n">
-        <v>186000</v>
+        <v>206000</v>
       </c>
       <c r="S25" t="n">
-        <v>182000</v>
+        <v>172000</v>
       </c>
       <c r="T25" t="n">
-        <v>198000</v>
+        <v>204000</v>
       </c>
       <c r="U25" t="n">
-        <v>208000</v>
+        <v>212000</v>
       </c>
       <c r="V25" t="n">
-        <v>226000</v>
+        <v>246000</v>
       </c>
       <c r="W25" t="n">
-        <v>268000</v>
+        <v>260000</v>
       </c>
       <c r="X25" t="n">
-        <v>290000</v>
+        <v>350000</v>
       </c>
       <c r="Y25" t="n">
-        <v>412000</v>
+        <v>434000</v>
       </c>
       <c r="Z25" t="n">
-        <v>402000</v>
+        <v>470000</v>
       </c>
       <c r="AA25" t="n">
-        <v>492000</v>
+        <v>462000</v>
       </c>
       <c r="AB25" t="n">
-        <v>548000</v>
+        <v>512000</v>
       </c>
       <c r="AC25" t="n">
-        <v>530000</v>
+        <v>512000</v>
       </c>
       <c r="AD25" t="n">
-        <v>556000</v>
+        <v>580000</v>
       </c>
       <c r="AE25" t="n">
-        <v>562000</v>
+        <v>592000</v>
       </c>
       <c r="AF25" t="n">
-        <v>552000</v>
+        <v>570000</v>
       </c>
       <c r="AG25" t="n">
-        <v>606000</v>
+        <v>648000</v>
       </c>
       <c r="AH25" t="n">
-        <v>640000</v>
+        <v>682000</v>
       </c>
       <c r="AI25" t="n">
-        <v>736000</v>
+        <v>712000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>790000</v>
+        <v>862000</v>
       </c>
       <c r="AK25" t="n">
-        <v>930000</v>
+        <v>980000</v>
       </c>
       <c r="AL25" t="n">
-        <v>976000</v>
+        <v>1050000</v>
       </c>
       <c r="AM25" t="n">
-        <v>1122000</v>
+        <v>1138000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1252000</v>
+        <v>1186000</v>
       </c>
       <c r="AO25" t="n">
-        <v>1180000</v>
+        <v>1222000</v>
       </c>
       <c r="AP25" t="n">
-        <v>1198000</v>
+        <v>1288000</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1188000</v>
+        <v>1194000</v>
       </c>
       <c r="AR25" t="n">
-        <v>1162000</v>
+        <v>1214000</v>
       </c>
       <c r="AS25" t="n">
-        <v>1316000</v>
+        <v>1280000</v>
       </c>
       <c r="AT25" t="n">
         <v>1386000</v>
       </c>
       <c r="AU25" t="n">
-        <v>1412000</v>
+        <v>1448000</v>
       </c>
       <c r="AV25" t="n">
-        <v>1520000</v>
+        <v>1568000</v>
       </c>
       <c r="AW25" t="n">
-        <v>1564000</v>
+        <v>1798000</v>
       </c>
       <c r="AX25" t="n">
-        <v>1596000</v>
+        <v>1922000</v>
       </c>
       <c r="AY25" t="n">
-        <v>1754000</v>
+        <v>1886000</v>
       </c>
       <c r="AZ25" t="n">
-        <v>1762000</v>
+        <v>1890000</v>
       </c>
       <c r="BA25" t="n">
-        <v>1816000</v>
+        <v>1944000</v>
       </c>
       <c r="BB25" t="n">
-        <v>1796000</v>
+        <v>2050000</v>
       </c>
       <c r="BC25" t="n">
-        <v>1750000</v>
+        <v>1952000</v>
       </c>
       <c r="BD25" t="n">
-        <v>1992000</v>
+        <v>1956000</v>
       </c>
       <c r="BE25" t="n">
-        <v>2148000</v>
+        <v>2168000</v>
       </c>
       <c r="BF25" t="n">
-        <v>2354000</v>
+        <v>2334000</v>
       </c>
       <c r="BG25" t="n">
-        <v>2380000</v>
+        <v>2548000</v>
       </c>
       <c r="BH25" t="n">
-        <v>2450000</v>
+        <v>2756000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1150806.4</v>
+        <v>1130672</v>
       </c>
       <c r="B26" t="n">
-        <v>930278.4000000003</v>
+        <v>896342.4000000004</v>
       </c>
       <c r="C26" t="n">
-        <v>915792</v>
+        <v>1210716.8</v>
       </c>
       <c r="D26" t="n">
-        <v>1640006.399999999</v>
+        <v>1270118.400000001</v>
       </c>
       <c r="E26" t="n">
-        <v>1500188.799999999</v>
+        <v>1359103.999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>1790393.600000001</v>
+        <v>1606432.000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>1632896</v>
+        <v>2034752</v>
       </c>
       <c r="H26" t="n">
-        <v>1849337.599999998</v>
+        <v>1730403.199999996</v>
       </c>
       <c r="I26" t="n">
-        <v>2283811.200000001</v>
+        <v>1533648</v>
       </c>
       <c r="J26" t="n">
-        <v>1831331.199999999</v>
+        <v>1993507.200000003</v>
       </c>
       <c r="K26" t="n">
-        <v>2468803.200000001</v>
+        <v>2430636.800000006</v>
       </c>
       <c r="L26" t="n">
-        <v>2767184.000000002</v>
+        <v>3083724.799999995</v>
       </c>
       <c r="M26" t="n">
-        <v>4021558.400000017</v>
+        <v>4311091.199999999</v>
       </c>
       <c r="N26" t="n">
-        <v>3404963.200000018</v>
+        <v>4574249.600000005</v>
       </c>
       <c r="O26" t="n">
-        <v>4763292.79999999</v>
+        <v>4188169.599999987</v>
       </c>
       <c r="P26" t="n">
-        <v>5607436.799999982</v>
+        <v>4547692.799999982</v>
       </c>
       <c r="Q26" t="n">
-        <v>4689872</v>
+        <v>4728799.999999978</v>
       </c>
       <c r="R26" t="n">
-        <v>5439158.400000013</v>
+        <v>4883964.800000057</v>
       </c>
       <c r="S26" t="n">
-        <v>4822198.399999984</v>
+        <v>5087142.400000021</v>
       </c>
       <c r="T26" t="n">
-        <v>5180841.599999964</v>
+        <v>5030947.200000048</v>
       </c>
       <c r="U26" t="n">
-        <v>5853347.200000018</v>
+        <v>5382204.800000012</v>
       </c>
       <c r="V26" t="n">
-        <v>6094854.399999991</v>
+        <v>6846211.20000001</v>
       </c>
       <c r="W26" t="n">
-        <v>7020476.800000004</v>
+        <v>7259292.799999997</v>
       </c>
       <c r="X26" t="n">
-        <v>7659737.599999964</v>
+        <v>9062115.200000055</v>
       </c>
       <c r="Y26" t="n">
-        <v>9548713.599999905</v>
+        <v>10970604.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>10811164.79999997</v>
+        <v>11258671.99999996</v>
       </c>
       <c r="AA26" t="n">
-        <v>11557219.20000018</v>
+        <v>11329593.60000001</v>
       </c>
       <c r="AB26" t="n">
-        <v>12778937.60000014</v>
+        <v>11521059.20000008</v>
       </c>
       <c r="AC26" t="n">
-        <v>12266086.40000002</v>
+        <v>12306233.60000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>13094694.39999998</v>
+        <v>13698457.60000001</v>
       </c>
       <c r="AE26" t="n">
-        <v>12605728.00000001</v>
+        <v>13010137.59999976</v>
       </c>
       <c r="AF26" t="n">
-        <v>13049116.79999989</v>
+        <v>12431788.79999977</v>
       </c>
       <c r="AG26" t="n">
-        <v>14012534.39999995</v>
+        <v>15437856.00000018</v>
       </c>
       <c r="AH26" t="n">
-        <v>14862668.80000004</v>
+        <v>15614636.79999986</v>
       </c>
       <c r="AI26" t="n">
-        <v>15956646.40000007</v>
+        <v>16782966.40000007</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18183462.39999965</v>
+        <v>20225574.39999983</v>
       </c>
       <c r="AK26" t="n">
-        <v>19757635.19999993</v>
+        <v>21213353.60000008</v>
       </c>
       <c r="AL26" t="n">
-        <v>22058588.79999977</v>
+        <v>23394815.99999991</v>
       </c>
       <c r="AM26" t="n">
-        <v>24120681.60000002</v>
+        <v>24654409.60000008</v>
       </c>
       <c r="AN26" t="n">
-        <v>27023094.39999938</v>
+        <v>25081580.7999993</v>
       </c>
       <c r="AO26" t="n">
-        <v>25610780.80000055</v>
+        <v>25637103.99999958</v>
       </c>
       <c r="AP26" t="n">
-        <v>26278585.5999999</v>
+        <v>26794806.4000001</v>
       </c>
       <c r="AQ26" t="n">
-        <v>24305040.00000012</v>
+        <v>24980793.60000068</v>
       </c>
       <c r="AR26" t="n">
-        <v>24220124.80000049</v>
+        <v>24694140.80000037</v>
       </c>
       <c r="AS26" t="n">
-        <v>28798217.59999949</v>
+        <v>27405478.40000075</v>
       </c>
       <c r="AT26" t="n">
-        <v>29154739.2000007</v>
+        <v>29501788.79999894</v>
       </c>
       <c r="AU26" t="n">
-        <v>29584553.59999889</v>
+        <v>31633270.39999974</v>
       </c>
       <c r="AV26" t="n">
-        <v>32400809.5999999</v>
+        <v>33033161.59999931</v>
       </c>
       <c r="AW26" t="n">
-        <v>32541731.20000076</v>
+        <v>37587788.80000067</v>
       </c>
       <c r="AX26" t="n">
-        <v>34453564.80000031</v>
+        <v>40027635.20000046</v>
       </c>
       <c r="AY26" t="n">
-        <v>35851423.99999964</v>
+        <v>38269366.39999831</v>
       </c>
       <c r="AZ26" t="n">
-        <v>34856742.39999807</v>
+        <v>37642838.40000069</v>
       </c>
       <c r="BA26" t="n">
-        <v>35889366.40000272</v>
+        <v>39641769.59999979</v>
       </c>
       <c r="BB26" t="n">
-        <v>36948924.79999983</v>
+        <v>40707548.80000234</v>
       </c>
       <c r="BC26" t="n">
-        <v>34444115.19999826</v>
+        <v>39322736.00000381</v>
       </c>
       <c r="BD26" t="n">
-        <v>39019814.40000105</v>
+        <v>38183462.40000212</v>
       </c>
       <c r="BE26" t="n">
-        <v>44061388.80000007</v>
+        <v>43630956.79999995</v>
       </c>
       <c r="BF26" t="n">
-        <v>47122553.60000026</v>
+        <v>46419696.00000036</v>
       </c>
       <c r="BG26" t="n">
-        <v>48269075.19999874</v>
+        <v>51809065.59999907</v>
       </c>
       <c r="BH26" t="n">
-        <v>49376624.00000334</v>
+        <v>56557510.40000224</v>
       </c>
     </row>
     <row r="27">
@@ -5349,10 +5349,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
         <v>3</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
@@ -5385,7 +5385,7 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
         <v>5</v>
@@ -5400,7 +5400,7 @@
         <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S28" t="n">
         <v>6</v>
@@ -5445,13 +5445,13 @@
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
         <v>9</v>
@@ -5490,19 +5490,19 @@
         <v>9</v>
       </c>
       <c r="AV28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX28" t="n">
         <v>11</v>
       </c>
-      <c r="AW28" t="n">
+      <c r="AY28" t="n">
         <v>11</v>
       </c>
-      <c r="AX28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>12</v>
-      </c>
       <c r="AZ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA28" t="n">
         <v>12</v>
@@ -5511,27 +5511,27 @@
         <v>12</v>
       </c>
       <c r="BC28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BE28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BF28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BG28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BH28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
         <v>4</v>
@@ -5561,16 +5561,16 @@
         <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
         <v>5</v>
@@ -5585,19 +5585,19 @@
         <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
         <v>7</v>
@@ -5621,16 +5621,16 @@
         <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>9</v>
@@ -5642,7 +5642,7 @@
         <v>9</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5672,48 +5672,48 @@
         <v>10</v>
       </c>
       <c r="AV29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD29" t="n">
         <v>13</v>
       </c>
       <c r="BE29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BF29" t="n">
         <v>14</v>
       </c>
       <c r="BG29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BH29" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
         <v>2</v>
@@ -5722,7 +5722,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
@@ -5743,64 +5743,64 @@
         <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>6</v>
@@ -5818,19 +5818,19 @@
         <v>6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK30" t="n">
         <v>7</v>
       </c>
       <c r="AL30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
         <v>9</v>
@@ -5857,31 +5857,31 @@
         <v>9</v>
       </c>
       <c r="AW30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BE30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BF30" t="n">
         <v>10</v>
@@ -6039,7 +6039,7 @@
         <v>2</v>
       </c>
       <c r="AW31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX31" t="n">
         <v>3</v>
@@ -6066,7 +6066,7 @@
         <v>3</v>
       </c>
       <c r="BF31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG31" t="n">
         <v>4</v>
@@ -6077,16 +6077,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" t="n">
         <v>13</v>
       </c>
       <c r="D32" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" t="n">
         <v>14</v>
@@ -6107,82 +6107,82 @@
         <v>14</v>
       </c>
       <c r="K32" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L32" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O32" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S32" t="n">
         <v>19</v>
       </c>
       <c r="T32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG32" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH32" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ32" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK32" t="n">
         <v>29</v>
@@ -6191,10 +6191,10 @@
         <v>30</v>
       </c>
       <c r="AM32" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AN32" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AO32" t="n">
         <v>32</v>
@@ -6221,782 +6221,782 @@
         <v>34</v>
       </c>
       <c r="AW32" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AX32" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AY32" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AZ32" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BA32" t="n">
         <v>38</v>
       </c>
       <c r="BB32" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BC32" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BD32" t="n">
         <v>40</v>
       </c>
       <c r="BE32" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BF32" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BG32" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="BH32" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>228280</v>
+        <v>164255</v>
       </c>
       <c r="B33" t="n">
-        <v>250965</v>
+        <v>241475</v>
       </c>
       <c r="C33" t="n">
         <v>251940</v>
       </c>
       <c r="D33" t="n">
-        <v>258635</v>
+        <v>294190</v>
       </c>
       <c r="E33" t="n">
-        <v>297310</v>
+        <v>291785</v>
       </c>
       <c r="F33" t="n">
-        <v>297115</v>
+        <v>299780</v>
       </c>
       <c r="G33" t="n">
-        <v>300365</v>
+        <v>301925</v>
       </c>
       <c r="H33" t="n">
-        <v>303030</v>
+        <v>300560</v>
       </c>
       <c r="I33" t="n">
-        <v>305305</v>
+        <v>299910</v>
       </c>
       <c r="J33" t="n">
-        <v>306215</v>
+        <v>305630</v>
       </c>
       <c r="K33" t="n">
-        <v>307775</v>
+        <v>359840</v>
       </c>
       <c r="L33" t="n">
-        <v>315315</v>
+        <v>366210</v>
       </c>
       <c r="M33" t="n">
-        <v>335530</v>
+        <v>417430</v>
       </c>
       <c r="N33" t="n">
-        <v>330265</v>
+        <v>434265</v>
       </c>
       <c r="O33" t="n">
-        <v>356785</v>
+        <v>432315</v>
       </c>
       <c r="P33" t="n">
-        <v>405470</v>
+        <v>437190</v>
       </c>
       <c r="Q33" t="n">
-        <v>403845</v>
+        <v>438945</v>
       </c>
       <c r="R33" t="n">
-        <v>404755</v>
+        <v>455910</v>
       </c>
       <c r="S33" t="n">
-        <v>426335</v>
+        <v>454155</v>
       </c>
       <c r="T33" t="n">
-        <v>448630</v>
+        <v>506155</v>
       </c>
       <c r="U33" t="n">
-        <v>448110</v>
+        <v>510900</v>
       </c>
       <c r="V33" t="n">
-        <v>496470</v>
+        <v>546585</v>
       </c>
       <c r="W33" t="n">
-        <v>502190</v>
+        <v>548080</v>
       </c>
       <c r="X33" t="n">
-        <v>517595</v>
+        <v>570570</v>
       </c>
       <c r="Y33" t="n">
-        <v>544050</v>
+        <v>590070</v>
       </c>
       <c r="Z33" t="n">
-        <v>547365</v>
+        <v>594620</v>
       </c>
       <c r="AA33" t="n">
-        <v>562055</v>
+        <v>599690</v>
       </c>
       <c r="AB33" t="n">
-        <v>574340</v>
+        <v>607880</v>
       </c>
       <c r="AC33" t="n">
-        <v>575510</v>
+        <v>608010</v>
       </c>
       <c r="AD33" t="n">
-        <v>576225</v>
+        <v>624520</v>
       </c>
       <c r="AE33" t="n">
-        <v>615420</v>
+        <v>635115</v>
       </c>
       <c r="AF33" t="n">
-        <v>633945</v>
+        <v>649545</v>
       </c>
       <c r="AG33" t="n">
-        <v>645515</v>
+        <v>676520</v>
       </c>
       <c r="AH33" t="n">
-        <v>653315</v>
+        <v>686140</v>
       </c>
       <c r="AI33" t="n">
-        <v>689975</v>
+        <v>705380</v>
       </c>
       <c r="AJ33" t="n">
-        <v>778505</v>
+        <v>751010</v>
       </c>
       <c r="AK33" t="n">
-        <v>801320</v>
+        <v>816270</v>
       </c>
       <c r="AL33" t="n">
-        <v>852800</v>
+        <v>844935</v>
       </c>
       <c r="AM33" t="n">
-        <v>895570</v>
+        <v>939705</v>
       </c>
       <c r="AN33" t="n">
-        <v>917670</v>
+        <v>946205</v>
       </c>
       <c r="AO33" t="n">
-        <v>947505</v>
+        <v>949260</v>
       </c>
       <c r="AP33" t="n">
-        <v>950560</v>
+        <v>965900</v>
       </c>
       <c r="AQ33" t="n">
-        <v>951600</v>
+        <v>955305</v>
       </c>
       <c r="AR33" t="n">
-        <v>953745</v>
+        <v>957710</v>
       </c>
       <c r="AS33" t="n">
-        <v>980655</v>
+        <v>971945</v>
       </c>
       <c r="AT33" t="n">
-        <v>992485</v>
+        <v>996125</v>
       </c>
       <c r="AU33" t="n">
-        <v>1005485</v>
+        <v>1009840</v>
       </c>
       <c r="AV33" t="n">
-        <v>1053130</v>
+        <v>1051050</v>
       </c>
       <c r="AW33" t="n">
-        <v>1102075</v>
+        <v>1142895</v>
       </c>
       <c r="AX33" t="n">
-        <v>1162200</v>
+        <v>1174160</v>
       </c>
       <c r="AY33" t="n">
-        <v>1193985</v>
+        <v>1171755</v>
       </c>
       <c r="AZ33" t="n">
-        <v>1203995</v>
+        <v>1179815</v>
       </c>
       <c r="BA33" t="n">
-        <v>1208870</v>
+        <v>1200615</v>
       </c>
       <c r="BB33" t="n">
-        <v>1204905</v>
+        <v>1239615</v>
       </c>
       <c r="BC33" t="n">
-        <v>1201135</v>
+        <v>1229865</v>
       </c>
       <c r="BD33" t="n">
-        <v>1269710</v>
+        <v>1234675</v>
       </c>
       <c r="BE33" t="n">
-        <v>1295515</v>
+        <v>1304420</v>
       </c>
       <c r="BF33" t="n">
-        <v>1370850</v>
+        <v>1384110</v>
       </c>
       <c r="BG33" t="n">
-        <v>1378780</v>
+        <v>1467115</v>
       </c>
       <c r="BH33" t="n">
-        <v>1390415</v>
+        <v>1517165</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>97920</v>
+        <v>103680</v>
       </c>
       <c r="B34" t="n">
-        <v>95040</v>
+        <v>89280</v>
       </c>
       <c r="C34" t="n">
-        <v>129600</v>
+        <v>135360</v>
       </c>
       <c r="D34" t="n">
-        <v>161280</v>
+        <v>149760</v>
       </c>
       <c r="E34" t="n">
-        <v>175680</v>
+        <v>152640</v>
       </c>
       <c r="F34" t="n">
-        <v>192960</v>
+        <v>201600</v>
       </c>
       <c r="G34" t="n">
-        <v>184320</v>
+        <v>190080</v>
       </c>
       <c r="H34" t="n">
         <v>224640</v>
       </c>
       <c r="I34" t="n">
-        <v>227520</v>
+        <v>184320</v>
       </c>
       <c r="J34" t="n">
-        <v>233280</v>
+        <v>241920</v>
       </c>
       <c r="K34" t="n">
-        <v>264960</v>
+        <v>267840</v>
       </c>
       <c r="L34" t="n">
-        <v>296640</v>
+        <v>316800</v>
       </c>
       <c r="M34" t="n">
-        <v>377280</v>
+        <v>417600</v>
       </c>
       <c r="N34" t="n">
-        <v>365760</v>
+        <v>452160</v>
       </c>
       <c r="O34" t="n">
-        <v>463680</v>
+        <v>446400</v>
       </c>
       <c r="P34" t="n">
-        <v>544320</v>
+        <v>509760</v>
       </c>
       <c r="Q34" t="n">
-        <v>512640</v>
+        <v>492480</v>
       </c>
       <c r="R34" t="n">
-        <v>538560</v>
+        <v>552960</v>
       </c>
       <c r="S34" t="n">
-        <v>506880</v>
+        <v>584640</v>
       </c>
       <c r="T34" t="n">
-        <v>547200</v>
+        <v>532800</v>
       </c>
       <c r="U34" t="n">
-        <v>564480</v>
+        <v>561600</v>
       </c>
       <c r="V34" t="n">
-        <v>639360</v>
+        <v>659520</v>
       </c>
       <c r="W34" t="n">
-        <v>696960</v>
+        <v>699840</v>
       </c>
       <c r="X34" t="n">
-        <v>751680</v>
+        <v>872640</v>
       </c>
       <c r="Y34" t="n">
-        <v>910080</v>
+        <v>1010880</v>
       </c>
       <c r="Z34" t="n">
-        <v>993600</v>
+        <v>1008000</v>
       </c>
       <c r="AA34" t="n">
-        <v>1059840</v>
+        <v>1062720</v>
       </c>
       <c r="AB34" t="n">
-        <v>1131840</v>
+        <v>1123200</v>
       </c>
       <c r="AC34" t="n">
-        <v>1146240</v>
+        <v>1114560</v>
       </c>
       <c r="AD34" t="n">
-        <v>1134720</v>
+        <v>1252800</v>
       </c>
       <c r="AE34" t="n">
-        <v>1177920</v>
+        <v>1186560</v>
       </c>
       <c r="AF34" t="n">
-        <v>1221120</v>
+        <v>1235520</v>
       </c>
       <c r="AG34" t="n">
-        <v>1267200</v>
+        <v>1391040</v>
       </c>
       <c r="AH34" t="n">
-        <v>1327680</v>
+        <v>1480320</v>
       </c>
       <c r="AI34" t="n">
-        <v>1408320</v>
+        <v>1483200</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1624320</v>
+        <v>1693440</v>
       </c>
       <c r="AK34" t="n">
-        <v>1730880</v>
+        <v>1825920</v>
       </c>
       <c r="AL34" t="n">
-        <v>1863360</v>
+        <v>1987200</v>
       </c>
       <c r="AM34" t="n">
-        <v>2079360</v>
+        <v>2162880</v>
       </c>
       <c r="AN34" t="n">
-        <v>2257920</v>
+        <v>2234880</v>
       </c>
       <c r="AO34" t="n">
-        <v>2211840</v>
+        <v>2203200</v>
       </c>
       <c r="AP34" t="n">
-        <v>2232000</v>
+        <v>2309760</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2185920</v>
+        <v>2165760</v>
       </c>
       <c r="AR34" t="n">
-        <v>2165760</v>
+        <v>2217600</v>
       </c>
       <c r="AS34" t="n">
-        <v>2355840</v>
+        <v>2324160</v>
       </c>
       <c r="AT34" t="n">
-        <v>2462400</v>
+        <v>2471040</v>
       </c>
       <c r="AU34" t="n">
-        <v>2525760</v>
+        <v>2612160</v>
       </c>
       <c r="AV34" t="n">
-        <v>2730240</v>
+        <v>2675520</v>
       </c>
       <c r="AW34" t="n">
-        <v>2689920</v>
+        <v>3078720</v>
       </c>
       <c r="AX34" t="n">
-        <v>2799360</v>
+        <v>3211200</v>
       </c>
       <c r="AY34" t="n">
-        <v>2949120</v>
+        <v>3208320</v>
       </c>
       <c r="AZ34" t="n">
-        <v>2920320</v>
+        <v>3202560</v>
       </c>
       <c r="BA34" t="n">
-        <v>2949120</v>
+        <v>3283200</v>
       </c>
       <c r="BB34" t="n">
-        <v>2954880</v>
+        <v>3378240</v>
       </c>
       <c r="BC34" t="n">
-        <v>2888640</v>
+        <v>3231360</v>
       </c>
       <c r="BD34" t="n">
-        <v>3340800</v>
+        <v>3297600</v>
       </c>
       <c r="BE34" t="n">
-        <v>3533760</v>
+        <v>3582720</v>
       </c>
       <c r="BF34" t="n">
-        <v>3916800</v>
+        <v>3850560</v>
       </c>
       <c r="BG34" t="n">
-        <v>3960000</v>
+        <v>4144320</v>
       </c>
       <c r="BH34" t="n">
-        <v>4020480</v>
+        <v>4492800</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>828672</v>
+        <v>817560</v>
       </c>
       <c r="B35" t="n">
-        <v>661232</v>
+        <v>633952</v>
       </c>
       <c r="C35" t="n">
-        <v>608160</v>
+        <v>841264</v>
       </c>
       <c r="D35" t="n">
-        <v>1153672</v>
+        <v>872432</v>
       </c>
       <c r="E35" t="n">
-        <v>1028824</v>
+        <v>951920</v>
       </c>
       <c r="F35" t="n">
-        <v>1264328</v>
+        <v>1090360</v>
       </c>
       <c r="G35" t="n">
-        <v>1122080</v>
+        <v>1450960</v>
       </c>
       <c r="H35" t="n">
-        <v>1265448</v>
+        <v>1176336</v>
       </c>
       <c r="I35" t="n">
-        <v>1616176</v>
+        <v>1051040</v>
       </c>
       <c r="J35" t="n">
-        <v>1234776</v>
+        <v>1369256</v>
       </c>
       <c r="K35" t="n">
-        <v>1731336</v>
+        <v>1699864</v>
       </c>
       <c r="L35" t="n">
-        <v>1930320</v>
+        <v>2183104</v>
       </c>
       <c r="M35" t="n">
-        <v>2851632</v>
+        <v>3062576</v>
       </c>
       <c r="N35" t="n">
-        <v>2373136</v>
+        <v>3219208</v>
       </c>
       <c r="O35" t="n">
-        <v>3349744</v>
+        <v>2891808</v>
       </c>
       <c r="P35" t="n">
-        <v>3950864</v>
+        <v>3133744</v>
       </c>
       <c r="Q35" t="n">
-        <v>3217560</v>
+        <v>3286000</v>
       </c>
       <c r="R35" t="n">
-        <v>3816632</v>
+        <v>3322304</v>
       </c>
       <c r="S35" t="n">
-        <v>3338832</v>
+        <v>3486952</v>
       </c>
       <c r="T35" t="n">
-        <v>3582368</v>
+        <v>3467456</v>
       </c>
       <c r="U35" t="n">
-        <v>4116456</v>
+        <v>3723504</v>
       </c>
       <c r="V35" t="n">
-        <v>4224712</v>
+        <v>4813176</v>
       </c>
       <c r="W35" t="n">
-        <v>4901064</v>
+        <v>5103744</v>
       </c>
       <c r="X35" t="n">
-        <v>5358448</v>
+        <v>6351096</v>
       </c>
       <c r="Y35" t="n">
-        <v>6665928</v>
+        <v>7727504</v>
       </c>
       <c r="Z35" t="n">
-        <v>7639304</v>
+        <v>7940560</v>
       </c>
       <c r="AA35" t="n">
-        <v>8117016</v>
+        <v>7949328</v>
       </c>
       <c r="AB35" t="n">
-        <v>9013448</v>
+        <v>8004216</v>
       </c>
       <c r="AC35" t="n">
-        <v>8586072</v>
+        <v>8667528</v>
       </c>
       <c r="AD35" t="n">
-        <v>9266912</v>
+        <v>9627048</v>
       </c>
       <c r="AE35" t="n">
-        <v>8809440</v>
+        <v>9112448</v>
       </c>
       <c r="AF35" t="n">
-        <v>9142264</v>
+        <v>8597824</v>
       </c>
       <c r="AG35" t="n">
-        <v>9852112</v>
+        <v>10875880</v>
       </c>
       <c r="AH35" t="n">
-        <v>10469224</v>
+        <v>10901864</v>
       </c>
       <c r="AI35" t="n">
-        <v>11216872</v>
+        <v>11847472</v>
       </c>
       <c r="AJ35" t="n">
-        <v>12802552</v>
+        <v>14372312</v>
       </c>
       <c r="AK35" t="n">
-        <v>13886696</v>
+        <v>14959128</v>
       </c>
       <c r="AL35" t="n">
-        <v>15627824</v>
+        <v>16550680</v>
       </c>
       <c r="AM35" t="n">
-        <v>16999568</v>
+        <v>17344008</v>
       </c>
       <c r="AN35" t="n">
-        <v>19123912</v>
+        <v>17584984</v>
       </c>
       <c r="AO35" t="n">
-        <v>18054984</v>
+        <v>18050920</v>
       </c>
       <c r="AP35" t="n">
-        <v>18575488</v>
+        <v>18849672</v>
       </c>
       <c r="AQ35" t="n">
-        <v>16987200</v>
+        <v>17566328</v>
       </c>
       <c r="AR35" t="n">
-        <v>16959104</v>
+        <v>17256784</v>
       </c>
       <c r="AS35" t="n">
-        <v>20447848</v>
+        <v>19350232</v>
       </c>
       <c r="AT35" t="n">
-        <v>20575616</v>
+        <v>20855824</v>
       </c>
       <c r="AU35" t="n">
-        <v>20846128</v>
+        <v>22433392</v>
       </c>
       <c r="AV35" t="n">
-        <v>22890008</v>
+        <v>23433968</v>
       </c>
       <c r="AW35" t="n">
-        <v>23012776</v>
+        <v>26617824</v>
       </c>
       <c r="AX35" t="n">
-        <v>24465304</v>
+        <v>28409696</v>
       </c>
       <c r="AY35" t="n">
-        <v>25342520</v>
+        <v>26977472</v>
       </c>
       <c r="AZ35" t="n">
-        <v>24536952</v>
+        <v>26458032</v>
       </c>
       <c r="BA35" t="n">
-        <v>25322472</v>
+        <v>27994808</v>
       </c>
       <c r="BB35" t="n">
-        <v>26216104</v>
+        <v>28695624</v>
       </c>
       <c r="BC35" t="n">
-        <v>24236096</v>
+        <v>27776280</v>
       </c>
       <c r="BD35" t="n">
-        <v>27376512</v>
+        <v>26754552</v>
       </c>
       <c r="BE35" t="n">
-        <v>31246824</v>
+        <v>30820464</v>
       </c>
       <c r="BF35" t="n">
-        <v>33227128</v>
+        <v>32727080</v>
       </c>
       <c r="BG35" t="n">
-        <v>34115896</v>
+        <v>36733888</v>
       </c>
       <c r="BH35" t="n">
-        <v>34917520</v>
+        <v>40154592</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35500</v>
+        <v>25000</v>
       </c>
       <c r="B36" t="n">
-        <v>23500</v>
+        <v>28000</v>
       </c>
       <c r="C36" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="D36" t="n">
-        <v>50500</v>
+        <v>37000</v>
       </c>
       <c r="E36" t="n">
+        <v>29500</v>
+      </c>
+      <c r="F36" t="n">
         <v>44500</v>
-      </c>
-      <c r="F36" t="n">
-        <v>34000</v>
       </c>
       <c r="G36" t="n">
         <v>52000</v>
       </c>
       <c r="H36" t="n">
-        <v>47500</v>
+        <v>38500</v>
       </c>
       <c r="I36" t="n">
-        <v>55000</v>
+        <v>41500</v>
       </c>
       <c r="J36" t="n">
-        <v>53500</v>
+        <v>46000</v>
       </c>
       <c r="K36" t="n">
-        <v>55000</v>
+        <v>52000</v>
       </c>
       <c r="L36" t="n">
-        <v>70000</v>
+        <v>61000</v>
       </c>
       <c r="M36" t="n">
-        <v>106000</v>
+        <v>95500</v>
       </c>
       <c r="N36" t="n">
-        <v>85000</v>
+        <v>119500</v>
       </c>
       <c r="O36" t="n">
-        <v>133000</v>
+        <v>130000</v>
       </c>
       <c r="P36" t="n">
-        <v>149500</v>
+        <v>122500</v>
       </c>
       <c r="Q36" t="n">
-        <v>151000</v>
+        <v>137500</v>
       </c>
       <c r="R36" t="n">
-        <v>149500</v>
+        <v>164500</v>
       </c>
       <c r="S36" t="n">
-        <v>146500</v>
+        <v>139000</v>
       </c>
       <c r="T36" t="n">
-        <v>158500</v>
+        <v>163000</v>
       </c>
       <c r="U36" t="n">
-        <v>166000</v>
+        <v>169000</v>
       </c>
       <c r="V36" t="n">
-        <v>179500</v>
+        <v>194500</v>
       </c>
       <c r="W36" t="n">
-        <v>211000</v>
+        <v>205000</v>
       </c>
       <c r="X36" t="n">
-        <v>227500</v>
+        <v>272500</v>
       </c>
       <c r="Y36" t="n">
-        <v>319000</v>
+        <v>335500</v>
       </c>
       <c r="Z36" t="n">
-        <v>311500</v>
+        <v>362500</v>
       </c>
       <c r="AA36" t="n">
-        <v>379000</v>
+        <v>356500</v>
       </c>
       <c r="AB36" t="n">
-        <v>421000</v>
+        <v>394000</v>
       </c>
       <c r="AC36" t="n">
-        <v>407500</v>
+        <v>394000</v>
       </c>
       <c r="AD36" t="n">
-        <v>427000</v>
+        <v>445000</v>
       </c>
       <c r="AE36" t="n">
-        <v>431500</v>
+        <v>454000</v>
       </c>
       <c r="AF36" t="n">
-        <v>424000</v>
+        <v>437500</v>
       </c>
       <c r="AG36" t="n">
-        <v>464500</v>
+        <v>496000</v>
       </c>
       <c r="AH36" t="n">
-        <v>490000</v>
+        <v>521500</v>
       </c>
       <c r="AI36" t="n">
-        <v>562000</v>
+        <v>544000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>602500</v>
+        <v>656500</v>
       </c>
       <c r="AK36" t="n">
-        <v>707500</v>
+        <v>745000</v>
       </c>
       <c r="AL36" t="n">
-        <v>742000</v>
+        <v>797500</v>
       </c>
       <c r="AM36" t="n">
-        <v>851500</v>
+        <v>863500</v>
       </c>
       <c r="AN36" t="n">
-        <v>949000</v>
+        <v>899500</v>
       </c>
       <c r="AO36" t="n">
-        <v>895000</v>
+        <v>926500</v>
       </c>
       <c r="AP36" t="n">
-        <v>908500</v>
+        <v>976000</v>
       </c>
       <c r="AQ36" t="n">
-        <v>901000</v>
+        <v>905500</v>
       </c>
       <c r="AR36" t="n">
-        <v>881500</v>
+        <v>920500</v>
       </c>
       <c r="AS36" t="n">
-        <v>997000</v>
+        <v>970000</v>
       </c>
       <c r="AT36" t="n">
         <v>1049500</v>
       </c>
       <c r="AU36" t="n">
-        <v>1069000</v>
+        <v>1096000</v>
       </c>
       <c r="AV36" t="n">
-        <v>1150000</v>
+        <v>1186000</v>
       </c>
       <c r="AW36" t="n">
-        <v>1183000</v>
+        <v>1358500</v>
       </c>
       <c r="AX36" t="n">
-        <v>1207000</v>
+        <v>1451500</v>
       </c>
       <c r="AY36" t="n">
-        <v>1325500</v>
+        <v>1424500</v>
       </c>
       <c r="AZ36" t="n">
-        <v>1331500</v>
+        <v>1427500</v>
       </c>
       <c r="BA36" t="n">
-        <v>1372000</v>
+        <v>1468000</v>
       </c>
       <c r="BB36" t="n">
-        <v>1357000</v>
+        <v>1547500</v>
       </c>
       <c r="BC36" t="n">
-        <v>1322500</v>
+        <v>1474000</v>
       </c>
       <c r="BD36" t="n">
-        <v>1504000</v>
+        <v>1477000</v>
       </c>
       <c r="BE36" t="n">
-        <v>1621000</v>
+        <v>1636000</v>
       </c>
       <c r="BF36" t="n">
-        <v>1775500</v>
+        <v>1760500</v>
       </c>
       <c r="BG36" t="n">
-        <v>1795000</v>
+        <v>1921000</v>
       </c>
       <c r="BH36" t="n">
-        <v>1847500</v>
+        <v>2077000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>34375</v>
+        <v>25000</v>
       </c>
       <c r="B37" t="n">
-        <v>40625</v>
+        <v>37500</v>
       </c>
       <c r="C37" t="n">
         <v>40625</v>
       </c>
       <c r="D37" t="n">
-        <v>40625</v>
+        <v>43750</v>
       </c>
       <c r="E37" t="n">
         <v>43750</v>
@@ -7017,16 +7017,16 @@
         <v>43750</v>
       </c>
       <c r="K37" t="n">
-        <v>43750</v>
+        <v>50000</v>
       </c>
       <c r="L37" t="n">
-        <v>43750</v>
+        <v>50000</v>
       </c>
       <c r="M37" t="n">
-        <v>46875</v>
+        <v>50000</v>
       </c>
       <c r="N37" t="n">
-        <v>46875</v>
+        <v>50000</v>
       </c>
       <c r="O37" t="n">
         <v>50000</v>
@@ -7169,34 +7169,34 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>23016</v>
+        <v>22613</v>
       </c>
       <c r="B38" t="n">
-        <v>18605</v>
+        <v>17926</v>
       </c>
       <c r="C38" t="n">
-        <v>18315</v>
+        <v>24214</v>
       </c>
       <c r="D38" t="n">
-        <v>32800</v>
+        <v>25402</v>
       </c>
       <c r="E38" t="n">
-        <v>30003</v>
+        <v>27182</v>
       </c>
       <c r="F38" t="n">
-        <v>35807</v>
+        <v>32128</v>
       </c>
       <c r="G38" t="n">
-        <v>32657</v>
+        <v>40000</v>
       </c>
       <c r="H38" t="n">
-        <v>36986</v>
+        <v>34608</v>
       </c>
       <c r="I38" t="n">
-        <v>40000</v>
+        <v>30672</v>
       </c>
       <c r="J38" t="n">
-        <v>36626</v>
+        <v>39870</v>
       </c>
       <c r="K38" t="n">
         <v>40000</v>
@@ -7351,366 +7351,366 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1247763</v>
+        <v>1158108</v>
       </c>
       <c r="B39" t="n">
-        <v>1089967</v>
+        <v>1048133</v>
       </c>
       <c r="C39" t="n">
-        <v>1076640</v>
+        <v>1327403</v>
       </c>
       <c r="D39" t="n">
-        <v>1697512</v>
+        <v>1422534</v>
       </c>
       <c r="E39" t="n">
-        <v>1620067</v>
+        <v>1496777</v>
       </c>
       <c r="F39" t="n">
-        <v>1867960</v>
+        <v>1712118</v>
       </c>
       <c r="G39" t="n">
-        <v>1735172</v>
+        <v>2078715</v>
       </c>
       <c r="H39" t="n">
-        <v>1921354</v>
+        <v>1818394</v>
       </c>
       <c r="I39" t="n">
-        <v>2287751</v>
+        <v>1651192</v>
       </c>
       <c r="J39" t="n">
-        <v>1908147</v>
+        <v>2046426</v>
       </c>
       <c r="K39" t="n">
-        <v>2442821</v>
+        <v>2469544</v>
       </c>
       <c r="L39" t="n">
-        <v>2696025</v>
+        <v>3017114</v>
       </c>
       <c r="M39" t="n">
-        <v>3757317</v>
+        <v>4083106</v>
       </c>
       <c r="N39" t="n">
-        <v>3241036</v>
+        <v>4315133</v>
       </c>
       <c r="O39" t="n">
-        <v>4393209</v>
+        <v>3990523</v>
       </c>
       <c r="P39" t="n">
-        <v>5140154</v>
+        <v>4293194</v>
       </c>
       <c r="Q39" t="n">
-        <v>4375045</v>
+        <v>4444925</v>
       </c>
       <c r="R39" t="n">
-        <v>4999447</v>
+        <v>4585674</v>
       </c>
       <c r="S39" t="n">
-        <v>4508547</v>
+        <v>4754747</v>
       </c>
       <c r="T39" t="n">
-        <v>4826698</v>
+        <v>4759411</v>
       </c>
       <c r="U39" t="n">
-        <v>5385046</v>
+        <v>5055004</v>
       </c>
       <c r="V39" t="n">
-        <v>5630042</v>
+        <v>6303781</v>
       </c>
       <c r="W39" t="n">
-        <v>6401214</v>
+        <v>6646664</v>
       </c>
       <c r="X39" t="n">
-        <v>6945223</v>
+        <v>8156806</v>
       </c>
       <c r="Y39" t="n">
-        <v>8529058</v>
+        <v>9753954</v>
       </c>
       <c r="Z39" t="n">
-        <v>9581769</v>
+        <v>9995680</v>
       </c>
       <c r="AA39" t="n">
-        <v>10207911</v>
+        <v>10058238</v>
       </c>
       <c r="AB39" t="n">
-        <v>11230628</v>
+        <v>10219296</v>
       </c>
       <c r="AC39" t="n">
-        <v>10805322</v>
+        <v>10874098</v>
       </c>
       <c r="AD39" t="n">
-        <v>11494857</v>
+        <v>12039368</v>
       </c>
       <c r="AE39" t="n">
-        <v>11124280</v>
+        <v>11478123</v>
       </c>
       <c r="AF39" t="n">
-        <v>11511329</v>
+        <v>11010389</v>
       </c>
       <c r="AG39" t="n">
-        <v>12319327</v>
+        <v>13529440</v>
       </c>
       <c r="AH39" t="n">
-        <v>13030219</v>
+        <v>13679824</v>
       </c>
       <c r="AI39" t="n">
-        <v>13967167</v>
+        <v>14670052</v>
       </c>
       <c r="AJ39" t="n">
-        <v>15897877</v>
+        <v>17563262</v>
       </c>
       <c r="AK39" t="n">
-        <v>17216396</v>
+        <v>18436318</v>
       </c>
       <c r="AL39" t="n">
-        <v>19175984</v>
+        <v>20270315</v>
       </c>
       <c r="AM39" t="n">
-        <v>20915998</v>
+        <v>21400093</v>
       </c>
       <c r="AN39" t="n">
-        <v>23338502</v>
+        <v>21755569</v>
       </c>
       <c r="AO39" t="n">
-        <v>22199329</v>
+        <v>22219880</v>
       </c>
       <c r="AP39" t="n">
-        <v>22756548</v>
+        <v>23191332</v>
       </c>
       <c r="AQ39" t="n">
-        <v>21115720</v>
+        <v>21682893</v>
       </c>
       <c r="AR39" t="n">
-        <v>21050109</v>
+        <v>21442594</v>
       </c>
       <c r="AS39" t="n">
-        <v>24871343</v>
+        <v>23706337</v>
       </c>
       <c r="AT39" t="n">
-        <v>25170001</v>
+        <v>25462489</v>
       </c>
       <c r="AU39" t="n">
-        <v>25536373</v>
+        <v>27241392</v>
       </c>
       <c r="AV39" t="n">
-        <v>27913378</v>
+        <v>28436538</v>
       </c>
       <c r="AW39" t="n">
-        <v>28077771</v>
+        <v>32287939</v>
       </c>
       <c r="AX39" t="n">
-        <v>29723864</v>
+        <v>34336556</v>
       </c>
       <c r="AY39" t="n">
-        <v>30901125</v>
+        <v>32872047</v>
       </c>
       <c r="AZ39" t="n">
-        <v>30082767</v>
+        <v>32357907</v>
       </c>
       <c r="BA39" t="n">
-        <v>30942462</v>
+        <v>34036623</v>
       </c>
       <c r="BB39" t="n">
-        <v>31822889</v>
+        <v>34950979</v>
       </c>
       <c r="BC39" t="n">
-        <v>29738371</v>
+        <v>33801505</v>
       </c>
       <c r="BD39" t="n">
-        <v>33581022</v>
+        <v>32853827</v>
       </c>
       <c r="BE39" t="n">
-        <v>37787099</v>
+        <v>37433604</v>
       </c>
       <c r="BF39" t="n">
-        <v>40380278</v>
+        <v>39812250</v>
       </c>
       <c r="BG39" t="n">
-        <v>41339676</v>
+        <v>44356323</v>
       </c>
       <c r="BH39" t="n">
-        <v>42265915</v>
+        <v>48331557</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-96956.60000000009</v>
+        <v>-27435.99999999977</v>
       </c>
       <c r="B40" t="n">
-        <v>-159688.5999999997</v>
+        <v>-151790.5999999996</v>
       </c>
       <c r="C40" t="n">
-        <v>-160848</v>
+        <v>-116686.2000000004</v>
       </c>
       <c r="D40" t="n">
-        <v>-57505.60000000102</v>
+        <v>-152415.5999999992</v>
       </c>
       <c r="E40" t="n">
-        <v>-119878.2000000011</v>
+        <v>-137673.0000000014</v>
       </c>
       <c r="F40" t="n">
-        <v>-77566.39999999851</v>
+        <v>-105685.9999999991</v>
       </c>
       <c r="G40" t="n">
-        <v>-102276</v>
+        <v>-43963</v>
       </c>
       <c r="H40" t="n">
-        <v>-72016.40000000224</v>
+        <v>-87990.80000000354</v>
       </c>
       <c r="I40" t="n">
-        <v>-3939.799999998882</v>
+        <v>-117544</v>
       </c>
       <c r="J40" t="n">
-        <v>-76815.80000000075</v>
+        <v>-52918.79999999702</v>
       </c>
       <c r="K40" t="n">
-        <v>25982.20000000112</v>
+        <v>-38907.19999999367</v>
       </c>
       <c r="L40" t="n">
-        <v>71159.00000000186</v>
+        <v>66610.79999999516</v>
       </c>
       <c r="M40" t="n">
-        <v>264241.4000000171</v>
+        <v>227985.1999999993</v>
       </c>
       <c r="N40" t="n">
-        <v>163927.2000000179</v>
+        <v>259116.6000000052</v>
       </c>
       <c r="O40" t="n">
-        <v>370083.7999999896</v>
+        <v>197646.5999999866</v>
       </c>
       <c r="P40" t="n">
-        <v>467282.7999999821</v>
+        <v>254498.7999999821</v>
       </c>
       <c r="Q40" t="n">
-        <v>314827</v>
+        <v>283874.9999999776</v>
       </c>
       <c r="R40" t="n">
-        <v>439711.4000000134</v>
+        <v>298290.8000000566</v>
       </c>
       <c r="S40" t="n">
-        <v>313651.3999999836</v>
+        <v>332395.4000000209</v>
       </c>
       <c r="T40" t="n">
-        <v>354143.5999999642</v>
+        <v>271536.2000000477</v>
       </c>
       <c r="U40" t="n">
-        <v>468301.2000000179</v>
+        <v>327200.8000000119</v>
       </c>
       <c r="V40" t="n">
-        <v>464812.3999999911</v>
+        <v>542430.2000000104</v>
       </c>
       <c r="W40" t="n">
-        <v>619262.8000000045</v>
+        <v>612628.799999997</v>
       </c>
       <c r="X40" t="n">
-        <v>714514.5999999642</v>
+        <v>905309.2000000551</v>
       </c>
       <c r="Y40" t="n">
-        <v>1019655.599999905</v>
+        <v>1216650.799999997</v>
       </c>
       <c r="Z40" t="n">
-        <v>1229395.799999967</v>
+        <v>1262991.999999955</v>
       </c>
       <c r="AA40" t="n">
-        <v>1349308.200000182</v>
+        <v>1271355.600000009</v>
       </c>
       <c r="AB40" t="n">
-        <v>1548309.600000143</v>
+        <v>1301763.200000077</v>
       </c>
       <c r="AC40" t="n">
-        <v>1460764.400000021</v>
+        <v>1432135.600000009</v>
       </c>
       <c r="AD40" t="n">
-        <v>1599837.399999976</v>
+        <v>1659089.600000009</v>
       </c>
       <c r="AE40" t="n">
-        <v>1481448.000000015</v>
+        <v>1532014.599999756</v>
       </c>
       <c r="AF40" t="n">
-        <v>1537787.799999893</v>
+        <v>1421399.799999774</v>
       </c>
       <c r="AG40" t="n">
-        <v>1693207.399999946</v>
+        <v>1908416.000000179</v>
       </c>
       <c r="AH40" t="n">
-        <v>1832449.800000042</v>
+        <v>1934812.799999863</v>
       </c>
       <c r="AI40" t="n">
-        <v>1989479.400000066</v>
+        <v>2112914.400000066</v>
       </c>
       <c r="AJ40" t="n">
-        <v>2285585.399999648</v>
+        <v>2662312.399999827</v>
       </c>
       <c r="AK40" t="n">
-        <v>2541239.199999928</v>
+        <v>2777035.600000083</v>
       </c>
       <c r="AL40" t="n">
-        <v>2882604.799999774</v>
+        <v>3124500.999999911</v>
       </c>
       <c r="AM40" t="n">
-        <v>3204683.600000024</v>
+        <v>3254316.600000083</v>
       </c>
       <c r="AN40" t="n">
-        <v>3684592.39999938</v>
+        <v>3326011.799999297</v>
       </c>
       <c r="AO40" t="n">
-        <v>3411451.800000548</v>
+        <v>3417223.999999583</v>
       </c>
       <c r="AP40" t="n">
-        <v>3522037.599999905</v>
+        <v>3603474.400000095</v>
       </c>
       <c r="AQ40" t="n">
-        <v>3189320.000000119</v>
+        <v>3297900.600000679</v>
       </c>
       <c r="AR40" t="n">
-        <v>3170015.800000489</v>
+        <v>3251546.80000037</v>
       </c>
       <c r="AS40" t="n">
-        <v>3926874.599999487</v>
+        <v>3699141.400000751</v>
       </c>
       <c r="AT40" t="n">
-        <v>3984738.200000703</v>
+        <v>4039299.799998939</v>
       </c>
       <c r="AU40" t="n">
-        <v>4048180.599998891</v>
+        <v>4391878.399999738</v>
       </c>
       <c r="AV40" t="n">
-        <v>4487431.599999905</v>
+        <v>4596623.599999309</v>
       </c>
       <c r="AW40" t="n">
-        <v>4463960.200000763</v>
+        <v>5299849.800000668</v>
       </c>
       <c r="AX40" t="n">
-        <v>4729700.80000031</v>
+        <v>5691079.200000465</v>
       </c>
       <c r="AY40" t="n">
-        <v>4950298.999999642</v>
+        <v>5397319.399998307</v>
       </c>
       <c r="AZ40" t="n">
-        <v>4773975.399998069</v>
+        <v>5284931.400000691</v>
       </c>
       <c r="BA40" t="n">
-        <v>4946904.400002718</v>
+        <v>5605146.599999785</v>
       </c>
       <c r="BB40" t="n">
-        <v>5126035.799999833</v>
+        <v>5756569.800002337</v>
       </c>
       <c r="BC40" t="n">
-        <v>4705744.19999826</v>
+        <v>5521231.000003815</v>
       </c>
       <c r="BD40" t="n">
-        <v>5438792.400001049</v>
+        <v>5329635.400002122</v>
       </c>
       <c r="BE40" t="n">
-        <v>6274289.800000072</v>
+        <v>6197352.799999952</v>
       </c>
       <c r="BF40" t="n">
-        <v>6742275.600000262</v>
+        <v>6607446.000000358</v>
       </c>
       <c r="BG40" t="n">
-        <v>6929399.199998736</v>
+        <v>7452742.59999907</v>
       </c>
       <c r="BH40" t="n">
-        <v>7110709.000003338</v>
+        <v>8225953.400002241</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -835,694 +835,694 @@
         <v>285</v>
       </c>
       <c r="M3" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N3" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="O3" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="P3" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q3" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="R3" t="n">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="S3" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="T3" t="n">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="U3" t="n">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="V3" t="n">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="W3" t="n">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="X3" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y3" t="n">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="Z3" t="n">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="AA3" t="n">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AB3" t="n">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="AC3" t="n">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="AD3" t="n">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="AE3" t="n">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="AF3" t="n">
-        <v>881</v>
+        <v>898</v>
       </c>
       <c r="AG3" t="n">
-        <v>896</v>
+        <v>934</v>
       </c>
       <c r="AH3" t="n">
-        <v>968</v>
+        <v>1013</v>
       </c>
       <c r="AI3" t="n">
-        <v>1011</v>
+        <v>1046</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1109</v>
+        <v>1092</v>
       </c>
       <c r="AK3" t="n">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="AL3" t="n">
-        <v>1269</v>
+        <v>1237</v>
       </c>
       <c r="AM3" t="n">
         <v>1316</v>
       </c>
       <c r="AN3" t="n">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="AO3" t="n">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="AP3" t="n">
-        <v>1488</v>
+        <v>1422</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="AR3" t="n">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="AS3" t="n">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="AT3" t="n">
-        <v>1683</v>
+        <v>1773</v>
       </c>
       <c r="AU3" t="n">
-        <v>1725</v>
+        <v>1795</v>
       </c>
       <c r="AV3" t="n">
-        <v>1891</v>
+        <v>1853</v>
       </c>
       <c r="AW3" t="n">
-        <v>2075</v>
+        <v>2080</v>
       </c>
       <c r="AX3" t="n">
-        <v>2145</v>
+        <v>2021</v>
       </c>
       <c r="AY3" t="n">
-        <v>2249</v>
+        <v>2115</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2331</v>
+        <v>2170</v>
       </c>
       <c r="BA3" t="n">
-        <v>2322</v>
+        <v>2157</v>
       </c>
       <c r="BB3" t="n">
-        <v>2454</v>
+        <v>2251</v>
       </c>
       <c r="BC3" t="n">
-        <v>2397</v>
+        <v>2316</v>
       </c>
       <c r="BD3" t="n">
-        <v>2436</v>
+        <v>2386</v>
       </c>
       <c r="BE3" t="n">
-        <v>2533</v>
+        <v>2467</v>
       </c>
       <c r="BF3" t="n">
-        <v>2679</v>
+        <v>2719</v>
       </c>
       <c r="BG3" t="n">
-        <v>2762</v>
+        <v>2738</v>
       </c>
       <c r="BH3" t="n">
-        <v>2943</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19</v>
+      </c>
+      <c r="E4" t="n">
         <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N4" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O4" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P4" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>32</v>
+      </c>
+      <c r="R4" t="n">
+        <v>43</v>
+      </c>
+      <c r="S4" t="n">
+        <v>43</v>
+      </c>
+      <c r="T4" t="n">
+        <v>37</v>
+      </c>
+      <c r="U4" t="n">
+        <v>43</v>
+      </c>
+      <c r="V4" t="n">
+        <v>43</v>
+      </c>
+      <c r="W4" t="n">
         <v>35</v>
       </c>
-      <c r="Q4" t="n">
-        <v>27</v>
-      </c>
-      <c r="R4" t="n">
-        <v>42</v>
-      </c>
-      <c r="S4" t="n">
-        <v>39</v>
-      </c>
-      <c r="T4" t="n">
-        <v>55</v>
-      </c>
-      <c r="U4" t="n">
-        <v>38</v>
-      </c>
-      <c r="V4" t="n">
-        <v>35</v>
-      </c>
-      <c r="W4" t="n">
-        <v>41</v>
-      </c>
       <c r="X4" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="Y4" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Z4" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AB4" t="n">
+        <v>56</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>68</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>64</v>
+      </c>
+      <c r="AE4" t="n">
         <v>54</v>
       </c>
-      <c r="AC4" t="n">
-        <v>56</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>61</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>63</v>
-      </c>
       <c r="AF4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>62</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>72</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL4" t="n">
         <v>71</v>
       </c>
-      <c r="AG4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>66</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>47</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>62</v>
-      </c>
       <c r="AM4" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AO4" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AP4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>72</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>80</v>
-      </c>
       <c r="AR4" t="n">
+        <v>79</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>73</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>96</v>
+      </c>
+      <c r="AU4" t="n">
         <v>86</v>
       </c>
-      <c r="AS4" t="n">
-        <v>99</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>92</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>92</v>
-      </c>
       <c r="AV4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>94</v>
+      </c>
+      <c r="AX4" t="n">
         <v>97</v>
       </c>
-      <c r="AW4" t="n">
-        <v>99</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>73</v>
-      </c>
       <c r="AY4" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AZ4" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="BA4" t="n">
+        <v>87</v>
+      </c>
+      <c r="BB4" t="n">
         <v>89</v>
       </c>
-      <c r="BB4" t="n">
-        <v>99</v>
-      </c>
       <c r="BC4" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BD4" t="n">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="BE4" t="n">
         <v>98</v>
       </c>
       <c r="BF4" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="BG4" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BH4" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F5" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H5" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I5" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K5" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L5" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M5" t="n">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="N5" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="O5" t="n">
         <v>134</v>
       </c>
       <c r="P5" t="n">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q5" t="n">
+        <v>153</v>
+      </c>
+      <c r="R5" t="n">
+        <v>146</v>
+      </c>
+      <c r="S5" t="n">
+        <v>166</v>
+      </c>
+      <c r="T5" t="n">
         <v>159</v>
-      </c>
-      <c r="R5" t="n">
-        <v>158</v>
-      </c>
-      <c r="S5" t="n">
-        <v>147</v>
-      </c>
-      <c r="T5" t="n">
-        <v>167</v>
       </c>
       <c r="U5" t="n">
         <v>179</v>
       </c>
       <c r="V5" t="n">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="W5" t="n">
+        <v>170</v>
+      </c>
+      <c r="X5" t="n">
         <v>189</v>
       </c>
-      <c r="X5" t="n">
-        <v>199</v>
-      </c>
       <c r="Y5" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Z5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA5" t="n">
         <v>231</v>
       </c>
-      <c r="AA5" t="n">
-        <v>202</v>
-      </c>
       <c r="AB5" t="n">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="AC5" t="n">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AD5" t="n">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="AE5" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AF5" t="n">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="AG5" t="n">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AH5" t="n">
         <v>267</v>
       </c>
       <c r="AI5" t="n">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="AJ5" t="n">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AK5" t="n">
+        <v>315</v>
+      </c>
+      <c r="AL5" t="n">
         <v>281</v>
       </c>
-      <c r="AL5" t="n">
-        <v>303</v>
-      </c>
       <c r="AM5" t="n">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="AN5" t="n">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AO5" t="n">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="AP5" t="n">
+        <v>326</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>322</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>321</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>338</v>
+      </c>
+      <c r="AT5" t="n">
         <v>332</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>315</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>345</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>352</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>333</v>
-      </c>
       <c r="AU5" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AV5" t="n">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AW5" t="n">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AX5" t="n">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="AY5" t="n">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="AZ5" t="n">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="BA5" t="n">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="BB5" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="BC5" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="BD5" t="n">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="BE5" t="n">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="BF5" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BG5" t="n">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="BH5" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F6" t="n">
+        <v>84</v>
+      </c>
+      <c r="G6" t="n">
         <v>85</v>
       </c>
-      <c r="G6" t="n">
-        <v>90</v>
-      </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I6" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K6" t="n">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="L6" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M6" t="n">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="N6" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O6" t="n">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="P6" t="n">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="Q6" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R6" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="S6" t="n">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="T6" t="n">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="U6" t="n">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="V6" t="n">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="W6" t="n">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="X6" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Y6" t="n">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="Z6" t="n">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="AA6" t="n">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="AB6" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AC6" t="n">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AD6" t="n">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="AE6" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AF6" t="n">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="AG6" t="n">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="AH6" t="n">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AI6" t="n">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="AJ6" t="n">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AK6" t="n">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="AL6" t="n">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="AM6" t="n">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="AN6" t="n">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AO6" t="n">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="AP6" t="n">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="AQ6" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AR6" t="n">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="AS6" t="n">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="AT6" t="n">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AU6" t="n">
+        <v>469</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>454</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>455</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>456</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>456</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>464</v>
       </c>
-      <c r="AV6" t="n">
-        <v>438</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>438</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>490</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>463</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>461</v>
-      </c>
       <c r="BA6" t="n">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="BB6" t="n">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="BC6" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="BD6" t="n">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="BE6" t="n">
+        <v>481</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>498</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>484</v>
+      </c>
+      <c r="BH6" t="n">
         <v>488</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>492</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>502</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>486</v>
       </c>
     </row>
     <row r="7">
@@ -1563,330 +1563,330 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N7" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O7" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P7" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q7" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R7" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="S7" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T7" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="U7" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="V7" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="W7" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="X7" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y7" t="n">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Z7" t="n">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AA7" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AB7" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AC7" t="n">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AD7" t="n">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AE7" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AF7" t="n">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="AG7" t="n">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="AH7" t="n">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="AI7" t="n">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="AJ7" t="n">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="AK7" t="n">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AL7" t="n">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="AM7" t="n">
         <v>571</v>
       </c>
       <c r="AN7" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AO7" t="n">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AP7" t="n">
-        <v>697</v>
+        <v>631</v>
       </c>
       <c r="AQ7" t="n">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="AR7" t="n">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="AS7" t="n">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="AT7" t="n">
-        <v>827</v>
+        <v>917</v>
       </c>
       <c r="AU7" t="n">
-        <v>851</v>
+        <v>921</v>
       </c>
       <c r="AV7" t="n">
-        <v>1001</v>
+        <v>963</v>
       </c>
       <c r="AW7" t="n">
-        <v>1166</v>
+        <v>1171</v>
       </c>
       <c r="AX7" t="n">
-        <v>1228</v>
+        <v>1104</v>
       </c>
       <c r="AY7" t="n">
-        <v>1322</v>
+        <v>1188</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1395</v>
+        <v>1234</v>
       </c>
       <c r="BA7" t="n">
-        <v>1376</v>
+        <v>1211</v>
       </c>
       <c r="BB7" t="n">
-        <v>1499</v>
+        <v>1296</v>
       </c>
       <c r="BC7" t="n">
-        <v>1433</v>
+        <v>1352</v>
       </c>
       <c r="BD7" t="n">
-        <v>1462</v>
+        <v>1412</v>
       </c>
       <c r="BE7" t="n">
-        <v>1549</v>
+        <v>1483</v>
       </c>
       <c r="BF7" t="n">
-        <v>1685</v>
+        <v>1725</v>
       </c>
       <c r="BG7" t="n">
-        <v>1758</v>
+        <v>1734</v>
       </c>
       <c r="BH7" t="n">
-        <v>1930</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15</v>
-      </c>
       <c r="D8" t="n">
+        <v>16</v>
+      </c>
+      <c r="E8" t="n">
         <v>18</v>
       </c>
-      <c r="E8" t="n">
-        <v>19</v>
-      </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K8" t="n">
+        <v>43</v>
+      </c>
+      <c r="L8" t="n">
         <v>34</v>
       </c>
-      <c r="L8" t="n">
-        <v>36</v>
-      </c>
       <c r="M8" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O8" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q8" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="R8" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="S8" t="n">
         <v>66</v>
       </c>
       <c r="T8" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U8" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V8" t="n">
+        <v>55</v>
+      </c>
+      <c r="W8" t="n">
+        <v>65</v>
+      </c>
+      <c r="X8" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>72</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC8" t="n">
         <v>52</v>
       </c>
-      <c r="W8" t="n">
-        <v>51</v>
-      </c>
-      <c r="X8" t="n">
-        <v>72</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>54</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>69</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>69</v>
-      </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>60</v>
       </c>
-      <c r="AD8" t="n">
-        <v>66</v>
-      </c>
       <c r="AE8" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="AG8" t="n">
         <v>76</v>
       </c>
       <c r="AH8" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AJ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>74</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>72</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>62</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>73</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>61</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>65</v>
       </c>
-      <c r="AK8" t="n">
-        <v>79</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>79</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>94</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>76</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>73</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>73</v>
-      </c>
       <c r="AR8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>66</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>83</v>
+      </c>
+      <c r="AW8" t="n">
         <v>78</v>
       </c>
-      <c r="AS8" t="n">
-        <v>82</v>
-      </c>
-      <c r="AT8" t="n">
+      <c r="AX8" t="n">
         <v>70</v>
       </c>
-      <c r="AU8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>61</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>79</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>73</v>
-      </c>
       <c r="AY8" t="n">
+        <v>77</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>85</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>78</v>
+      </c>
+      <c r="BC8" t="n">
         <v>90</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="BD8" t="n">
+        <v>85</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>69</v>
+      </c>
+      <c r="BF8" t="n">
         <v>80</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BG8" t="n">
         <v>83</v>
       </c>
-      <c r="BB8" t="n">
-        <v>72</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>63</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>74</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>74</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>100</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>87</v>
-      </c>
       <c r="BH8" t="n">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -1900,34 +1900,34 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1951,22 +1951,22 @@
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1990,85 +1990,85 @@
         <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC9" t="n">
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2076,142 +2076,142 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
         <v>4</v>
       </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
         <v>3</v>
       </c>
-      <c r="I10" t="n">
-        <v>8</v>
-      </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>7</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
+        <v>12</v>
+      </c>
+      <c r="P10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9</v>
+      </c>
+      <c r="R10" t="n">
+        <v>10</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="n">
+        <v>16</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>12</v>
+      </c>
+      <c r="W10" t="n">
         <v>13</v>
       </c>
-      <c r="P10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
         <v>10</v>
       </c>
-      <c r="R10" t="n">
+      <c r="Z10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF10" t="n">
         <v>15</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM10" t="n">
         <v>19</v>
       </c>
-      <c r="T10" t="n">
-        <v>6</v>
-      </c>
-      <c r="U10" t="n">
-        <v>11</v>
-      </c>
-      <c r="V10" t="n">
-        <v>6</v>
-      </c>
-      <c r="W10" t="n">
-        <v>5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AN10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>10</v>
       </c>
-      <c r="AE10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM10" t="n">
+      <c r="AR10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS10" t="n">
         <v>12</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>17</v>
       </c>
       <c r="AT10" t="n">
         <v>14</v>
       </c>
       <c r="AU10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AV10" t="n">
         <v>16</v>
@@ -2220,219 +2220,219 @@
         <v>14</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BB10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC10" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>14</v>
       </c>
       <c r="BE10" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BF10" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BG10" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BH10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
         <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J11" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P11" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="Q11" t="n">
+        <v>36</v>
+      </c>
+      <c r="R11" t="n">
         <v>30</v>
       </c>
-      <c r="R11" t="n">
-        <v>35</v>
-      </c>
       <c r="S11" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="T11" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U11" t="n">
         <v>43</v>
       </c>
       <c r="V11" t="n">
+        <v>42</v>
+      </c>
+      <c r="W11" t="n">
+        <v>49</v>
+      </c>
+      <c r="X11" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>47</v>
+      </c>
+      <c r="AB11" t="n">
         <v>45</v>
       </c>
-      <c r="W11" t="n">
-        <v>43</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="AC11" t="n">
+        <v>39</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE11" t="n">
         <v>58</v>
       </c>
-      <c r="Y11" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AF11" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>63</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>58</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>64</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>57</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM11" t="n">
         <v>50</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AN11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>59</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>53</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>52</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>61</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AX11" t="n">
         <v>54</v>
       </c>
-      <c r="AC11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>53</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>54</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>54</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>77</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>62</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>47</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AY11" t="n">
+        <v>58</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>58</v>
+      </c>
+      <c r="BA11" t="n">
         <v>60</v>
       </c>
-      <c r="AL11" t="n">
-        <v>61</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>77</v>
-      </c>
-      <c r="AN11" t="n">
+      <c r="BB11" t="n">
         <v>57</v>
       </c>
-      <c r="AO11" t="n">
-        <v>56</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>56</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>61</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>59</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>52</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>72</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>61</v>
-      </c>
-      <c r="AX11" t="n">
+      <c r="BC11" t="n">
+        <v>63</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>68</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>44</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>64</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>65</v>
+      </c>
+      <c r="BH11" t="n">
         <v>51</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>79</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>63</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>62</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>52</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>45</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>54</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>56</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>77</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>68</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -2473,13 +2473,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -2488,37 +2488,37 @@
         <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z12" t="n">
         <v>3</v>
       </c>
-      <c r="T12" t="n">
-        <v>3</v>
-      </c>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" t="n">
-        <v>3</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>2</v>
-      </c>
       <c r="AA12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC12" t="n">
         <v>2</v>
@@ -2527,46 +2527,46 @@
         <v>3</v>
       </c>
       <c r="AE12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="n">
         <v>4</v>
       </c>
-      <c r="AF12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>7</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AO12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS12" t="n">
         <v>3</v>
@@ -2575,228 +2575,228 @@
         <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX12" t="n">
         <v>4</v>
       </c>
-      <c r="AX12" t="n">
-        <v>2</v>
-      </c>
       <c r="AY12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ12" t="n">
         <v>1</v>
       </c>
       <c r="BA12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
         <v>4</v>
       </c>
       <c r="BD12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE12" t="n">
         <v>5</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>6</v>
       </c>
       <c r="BF12" t="n">
         <v>4</v>
       </c>
       <c r="BG12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="n">
         <v>16</v>
       </c>
-      <c r="D13" t="n">
-        <v>16</v>
-      </c>
-      <c r="E13" t="n">
-        <v>21</v>
-      </c>
-      <c r="F13" t="n">
-        <v>24</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>22</v>
       </c>
-      <c r="H13" t="n">
-        <v>35</v>
-      </c>
       <c r="I13" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J13" t="n">
         <v>31</v>
       </c>
       <c r="K13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M13" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N13" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O13" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="P13" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q13" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R13" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S13" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T13" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="U13" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="V13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W13" t="n">
+        <v>53</v>
+      </c>
+      <c r="X13" t="n">
+        <v>68</v>
+      </c>
+      <c r="Y13" t="n">
         <v>62</v>
       </c>
-      <c r="X13" t="n">
-        <v>56</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA13" t="n">
         <v>63</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AB13" t="n">
         <v>61</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AC13" t="n">
         <v>69</v>
       </c>
-      <c r="AB13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>71</v>
-      </c>
       <c r="AD13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>63</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>62</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>83</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>84</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>73</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>87</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>69</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>66</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>57</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>68</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>79</v>
       </c>
-      <c r="AE13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>71</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>83</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>68</v>
-      </c>
-      <c r="AI13" t="n">
+      <c r="AR13" t="n">
         <v>72</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>92</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>86</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>88</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>102</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>78</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>82</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>85</v>
       </c>
       <c r="AS13" t="n">
         <v>85</v>
       </c>
       <c r="AT13" t="n">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="AU13" t="n">
+        <v>78</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>82</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>59</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>79</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>93</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>82</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>86</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>82</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>78</v>
+      </c>
+      <c r="BE13" t="n">
         <v>88</v>
       </c>
-      <c r="AV13" t="n">
-        <v>84</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>91</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>87</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>85</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>76</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>83</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>93</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>86</v>
-      </c>
       <c r="BF13" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="BG13" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BH13" t="n">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -2816,16 +2816,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2834,16 +2834,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -2855,13 +2855,13 @@
         <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2870,70 +2870,70 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
         <v>3</v>
       </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
       <c r="AH14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2942,29 +2942,29 @@
         <v>0</v>
       </c>
       <c r="AV14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC14" t="n">
         <v>3</v>
       </c>
-      <c r="AW14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>2</v>
-      </c>
       <c r="BD14" t="n">
         <v>0</v>
       </c>
@@ -2975,15 +2975,15 @@
         <v>1</v>
       </c>
       <c r="BG14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2992,357 +2992,357 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" t="n">
         <v>4</v>
       </c>
-      <c r="H15" t="n">
+      <c r="M15" t="n">
         <v>11</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="N15" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>12</v>
+      </c>
+      <c r="P15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" t="n">
+        <v>10</v>
+      </c>
+      <c r="S15" t="n">
+        <v>16</v>
+      </c>
+      <c r="T15" t="n">
+        <v>13</v>
+      </c>
+      <c r="U15" t="n">
         <v>7</v>
       </c>
-      <c r="L15" t="n">
-        <v>6</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="V15" t="n">
         <v>14</v>
       </c>
-      <c r="N15" t="n">
-        <v>8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>8</v>
-      </c>
-      <c r="R15" t="n">
-        <v>6</v>
-      </c>
-      <c r="S15" t="n">
-        <v>9</v>
-      </c>
-      <c r="T15" t="n">
-        <v>11</v>
-      </c>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>7</v>
       </c>
-      <c r="W15" t="n">
-        <v>11</v>
-      </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
         <v>14</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
         <v>10</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM15" t="n">
         <v>17</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV15" t="n">
         <v>16</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AW15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>18</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG15" t="n">
         <v>16</v>
       </c>
-      <c r="AR15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>14</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>22</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>19</v>
-      </c>
-      <c r="BF15" t="n">
+      <c r="BH15" t="n">
         <v>12</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>20</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
         <v>13</v>
       </c>
       <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="n">
         <v>16</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>13</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>18</v>
+      </c>
+      <c r="J16" t="n">
         <v>21</v>
       </c>
-      <c r="G16" t="n">
-        <v>17</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="K16" t="n">
+        <v>25</v>
+      </c>
+      <c r="L16" t="n">
         <v>24</v>
       </c>
-      <c r="I16" t="n">
-        <v>19</v>
-      </c>
-      <c r="J16" t="n">
-        <v>25</v>
-      </c>
-      <c r="K16" t="n">
-        <v>24</v>
-      </c>
-      <c r="L16" t="n">
-        <v>33</v>
-      </c>
       <c r="M16" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P16" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>34</v>
+      </c>
+      <c r="R16" t="n">
+        <v>45</v>
+      </c>
+      <c r="S16" t="n">
+        <v>34</v>
+      </c>
+      <c r="T16" t="n">
+        <v>46</v>
+      </c>
+      <c r="U16" t="n">
+        <v>27</v>
+      </c>
+      <c r="V16" t="n">
+        <v>35</v>
+      </c>
+      <c r="W16" t="n">
+        <v>41</v>
+      </c>
+      <c r="X16" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>47</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>56</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>52</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>43</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>63</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>54</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>53</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>49</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>45</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>49</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>58</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>56</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>63</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>39</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>61</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>64</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>64</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>58</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>59</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>55</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>58</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>60</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>54</v>
+      </c>
+      <c r="BH16" t="n">
         <v>37</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>31</v>
-      </c>
-      <c r="R16" t="n">
-        <v>30</v>
-      </c>
-      <c r="S16" t="n">
-        <v>36</v>
-      </c>
-      <c r="T16" t="n">
-        <v>26</v>
-      </c>
-      <c r="U16" t="n">
-        <v>24</v>
-      </c>
-      <c r="V16" t="n">
-        <v>41</v>
-      </c>
-      <c r="W16" t="n">
-        <v>48</v>
-      </c>
-      <c r="X16" t="n">
-        <v>33</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>33</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>54</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>64</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>35</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>47</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>62</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>53</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>52</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>63</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>61</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>56</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>62</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>53</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>59</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>61</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>57</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>64</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>64</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>54</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>58</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>57</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>65</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>62</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>57</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>44</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>59</v>
       </c>
     </row>
     <row r="17">
@@ -3383,335 +3383,335 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="n">
         <v>4</v>
       </c>
-      <c r="N17" t="n">
-        <v>2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
         <v>4</v>
       </c>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="W17" t="n">
         <v>5</v>
       </c>
-      <c r="T17" t="n">
-        <v>2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" t="n">
+      <c r="X17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK17" t="n">
         <v>6</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AL17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR17" t="n">
         <v>3</v>
       </c>
-      <c r="X17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AS17" t="n">
         <v>3</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>5</v>
       </c>
       <c r="AT17" t="n">
         <v>10</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB17" t="n">
         <v>3</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="BC17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF17" t="n">
         <v>6</v>
       </c>
-      <c r="AZ17" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>11</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>9</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>13</v>
-      </c>
       <c r="BG17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH17" t="n">
         <v>7</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
+        <v>18</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" t="n">
         <v>16</v>
       </c>
-      <c r="D18" t="n">
-        <v>18</v>
-      </c>
-      <c r="E18" t="n">
-        <v>13</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>27</v>
+      </c>
+      <c r="H18" t="n">
         <v>23</v>
       </c>
-      <c r="G18" t="n">
-        <v>28</v>
-      </c>
-      <c r="H18" t="n">
-        <v>19</v>
-      </c>
       <c r="I18" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J18" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K18" t="n">
         <v>28</v>
       </c>
       <c r="L18" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M18" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O18" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P18" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Q18" t="n">
         <v>85</v>
       </c>
       <c r="R18" t="n">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="S18" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T18" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U18" t="n">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="V18" t="n">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="W18" t="n">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="X18" t="n">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="Y18" t="n">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Z18" t="n">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="AA18" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AB18" t="n">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="AC18" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AD18" t="n">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="AE18" t="n">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="AF18" t="n">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AG18" t="n">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="AH18" t="n">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="AI18" t="n">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="AJ18" t="n">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="AK18" t="n">
+        <v>488</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>437</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>476</v>
+      </c>
+      <c r="AN18" t="n">
         <v>490</v>
       </c>
-      <c r="AL18" t="n">
-        <v>525</v>
-      </c>
-      <c r="AM18" t="n">
+      <c r="AO18" t="n">
+        <v>468</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>536</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>536</v>
+      </c>
+      <c r="AR18" t="n">
         <v>569</v>
       </c>
-      <c r="AN18" t="n">
-        <v>593</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>611</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>644</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>597</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>607</v>
-      </c>
       <c r="AS18" t="n">
-        <v>640</v>
+        <v>585</v>
       </c>
       <c r="AT18" t="n">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="AU18" t="n">
-        <v>724</v>
+        <v>670</v>
       </c>
       <c r="AV18" t="n">
-        <v>784</v>
+        <v>753</v>
       </c>
       <c r="AW18" t="n">
-        <v>899</v>
+        <v>810</v>
       </c>
       <c r="AX18" t="n">
-        <v>961</v>
+        <v>824</v>
       </c>
       <c r="AY18" t="n">
-        <v>943</v>
+        <v>848</v>
       </c>
       <c r="AZ18" t="n">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="BA18" t="n">
-        <v>972</v>
+        <v>935</v>
       </c>
       <c r="BB18" t="n">
-        <v>1025</v>
+        <v>912</v>
       </c>
       <c r="BC18" t="n">
-        <v>976</v>
+        <v>937</v>
       </c>
       <c r="BD18" t="n">
-        <v>978</v>
+        <v>913</v>
       </c>
       <c r="BE18" t="n">
-        <v>1084</v>
+        <v>948</v>
       </c>
       <c r="BF18" t="n">
-        <v>1167</v>
+        <v>1024</v>
       </c>
       <c r="BG18" t="n">
-        <v>1274</v>
+        <v>1082</v>
       </c>
       <c r="BH18" t="n">
-        <v>1378</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -3729,13 +3729,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -3744,16 +3744,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -3762,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -3777,482 +3777,482 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
         <v>3</v>
       </c>
-      <c r="AF19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
       <c r="BG19" t="n">
         <v>2</v>
       </c>
       <c r="BH19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" t="n">
         <v>6</v>
       </c>
-      <c r="G20" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>11</v>
+      </c>
+      <c r="M20" t="n">
+        <v>12</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>9</v>
+      </c>
+      <c r="P20" t="n">
         <v>8</v>
       </c>
-      <c r="K20" t="n">
+      <c r="Q20" t="n">
         <v>5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="R20" t="n">
         <v>6</v>
       </c>
-      <c r="M20" t="n">
+      <c r="S20" t="n">
         <v>9</v>
       </c>
-      <c r="N20" t="n">
-        <v>13</v>
-      </c>
-      <c r="O20" t="n">
-        <v>8</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="T20" t="n">
         <v>9</v>
       </c>
-      <c r="R20" t="n">
-        <v>8</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>4</v>
-      </c>
       <c r="U20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V20" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="W20" t="n">
         <v>13</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
         <v>13</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC20" t="n">
         <v>10</v>
       </c>
-      <c r="AC20" t="n">
-        <v>16</v>
-      </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
         <v>19</v>
       </c>
-      <c r="AH20" t="n">
-        <v>12</v>
-      </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AK20" t="n">
         <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AM20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN20" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ20" t="n">
         <v>17</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AS20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AT20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AV20" t="n">
         <v>13</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY20" t="n">
         <v>17</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA20" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>11</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF20" t="n">
         <v>16</v>
       </c>
-      <c r="BB20" t="n">
-        <v>21</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>12</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>16</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>12</v>
-      </c>
       <c r="BG20" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BH20" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15</v>
+      </c>
+      <c r="D21" t="n">
+        <v>13</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13</v>
+      </c>
+      <c r="F21" t="n">
         <v>8</v>
       </c>
-      <c r="B21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" t="n">
-        <v>12</v>
-      </c>
-      <c r="D21" t="n">
-        <v>14</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>18</v>
+      </c>
+      <c r="H21" t="n">
         <v>17</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
+        <v>20</v>
+      </c>
+      <c r="J21" t="n">
+        <v>23</v>
+      </c>
+      <c r="K21" t="n">
+        <v>22</v>
+      </c>
+      <c r="L21" t="n">
+        <v>32</v>
+      </c>
+      <c r="M21" t="n">
+        <v>24</v>
+      </c>
+      <c r="N21" t="n">
+        <v>36</v>
+      </c>
+      <c r="O21" t="n">
+        <v>29</v>
+      </c>
+      <c r="P21" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>31</v>
+      </c>
+      <c r="R21" t="n">
+        <v>35</v>
+      </c>
+      <c r="S21" t="n">
         <v>25</v>
       </c>
-      <c r="H21" t="n">
-        <v>15</v>
-      </c>
-      <c r="I21" t="n">
-        <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>16</v>
-      </c>
-      <c r="K21" t="n">
-        <v>23</v>
-      </c>
-      <c r="L21" t="n">
-        <v>27</v>
-      </c>
-      <c r="M21" t="n">
-        <v>23</v>
-      </c>
-      <c r="N21" t="n">
-        <v>35</v>
-      </c>
-      <c r="O21" t="n">
-        <v>31</v>
-      </c>
-      <c r="P21" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="T21" t="n">
+        <v>38</v>
+      </c>
+      <c r="U21" t="n">
         <v>37</v>
       </c>
-      <c r="R21" t="n">
-        <v>33</v>
-      </c>
-      <c r="S21" t="n">
-        <v>33</v>
-      </c>
-      <c r="T21" t="n">
+      <c r="V21" t="n">
+        <v>45</v>
+      </c>
+      <c r="W21" t="n">
+        <v>48</v>
+      </c>
+      <c r="X21" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z21" t="n">
         <v>37</v>
       </c>
-      <c r="U21" t="n">
-        <v>41</v>
-      </c>
-      <c r="V21" t="n">
-        <v>38</v>
-      </c>
-      <c r="W21" t="n">
-        <v>33</v>
-      </c>
-      <c r="X21" t="n">
-        <v>58</v>
-      </c>
-      <c r="Y21" t="n">
+      <c r="AA21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF21" t="n">
         <v>42</v>
       </c>
-      <c r="Z21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA21" t="n">
+      <c r="AG21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>59</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>54</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>57</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>56</v>
+      </c>
+      <c r="AN21" t="n">
         <v>48</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AO21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AP21" t="n">
         <v>46</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AQ21" t="n">
         <v>48</v>
       </c>
-      <c r="AD21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>54</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>73</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>57</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>53</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>56</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>59</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>61</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>79</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>61</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>53</v>
-      </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AS21" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AT21" t="n">
         <v>48</v>
       </c>
       <c r="AU21" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="AW21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>53</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>57</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>78</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC21" t="n">
         <v>64</v>
       </c>
-      <c r="AX21" t="n">
-        <v>74</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>61</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>47</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>48</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>46</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>52</v>
-      </c>
       <c r="BD21" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BE21" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BF21" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="BG21" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="BH21" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -4293,876 +4293,876 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N22" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O22" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P22" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>49</v>
+      </c>
+      <c r="R22" t="n">
         <v>47</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>39</v>
-      </c>
-      <c r="R22" t="n">
-        <v>60</v>
       </c>
       <c r="S22" t="n">
         <v>49</v>
       </c>
       <c r="T22" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="U22" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="V22" t="n">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="W22" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="X22" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Y22" t="n">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="Z22" t="n">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="AA22" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AB22" t="n">
+        <v>194</v>
+      </c>
+      <c r="AC22" t="n">
         <v>198</v>
       </c>
-      <c r="AC22" t="n">
-        <v>192</v>
-      </c>
       <c r="AD22" t="n">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="AE22" t="n">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="AF22" t="n">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="n">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="AH22" t="n">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="AI22" t="n">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="AJ22" t="n">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="AK22" t="n">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AL22" t="n">
-        <v>444</v>
+        <v>365</v>
       </c>
       <c r="AM22" t="n">
-        <v>478</v>
+        <v>409</v>
       </c>
       <c r="AN22" t="n">
-        <v>511</v>
+        <v>428</v>
       </c>
       <c r="AO22" t="n">
-        <v>521</v>
+        <v>407</v>
       </c>
       <c r="AP22" t="n">
-        <v>570</v>
+        <v>475</v>
       </c>
       <c r="AQ22" t="n">
-        <v>526</v>
+        <v>469</v>
       </c>
       <c r="AR22" t="n">
-        <v>548</v>
+        <v>505</v>
       </c>
       <c r="AS22" t="n">
-        <v>576</v>
+        <v>525</v>
       </c>
       <c r="AT22" t="n">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="AU22" t="n">
-        <v>643</v>
+        <v>598</v>
       </c>
       <c r="AV22" t="n">
-        <v>719</v>
+        <v>673</v>
       </c>
       <c r="AW22" t="n">
-        <v>826</v>
+        <v>756</v>
       </c>
       <c r="AX22" t="n">
-        <v>875</v>
+        <v>758</v>
       </c>
       <c r="AY22" t="n">
-        <v>862</v>
+        <v>773</v>
       </c>
       <c r="AZ22" t="n">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="BA22" t="n">
-        <v>907</v>
+        <v>847</v>
       </c>
       <c r="BB22" t="n">
-        <v>956</v>
+        <v>830</v>
       </c>
       <c r="BC22" t="n">
-        <v>910</v>
+        <v>854</v>
       </c>
       <c r="BD22" t="n">
-        <v>915</v>
+        <v>846</v>
       </c>
       <c r="BE22" t="n">
-        <v>1009</v>
+        <v>873</v>
       </c>
       <c r="BF22" t="n">
-        <v>1101</v>
+        <v>962</v>
       </c>
       <c r="BG22" t="n">
-        <v>1192</v>
+        <v>998</v>
       </c>
       <c r="BH22" t="n">
-        <v>1301</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>129600</v>
+        <v>133200</v>
       </c>
       <c r="B23" t="n">
-        <v>111600</v>
+        <v>104400</v>
       </c>
       <c r="C23" t="n">
-        <v>169200</v>
+        <v>147600</v>
       </c>
       <c r="D23" t="n">
-        <v>187200</v>
+        <v>180000</v>
       </c>
       <c r="E23" t="n">
-        <v>190800</v>
+        <v>201600</v>
       </c>
       <c r="F23" t="n">
-        <v>252000</v>
+        <v>205200</v>
       </c>
       <c r="G23" t="n">
-        <v>237600</v>
+        <v>226800</v>
       </c>
       <c r="H23" t="n">
-        <v>280800</v>
+        <v>255600</v>
       </c>
       <c r="I23" t="n">
-        <v>230400</v>
+        <v>313200</v>
       </c>
       <c r="J23" t="n">
-        <v>302400</v>
+        <v>363600</v>
       </c>
       <c r="K23" t="n">
-        <v>334800</v>
+        <v>363600</v>
       </c>
       <c r="L23" t="n">
-        <v>396000</v>
+        <v>392400</v>
       </c>
       <c r="M23" t="n">
-        <v>522000</v>
+        <v>550800</v>
       </c>
       <c r="N23" t="n">
-        <v>565200</v>
+        <v>532800</v>
       </c>
       <c r="O23" t="n">
-        <v>558000</v>
+        <v>586800</v>
       </c>
       <c r="P23" t="n">
+        <v>633600</v>
+      </c>
+      <c r="Q23" t="n">
         <v>637200</v>
       </c>
-      <c r="Q23" t="n">
-        <v>615600</v>
-      </c>
       <c r="R23" t="n">
-        <v>691200</v>
+        <v>680400</v>
       </c>
       <c r="S23" t="n">
         <v>730800</v>
       </c>
       <c r="T23" t="n">
-        <v>666000</v>
+        <v>752400</v>
       </c>
       <c r="U23" t="n">
-        <v>702000</v>
+        <v>756000</v>
       </c>
       <c r="V23" t="n">
-        <v>824400</v>
+        <v>925200</v>
       </c>
       <c r="W23" t="n">
-        <v>874800</v>
+        <v>972000</v>
       </c>
       <c r="X23" t="n">
-        <v>1090800</v>
+        <v>1033200</v>
       </c>
       <c r="Y23" t="n">
-        <v>1263600</v>
+        <v>1224000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1260000</v>
+        <v>1184400</v>
       </c>
       <c r="AA23" t="n">
-        <v>1328400</v>
+        <v>1321200</v>
       </c>
       <c r="AB23" t="n">
         <v>1404000</v>
       </c>
       <c r="AC23" t="n">
-        <v>1393200</v>
+        <v>1368000</v>
       </c>
       <c r="AD23" t="n">
-        <v>1566000</v>
+        <v>1386000</v>
       </c>
       <c r="AE23" t="n">
-        <v>1483200</v>
+        <v>1461600</v>
       </c>
       <c r="AF23" t="n">
-        <v>1544400</v>
+        <v>1497600</v>
       </c>
       <c r="AG23" t="n">
-        <v>1738800</v>
+        <v>1616400</v>
       </c>
       <c r="AH23" t="n">
-        <v>1850400</v>
+        <v>2012400</v>
       </c>
       <c r="AI23" t="n">
-        <v>1854000</v>
+        <v>1980000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>2116800</v>
+        <v>2041200</v>
       </c>
       <c r="AK23" t="n">
-        <v>2282400</v>
+        <v>2307600</v>
       </c>
       <c r="AL23" t="n">
-        <v>2484000</v>
+        <v>2152800</v>
       </c>
       <c r="AM23" t="n">
-        <v>2703600</v>
+        <v>2221200</v>
       </c>
       <c r="AN23" t="n">
-        <v>2793600</v>
+        <v>2224800</v>
       </c>
       <c r="AO23" t="n">
-        <v>2754000</v>
+        <v>2152800</v>
       </c>
       <c r="AP23" t="n">
-        <v>2887200</v>
+        <v>2394000</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2707200</v>
+        <v>2448000</v>
       </c>
       <c r="AR23" t="n">
-        <v>2772000</v>
+        <v>2577600</v>
       </c>
       <c r="AS23" t="n">
-        <v>2905200</v>
+        <v>2653200</v>
       </c>
       <c r="AT23" t="n">
-        <v>3088800</v>
+        <v>2908800</v>
       </c>
       <c r="AU23" t="n">
-        <v>3265200</v>
+        <v>2926800</v>
       </c>
       <c r="AV23" t="n">
-        <v>3344400</v>
+        <v>3304800</v>
       </c>
       <c r="AW23" t="n">
-        <v>3848400</v>
+        <v>3409200</v>
       </c>
       <c r="AX23" t="n">
-        <v>4014000</v>
+        <v>3502800</v>
       </c>
       <c r="AY23" t="n">
-        <v>4010400</v>
+        <v>3664800</v>
       </c>
       <c r="AZ23" t="n">
-        <v>4003200</v>
+        <v>3927600</v>
       </c>
       <c r="BA23" t="n">
-        <v>4104000</v>
+        <v>3981600</v>
       </c>
       <c r="BB23" t="n">
-        <v>4222800</v>
+        <v>3859200</v>
       </c>
       <c r="BC23" t="n">
-        <v>4039200</v>
+        <v>3988800</v>
       </c>
       <c r="BD23" t="n">
-        <v>4122000</v>
+        <v>3873600</v>
       </c>
       <c r="BE23" t="n">
-        <v>4478400</v>
+        <v>3978000</v>
       </c>
       <c r="BF23" t="n">
-        <v>4813200</v>
+        <v>4255200</v>
       </c>
       <c r="BG23" t="n">
-        <v>5180400</v>
+        <v>4460400</v>
       </c>
       <c r="BH23" t="n">
-        <v>5616000</v>
+        <v>4590000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>981072.0000000002</v>
+        <v>985295.9999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>760742.4000000004</v>
+        <v>620553.5999999995</v>
       </c>
       <c r="C24" t="n">
-        <v>1009516.8</v>
+        <v>1005369.600000002</v>
       </c>
       <c r="D24" t="n">
-        <v>1046918.400000001</v>
+        <v>1197772.799999999</v>
       </c>
       <c r="E24" t="n">
-        <v>1142303.999999999</v>
+        <v>1270502.400000001</v>
       </c>
       <c r="F24" t="n">
-        <v>1308432.000000001</v>
+        <v>1239321.600000001</v>
       </c>
       <c r="G24" t="n">
-        <v>1741152</v>
+        <v>1200451.200000002</v>
       </c>
       <c r="H24" t="n">
-        <v>1411603.199999996</v>
+        <v>1464912.000000007</v>
       </c>
       <c r="I24" t="n">
-        <v>1261248</v>
+        <v>1715760.000000007</v>
       </c>
       <c r="J24" t="n">
-        <v>1643107.200000003</v>
+        <v>1834329.600000001</v>
       </c>
       <c r="K24" t="n">
-        <v>2039836.800000006</v>
+        <v>1802112.000000002</v>
       </c>
       <c r="L24" t="n">
-        <v>2619724.799999995</v>
+        <v>2562480.000000002</v>
       </c>
       <c r="M24" t="n">
-        <v>3675091.199999999</v>
+        <v>3559785.599999987</v>
       </c>
       <c r="N24" t="n">
-        <v>3863049.600000005</v>
+        <v>3448175.999999985</v>
       </c>
       <c r="O24" t="n">
-        <v>3470169.599999987</v>
+        <v>3584160.000000015</v>
       </c>
       <c r="P24" t="n">
-        <v>3760492.799999982</v>
+        <v>4228761.599999994</v>
       </c>
       <c r="Q24" t="n">
-        <v>3943199.999999978</v>
+        <v>4297046.399999995</v>
       </c>
       <c r="R24" t="n">
-        <v>3986764.800000057</v>
+        <v>4821321.600000039</v>
       </c>
       <c r="S24" t="n">
-        <v>4184342.400000021</v>
+        <v>4091030.400000021</v>
       </c>
       <c r="T24" t="n">
-        <v>4160947.200000048</v>
+        <v>4882291.199999973</v>
       </c>
       <c r="U24" t="n">
-        <v>4468204.800000012</v>
+        <v>4857254.399999969</v>
       </c>
       <c r="V24" t="n">
-        <v>5775811.20000001</v>
+        <v>6652607.999999978</v>
       </c>
       <c r="W24" t="n">
-        <v>6124492.799999997</v>
+        <v>6632246.399999969</v>
       </c>
       <c r="X24" t="n">
-        <v>7621315.200000055</v>
+        <v>7677600.000000119</v>
       </c>
       <c r="Y24" t="n">
-        <v>9273004.799999997</v>
+        <v>9050476.800000161</v>
       </c>
       <c r="Z24" t="n">
-        <v>9528671.999999955</v>
+        <v>8552630.400000066</v>
       </c>
       <c r="AA24" t="n">
-        <v>9539193.600000009</v>
+        <v>9083587.199999973</v>
       </c>
       <c r="AB24" t="n">
-        <v>9605059.200000077</v>
+        <v>10853299.20000006</v>
       </c>
       <c r="AC24" t="n">
-        <v>10401033.60000001</v>
+        <v>10545446.39999993</v>
       </c>
       <c r="AD24" t="n">
-        <v>11552457.60000001</v>
+        <v>10516041.60000013</v>
       </c>
       <c r="AE24" t="n">
-        <v>10934937.59999976</v>
+        <v>10265808.00000015</v>
       </c>
       <c r="AF24" t="n">
-        <v>10317388.79999977</v>
+        <v>11306649.60000014</v>
       </c>
       <c r="AG24" t="n">
-        <v>13051056.00000018</v>
+        <v>11662512.00000015</v>
       </c>
       <c r="AH24" t="n">
-        <v>13082236.79999986</v>
+        <v>14976115.1999999</v>
       </c>
       <c r="AI24" t="n">
-        <v>14216966.40000007</v>
+        <v>14776809.59999999</v>
       </c>
       <c r="AJ24" t="n">
-        <v>17246774.39999983</v>
+        <v>15749510.39999983</v>
       </c>
       <c r="AK24" t="n">
-        <v>17950953.60000008</v>
+        <v>17689391.99999988</v>
       </c>
       <c r="AL24" t="n">
-        <v>19860815.99999991</v>
+        <v>16598035.19999969</v>
       </c>
       <c r="AM24" t="n">
-        <v>20812809.60000008</v>
+        <v>16653014.39999983</v>
       </c>
       <c r="AN24" t="n">
-        <v>21101980.7999993</v>
+        <v>18285100.8000004</v>
       </c>
       <c r="AO24" t="n">
-        <v>21661103.99999958</v>
+        <v>17006832.00000042</v>
       </c>
       <c r="AP24" t="n">
-        <v>22619606.4000001</v>
+        <v>19473561.59999973</v>
       </c>
       <c r="AQ24" t="n">
-        <v>21079593.60000068</v>
+        <v>19165276.79999989</v>
       </c>
       <c r="AR24" t="n">
-        <v>20708140.80000037</v>
+        <v>20111318.40000057</v>
       </c>
       <c r="AS24" t="n">
-        <v>23220278.40000075</v>
+        <v>21043219.19999969</v>
       </c>
       <c r="AT24" t="n">
-        <v>25026988.79999894</v>
+        <v>23284435.2000007</v>
       </c>
       <c r="AU24" t="n">
-        <v>26920070.39999974</v>
+        <v>23622144.00000036</v>
       </c>
       <c r="AV24" t="n">
-        <v>28120761.59999931</v>
+        <v>26669270.39999986</v>
       </c>
       <c r="AW24" t="n">
-        <v>31941388.80000067</v>
+        <v>27171868.79999846</v>
       </c>
       <c r="AX24" t="n">
-        <v>34091635.20000046</v>
+        <v>29019715.19999957</v>
       </c>
       <c r="AY24" t="n">
-        <v>32372966.39999831</v>
+        <v>29306812.80000067</v>
       </c>
       <c r="AZ24" t="n">
-        <v>31749638.40000069</v>
+        <v>33511065.59999776</v>
       </c>
       <c r="BA24" t="n">
-        <v>33593769.59999979</v>
+        <v>32826710.39999723</v>
       </c>
       <c r="BB24" t="n">
-        <v>34434748.80000234</v>
+        <v>31902662.40000153</v>
       </c>
       <c r="BC24" t="n">
-        <v>33331536.00000381</v>
+        <v>31796793.6000005</v>
       </c>
       <c r="BD24" t="n">
-        <v>32105462.40000212</v>
+        <v>31870665.5999999</v>
       </c>
       <c r="BE24" t="n">
-        <v>36984556.79999995</v>
+        <v>31801631.99999821</v>
       </c>
       <c r="BF24" t="n">
-        <v>39272496.00000036</v>
+        <v>34350028.799999</v>
       </c>
       <c r="BG24" t="n">
-        <v>44080665.59999907</v>
+        <v>36174796.79999888</v>
       </c>
       <c r="BH24" t="n">
-        <v>48185510.40000224</v>
+        <v>38203142.40000284</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="B25" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="C25" t="n">
+        <v>36000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F25" t="n">
         <v>32000</v>
       </c>
-      <c r="D25" t="n">
-        <v>36000</v>
-      </c>
-      <c r="E25" t="n">
-        <v>26000</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
+        <v>54000</v>
+      </c>
+      <c r="H25" t="n">
         <v>46000</v>
       </c>
-      <c r="G25" t="n">
-        <v>56000</v>
-      </c>
-      <c r="H25" t="n">
-        <v>38000</v>
-      </c>
       <c r="I25" t="n">
-        <v>42000</v>
+        <v>60000</v>
       </c>
       <c r="J25" t="n">
-        <v>48000</v>
+        <v>58000</v>
       </c>
       <c r="K25" t="n">
         <v>56000</v>
       </c>
       <c r="L25" t="n">
-        <v>68000</v>
+        <v>94000</v>
       </c>
       <c r="M25" t="n">
-        <v>114000</v>
+        <v>140000</v>
       </c>
       <c r="N25" t="n">
-        <v>146000</v>
+        <v>152000</v>
       </c>
       <c r="O25" t="n">
-        <v>160000</v>
+        <v>156000</v>
       </c>
       <c r="P25" t="n">
-        <v>150000</v>
+        <v>164000</v>
       </c>
       <c r="Q25" t="n">
         <v>170000</v>
       </c>
       <c r="R25" t="n">
-        <v>206000</v>
+        <v>178000</v>
       </c>
       <c r="S25" t="n">
-        <v>172000</v>
+        <v>170000</v>
       </c>
       <c r="T25" t="n">
-        <v>204000</v>
+        <v>198000</v>
       </c>
       <c r="U25" t="n">
-        <v>212000</v>
+        <v>244000</v>
       </c>
       <c r="V25" t="n">
-        <v>246000</v>
+        <v>298000</v>
       </c>
       <c r="W25" t="n">
-        <v>260000</v>
+        <v>304000</v>
       </c>
       <c r="X25" t="n">
-        <v>350000</v>
+        <v>328000</v>
       </c>
       <c r="Y25" t="n">
-        <v>434000</v>
+        <v>456000</v>
       </c>
       <c r="Z25" t="n">
-        <v>470000</v>
+        <v>386000</v>
       </c>
       <c r="AA25" t="n">
-        <v>462000</v>
+        <v>464000</v>
       </c>
       <c r="AB25" t="n">
-        <v>512000</v>
+        <v>530000</v>
       </c>
       <c r="AC25" t="n">
-        <v>512000</v>
+        <v>518000</v>
       </c>
       <c r="AD25" t="n">
-        <v>580000</v>
+        <v>516000</v>
       </c>
       <c r="AE25" t="n">
-        <v>592000</v>
+        <v>518000</v>
       </c>
       <c r="AF25" t="n">
-        <v>570000</v>
+        <v>594000</v>
       </c>
       <c r="AG25" t="n">
-        <v>648000</v>
+        <v>622000</v>
       </c>
       <c r="AH25" t="n">
-        <v>682000</v>
+        <v>768000</v>
       </c>
       <c r="AI25" t="n">
-        <v>712000</v>
+        <v>756000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>862000</v>
+        <v>804000</v>
       </c>
       <c r="AK25" t="n">
+        <v>976000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>874000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>952000</v>
+      </c>
+      <c r="AN25" t="n">
         <v>980000</v>
       </c>
-      <c r="AL25" t="n">
-        <v>1050000</v>
-      </c>
-      <c r="AM25" t="n">
+      <c r="AO25" t="n">
+        <v>936000</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1072000</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>1072000</v>
+      </c>
+      <c r="AR25" t="n">
         <v>1138000</v>
       </c>
-      <c r="AN25" t="n">
-        <v>1186000</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1222000</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>1288000</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>1194000</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>1214000</v>
-      </c>
       <c r="AS25" t="n">
-        <v>1280000</v>
+        <v>1170000</v>
       </c>
       <c r="AT25" t="n">
-        <v>1386000</v>
+        <v>1360000</v>
       </c>
       <c r="AU25" t="n">
-        <v>1448000</v>
+        <v>1340000</v>
       </c>
       <c r="AV25" t="n">
-        <v>1568000</v>
+        <v>1506000</v>
       </c>
       <c r="AW25" t="n">
-        <v>1798000</v>
+        <v>1620000</v>
       </c>
       <c r="AX25" t="n">
-        <v>1922000</v>
+        <v>1648000</v>
       </c>
       <c r="AY25" t="n">
-        <v>1886000</v>
+        <v>1696000</v>
       </c>
       <c r="AZ25" t="n">
-        <v>1890000</v>
+        <v>1868000</v>
       </c>
       <c r="BA25" t="n">
-        <v>1944000</v>
+        <v>1870000</v>
       </c>
       <c r="BB25" t="n">
-        <v>2050000</v>
+        <v>1824000</v>
       </c>
       <c r="BC25" t="n">
-        <v>1952000</v>
+        <v>1874000</v>
       </c>
       <c r="BD25" t="n">
-        <v>1956000</v>
+        <v>1826000</v>
       </c>
       <c r="BE25" t="n">
-        <v>2168000</v>
+        <v>1896000</v>
       </c>
       <c r="BF25" t="n">
-        <v>2334000</v>
+        <v>2048000</v>
       </c>
       <c r="BG25" t="n">
-        <v>2548000</v>
+        <v>2164000</v>
       </c>
       <c r="BH25" t="n">
-        <v>2756000</v>
+        <v>2300000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1130672</v>
+        <v>1144496</v>
       </c>
       <c r="B26" t="n">
-        <v>896342.4000000004</v>
+        <v>738953.5999999995</v>
       </c>
       <c r="C26" t="n">
-        <v>1210716.8</v>
+        <v>1188969.600000002</v>
       </c>
       <c r="D26" t="n">
-        <v>1270118.400000001</v>
+        <v>1417772.799999999</v>
       </c>
       <c r="E26" t="n">
-        <v>1359103.999999999</v>
+        <v>1502102.400000001</v>
       </c>
       <c r="F26" t="n">
-        <v>1606432.000000001</v>
+        <v>1476521.600000001</v>
       </c>
       <c r="G26" t="n">
-        <v>2034752</v>
+        <v>1481251.200000002</v>
       </c>
       <c r="H26" t="n">
-        <v>1730403.199999996</v>
+        <v>1766512.000000007</v>
       </c>
       <c r="I26" t="n">
-        <v>1533648</v>
+        <v>2088960.000000007</v>
       </c>
       <c r="J26" t="n">
-        <v>1993507.200000003</v>
+        <v>2255929.600000001</v>
       </c>
       <c r="K26" t="n">
-        <v>2430636.800000006</v>
+        <v>2221712.000000002</v>
       </c>
       <c r="L26" t="n">
-        <v>3083724.799999995</v>
+        <v>3048880.000000002</v>
       </c>
       <c r="M26" t="n">
-        <v>4311091.199999999</v>
+        <v>4250585.599999987</v>
       </c>
       <c r="N26" t="n">
-        <v>4574249.600000005</v>
+        <v>4132975.999999985</v>
       </c>
       <c r="O26" t="n">
-        <v>4188169.599999987</v>
+        <v>4326960.000000015</v>
       </c>
       <c r="P26" t="n">
-        <v>4547692.799999982</v>
+        <v>5026361.599999994</v>
       </c>
       <c r="Q26" t="n">
-        <v>4728799.999999978</v>
+        <v>5104246.399999995</v>
       </c>
       <c r="R26" t="n">
-        <v>4883964.800000057</v>
+        <v>5679721.600000039</v>
       </c>
       <c r="S26" t="n">
-        <v>5087142.400000021</v>
+        <v>4991830.400000021</v>
       </c>
       <c r="T26" t="n">
-        <v>5030947.200000048</v>
+        <v>5832691.199999973</v>
       </c>
       <c r="U26" t="n">
-        <v>5382204.800000012</v>
+        <v>5857254.399999969</v>
       </c>
       <c r="V26" t="n">
-        <v>6846211.20000001</v>
+        <v>7875807.999999978</v>
       </c>
       <c r="W26" t="n">
-        <v>7259292.799999997</v>
+        <v>7908246.399999969</v>
       </c>
       <c r="X26" t="n">
-        <v>9062115.200000055</v>
+        <v>9038800.000000119</v>
       </c>
       <c r="Y26" t="n">
-        <v>10970604.8</v>
+        <v>10730476.80000016</v>
       </c>
       <c r="Z26" t="n">
-        <v>11258671.99999996</v>
+        <v>10123030.40000007</v>
       </c>
       <c r="AA26" t="n">
-        <v>11329593.60000001</v>
+        <v>10868787.19999997</v>
       </c>
       <c r="AB26" t="n">
-        <v>11521059.20000008</v>
+        <v>12787299.20000006</v>
       </c>
       <c r="AC26" t="n">
-        <v>12306233.60000001</v>
+        <v>12431446.39999993</v>
       </c>
       <c r="AD26" t="n">
-        <v>13698457.60000001</v>
+        <v>12418041.60000013</v>
       </c>
       <c r="AE26" t="n">
-        <v>13010137.59999976</v>
+        <v>12245408.00000015</v>
       </c>
       <c r="AF26" t="n">
-        <v>12431788.79999977</v>
+        <v>13398249.60000014</v>
       </c>
       <c r="AG26" t="n">
-        <v>15437856.00000018</v>
+        <v>13900912.00000015</v>
       </c>
       <c r="AH26" t="n">
-        <v>15614636.79999986</v>
+        <v>17756515.1999999</v>
       </c>
       <c r="AI26" t="n">
-        <v>16782966.40000007</v>
+        <v>17512809.59999999</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20225574.39999983</v>
+        <v>18594710.39999983</v>
       </c>
       <c r="AK26" t="n">
-        <v>21213353.60000008</v>
+        <v>20972991.99999988</v>
       </c>
       <c r="AL26" t="n">
-        <v>23394815.99999991</v>
+        <v>19624835.19999969</v>
       </c>
       <c r="AM26" t="n">
-        <v>24654409.60000008</v>
+        <v>19826214.39999983</v>
       </c>
       <c r="AN26" t="n">
-        <v>25081580.7999993</v>
+        <v>21489900.8000004</v>
       </c>
       <c r="AO26" t="n">
-        <v>25637103.99999958</v>
+        <v>20095632.00000042</v>
       </c>
       <c r="AP26" t="n">
-        <v>26794806.4000001</v>
+        <v>22939561.59999973</v>
       </c>
       <c r="AQ26" t="n">
-        <v>24980793.60000068</v>
+        <v>22685276.79999989</v>
       </c>
       <c r="AR26" t="n">
-        <v>24694140.80000037</v>
+        <v>23826918.40000057</v>
       </c>
       <c r="AS26" t="n">
-        <v>27405478.40000075</v>
+        <v>24866419.19999969</v>
       </c>
       <c r="AT26" t="n">
-        <v>29501788.79999894</v>
+        <v>27553235.2000007</v>
       </c>
       <c r="AU26" t="n">
-        <v>31633270.39999974</v>
+        <v>27888944.00000036</v>
       </c>
       <c r="AV26" t="n">
-        <v>33033161.59999931</v>
+        <v>31480070.39999986</v>
       </c>
       <c r="AW26" t="n">
-        <v>37587788.80000067</v>
+        <v>32201068.79999846</v>
       </c>
       <c r="AX26" t="n">
-        <v>40027635.20000046</v>
+        <v>34170515.19999957</v>
       </c>
       <c r="AY26" t="n">
-        <v>38269366.39999831</v>
+        <v>34667612.80000067</v>
       </c>
       <c r="AZ26" t="n">
-        <v>37642838.40000069</v>
+        <v>39306665.59999776</v>
       </c>
       <c r="BA26" t="n">
-        <v>39641769.59999979</v>
+        <v>38678310.39999723</v>
       </c>
       <c r="BB26" t="n">
-        <v>40707548.80000234</v>
+        <v>37585862.40000153</v>
       </c>
       <c r="BC26" t="n">
-        <v>39322736.00000381</v>
+        <v>37659593.6000005</v>
       </c>
       <c r="BD26" t="n">
-        <v>38183462.40000212</v>
+        <v>37570265.5999999</v>
       </c>
       <c r="BE26" t="n">
-        <v>43630956.79999995</v>
+        <v>37675631.99999821</v>
       </c>
       <c r="BF26" t="n">
-        <v>46419696.00000036</v>
+        <v>40653228.799999</v>
       </c>
       <c r="BG26" t="n">
-        <v>51809065.59999907</v>
+        <v>42799196.79999888</v>
       </c>
       <c r="BH26" t="n">
-        <v>56557510.40000224</v>
+        <v>45093142.40000284</v>
       </c>
     </row>
     <row r="27">
@@ -5349,10 +5349,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
@@ -5385,25 +5385,25 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R28" t="n">
         <v>6</v>
       </c>
       <c r="S28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
@@ -5445,31 +5445,31 @@
         <v>7</v>
       </c>
       <c r="AG28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK28" t="n">
         <v>8</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AL28" t="n">
         <v>8</v>
       </c>
-      <c r="AI28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>9</v>
-      </c>
       <c r="AM28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP28" t="n">
         <v>9</v>
@@ -5496,42 +5496,42 @@
         <v>10</v>
       </c>
       <c r="AX28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
         <v>11</v>
       </c>
       <c r="BA28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BE28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BF28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BG28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BH28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="n">
         <v>4</v>
@@ -5540,25 +5540,25 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
         <v>5</v>
@@ -5591,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V29" t="n">
         <v>7</v>
@@ -5615,16 +5615,16 @@
         <v>7</v>
       </c>
       <c r="AC29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>8</v>
       </c>
       <c r="AF29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG29" t="n">
         <v>9</v>
@@ -5642,16 +5642,16 @@
         <v>9</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
         <v>10</v>
@@ -5672,13 +5672,13 @@
         <v>10</v>
       </c>
       <c r="AV29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX29" t="n">
         <v>11</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>12</v>
       </c>
       <c r="AY29" t="n">
         <v>12</v>
@@ -5690,36 +5690,36 @@
         <v>12</v>
       </c>
       <c r="BB29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BE29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BF29" t="n">
         <v>14</v>
       </c>
       <c r="BG29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BH29" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>3</v>
@@ -5737,10 +5737,10 @@
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
@@ -5770,40 +5770,40 @@
         <v>5</v>
       </c>
       <c r="T30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF30" t="n">
         <v>6</v>
@@ -5821,40 +5821,40 @@
         <v>6</v>
       </c>
       <c r="AK30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO30" t="n">
         <v>7</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AP30" t="n">
         <v>7</v>
       </c>
-      <c r="AM30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>9</v>
-      </c>
       <c r="AQ30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AT30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW30" t="n">
         <v>9</v>
@@ -5884,13 +5884,13 @@
         <v>9</v>
       </c>
       <c r="BF30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BG30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BH30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -5994,10 +5994,10 @@
         <v>1</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ31" t="n">
         <v>2</v>
@@ -6069,42 +6069,42 @@
         <v>3</v>
       </c>
       <c r="BG31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J32" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K32" t="n">
         <v>16</v>
@@ -6113,52 +6113,52 @@
         <v>16</v>
       </c>
       <c r="M32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R32" t="n">
         <v>19</v>
       </c>
       <c r="S32" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC32" t="n">
         <v>23</v>
@@ -6167,854 +6167,854 @@
         <v>23</v>
       </c>
       <c r="AE32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF32" t="n">
         <v>24</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AG32" t="n">
         <v>25</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>26</v>
       </c>
       <c r="AH32" t="n">
         <v>26</v>
       </c>
       <c r="AI32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK32" t="n">
         <v>27</v>
       </c>
-      <c r="AJ32" t="n">
+      <c r="AL32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO32" t="n">
         <v>28</v>
       </c>
-      <c r="AK32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL32" t="n">
+      <c r="AP32" t="n">
         <v>30</v>
       </c>
-      <c r="AM32" t="n">
+      <c r="AQ32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>31</v>
+      </c>
+      <c r="AV32" t="n">
         <v>32</v>
       </c>
-      <c r="AN32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AV32" t="n">
+      <c r="AW32" t="n">
         <v>34</v>
       </c>
-      <c r="AW32" t="n">
+      <c r="AX32" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY32" t="n">
         <v>36</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>37</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>37</v>
       </c>
       <c r="AZ32" t="n">
         <v>37</v>
       </c>
       <c r="BA32" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB32" t="n">
+        <v>37</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>37</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>37</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>37</v>
+      </c>
+      <c r="BF32" t="n">
         <v>39</v>
       </c>
-      <c r="BC32" t="n">
-        <v>40</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>40</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>42</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>43</v>
-      </c>
       <c r="BG32" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="BH32" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>164255</v>
+        <v>266435</v>
       </c>
       <c r="B33" t="n">
-        <v>241475</v>
+        <v>288145</v>
       </c>
       <c r="C33" t="n">
-        <v>251940</v>
+        <v>292110</v>
       </c>
       <c r="D33" t="n">
-        <v>294190</v>
+        <v>306930</v>
       </c>
       <c r="E33" t="n">
-        <v>291785</v>
+        <v>307125</v>
       </c>
       <c r="F33" t="n">
-        <v>299780</v>
+        <v>307645</v>
       </c>
       <c r="G33" t="n">
-        <v>301925</v>
+        <v>312780</v>
       </c>
       <c r="H33" t="n">
-        <v>300560</v>
+        <v>313755</v>
       </c>
       <c r="I33" t="n">
-        <v>299910</v>
+        <v>358540</v>
       </c>
       <c r="J33" t="n">
-        <v>305630</v>
+        <v>361205</v>
       </c>
       <c r="K33" t="n">
-        <v>359840</v>
+        <v>362050</v>
       </c>
       <c r="L33" t="n">
-        <v>366210</v>
+        <v>369655</v>
       </c>
       <c r="M33" t="n">
-        <v>417430</v>
+        <v>432315</v>
       </c>
       <c r="N33" t="n">
-        <v>434265</v>
+        <v>439790</v>
       </c>
       <c r="O33" t="n">
-        <v>432315</v>
+        <v>445185</v>
       </c>
       <c r="P33" t="n">
-        <v>437190</v>
+        <v>449085</v>
       </c>
       <c r="Q33" t="n">
-        <v>438945</v>
+        <v>448630</v>
       </c>
       <c r="R33" t="n">
-        <v>455910</v>
+        <v>452010</v>
       </c>
       <c r="S33" t="n">
-        <v>454155</v>
+        <v>465140</v>
       </c>
       <c r="T33" t="n">
-        <v>506155</v>
+        <v>474890</v>
       </c>
       <c r="U33" t="n">
-        <v>510900</v>
+        <v>508300</v>
       </c>
       <c r="V33" t="n">
-        <v>546585</v>
+        <v>517335</v>
       </c>
       <c r="W33" t="n">
-        <v>548080</v>
+        <v>524030</v>
       </c>
       <c r="X33" t="n">
-        <v>570570</v>
+        <v>528450</v>
       </c>
       <c r="Y33" t="n">
-        <v>590070</v>
+        <v>552760</v>
       </c>
       <c r="Z33" t="n">
-        <v>594620</v>
+        <v>543985</v>
       </c>
       <c r="AA33" t="n">
-        <v>599690</v>
+        <v>556465</v>
       </c>
       <c r="AB33" t="n">
-        <v>607880</v>
+        <v>573235</v>
       </c>
       <c r="AC33" t="n">
-        <v>608010</v>
+        <v>582725</v>
       </c>
       <c r="AD33" t="n">
-        <v>624520</v>
+        <v>585195</v>
       </c>
       <c r="AE33" t="n">
-        <v>635115</v>
+        <v>588965</v>
       </c>
       <c r="AF33" t="n">
-        <v>649545</v>
+        <v>635440</v>
       </c>
       <c r="AG33" t="n">
-        <v>676520</v>
+        <v>659555</v>
       </c>
       <c r="AH33" t="n">
-        <v>686140</v>
+        <v>713570</v>
       </c>
       <c r="AI33" t="n">
-        <v>705380</v>
+        <v>711425</v>
       </c>
       <c r="AJ33" t="n">
-        <v>751010</v>
+        <v>720395</v>
       </c>
       <c r="AK33" t="n">
-        <v>816270</v>
+        <v>761410</v>
       </c>
       <c r="AL33" t="n">
-        <v>844935</v>
+        <v>746005</v>
       </c>
       <c r="AM33" t="n">
-        <v>939705</v>
+        <v>760890</v>
       </c>
       <c r="AN33" t="n">
-        <v>946205</v>
+        <v>764530</v>
       </c>
       <c r="AO33" t="n">
-        <v>949260</v>
+        <v>797680</v>
       </c>
       <c r="AP33" t="n">
-        <v>965900</v>
+        <v>849485</v>
       </c>
       <c r="AQ33" t="n">
-        <v>955305</v>
+        <v>862615</v>
       </c>
       <c r="AR33" t="n">
-        <v>957710</v>
+        <v>871780</v>
       </c>
       <c r="AS33" t="n">
-        <v>971945</v>
+        <v>880295</v>
       </c>
       <c r="AT33" t="n">
-        <v>996125</v>
+        <v>919685</v>
       </c>
       <c r="AU33" t="n">
-        <v>1009840</v>
+        <v>959010</v>
       </c>
       <c r="AV33" t="n">
-        <v>1051050</v>
+        <v>1008800</v>
       </c>
       <c r="AW33" t="n">
-        <v>1142895</v>
+        <v>1088425</v>
       </c>
       <c r="AX33" t="n">
-        <v>1174160</v>
+        <v>1101165</v>
       </c>
       <c r="AY33" t="n">
-        <v>1171755</v>
+        <v>1131520</v>
       </c>
       <c r="AZ33" t="n">
-        <v>1179815</v>
+        <v>1162460</v>
       </c>
       <c r="BA33" t="n">
-        <v>1200615</v>
+        <v>1165970</v>
       </c>
       <c r="BB33" t="n">
-        <v>1239615</v>
+        <v>1166035</v>
       </c>
       <c r="BC33" t="n">
-        <v>1229865</v>
+        <v>1171300</v>
       </c>
       <c r="BD33" t="n">
-        <v>1234675</v>
+        <v>1165385</v>
       </c>
       <c r="BE33" t="n">
-        <v>1304420</v>
+        <v>1184950</v>
       </c>
       <c r="BF33" t="n">
-        <v>1384110</v>
+        <v>1246505</v>
       </c>
       <c r="BG33" t="n">
-        <v>1467115</v>
+        <v>1267825</v>
       </c>
       <c r="BH33" t="n">
-        <v>1517165</v>
+        <v>1281670</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>103680</v>
+        <v>106560</v>
       </c>
       <c r="B34" t="n">
-        <v>89280</v>
+        <v>83520</v>
       </c>
       <c r="C34" t="n">
-        <v>135360</v>
+        <v>118080</v>
       </c>
       <c r="D34" t="n">
-        <v>149760</v>
+        <v>144000</v>
       </c>
       <c r="E34" t="n">
-        <v>152640</v>
+        <v>161280</v>
       </c>
       <c r="F34" t="n">
-        <v>201600</v>
+        <v>164160</v>
       </c>
       <c r="G34" t="n">
-        <v>190080</v>
+        <v>181440</v>
       </c>
       <c r="H34" t="n">
-        <v>224640</v>
+        <v>204480</v>
       </c>
       <c r="I34" t="n">
-        <v>184320</v>
+        <v>250560</v>
       </c>
       <c r="J34" t="n">
-        <v>241920</v>
+        <v>290880</v>
       </c>
       <c r="K34" t="n">
-        <v>267840</v>
+        <v>290880</v>
       </c>
       <c r="L34" t="n">
-        <v>316800</v>
+        <v>313920</v>
       </c>
       <c r="M34" t="n">
-        <v>417600</v>
+        <v>440640</v>
       </c>
       <c r="N34" t="n">
-        <v>452160</v>
+        <v>426240</v>
       </c>
       <c r="O34" t="n">
-        <v>446400</v>
+        <v>469440</v>
       </c>
       <c r="P34" t="n">
+        <v>506880</v>
+      </c>
+      <c r="Q34" t="n">
         <v>509760</v>
       </c>
-      <c r="Q34" t="n">
-        <v>492480</v>
-      </c>
       <c r="R34" t="n">
-        <v>552960</v>
+        <v>544320</v>
       </c>
       <c r="S34" t="n">
         <v>584640</v>
       </c>
       <c r="T34" t="n">
-        <v>532800</v>
+        <v>601920</v>
       </c>
       <c r="U34" t="n">
-        <v>561600</v>
+        <v>604800</v>
       </c>
       <c r="V34" t="n">
-        <v>659520</v>
+        <v>740160</v>
       </c>
       <c r="W34" t="n">
-        <v>699840</v>
+        <v>777600</v>
       </c>
       <c r="X34" t="n">
-        <v>872640</v>
+        <v>826560</v>
       </c>
       <c r="Y34" t="n">
-        <v>1010880</v>
+        <v>979200</v>
       </c>
       <c r="Z34" t="n">
-        <v>1008000</v>
+        <v>947520</v>
       </c>
       <c r="AA34" t="n">
-        <v>1062720</v>
+        <v>1056960</v>
       </c>
       <c r="AB34" t="n">
         <v>1123200</v>
       </c>
       <c r="AC34" t="n">
-        <v>1114560</v>
+        <v>1094400</v>
       </c>
       <c r="AD34" t="n">
-        <v>1252800</v>
+        <v>1108800</v>
       </c>
       <c r="AE34" t="n">
-        <v>1186560</v>
+        <v>1169280</v>
       </c>
       <c r="AF34" t="n">
-        <v>1235520</v>
+        <v>1198080</v>
       </c>
       <c r="AG34" t="n">
-        <v>1391040</v>
+        <v>1293120</v>
       </c>
       <c r="AH34" t="n">
-        <v>1480320</v>
+        <v>1609920</v>
       </c>
       <c r="AI34" t="n">
-        <v>1483200</v>
+        <v>1584000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1693440</v>
+        <v>1632960</v>
       </c>
       <c r="AK34" t="n">
-        <v>1825920</v>
+        <v>1846080</v>
       </c>
       <c r="AL34" t="n">
-        <v>1987200</v>
+        <v>1722240</v>
       </c>
       <c r="AM34" t="n">
-        <v>2162880</v>
+        <v>1776960</v>
       </c>
       <c r="AN34" t="n">
-        <v>2234880</v>
+        <v>1779840</v>
       </c>
       <c r="AO34" t="n">
-        <v>2203200</v>
+        <v>1722240</v>
       </c>
       <c r="AP34" t="n">
-        <v>2309760</v>
+        <v>1915200</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2165760</v>
+        <v>1958400</v>
       </c>
       <c r="AR34" t="n">
-        <v>2217600</v>
+        <v>2062080</v>
       </c>
       <c r="AS34" t="n">
-        <v>2324160</v>
+        <v>2122560</v>
       </c>
       <c r="AT34" t="n">
-        <v>2471040</v>
+        <v>2327040</v>
       </c>
       <c r="AU34" t="n">
-        <v>2612160</v>
+        <v>2341440</v>
       </c>
       <c r="AV34" t="n">
-        <v>2675520</v>
+        <v>2643840</v>
       </c>
       <c r="AW34" t="n">
-        <v>3078720</v>
+        <v>2727360</v>
       </c>
       <c r="AX34" t="n">
-        <v>3211200</v>
+        <v>2802240</v>
       </c>
       <c r="AY34" t="n">
-        <v>3208320</v>
+        <v>2931840</v>
       </c>
       <c r="AZ34" t="n">
-        <v>3202560</v>
+        <v>3142080</v>
       </c>
       <c r="BA34" t="n">
-        <v>3283200</v>
+        <v>3185280</v>
       </c>
       <c r="BB34" t="n">
-        <v>3378240</v>
+        <v>3087360</v>
       </c>
       <c r="BC34" t="n">
-        <v>3231360</v>
+        <v>3191040</v>
       </c>
       <c r="BD34" t="n">
-        <v>3297600</v>
+        <v>3098880</v>
       </c>
       <c r="BE34" t="n">
-        <v>3582720</v>
+        <v>3182400</v>
       </c>
       <c r="BF34" t="n">
-        <v>3850560</v>
+        <v>3404160</v>
       </c>
       <c r="BG34" t="n">
-        <v>4144320</v>
+        <v>3568320</v>
       </c>
       <c r="BH34" t="n">
-        <v>4492800</v>
+        <v>3672000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>817560</v>
+        <v>821080</v>
       </c>
       <c r="B35" t="n">
-        <v>633952</v>
+        <v>517128</v>
       </c>
       <c r="C35" t="n">
-        <v>841264</v>
+        <v>837808</v>
       </c>
       <c r="D35" t="n">
-        <v>872432</v>
+        <v>998144</v>
       </c>
       <c r="E35" t="n">
-        <v>951920</v>
+        <v>1058752</v>
       </c>
       <c r="F35" t="n">
-        <v>1090360</v>
+        <v>1032768</v>
       </c>
       <c r="G35" t="n">
-        <v>1450960</v>
+        <v>1000376</v>
       </c>
       <c r="H35" t="n">
-        <v>1176336</v>
+        <v>1220760</v>
       </c>
       <c r="I35" t="n">
-        <v>1051040</v>
+        <v>1429800</v>
       </c>
       <c r="J35" t="n">
-        <v>1369256</v>
+        <v>1528608</v>
       </c>
       <c r="K35" t="n">
-        <v>1699864</v>
+        <v>1501760</v>
       </c>
       <c r="L35" t="n">
-        <v>2183104</v>
+        <v>2135400</v>
       </c>
       <c r="M35" t="n">
-        <v>3062576</v>
+        <v>2966488</v>
       </c>
       <c r="N35" t="n">
-        <v>3219208</v>
+        <v>2873480</v>
       </c>
       <c r="O35" t="n">
-        <v>2891808</v>
+        <v>2986800</v>
       </c>
       <c r="P35" t="n">
-        <v>3133744</v>
+        <v>3523968</v>
       </c>
       <c r="Q35" t="n">
-        <v>3286000</v>
+        <v>3580872</v>
       </c>
       <c r="R35" t="n">
-        <v>3322304</v>
+        <v>4017768</v>
       </c>
       <c r="S35" t="n">
-        <v>3486952</v>
+        <v>3409192</v>
       </c>
       <c r="T35" t="n">
-        <v>3467456</v>
+        <v>4068576</v>
       </c>
       <c r="U35" t="n">
-        <v>3723504</v>
+        <v>4047712</v>
       </c>
       <c r="V35" t="n">
-        <v>4813176</v>
+        <v>5543840</v>
       </c>
       <c r="W35" t="n">
-        <v>5103744</v>
+        <v>5526872</v>
       </c>
       <c r="X35" t="n">
-        <v>6351096</v>
+        <v>6398000</v>
       </c>
       <c r="Y35" t="n">
-        <v>7727504</v>
+        <v>7542064</v>
       </c>
       <c r="Z35" t="n">
-        <v>7940560</v>
+        <v>7127192</v>
       </c>
       <c r="AA35" t="n">
-        <v>7949328</v>
+        <v>7569656</v>
       </c>
       <c r="AB35" t="n">
-        <v>8004216</v>
+        <v>9044416</v>
       </c>
       <c r="AC35" t="n">
-        <v>8667528</v>
+        <v>8787872</v>
       </c>
       <c r="AD35" t="n">
-        <v>9627048</v>
+        <v>8763368</v>
       </c>
       <c r="AE35" t="n">
-        <v>9112448</v>
+        <v>8554840</v>
       </c>
       <c r="AF35" t="n">
-        <v>8597824</v>
+        <v>9422208</v>
       </c>
       <c r="AG35" t="n">
-        <v>10875880</v>
+        <v>9718760</v>
       </c>
       <c r="AH35" t="n">
-        <v>10901864</v>
+        <v>12480096</v>
       </c>
       <c r="AI35" t="n">
-        <v>11847472</v>
+        <v>12314008</v>
       </c>
       <c r="AJ35" t="n">
-        <v>14372312</v>
+        <v>13124592</v>
       </c>
       <c r="AK35" t="n">
-        <v>14959128</v>
+        <v>14741160</v>
       </c>
       <c r="AL35" t="n">
-        <v>16550680</v>
+        <v>13831696</v>
       </c>
       <c r="AM35" t="n">
-        <v>17344008</v>
+        <v>13877512</v>
       </c>
       <c r="AN35" t="n">
-        <v>17584984</v>
+        <v>15237584</v>
       </c>
       <c r="AO35" t="n">
-        <v>18050920</v>
+        <v>14172360</v>
       </c>
       <c r="AP35" t="n">
-        <v>18849672</v>
+        <v>16227968</v>
       </c>
       <c r="AQ35" t="n">
-        <v>17566328</v>
+        <v>15971064</v>
       </c>
       <c r="AR35" t="n">
-        <v>17256784</v>
+        <v>16759432</v>
       </c>
       <c r="AS35" t="n">
-        <v>19350232</v>
+        <v>17536016</v>
       </c>
       <c r="AT35" t="n">
-        <v>20855824</v>
+        <v>19403696</v>
       </c>
       <c r="AU35" t="n">
-        <v>22433392</v>
+        <v>19685120</v>
       </c>
       <c r="AV35" t="n">
-        <v>23433968</v>
+        <v>22224392</v>
       </c>
       <c r="AW35" t="n">
-        <v>26617824</v>
+        <v>22643224</v>
       </c>
       <c r="AX35" t="n">
-        <v>28409696</v>
+        <v>24183096</v>
       </c>
       <c r="AY35" t="n">
-        <v>26977472</v>
+        <v>24422344</v>
       </c>
       <c r="AZ35" t="n">
-        <v>26458032</v>
+        <v>27925888</v>
       </c>
       <c r="BA35" t="n">
-        <v>27994808</v>
+        <v>27355592</v>
       </c>
       <c r="BB35" t="n">
-        <v>28695624</v>
+        <v>26585552</v>
       </c>
       <c r="BC35" t="n">
-        <v>27776280</v>
+        <v>26497328</v>
       </c>
       <c r="BD35" t="n">
-        <v>26754552</v>
+        <v>26558888</v>
       </c>
       <c r="BE35" t="n">
-        <v>30820464</v>
+        <v>26501360</v>
       </c>
       <c r="BF35" t="n">
-        <v>32727080</v>
+        <v>28625024</v>
       </c>
       <c r="BG35" t="n">
-        <v>36733888</v>
+        <v>30145664</v>
       </c>
       <c r="BH35" t="n">
-        <v>40154592</v>
+        <v>31835952</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>25000</v>
+        <v>29500</v>
       </c>
       <c r="B36" t="n">
-        <v>28000</v>
+        <v>20500</v>
       </c>
       <c r="C36" t="n">
+        <v>37000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>32500</v>
+      </c>
+      <c r="F36" t="n">
         <v>34000</v>
       </c>
-      <c r="D36" t="n">
-        <v>37000</v>
-      </c>
-      <c r="E36" t="n">
-        <v>29500</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
+        <v>50500</v>
+      </c>
+      <c r="H36" t="n">
         <v>44500</v>
       </c>
-      <c r="G36" t="n">
-        <v>52000</v>
-      </c>
-      <c r="H36" t="n">
-        <v>38500</v>
-      </c>
       <c r="I36" t="n">
-        <v>41500</v>
+        <v>55000</v>
       </c>
       <c r="J36" t="n">
-        <v>46000</v>
+        <v>53500</v>
       </c>
       <c r="K36" t="n">
         <v>52000</v>
       </c>
       <c r="L36" t="n">
-        <v>61000</v>
+        <v>80500</v>
       </c>
       <c r="M36" t="n">
-        <v>95500</v>
+        <v>115000</v>
       </c>
       <c r="N36" t="n">
-        <v>119500</v>
+        <v>124000</v>
       </c>
       <c r="O36" t="n">
-        <v>130000</v>
+        <v>127000</v>
       </c>
       <c r="P36" t="n">
-        <v>122500</v>
+        <v>133000</v>
       </c>
       <c r="Q36" t="n">
         <v>137500</v>
       </c>
       <c r="R36" t="n">
-        <v>164500</v>
+        <v>143500</v>
       </c>
       <c r="S36" t="n">
-        <v>139000</v>
+        <v>137500</v>
       </c>
       <c r="T36" t="n">
-        <v>163000</v>
+        <v>158500</v>
       </c>
       <c r="U36" t="n">
-        <v>169000</v>
+        <v>193000</v>
       </c>
       <c r="V36" t="n">
-        <v>194500</v>
+        <v>233500</v>
       </c>
       <c r="W36" t="n">
-        <v>205000</v>
+        <v>238000</v>
       </c>
       <c r="X36" t="n">
-        <v>272500</v>
+        <v>256000</v>
       </c>
       <c r="Y36" t="n">
-        <v>335500</v>
+        <v>352000</v>
       </c>
       <c r="Z36" t="n">
-        <v>362500</v>
+        <v>299500</v>
       </c>
       <c r="AA36" t="n">
-        <v>356500</v>
+        <v>358000</v>
       </c>
       <c r="AB36" t="n">
-        <v>394000</v>
+        <v>407500</v>
       </c>
       <c r="AC36" t="n">
-        <v>394000</v>
+        <v>398500</v>
       </c>
       <c r="AD36" t="n">
-        <v>445000</v>
+        <v>397000</v>
       </c>
       <c r="AE36" t="n">
-        <v>454000</v>
+        <v>398500</v>
       </c>
       <c r="AF36" t="n">
-        <v>437500</v>
+        <v>455500</v>
       </c>
       <c r="AG36" t="n">
-        <v>496000</v>
+        <v>476500</v>
       </c>
       <c r="AH36" t="n">
-        <v>521500</v>
+        <v>586000</v>
       </c>
       <c r="AI36" t="n">
-        <v>544000</v>
+        <v>577000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>656500</v>
+        <v>613000</v>
       </c>
       <c r="AK36" t="n">
+        <v>742000</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>665500</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>724000</v>
+      </c>
+      <c r="AN36" t="n">
         <v>745000</v>
       </c>
-      <c r="AL36" t="n">
-        <v>797500</v>
-      </c>
-      <c r="AM36" t="n">
+      <c r="AO36" t="n">
+        <v>712000</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>814000</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>814000</v>
+      </c>
+      <c r="AR36" t="n">
         <v>863500</v>
       </c>
-      <c r="AN36" t="n">
-        <v>899500</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>926500</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>976000</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>905500</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>920500</v>
-      </c>
       <c r="AS36" t="n">
-        <v>970000</v>
+        <v>887500</v>
       </c>
       <c r="AT36" t="n">
-        <v>1049500</v>
+        <v>1030000</v>
       </c>
       <c r="AU36" t="n">
-        <v>1096000</v>
+        <v>1015000</v>
       </c>
       <c r="AV36" t="n">
-        <v>1186000</v>
+        <v>1139500</v>
       </c>
       <c r="AW36" t="n">
-        <v>1358500</v>
+        <v>1225000</v>
       </c>
       <c r="AX36" t="n">
-        <v>1451500</v>
+        <v>1246000</v>
       </c>
       <c r="AY36" t="n">
-        <v>1424500</v>
+        <v>1282000</v>
       </c>
       <c r="AZ36" t="n">
-        <v>1427500</v>
+        <v>1411000</v>
       </c>
       <c r="BA36" t="n">
-        <v>1468000</v>
+        <v>1412500</v>
       </c>
       <c r="BB36" t="n">
-        <v>1547500</v>
+        <v>1378000</v>
       </c>
       <c r="BC36" t="n">
-        <v>1474000</v>
+        <v>1415500</v>
       </c>
       <c r="BD36" t="n">
-        <v>1477000</v>
+        <v>1379500</v>
       </c>
       <c r="BE36" t="n">
-        <v>1636000</v>
+        <v>1432000</v>
       </c>
       <c r="BF36" t="n">
-        <v>1760500</v>
+        <v>1546000</v>
       </c>
       <c r="BG36" t="n">
-        <v>1921000</v>
+        <v>1633000</v>
       </c>
       <c r="BH36" t="n">
-        <v>2077000</v>
+        <v>1735000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>25000</v>
+        <v>37500</v>
       </c>
       <c r="B37" t="n">
-        <v>37500</v>
+        <v>43750</v>
       </c>
       <c r="C37" t="n">
-        <v>40625</v>
+        <v>43750</v>
       </c>
       <c r="D37" t="n">
-        <v>43750</v>
+        <v>46875</v>
       </c>
       <c r="E37" t="n">
-        <v>43750</v>
+        <v>46875</v>
       </c>
       <c r="F37" t="n">
-        <v>43750</v>
+        <v>46875</v>
       </c>
       <c r="G37" t="n">
-        <v>43750</v>
+        <v>46875</v>
       </c>
       <c r="H37" t="n">
-        <v>43750</v>
+        <v>46875</v>
       </c>
       <c r="I37" t="n">
-        <v>43750</v>
+        <v>50000</v>
       </c>
       <c r="J37" t="n">
-        <v>43750</v>
+        <v>50000</v>
       </c>
       <c r="K37" t="n">
         <v>50000</v>
@@ -7169,34 +7169,34 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>22613</v>
+        <v>22889</v>
       </c>
       <c r="B38" t="n">
-        <v>17926</v>
+        <v>14779</v>
       </c>
       <c r="C38" t="n">
-        <v>24214</v>
+        <v>23779</v>
       </c>
       <c r="D38" t="n">
-        <v>25402</v>
+        <v>28355</v>
       </c>
       <c r="E38" t="n">
-        <v>27182</v>
+        <v>30042</v>
       </c>
       <c r="F38" t="n">
-        <v>32128</v>
+        <v>29530</v>
       </c>
       <c r="G38" t="n">
+        <v>29625</v>
+      </c>
+      <c r="H38" t="n">
+        <v>35330</v>
+      </c>
+      <c r="I38" t="n">
         <v>40000</v>
       </c>
-      <c r="H38" t="n">
-        <v>34608</v>
-      </c>
-      <c r="I38" t="n">
-        <v>30672</v>
-      </c>
       <c r="J38" t="n">
-        <v>39870</v>
+        <v>40000</v>
       </c>
       <c r="K38" t="n">
         <v>40000</v>
@@ -7351,366 +7351,366 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1158108</v>
+        <v>1283964</v>
       </c>
       <c r="B39" t="n">
-        <v>1048133</v>
+        <v>967822</v>
       </c>
       <c r="C39" t="n">
-        <v>1327403</v>
+        <v>1352527</v>
       </c>
       <c r="D39" t="n">
-        <v>1422534</v>
+        <v>1564304</v>
       </c>
       <c r="E39" t="n">
-        <v>1496777</v>
+        <v>1636574</v>
       </c>
       <c r="F39" t="n">
-        <v>1712118</v>
+        <v>1614978</v>
       </c>
       <c r="G39" t="n">
-        <v>2078715</v>
+        <v>1621596</v>
       </c>
       <c r="H39" t="n">
-        <v>1818394</v>
+        <v>1865700</v>
       </c>
       <c r="I39" t="n">
-        <v>1651192</v>
+        <v>2183900</v>
       </c>
       <c r="J39" t="n">
-        <v>2046426</v>
+        <v>2324193</v>
       </c>
       <c r="K39" t="n">
-        <v>2469544</v>
+        <v>2296690</v>
       </c>
       <c r="L39" t="n">
-        <v>3017114</v>
+        <v>2989475</v>
       </c>
       <c r="M39" t="n">
-        <v>4083106</v>
+        <v>4044443</v>
       </c>
       <c r="N39" t="n">
-        <v>4315133</v>
+        <v>3953510</v>
       </c>
       <c r="O39" t="n">
-        <v>3990523</v>
+        <v>4118425</v>
       </c>
       <c r="P39" t="n">
-        <v>4293194</v>
+        <v>4702933</v>
       </c>
       <c r="Q39" t="n">
-        <v>4444925</v>
+        <v>4766762</v>
       </c>
       <c r="R39" t="n">
-        <v>4585674</v>
+        <v>5247598</v>
       </c>
       <c r="S39" t="n">
-        <v>4754747</v>
+        <v>4686472</v>
       </c>
       <c r="T39" t="n">
-        <v>4759411</v>
+        <v>5393886</v>
       </c>
       <c r="U39" t="n">
-        <v>5055004</v>
+        <v>5443812</v>
       </c>
       <c r="V39" t="n">
-        <v>6303781</v>
+        <v>7124835</v>
       </c>
       <c r="W39" t="n">
-        <v>6646664</v>
+        <v>7156502</v>
       </c>
       <c r="X39" t="n">
-        <v>8156806</v>
+        <v>8099010</v>
       </c>
       <c r="Y39" t="n">
-        <v>9753954</v>
+        <v>9516024</v>
       </c>
       <c r="Z39" t="n">
-        <v>9995680</v>
+        <v>9008197</v>
       </c>
       <c r="AA39" t="n">
-        <v>10058238</v>
+        <v>9631081</v>
       </c>
       <c r="AB39" t="n">
-        <v>10219296</v>
+        <v>11238351</v>
       </c>
       <c r="AC39" t="n">
-        <v>10874098</v>
+        <v>10953497</v>
       </c>
       <c r="AD39" t="n">
-        <v>12039368</v>
+        <v>10944363</v>
       </c>
       <c r="AE39" t="n">
-        <v>11478123</v>
+        <v>10801585</v>
       </c>
       <c r="AF39" t="n">
-        <v>11010389</v>
+        <v>11801228</v>
       </c>
       <c r="AG39" t="n">
-        <v>13529440</v>
+        <v>12237935</v>
       </c>
       <c r="AH39" t="n">
-        <v>13679824</v>
+        <v>15479586</v>
       </c>
       <c r="AI39" t="n">
-        <v>14670052</v>
+        <v>15276433</v>
       </c>
       <c r="AJ39" t="n">
-        <v>17563262</v>
+        <v>16180947</v>
       </c>
       <c r="AK39" t="n">
-        <v>18436318</v>
+        <v>18180650</v>
       </c>
       <c r="AL39" t="n">
-        <v>20270315</v>
+        <v>17055441</v>
       </c>
       <c r="AM39" t="n">
-        <v>21400093</v>
+        <v>17229362</v>
       </c>
       <c r="AN39" t="n">
-        <v>21755569</v>
+        <v>18616954</v>
       </c>
       <c r="AO39" t="n">
-        <v>22219880</v>
+        <v>17494280</v>
       </c>
       <c r="AP39" t="n">
-        <v>23191332</v>
+        <v>19896653</v>
       </c>
       <c r="AQ39" t="n">
-        <v>21682893</v>
+        <v>19696079</v>
       </c>
       <c r="AR39" t="n">
-        <v>21442594</v>
+        <v>20646792</v>
       </c>
       <c r="AS39" t="n">
-        <v>23706337</v>
+        <v>21516371</v>
       </c>
       <c r="AT39" t="n">
-        <v>25462489</v>
+        <v>23770421</v>
       </c>
       <c r="AU39" t="n">
-        <v>27241392</v>
+        <v>24090570</v>
       </c>
       <c r="AV39" t="n">
-        <v>28436538</v>
+        <v>27106532</v>
       </c>
       <c r="AW39" t="n">
-        <v>32287939</v>
+        <v>27774009</v>
       </c>
       <c r="AX39" t="n">
-        <v>34336556</v>
+        <v>29422501</v>
       </c>
       <c r="AY39" t="n">
-        <v>32872047</v>
+        <v>29857704</v>
       </c>
       <c r="AZ39" t="n">
-        <v>32357907</v>
+        <v>33731428</v>
       </c>
       <c r="BA39" t="n">
-        <v>34036623</v>
+        <v>33209342</v>
       </c>
       <c r="BB39" t="n">
-        <v>34950979</v>
+        <v>32306947</v>
       </c>
       <c r="BC39" t="n">
-        <v>33801505</v>
+        <v>32365168</v>
       </c>
       <c r="BD39" t="n">
-        <v>32853827</v>
+        <v>32292653</v>
       </c>
       <c r="BE39" t="n">
-        <v>37433604</v>
+        <v>32390710</v>
       </c>
       <c r="BF39" t="n">
-        <v>39812250</v>
+        <v>34911689</v>
       </c>
       <c r="BG39" t="n">
-        <v>44356323</v>
+        <v>36704809</v>
       </c>
       <c r="BH39" t="n">
-        <v>48331557</v>
+        <v>38614622</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-27435.99999999977</v>
+        <v>-139468</v>
       </c>
       <c r="B40" t="n">
-        <v>-151790.5999999996</v>
+        <v>-228868.4000000005</v>
       </c>
       <c r="C40" t="n">
-        <v>-116686.2000000004</v>
+        <v>-163557.3999999983</v>
       </c>
       <c r="D40" t="n">
-        <v>-152415.5999999992</v>
+        <v>-146531.2000000007</v>
       </c>
       <c r="E40" t="n">
-        <v>-137673.0000000014</v>
+        <v>-134471.5999999992</v>
       </c>
       <c r="F40" t="n">
-        <v>-105685.9999999991</v>
+        <v>-138456.3999999994</v>
       </c>
       <c r="G40" t="n">
-        <v>-43963</v>
+        <v>-140344.799999998</v>
       </c>
       <c r="H40" t="n">
-        <v>-87990.80000000354</v>
+        <v>-99187.99999999348</v>
       </c>
       <c r="I40" t="n">
-        <v>-117544</v>
+        <v>-94939.99999999255</v>
       </c>
       <c r="J40" t="n">
-        <v>-52918.79999999702</v>
+        <v>-68263.39999999851</v>
       </c>
       <c r="K40" t="n">
-        <v>-38907.19999999367</v>
+        <v>-74977.99999999814</v>
       </c>
       <c r="L40" t="n">
-        <v>66610.79999999516</v>
+        <v>59405.00000000186</v>
       </c>
       <c r="M40" t="n">
-        <v>227985.1999999993</v>
+        <v>206142.5999999866</v>
       </c>
       <c r="N40" t="n">
-        <v>259116.6000000052</v>
+        <v>179465.9999999851</v>
       </c>
       <c r="O40" t="n">
-        <v>197646.5999999866</v>
+        <v>208535.0000000149</v>
       </c>
       <c r="P40" t="n">
-        <v>254498.7999999821</v>
+        <v>323428.599999994</v>
       </c>
       <c r="Q40" t="n">
-        <v>283874.9999999776</v>
+        <v>337484.3999999948</v>
       </c>
       <c r="R40" t="n">
-        <v>298290.8000000566</v>
+        <v>432123.6000000387</v>
       </c>
       <c r="S40" t="n">
-        <v>332395.4000000209</v>
+        <v>305358.4000000209</v>
       </c>
       <c r="T40" t="n">
-        <v>271536.2000000477</v>
+        <v>438805.1999999732</v>
       </c>
       <c r="U40" t="n">
-        <v>327200.8000000119</v>
+        <v>413442.3999999687</v>
       </c>
       <c r="V40" t="n">
-        <v>542430.2000000104</v>
+        <v>750972.9999999776</v>
       </c>
       <c r="W40" t="n">
-        <v>612628.799999997</v>
+        <v>751744.3999999687</v>
       </c>
       <c r="X40" t="n">
-        <v>905309.2000000551</v>
+        <v>939790.0000001192</v>
       </c>
       <c r="Y40" t="n">
-        <v>1216650.799999997</v>
+        <v>1214452.800000161</v>
       </c>
       <c r="Z40" t="n">
-        <v>1262991.999999955</v>
+        <v>1114833.400000066</v>
       </c>
       <c r="AA40" t="n">
-        <v>1271355.600000009</v>
+        <v>1237706.199999973</v>
       </c>
       <c r="AB40" t="n">
-        <v>1301763.200000077</v>
+        <v>1548948.200000063</v>
       </c>
       <c r="AC40" t="n">
-        <v>1432135.600000009</v>
+        <v>1477949.399999931</v>
       </c>
       <c r="AD40" t="n">
-        <v>1659089.600000009</v>
+        <v>1473678.600000128</v>
       </c>
       <c r="AE40" t="n">
-        <v>1532014.599999756</v>
+        <v>1443823.000000149</v>
       </c>
       <c r="AF40" t="n">
-        <v>1421399.799999774</v>
+        <v>1597021.600000143</v>
       </c>
       <c r="AG40" t="n">
-        <v>1908416.000000179</v>
+        <v>1662977.000000149</v>
       </c>
       <c r="AH40" t="n">
-        <v>1934812.799999863</v>
+        <v>2276929.199999899</v>
       </c>
       <c r="AI40" t="n">
-        <v>2112914.400000066</v>
+        <v>2236376.599999994</v>
       </c>
       <c r="AJ40" t="n">
-        <v>2662312.399999827</v>
+        <v>2413763.399999827</v>
       </c>
       <c r="AK40" t="n">
-        <v>2777035.600000083</v>
+        <v>2792341.999999881</v>
       </c>
       <c r="AL40" t="n">
-        <v>3124500.999999911</v>
+        <v>2569394.19999969</v>
       </c>
       <c r="AM40" t="n">
-        <v>3254316.600000083</v>
+        <v>2596852.399999827</v>
       </c>
       <c r="AN40" t="n">
-        <v>3326011.799999297</v>
+        <v>2872946.800000399</v>
       </c>
       <c r="AO40" t="n">
-        <v>3417223.999999583</v>
+        <v>2601352.000000417</v>
       </c>
       <c r="AP40" t="n">
-        <v>3603474.400000095</v>
+        <v>3042908.599999726</v>
       </c>
       <c r="AQ40" t="n">
-        <v>3297900.600000679</v>
+        <v>2989197.799999893</v>
       </c>
       <c r="AR40" t="n">
-        <v>3251546.80000037</v>
+        <v>3180126.400000572</v>
       </c>
       <c r="AS40" t="n">
-        <v>3699141.400000751</v>
+        <v>3350048.19999969</v>
       </c>
       <c r="AT40" t="n">
-        <v>4039299.799998939</v>
+        <v>3782814.200000703</v>
       </c>
       <c r="AU40" t="n">
-        <v>4391878.399999738</v>
+        <v>3798374.000000358</v>
       </c>
       <c r="AV40" t="n">
-        <v>4596623.599999309</v>
+        <v>4373538.399999857</v>
       </c>
       <c r="AW40" t="n">
-        <v>5299849.800000668</v>
+        <v>4427059.799998462</v>
       </c>
       <c r="AX40" t="n">
-        <v>5691079.200000465</v>
+        <v>4748014.199999571</v>
       </c>
       <c r="AY40" t="n">
-        <v>5397319.399998307</v>
+        <v>4809908.800000668</v>
       </c>
       <c r="AZ40" t="n">
-        <v>5284931.400000691</v>
+        <v>5575237.599997759</v>
       </c>
       <c r="BA40" t="n">
-        <v>5605146.599999785</v>
+        <v>5468968.399997234</v>
       </c>
       <c r="BB40" t="n">
-        <v>5756569.800002337</v>
+        <v>5278915.400001526</v>
       </c>
       <c r="BC40" t="n">
-        <v>5521231.000003815</v>
+        <v>5294425.600000501</v>
       </c>
       <c r="BD40" t="n">
-        <v>5329635.400002122</v>
+        <v>5277612.599999905</v>
       </c>
       <c r="BE40" t="n">
-        <v>6197352.799999952</v>
+        <v>5284921.999998212</v>
       </c>
       <c r="BF40" t="n">
-        <v>6607446.000000358</v>
+        <v>5741539.799998999</v>
       </c>
       <c r="BG40" t="n">
-        <v>7452742.59999907</v>
+        <v>6094387.799998879</v>
       </c>
       <c r="BH40" t="n">
-        <v>8225953.400002241</v>
+        <v>6478520.400002837</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH40"/>
+  <dimension ref="A1:BI40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1100 +434,1132 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
       </c>
       <c r="B1" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AI1" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AJ1" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AK1" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AL1" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AM1" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AN1" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AO1" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AP1" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AQ1" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AR1" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AS1" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AT1" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AU1" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AV1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AW1" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AX1" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AY1" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AZ1" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="BA1" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BB1" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BC1" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BD1" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BE1" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BF1" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BG1" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BH1" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BI1" s="1" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>6</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>7</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>8</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>9</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>10</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>11</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>12</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>13</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>14</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>15</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>16</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>17</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>18</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>19</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>20</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>21</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>22</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>23</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>24</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>25</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>26</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>27</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>28</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>29</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>30</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>31</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>32</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>33</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>34</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>35</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>36</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>37</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>38</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>39</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>40</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>41</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>42</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>43</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>44</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>45</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>46</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>47</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>48</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>49</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>50</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
         <v>51</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BA2" t="n">
         <v>52</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
         <v>53</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2" t="n">
         <v>54</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>55</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BE2" t="n">
         <v>56</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BF2" t="n">
         <v>57</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BG2" t="n">
         <v>58</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BH2" t="n">
         <v>59</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BI2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>customers</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>100</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>111</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>120</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>133</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>147</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>161</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>177</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>195</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>214</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>236</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>259</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>285</v>
       </c>
-      <c r="M3" t="n">
-        <v>351</v>
-      </c>
       <c r="N3" t="n">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="O3" t="n">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="P3" t="n">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="Q3" t="n">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="R3" t="n">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="S3" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="T3" t="n">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="U3" t="n">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="V3" t="n">
-        <v>547</v>
+        <v>510</v>
       </c>
       <c r="W3" t="n">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="X3" t="n">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="Y3" t="n">
+        <v>581</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>675</v>
+      </c>
+      <c r="AA3" t="n">
         <v>692</v>
       </c>
-      <c r="Z3" t="n">
-        <v>695</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>737</v>
-      </c>
       <c r="AB3" t="n">
-        <v>775</v>
+        <v>734</v>
       </c>
       <c r="AC3" t="n">
-        <v>799</v>
+        <v>744</v>
       </c>
       <c r="AD3" t="n">
-        <v>828</v>
+        <v>802</v>
       </c>
       <c r="AE3" t="n">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="AF3" t="n">
-        <v>898</v>
+        <v>867</v>
       </c>
       <c r="AG3" t="n">
-        <v>934</v>
+        <v>894</v>
       </c>
       <c r="AH3" t="n">
-        <v>1013</v>
+        <v>915</v>
       </c>
       <c r="AI3" t="n">
-        <v>1046</v>
+        <v>968</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1092</v>
+        <v>1024</v>
       </c>
       <c r="AK3" t="n">
-        <v>1246</v>
+        <v>1054</v>
       </c>
       <c r="AL3" t="n">
-        <v>1237</v>
+        <v>1220</v>
       </c>
       <c r="AM3" t="n">
-        <v>1316</v>
+        <v>1252</v>
       </c>
       <c r="AN3" t="n">
-        <v>1377</v>
+        <v>1289</v>
       </c>
       <c r="AO3" t="n">
-        <v>1388</v>
+        <v>1294</v>
       </c>
       <c r="AP3" t="n">
-        <v>1422</v>
+        <v>1400</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1479</v>
+        <v>1499</v>
       </c>
       <c r="AR3" t="n">
-        <v>1519</v>
+        <v>1494</v>
       </c>
       <c r="AS3" t="n">
-        <v>1585</v>
+        <v>1545</v>
       </c>
       <c r="AT3" t="n">
-        <v>1773</v>
+        <v>1560</v>
       </c>
       <c r="AU3" t="n">
-        <v>1795</v>
+        <v>1647</v>
       </c>
       <c r="AV3" t="n">
-        <v>1853</v>
+        <v>1702</v>
       </c>
       <c r="AW3" t="n">
-        <v>2080</v>
+        <v>1727</v>
       </c>
       <c r="AX3" t="n">
-        <v>2021</v>
+        <v>1945</v>
       </c>
       <c r="AY3" t="n">
-        <v>2115</v>
+        <v>1955</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2170</v>
+        <v>2086</v>
       </c>
       <c r="BA3" t="n">
-        <v>2157</v>
+        <v>2074</v>
       </c>
       <c r="BB3" t="n">
-        <v>2251</v>
+        <v>2207</v>
       </c>
       <c r="BC3" t="n">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="BD3" t="n">
-        <v>2386</v>
+        <v>2319</v>
       </c>
       <c r="BE3" t="n">
-        <v>2467</v>
+        <v>2444</v>
       </c>
       <c r="BF3" t="n">
-        <v>2719</v>
+        <v>2493</v>
       </c>
       <c r="BG3" t="n">
-        <v>2738</v>
+        <v>2639</v>
       </c>
       <c r="BH3" t="n">
-        <v>2894</v>
+        <v>2675</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>2730</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>15</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>new customers</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21</v>
+      </c>
+      <c r="K4" t="n">
         <v>17</v>
       </c>
-      <c r="G4" t="n">
-        <v>16</v>
-      </c>
-      <c r="H4" t="n">
-        <v>17</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>29</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30</v>
+      </c>
+      <c r="P4" t="n">
         <v>28</v>
       </c>
-      <c r="J4" t="n">
-        <v>22</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="Q4" t="n">
+        <v>49</v>
+      </c>
+      <c r="R4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S4" t="n">
+        <v>45</v>
+      </c>
+      <c r="T4" t="n">
         <v>31</v>
       </c>
-      <c r="M4" t="n">
+      <c r="U4" t="n">
         <v>32</v>
       </c>
-      <c r="N4" t="n">
-        <v>23</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>32</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="V4" t="n">
+        <v>46</v>
+      </c>
+      <c r="W4" t="n">
+        <v>54</v>
+      </c>
+      <c r="X4" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y4" t="n">
         <v>43</v>
       </c>
-      <c r="S4" t="n">
-        <v>43</v>
-      </c>
-      <c r="T4" t="n">
-        <v>37</v>
-      </c>
-      <c r="U4" t="n">
-        <v>43</v>
-      </c>
-      <c r="V4" t="n">
-        <v>43</v>
-      </c>
-      <c r="W4" t="n">
-        <v>35</v>
-      </c>
-      <c r="X4" t="n">
-        <v>54</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>49</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>57</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>57</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>74</v>
+      </c>
+      <c r="AG4" t="n">
         <v>47</v>
       </c>
-      <c r="Z4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>47</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>56</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AH4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>78</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>68</v>
       </c>
-      <c r="AD4" t="n">
-        <v>64</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>54</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>62</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>72</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
+        <v>58</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>79</v>
+      </c>
+      <c r="AM4" t="n">
         <v>75</v>
       </c>
-      <c r="AK4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>71</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
+        <v>69</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>86</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>92</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>84</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>96</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>95</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>99</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>87</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>116</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>93</v>
+      </c>
+      <c r="BB4" t="n">
         <v>90</v>
       </c>
-      <c r="AN4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>74</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>72</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>79</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>73</v>
-      </c>
-      <c r="AT4" t="n">
+      <c r="BC4" t="n">
+        <v>97</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>105</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>103</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG4" t="n">
         <v>96</v>
       </c>
-      <c r="AU4" t="n">
-        <v>86</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>94</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>97</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>79</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>103</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>87</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>89</v>
-      </c>
-      <c r="BC4" t="n">
+      <c r="BH4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BI4" t="n">
         <v>100</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>111</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>98</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>91</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>102</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>105</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>38</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>referred customers</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" t="n">
         <v>48</v>
       </c>
       <c r="D5" t="n">
+        <v>52</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56</v>
+      </c>
+      <c r="F5" t="n">
         <v>58</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
+        <v>61</v>
+      </c>
+      <c r="H5" t="n">
+        <v>76</v>
+      </c>
+      <c r="I5" t="n">
         <v>72</v>
       </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
-        <v>76</v>
-      </c>
-      <c r="H5" t="n">
-        <v>79</v>
-      </c>
-      <c r="I5" t="n">
-        <v>85</v>
-      </c>
       <c r="J5" t="n">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="L5" t="n">
+        <v>107</v>
+      </c>
+      <c r="M5" t="n">
         <v>114</v>
       </c>
-      <c r="M5" t="n">
-        <v>125</v>
-      </c>
       <c r="N5" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O5" t="n">
+        <v>128</v>
+      </c>
+      <c r="P5" t="n">
+        <v>131</v>
+      </c>
+      <c r="Q5" t="n">
         <v>134</v>
       </c>
-      <c r="P5" t="n">
-        <v>155</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>153</v>
-      </c>
       <c r="R5" t="n">
+        <v>143</v>
+      </c>
+      <c r="S5" t="n">
+        <v>151</v>
+      </c>
+      <c r="T5" t="n">
         <v>146</v>
       </c>
-      <c r="S5" t="n">
-        <v>166</v>
-      </c>
-      <c r="T5" t="n">
-        <v>159</v>
-      </c>
       <c r="U5" t="n">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="V5" t="n">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="W5" t="n">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="X5" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Y5" t="n">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="Z5" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="AA5" t="n">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="AB5" t="n">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="AC5" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AD5" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="AE5" t="n">
+        <v>227</v>
+      </c>
+      <c r="AF5" t="n">
         <v>241</v>
       </c>
-      <c r="AF5" t="n">
-        <v>264</v>
-      </c>
       <c r="AG5" t="n">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="AH5" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AI5" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="AJ5" t="n">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="AK5" t="n">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="AL5" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AM5" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="AN5" t="n">
+        <v>318</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>304</v>
+      </c>
+      <c r="AP5" t="n">
         <v>311</v>
       </c>
-      <c r="AO5" t="n">
-        <v>311</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>326</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="AR5" t="n">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AS5" t="n">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AT5" t="n">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="AU5" t="n">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AV5" t="n">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AW5" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AX5" t="n">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="AY5" t="n">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AZ5" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="BA5" t="n">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="BB5" t="n">
+        <v>383</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>368</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>371</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>389</v>
+      </c>
+      <c r="BF5" t="n">
         <v>400</v>
       </c>
-      <c r="BC5" t="n">
-        <v>378</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>392</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>405</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>405</v>
-      </c>
       <c r="BG5" t="n">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="BH5" t="n">
-        <v>420</v>
+        <v>403</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>413</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>47</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>lead customers</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G6" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H6" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="I6" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J6" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K6" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L6" t="n">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="M6" t="n">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="N6" t="n">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="O6" t="n">
         <v>169</v>
       </c>
       <c r="P6" t="n">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Q6" t="n">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="R6" t="n">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="S6" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="T6" t="n">
+        <v>220</v>
+      </c>
+      <c r="U6" t="n">
+        <v>212</v>
+      </c>
+      <c r="V6" t="n">
         <v>217</v>
       </c>
-      <c r="U6" t="n">
-        <v>208</v>
-      </c>
-      <c r="V6" t="n">
-        <v>216</v>
-      </c>
       <c r="W6" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="X6" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="Y6" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Z6" t="n">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="AA6" t="n">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="AB6" t="n">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="AC6" t="n">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AD6" t="n">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="AE6" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AF6" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="AG6" t="n">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AH6" t="n">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="AI6" t="n">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="AJ6" t="n">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AK6" t="n">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="AL6" t="n">
+        <v>352</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>378</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>358</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>376</v>
+      </c>
+      <c r="AP6" t="n">
         <v>379</v>
       </c>
-      <c r="AM6" t="n">
-        <v>355</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>383</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>390</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>375</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="AR6" t="n">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="AS6" t="n">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="AT6" t="n">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="AU6" t="n">
-        <v>469</v>
+        <v>432</v>
       </c>
       <c r="AV6" t="n">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="AW6" t="n">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AX6" t="n">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AY6" t="n">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="AZ6" t="n">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="BA6" t="n">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="BB6" t="n">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="BC6" t="n">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="BD6" t="n">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="BE6" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="BF6" t="n">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="BG6" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="BH6" t="n">
-        <v>488</v>
+        <v>500</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>existing customers</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1563,335 +1595,345 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O7" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="P7" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="Q7" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="R7" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="S7" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="T7" t="n">
         <v>71</v>
       </c>
       <c r="U7" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V7" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="W7" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="X7" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="n">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="Z7" t="n">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AA7" t="n">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="AB7" t="n">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="AC7" t="n">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="AD7" t="n">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="AE7" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AF7" t="n">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="AG7" t="n">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="AH7" t="n">
+        <v>278</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>313</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>349</v>
+      </c>
+      <c r="AK7" t="n">
         <v>358</v>
       </c>
-      <c r="AI7" t="n">
-        <v>371</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>396</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>530</v>
-      </c>
       <c r="AL7" t="n">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AM7" t="n">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="AN7" t="n">
-        <v>616</v>
+        <v>544</v>
       </c>
       <c r="AO7" t="n">
-        <v>613</v>
+        <v>533</v>
       </c>
       <c r="AP7" t="n">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="AQ7" t="n">
-        <v>672</v>
+        <v>708</v>
       </c>
       <c r="AR7" t="n">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="AS7" t="n">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="AT7" t="n">
-        <v>917</v>
+        <v>721</v>
       </c>
       <c r="AU7" t="n">
-        <v>921</v>
+        <v>791</v>
       </c>
       <c r="AV7" t="n">
-        <v>963</v>
+        <v>828</v>
       </c>
       <c r="AW7" t="n">
-        <v>1171</v>
+        <v>837</v>
       </c>
       <c r="AX7" t="n">
-        <v>1104</v>
+        <v>1036</v>
       </c>
       <c r="AY7" t="n">
-        <v>1188</v>
+        <v>1038</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1234</v>
+        <v>1159</v>
       </c>
       <c r="BA7" t="n">
-        <v>1211</v>
+        <v>1138</v>
       </c>
       <c r="BB7" t="n">
-        <v>1296</v>
+        <v>1261</v>
       </c>
       <c r="BC7" t="n">
-        <v>1352</v>
+        <v>1359</v>
       </c>
       <c r="BD7" t="n">
-        <v>1412</v>
+        <v>1355</v>
       </c>
       <c r="BE7" t="n">
-        <v>1483</v>
+        <v>1470</v>
       </c>
       <c r="BF7" t="n">
-        <v>1725</v>
+        <v>1509</v>
       </c>
       <c r="BG7" t="n">
-        <v>1734</v>
+        <v>1645</v>
       </c>
       <c r="BH7" t="n">
-        <v>1881</v>
+        <v>1671</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1717</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Risk assessment pakages sold</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
-        <v>16</v>
-      </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
         <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K8" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="L8" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M8" t="n">
+        <v>39</v>
+      </c>
+      <c r="N8" t="n">
         <v>40</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
+        <v>35</v>
+      </c>
+      <c r="P8" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>38</v>
+      </c>
+      <c r="R8" t="n">
+        <v>48</v>
+      </c>
+      <c r="S8" t="n">
         <v>39</v>
       </c>
-      <c r="O8" t="n">
-        <v>43</v>
-      </c>
-      <c r="P8" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>48</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
+        <v>39</v>
+      </c>
+      <c r="U8" t="n">
+        <v>56</v>
+      </c>
+      <c r="V8" t="n">
+        <v>54</v>
+      </c>
+      <c r="W8" t="n">
         <v>42</v>
       </c>
-      <c r="S8" t="n">
+      <c r="X8" t="n">
+        <v>57</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>69</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF8" t="n">
         <v>66</v>
       </c>
-      <c r="T8" t="n">
-        <v>47</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="AG8" t="n">
+        <v>72</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>87</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>62</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>63</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>68</v>
+      </c>
+      <c r="AM8" t="n">
         <v>52</v>
       </c>
-      <c r="V8" t="n">
-        <v>55</v>
-      </c>
-      <c r="W8" t="n">
-        <v>65</v>
-      </c>
-      <c r="X8" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AN8" t="n">
+        <v>74</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>71</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>73</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>64</v>
       </c>
-      <c r="AA8" t="n">
-        <v>72</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AR8" t="n">
+        <v>58</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>58</v>
+      </c>
+      <c r="AT8" t="n">
         <v>64</v>
       </c>
-      <c r="AC8" t="n">
-        <v>52</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>56</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>76</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>89</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>74</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>72</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>62</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>73</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>61</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT8" t="n">
+      <c r="AU8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>78</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>88</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>63</v>
+      </c>
+      <c r="AY8" t="n">
         <v>66</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>78</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>77</v>
       </c>
       <c r="AZ8" t="n">
         <v>75</v>
       </c>
       <c r="BA8" t="n">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="BB8" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BC8" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="BD8" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="BE8" t="n">
         <v>69</v>
       </c>
       <c r="BF8" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="BG8" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="BH8" t="n">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Risk assessment pakages sold to new customers</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -1918,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -1945,22 +1987,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1969,94 +2011,94 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="n">
         <v>3</v>
       </c>
-      <c r="AI9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>1</v>
-      </c>
       <c r="AV9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA9" t="n">
         <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE9" t="n">
         <v>2</v>
@@ -2068,376 +2110,391 @@
         <v>0</v>
       </c>
       <c r="BH9" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Risk assessment pakages sold to referred customers</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="n">
         <v>9</v>
       </c>
-      <c r="K10" t="n">
-        <v>7</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="O10" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>9</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6</v>
+      </c>
+      <c r="T10" t="n">
         <v>5</v>
       </c>
-      <c r="M10" t="n">
-        <v>7</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="U10" t="n">
         <v>12</v>
       </c>
-      <c r="P10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="V10" t="n">
+        <v>13</v>
+      </c>
+      <c r="W10" t="n">
         <v>9</v>
       </c>
-      <c r="R10" t="n">
-        <v>10</v>
-      </c>
-      <c r="S10" t="n">
-        <v>10</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="X10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
         <v>16</v>
       </c>
-      <c r="U10" t="n">
-        <v>8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>12</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE10" t="n">
         <v>13</v>
       </c>
-      <c r="X10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AF10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG10" t="n">
         <v>13</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS10" t="n">
         <v>9</v>
       </c>
-      <c r="AM10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN10" t="n">
+      <c r="AT10" t="n">
         <v>16</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>14</v>
       </c>
       <c r="AU10" t="n">
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
         <v>14</v>
       </c>
       <c r="AX10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>19</v>
+      </c>
+      <c r="BC10" t="n">
         <v>12</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="BD10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF10" t="n">
         <v>17</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>15</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>23</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>14</v>
-      </c>
-      <c r="BE10" t="n">
+      <c r="BG10" t="n">
         <v>18</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>12</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>16</v>
       </c>
       <c r="BH10" t="n">
         <v>17</v>
       </c>
+      <c r="BI10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>6</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Risk assessment pakages sold to lead customers</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
         <v>8</v>
       </c>
-      <c r="D11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" t="n">
-        <v>14</v>
-      </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>26</v>
+      </c>
+      <c r="K11" t="n">
         <v>27</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
+        <v>32</v>
+      </c>
+      <c r="M11" t="n">
+        <v>33</v>
+      </c>
+      <c r="N11" t="n">
         <v>30</v>
       </c>
-      <c r="K11" t="n">
-        <v>35</v>
-      </c>
-      <c r="L11" t="n">
-        <v>29</v>
-      </c>
-      <c r="M11" t="n">
-        <v>30</v>
-      </c>
-      <c r="N11" t="n">
-        <v>35</v>
-      </c>
       <c r="O11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P11" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>32</v>
+      </c>
+      <c r="R11" t="n">
+        <v>39</v>
+      </c>
+      <c r="S11" t="n">
+        <v>31</v>
+      </c>
+      <c r="T11" t="n">
+        <v>34</v>
+      </c>
+      <c r="U11" t="n">
+        <v>42</v>
+      </c>
+      <c r="V11" t="n">
         <v>38</v>
       </c>
-      <c r="Q11" t="n">
-        <v>36</v>
-      </c>
-      <c r="R11" t="n">
-        <v>30</v>
-      </c>
-      <c r="S11" t="n">
-        <v>54</v>
-      </c>
-      <c r="T11" t="n">
-        <v>29</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
+        <v>32</v>
+      </c>
+      <c r="X11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD11" t="n">
         <v>43</v>
       </c>
-      <c r="V11" t="n">
-        <v>42</v>
-      </c>
-      <c r="W11" t="n">
-        <v>49</v>
-      </c>
-      <c r="X11" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>47</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>39</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
+        <v>57</v>
+      </c>
+      <c r="AF11" t="n">
         <v>44</v>
       </c>
-      <c r="AE11" t="n">
-        <v>58</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>39</v>
-      </c>
       <c r="AG11" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AH11" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AI11" t="n">
         <v>64</v>
       </c>
       <c r="AJ11" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="AK11" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AM11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>62</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>43</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>72</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>47</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>53</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>49</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>47</v>
+      </c>
+      <c r="BB11" t="n">
         <v>50</v>
       </c>
-      <c r="AN11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AO11" t="n">
+      <c r="BC11" t="n">
+        <v>44</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>56</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>54</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>58</v>
+      </c>
+      <c r="BH11" t="n">
         <v>59</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39</v>
-      </c>
-      <c r="AQ11" t="n">
+      <c r="BI11" t="n">
         <v>53</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>52</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>61</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>54</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>58</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>58</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>57</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>63</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>68</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>44</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>64</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>65</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Risk assessment pakages sold to existing customers</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -2473,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -2485,127 +2542,127 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
         <v>3</v>
       </c>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
       <c r="Y12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC12" t="n">
         <v>3</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>2</v>
       </c>
       <c r="AD12" t="n">
         <v>3</v>
       </c>
       <c r="AE12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM12" t="n">
         <v>3</v>
       </c>
-      <c r="AF12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" t="n">
+      <c r="AN12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO12" t="n">
         <v>4</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>2</v>
-      </c>
       <c r="AP12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
         <v>2</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
       </c>
       <c r="AU12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
         <v>5</v>
       </c>
-      <c r="AV12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>4</v>
-      </c>
       <c r="BC12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BF12" t="n">
         <v>4</v>
@@ -2614,194 +2671,204 @@
         <v>2</v>
       </c>
       <c r="BH12" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>16</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SOC pakages sold</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I13" t="n">
+        <v>29</v>
+      </c>
+      <c r="J13" t="n">
         <v>27</v>
-      </c>
-      <c r="J13" t="n">
-        <v>31</v>
       </c>
       <c r="K13" t="n">
         <v>30</v>
       </c>
       <c r="L13" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M13" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O13" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="P13" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q13" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R13" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="S13" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="T13" t="n">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="U13" t="n">
         <v>36</v>
       </c>
       <c r="V13" t="n">
+        <v>48</v>
+      </c>
+      <c r="W13" t="n">
+        <v>50</v>
+      </c>
+      <c r="X13" t="n">
+        <v>52</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>76</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>58</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC13" t="n">
         <v>53</v>
       </c>
-      <c r="W13" t="n">
-        <v>53</v>
-      </c>
-      <c r="X13" t="n">
-        <v>68</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AD13" t="n">
+        <v>64</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>69</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>76</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>61</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>61</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>71</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>54</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>84</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>79</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>74</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>52</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>92</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>91</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>82</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>76</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>82</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>69</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>71</v>
+      </c>
+      <c r="BC13" t="n">
         <v>72</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="BD13" t="n">
+        <v>89</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>55</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>64</v>
+      </c>
+      <c r="BG13" t="n">
         <v>63</v>
       </c>
-      <c r="AB13" t="n">
-        <v>61</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>69</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>63</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>62</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>83</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>84</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>73</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>87</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>69</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>66</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>57</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>68</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>79</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>72</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="BH13" t="n">
         <v>85</v>
       </c>
-      <c r="AT13" t="n">
-        <v>62</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>78</v>
-      </c>
-      <c r="AV13" t="n">
+      <c r="BI13" t="n">
         <v>82</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>59</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>79</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>93</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>82</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>86</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>82</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>78</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>88</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>78</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>74</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>56</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SOC pakages sold to new customers</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -2822,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2834,31 +2901,31 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -2867,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2879,91 +2946,91 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
         <v>2</v>
       </c>
       <c r="AI14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="n">
         <v>1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" t="n">
         <v>1</v>
       </c>
       <c r="BA14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD14" t="n">
         <v>0</v>
@@ -2972,382 +3039,397 @@
         <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SOC pakages sold to referred customers</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>3</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>4</v>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
         <v>10</v>
       </c>
       <c r="K15" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12</v>
+      </c>
+      <c r="O15" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>14</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7</v>
+      </c>
+      <c r="S15" t="n">
         <v>5</v>
       </c>
-      <c r="L15" t="n">
-        <v>4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>11</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>12</v>
-      </c>
-      <c r="P15" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>10</v>
-      </c>
-      <c r="R15" t="n">
-        <v>10</v>
-      </c>
-      <c r="S15" t="n">
-        <v>16</v>
-      </c>
       <c r="T15" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="U15" t="n">
         <v>7</v>
       </c>
       <c r="V15" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="W15" t="n">
+        <v>15</v>
+      </c>
+      <c r="X15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z15" t="n">
         <v>7</v>
-      </c>
-      <c r="X15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>13</v>
       </c>
       <c r="AA15" t="n">
         <v>10</v>
       </c>
       <c r="AB15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
         <v>16</v>
       </c>
-      <c r="AC15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AF15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
         <v>11</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AI15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>11</v>
       </c>
-      <c r="AG15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>19</v>
-      </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AM15" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AN15" t="n">
         <v>14</v>
       </c>
       <c r="AO15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT15" t="n">
         <v>13</v>
       </c>
-      <c r="AP15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>12</v>
-      </c>
       <c r="AU15" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AV15" t="n">
         <v>16</v>
       </c>
       <c r="AW15" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF15" t="n">
         <v>13</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="BG15" t="n">
         <v>15</v>
       </c>
-      <c r="BA15" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>17</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>18</v>
-      </c>
-      <c r="BE15" t="n">
+      <c r="BH15" t="n">
         <v>21</v>
       </c>
-      <c r="BF15" t="n">
-        <v>11</v>
-      </c>
-      <c r="BG15" t="n">
+      <c r="BI15" t="n">
         <v>16</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SOC pakages sold to lead customers</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11</v>
+      </c>
+      <c r="G16" t="n">
+        <v>21</v>
+      </c>
+      <c r="H16" t="n">
         <v>13</v>
       </c>
-      <c r="B16" t="n">
-        <v>13</v>
-      </c>
-      <c r="C16" t="n">
-        <v>10</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13</v>
-      </c>
-      <c r="E16" t="n">
-        <v>15</v>
-      </c>
-      <c r="F16" t="n">
-        <v>16</v>
-      </c>
-      <c r="G16" t="n">
-        <v>13</v>
-      </c>
-      <c r="H16" t="n">
-        <v>14</v>
-      </c>
       <c r="I16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K16" t="n">
+        <v>24</v>
+      </c>
+      <c r="L16" t="n">
         <v>25</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
+        <v>26</v>
+      </c>
+      <c r="N16" t="n">
+        <v>26</v>
+      </c>
+      <c r="O16" t="n">
+        <v>38</v>
+      </c>
+      <c r="P16" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>27</v>
+      </c>
+      <c r="R16" t="n">
+        <v>20</v>
+      </c>
+      <c r="S16" t="n">
+        <v>29</v>
+      </c>
+      <c r="T16" t="n">
+        <v>35</v>
+      </c>
+      <c r="U16" t="n">
         <v>24</v>
       </c>
-      <c r="M16" t="n">
-        <v>30</v>
-      </c>
-      <c r="N16" t="n">
-        <v>28</v>
-      </c>
-      <c r="O16" t="n">
-        <v>28</v>
-      </c>
-      <c r="P16" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>34</v>
-      </c>
-      <c r="R16" t="n">
+      <c r="V16" t="n">
+        <v>39</v>
+      </c>
+      <c r="W16" t="n">
+        <v>31</v>
+      </c>
+      <c r="X16" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB16" t="n">
         <v>45</v>
       </c>
-      <c r="S16" t="n">
-        <v>34</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="AC16" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>47</v>
+      </c>
+      <c r="AE16" t="n">
         <v>46</v>
       </c>
-      <c r="U16" t="n">
-        <v>27</v>
-      </c>
-      <c r="V16" t="n">
+      <c r="AF16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>52</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>47</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>57</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>63</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>53</v>
+      </c>
+      <c r="AR16" t="n">
         <v>35</v>
       </c>
-      <c r="W16" t="n">
-        <v>41</v>
-      </c>
-      <c r="X16" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>47</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC16" t="n">
+      <c r="AS16" t="n">
+        <v>61</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>73</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>59</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>53</v>
+      </c>
+      <c r="AY16" t="n">
         <v>56</v>
       </c>
-      <c r="AD16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AZ16" t="n">
+        <v>53</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>59</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>42</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>57</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>62</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>42</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>48</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>42</v>
+      </c>
+      <c r="BH16" t="n">
         <v>52</v>
       </c>
-      <c r="AF16" t="n">
-        <v>49</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>43</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>63</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>54</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>53</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>49</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>45</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>49</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>58</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>56</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>63</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>39</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>56</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>61</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>64</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>64</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>58</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>59</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>55</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>58</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>60</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>54</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>37</v>
+      <c r="BI16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SOC pakages sold to existing customers</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -3383,22 +3465,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -3407,857 +3489,882 @@
         <v>4</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD17" t="n">
         <v>4</v>
       </c>
-      <c r="W17" t="n">
-        <v>5</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="AE17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF17" t="n">
         <v>3</v>
       </c>
-      <c r="Y17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>2</v>
-      </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH17" t="n">
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AK17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR17" t="n">
         <v>6</v>
       </c>
-      <c r="AL17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>3</v>
-      </c>
       <c r="AS17" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU17" t="n">
         <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
         <v>6</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA17" t="n">
         <v>4</v>
       </c>
       <c r="BB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF17" t="n">
         <v>3</v>
       </c>
-      <c r="BC17" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF17" t="n">
+      <c r="BG17" t="n">
         <v>6</v>
       </c>
-      <c r="BG17" t="n">
-        <v>3</v>
-      </c>
       <c r="BH17" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>13</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Insurance packages sold</t>
+        </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14</v>
+      </c>
+      <c r="F18" t="n">
         <v>18</v>
       </c>
-      <c r="D18" t="n">
-        <v>20</v>
-      </c>
-      <c r="E18" t="n">
-        <v>15</v>
-      </c>
-      <c r="F18" t="n">
-        <v>16</v>
-      </c>
       <c r="G18" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I18" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J18" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K18" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L18" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="N18" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="O18" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="Q18" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="R18" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S18" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="T18" t="n">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="U18" t="n">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="V18" t="n">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="W18" t="n">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="X18" t="n">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="Y18" t="n">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="Z18" t="n">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AA18" t="n">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="AB18" t="n">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="AC18" t="n">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="AD18" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AE18" t="n">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="AF18" t="n">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="AG18" t="n">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="AH18" t="n">
-        <v>384</v>
+        <v>301</v>
       </c>
       <c r="AI18" t="n">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="AJ18" t="n">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="AK18" t="n">
-        <v>488</v>
+        <v>349</v>
       </c>
       <c r="AL18" t="n">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="AM18" t="n">
-        <v>476</v>
+        <v>400</v>
       </c>
       <c r="AN18" t="n">
-        <v>490</v>
+        <v>457</v>
       </c>
       <c r="AO18" t="n">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="AP18" t="n">
-        <v>536</v>
+        <v>478</v>
       </c>
       <c r="AQ18" t="n">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="AR18" t="n">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="AS18" t="n">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="AT18" t="n">
-        <v>680</v>
+        <v>632</v>
       </c>
       <c r="AU18" t="n">
+        <v>673</v>
+      </c>
+      <c r="AV18" t="n">
         <v>670</v>
       </c>
-      <c r="AV18" t="n">
-        <v>753</v>
-      </c>
       <c r="AW18" t="n">
-        <v>810</v>
+        <v>710</v>
       </c>
       <c r="AX18" t="n">
-        <v>824</v>
+        <v>776</v>
       </c>
       <c r="AY18" t="n">
-        <v>848</v>
+        <v>787</v>
       </c>
       <c r="AZ18" t="n">
+        <v>891</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>889</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>903</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>926</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>870</v>
+      </c>
+      <c r="BE18" t="n">
         <v>934</v>
       </c>
-      <c r="BA18" t="n">
-        <v>935</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>912</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>937</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>913</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>948</v>
-      </c>
       <c r="BF18" t="n">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="BG18" t="n">
-        <v>1082</v>
+        <v>1053</v>
       </c>
       <c r="BH18" t="n">
-        <v>1150</v>
+        <v>1111</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1184</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Insurance packages sold to new customers</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA19" t="n">
         <v>4</v>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
       <c r="BB19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC19" t="n">
         <v>2</v>
       </c>
       <c r="BD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19" t="n">
         <v>0</v>
       </c>
       <c r="BF19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI19" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Insurance packages sold to referred customers</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>3</v>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
       <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7</v>
+      </c>
+      <c r="H20" t="n">
         <v>3</v>
       </c>
-      <c r="D20" t="n">
-        <v>7</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
-      </c>
-      <c r="G20" t="n">
-        <v>8</v>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
         <v>6</v>
       </c>
       <c r="L20" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8</v>
+      </c>
+      <c r="P20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>8</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>16</v>
+      </c>
+      <c r="T20" t="n">
+        <v>6</v>
+      </c>
+      <c r="U20" t="n">
+        <v>9</v>
+      </c>
+      <c r="V20" t="n">
         <v>11</v>
       </c>
-      <c r="M20" t="n">
-        <v>12</v>
-      </c>
-      <c r="N20" t="n">
-        <v>11</v>
-      </c>
-      <c r="O20" t="n">
-        <v>9</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="W20" t="n">
         <v>8</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="X20" t="n">
         <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>6</v>
-      </c>
-      <c r="S20" t="n">
-        <v>9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>9</v>
-      </c>
-      <c r="U20" t="n">
-        <v>10</v>
-      </c>
-      <c r="V20" t="n">
-        <v>12</v>
-      </c>
-      <c r="W20" t="n">
-        <v>13</v>
-      </c>
-      <c r="X20" t="n">
-        <v>13</v>
       </c>
       <c r="Y20" t="n">
         <v>13</v>
       </c>
       <c r="Z20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF20" t="n">
         <v>10</v>
       </c>
-      <c r="AA20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR20" t="n">
         <v>16</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AS20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY20" t="n">
         <v>10</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>17</v>
       </c>
       <c r="AZ20" t="n">
         <v>16</v>
       </c>
       <c r="BA20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB20" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>18</v>
+      </c>
+      <c r="BE20" t="n">
         <v>17</v>
       </c>
-      <c r="BD20" t="n">
+      <c r="BF20" t="n">
+        <v>18</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH20" t="n">
         <v>11</v>
       </c>
-      <c r="BE20" t="n">
-        <v>15</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>16</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>18</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>10</v>
+      <c r="BI20" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Insurance packages sold to lead customers</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" t="n">
         <v>9</v>
       </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="n">
+      <c r="F21" t="n">
+        <v>13</v>
+      </c>
+      <c r="G21" t="n">
+        <v>27</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16</v>
+      </c>
+      <c r="I21" t="n">
+        <v>24</v>
+      </c>
+      <c r="J21" t="n">
         <v>15</v>
       </c>
-      <c r="D21" t="n">
-        <v>13</v>
-      </c>
-      <c r="E21" t="n">
-        <v>13</v>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="K21" t="n">
+        <v>26</v>
+      </c>
+      <c r="L21" t="n">
+        <v>22</v>
+      </c>
+      <c r="M21" t="n">
         <v>18</v>
       </c>
-      <c r="H21" t="n">
-        <v>17</v>
-      </c>
-      <c r="I21" t="n">
-        <v>20</v>
-      </c>
-      <c r="J21" t="n">
-        <v>23</v>
-      </c>
-      <c r="K21" t="n">
-        <v>22</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>32</v>
       </c>
-      <c r="M21" t="n">
-        <v>24</v>
-      </c>
-      <c r="N21" t="n">
-        <v>36</v>
-      </c>
       <c r="O21" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P21" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R21" t="n">
         <v>35</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="T21" t="n">
+        <v>51</v>
+      </c>
+      <c r="U21" t="n">
+        <v>29</v>
+      </c>
+      <c r="V21" t="n">
+        <v>27</v>
+      </c>
+      <c r="W21" t="n">
         <v>38</v>
       </c>
-      <c r="U21" t="n">
+      <c r="X21" t="n">
         <v>37</v>
       </c>
-      <c r="V21" t="n">
+      <c r="Y21" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
         <v>45</v>
       </c>
-      <c r="W21" t="n">
-        <v>48</v>
-      </c>
-      <c r="X21" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>37</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>50</v>
-      </c>
       <c r="AD21" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AE21" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="AF21" t="n">
         <v>42</v>
       </c>
       <c r="AG21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>47</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>52</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>47</v>
+      </c>
+      <c r="AN21" t="n">
         <v>40</v>
       </c>
-      <c r="AH21" t="n">
-        <v>59</v>
-      </c>
-      <c r="AI21" t="n">
+      <c r="AO21" t="n">
         <v>55</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>54</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>57</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>56</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>50</v>
-      </c>
       <c r="AP21" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AQ21" t="n">
         <v>48</v>
       </c>
       <c r="AR21" t="n">
+        <v>39</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>49</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>52</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>53</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>52</v>
+      </c>
+      <c r="AX21" t="n">
         <v>50</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>47</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>59</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>66</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>53</v>
       </c>
       <c r="AY21" t="n">
         <v>57</v>
       </c>
       <c r="AZ21" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="BA21" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="BB21" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="BC21" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="BD21" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="BE21" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="BF21" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="BG21" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="BH21" t="n">
-        <v>42</v>
+        <v>67</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>0</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Insurance packages sold to existing customers</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -4293,881 +4400,906 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O22" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="P22" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q22" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="R22" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="S22" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="T22" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="V22" t="n">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="W22" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="X22" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="Y22" t="n">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="Z22" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AA22" t="n">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="AB22" t="n">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="AC22" t="n">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="AD22" t="n">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="AE22" t="n">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="n">
+        <v>226</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>233</v>
+      </c>
+      <c r="AH22" t="n">
         <v>239</v>
       </c>
-      <c r="AG22" t="n">
-        <v>254</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>306</v>
-      </c>
       <c r="AI22" t="n">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="AJ22" t="n">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="AK22" t="n">
-        <v>416</v>
+        <v>286</v>
       </c>
       <c r="AL22" t="n">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="AM22" t="n">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="AN22" t="n">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="AO22" t="n">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="AP22" t="n">
-        <v>475</v>
+        <v>410</v>
       </c>
       <c r="AQ22" t="n">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AR22" t="n">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AS22" t="n">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="AT22" t="n">
-        <v>620</v>
+        <v>568</v>
       </c>
       <c r="AU22" t="n">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="AV22" t="n">
-        <v>673</v>
+        <v>600</v>
       </c>
       <c r="AW22" t="n">
-        <v>756</v>
+        <v>639</v>
       </c>
       <c r="AX22" t="n">
-        <v>758</v>
+        <v>712</v>
       </c>
       <c r="AY22" t="n">
-        <v>773</v>
+        <v>718</v>
       </c>
       <c r="AZ22" t="n">
-        <v>861</v>
+        <v>821</v>
       </c>
       <c r="BA22" t="n">
-        <v>847</v>
+        <v>811</v>
       </c>
       <c r="BB22" t="n">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="BC22" t="n">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="BD22" t="n">
-        <v>846</v>
+        <v>804</v>
       </c>
       <c r="BE22" t="n">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="BF22" t="n">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="BG22" t="n">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="BH22" t="n">
-        <v>1096</v>
+        <v>1031</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1109</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>133200</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Income from risk assessment packages</t>
+        </is>
       </c>
       <c r="B23" t="n">
-        <v>104400</v>
+        <v>115200</v>
       </c>
       <c r="C23" t="n">
-        <v>147600</v>
+        <v>93600</v>
       </c>
       <c r="D23" t="n">
-        <v>180000</v>
+        <v>122400</v>
       </c>
       <c r="E23" t="n">
-        <v>201600</v>
+        <v>140400</v>
       </c>
       <c r="F23" t="n">
-        <v>205200</v>
+        <v>230400</v>
       </c>
       <c r="G23" t="n">
-        <v>226800</v>
+        <v>273600</v>
       </c>
       <c r="H23" t="n">
         <v>255600</v>
       </c>
       <c r="I23" t="n">
-        <v>313200</v>
+        <v>309600</v>
       </c>
       <c r="J23" t="n">
-        <v>363600</v>
+        <v>288000</v>
       </c>
       <c r="K23" t="n">
-        <v>363600</v>
+        <v>334800</v>
       </c>
       <c r="L23" t="n">
-        <v>392400</v>
+        <v>374400</v>
       </c>
       <c r="M23" t="n">
-        <v>550800</v>
+        <v>352800</v>
       </c>
       <c r="N23" t="n">
+        <v>507600</v>
+      </c>
+      <c r="O23" t="n">
         <v>532800</v>
       </c>
-      <c r="O23" t="n">
-        <v>586800</v>
-      </c>
       <c r="P23" t="n">
-        <v>633600</v>
+        <v>601200</v>
       </c>
       <c r="Q23" t="n">
-        <v>637200</v>
+        <v>561600</v>
       </c>
       <c r="R23" t="n">
-        <v>680400</v>
+        <v>619200</v>
       </c>
       <c r="S23" t="n">
-        <v>730800</v>
+        <v>702000</v>
       </c>
       <c r="T23" t="n">
-        <v>752400</v>
+        <v>705600</v>
       </c>
       <c r="U23" t="n">
-        <v>756000</v>
+        <v>684000</v>
       </c>
       <c r="V23" t="n">
-        <v>925200</v>
+        <v>712800</v>
       </c>
       <c r="W23" t="n">
-        <v>972000</v>
+        <v>792000</v>
       </c>
       <c r="X23" t="n">
-        <v>1033200</v>
+        <v>882000</v>
       </c>
       <c r="Y23" t="n">
-        <v>1224000</v>
+        <v>936000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1184400</v>
+        <v>1191600</v>
       </c>
       <c r="AA23" t="n">
-        <v>1321200</v>
+        <v>1249200</v>
       </c>
       <c r="AB23" t="n">
-        <v>1404000</v>
+        <v>1234800</v>
       </c>
       <c r="AC23" t="n">
-        <v>1368000</v>
+        <v>1216800</v>
       </c>
       <c r="AD23" t="n">
-        <v>1386000</v>
+        <v>1400400</v>
       </c>
       <c r="AE23" t="n">
-        <v>1461600</v>
+        <v>1573200</v>
       </c>
       <c r="AF23" t="n">
-        <v>1497600</v>
+        <v>1512000</v>
       </c>
       <c r="AG23" t="n">
-        <v>1616400</v>
+        <v>1605600</v>
       </c>
       <c r="AH23" t="n">
-        <v>2012400</v>
+        <v>1594800</v>
       </c>
       <c r="AI23" t="n">
-        <v>1980000</v>
+        <v>1720800</v>
       </c>
       <c r="AJ23" t="n">
-        <v>2041200</v>
+        <v>1724400</v>
       </c>
       <c r="AK23" t="n">
-        <v>2307600</v>
+        <v>1724400</v>
       </c>
       <c r="AL23" t="n">
-        <v>2152800</v>
+        <v>1915200</v>
       </c>
       <c r="AM23" t="n">
-        <v>2221200</v>
+        <v>1861200</v>
       </c>
       <c r="AN23" t="n">
-        <v>2224800</v>
+        <v>2214000</v>
       </c>
       <c r="AO23" t="n">
-        <v>2152800</v>
+        <v>2178000</v>
       </c>
       <c r="AP23" t="n">
-        <v>2394000</v>
+        <v>2289600</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2448000</v>
+        <v>2343600</v>
       </c>
       <c r="AR23" t="n">
-        <v>2577600</v>
+        <v>2404800</v>
       </c>
       <c r="AS23" t="n">
-        <v>2653200</v>
+        <v>2692800</v>
       </c>
       <c r="AT23" t="n">
-        <v>2908800</v>
+        <v>2836800</v>
       </c>
       <c r="AU23" t="n">
-        <v>2926800</v>
+        <v>3074400</v>
       </c>
       <c r="AV23" t="n">
-        <v>3304800</v>
+        <v>3034800</v>
       </c>
       <c r="AW23" t="n">
-        <v>3409200</v>
+        <v>3168000</v>
       </c>
       <c r="AX23" t="n">
-        <v>3502800</v>
+        <v>3294000</v>
       </c>
       <c r="AY23" t="n">
-        <v>3664800</v>
+        <v>3366000</v>
       </c>
       <c r="AZ23" t="n">
-        <v>3927600</v>
+        <v>3726000</v>
       </c>
       <c r="BA23" t="n">
-        <v>3981600</v>
+        <v>3744000</v>
       </c>
       <c r="BB23" t="n">
-        <v>3859200</v>
+        <v>3772800</v>
       </c>
       <c r="BC23" t="n">
-        <v>3988800</v>
+        <v>3801600</v>
       </c>
       <c r="BD23" t="n">
-        <v>3873600</v>
+        <v>3711600</v>
       </c>
       <c r="BE23" t="n">
-        <v>3978000</v>
+        <v>3808800</v>
       </c>
       <c r="BF23" t="n">
-        <v>4255200</v>
+        <v>4190400</v>
       </c>
       <c r="BG23" t="n">
-        <v>4460400</v>
+        <v>4298400</v>
       </c>
       <c r="BH23" t="n">
         <v>4590000</v>
       </c>
+      <c r="BI23" t="n">
+        <v>4816800</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>985295.9999999999</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Income from SOC packages</t>
+        </is>
       </c>
       <c r="B24" t="n">
-        <v>620553.5999999995</v>
+        <v>600777.6</v>
       </c>
       <c r="C24" t="n">
-        <v>1005369.600000002</v>
+        <v>491980.7999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>1197772.799999999</v>
+        <v>844655.9999999995</v>
       </c>
       <c r="E24" t="n">
-        <v>1270502.400000001</v>
+        <v>1011139.2</v>
       </c>
       <c r="F24" t="n">
-        <v>1239321.600000001</v>
+        <v>1105795.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1200451.200000002</v>
+        <v>1846617.600000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1464912.000000007</v>
+        <v>1317081.599999998</v>
       </c>
       <c r="I24" t="n">
-        <v>1715760.000000007</v>
+        <v>2050732.800000004</v>
       </c>
       <c r="J24" t="n">
-        <v>1834329.600000001</v>
+        <v>1292140.800000003</v>
       </c>
       <c r="K24" t="n">
-        <v>1802112.000000002</v>
+        <v>2077017.599999998</v>
       </c>
       <c r="L24" t="n">
-        <v>2562480.000000002</v>
+        <v>2395689.600000003</v>
       </c>
       <c r="M24" t="n">
-        <v>3559785.599999987</v>
+        <v>1953263.999999991</v>
       </c>
       <c r="N24" t="n">
-        <v>3448175.999999985</v>
+        <v>3217699.199999996</v>
       </c>
       <c r="O24" t="n">
-        <v>3584160.000000015</v>
+        <v>3462326.400000002</v>
       </c>
       <c r="P24" t="n">
-        <v>4228761.599999994</v>
+        <v>4040947.200000003</v>
       </c>
       <c r="Q24" t="n">
-        <v>4297046.399999995</v>
+        <v>4181798.400000002</v>
       </c>
       <c r="R24" t="n">
-        <v>4821321.600000039</v>
+        <v>3916089.599999972</v>
       </c>
       <c r="S24" t="n">
-        <v>4091030.400000021</v>
+        <v>5189990.399999969</v>
       </c>
       <c r="T24" t="n">
-        <v>4882291.199999973</v>
+        <v>5578051.200000018</v>
       </c>
       <c r="U24" t="n">
-        <v>4857254.399999969</v>
+        <v>4260172.799999975</v>
       </c>
       <c r="V24" t="n">
-        <v>6652607.999999978</v>
+        <v>4320691.199999973</v>
       </c>
       <c r="W24" t="n">
-        <v>6632246.399999969</v>
+        <v>5732044.800000004</v>
       </c>
       <c r="X24" t="n">
-        <v>7677600.000000119</v>
+        <v>6338956.799999982</v>
       </c>
       <c r="Y24" t="n">
-        <v>9050476.800000161</v>
+        <v>6560496.000000089</v>
       </c>
       <c r="Z24" t="n">
-        <v>8552630.400000066</v>
+        <v>8260540.799999982</v>
       </c>
       <c r="AA24" t="n">
-        <v>9083587.199999973</v>
+        <v>8775868.799999937</v>
       </c>
       <c r="AB24" t="n">
-        <v>10853299.20000006</v>
+        <v>8558419.200000033</v>
       </c>
       <c r="AC24" t="n">
-        <v>10545446.39999993</v>
+        <v>8954467.199999973</v>
       </c>
       <c r="AD24" t="n">
-        <v>10516041.60000013</v>
+        <v>10149235.19999996</v>
       </c>
       <c r="AE24" t="n">
-        <v>10265808.00000015</v>
+        <v>11769139.20000006</v>
       </c>
       <c r="AF24" t="n">
-        <v>11306649.60000014</v>
+        <v>11642342.3999998</v>
       </c>
       <c r="AG24" t="n">
-        <v>11662512.00000015</v>
+        <v>11741606.40000027</v>
       </c>
       <c r="AH24" t="n">
-        <v>14976115.1999999</v>
+        <v>11077593.60000011</v>
       </c>
       <c r="AI24" t="n">
-        <v>14776809.59999999</v>
+        <v>12877296.00000003</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15749510.39999983</v>
+        <v>13745059.20000011</v>
       </c>
       <c r="AK24" t="n">
-        <v>17689391.99999988</v>
+        <v>12818899.19999981</v>
       </c>
       <c r="AL24" t="n">
-        <v>16598035.19999969</v>
+        <v>14670393.60000032</v>
       </c>
       <c r="AM24" t="n">
-        <v>16653014.39999983</v>
+        <v>14744304.00000015</v>
       </c>
       <c r="AN24" t="n">
-        <v>18285100.8000004</v>
+        <v>17154153.59999964</v>
       </c>
       <c r="AO24" t="n">
-        <v>17006832.00000042</v>
+        <v>17427340.80000043</v>
       </c>
       <c r="AP24" t="n">
-        <v>19473561.59999973</v>
+        <v>17921193.60000068</v>
       </c>
       <c r="AQ24" t="n">
-        <v>19165276.79999989</v>
+        <v>18998831.99999982</v>
       </c>
       <c r="AR24" t="n">
-        <v>20111318.40000057</v>
+        <v>20232729.60000002</v>
       </c>
       <c r="AS24" t="n">
-        <v>21043219.19999969</v>
+        <v>21737088.00000012</v>
       </c>
       <c r="AT24" t="n">
-        <v>23284435.2000007</v>
+        <v>22239167.99999958</v>
       </c>
       <c r="AU24" t="n">
-        <v>23622144.00000036</v>
+        <v>25220467.20000052</v>
       </c>
       <c r="AV24" t="n">
-        <v>26669270.39999986</v>
+        <v>24708067.19999862</v>
       </c>
       <c r="AW24" t="n">
-        <v>27171868.79999846</v>
+        <v>24729062.39999866</v>
       </c>
       <c r="AX24" t="n">
-        <v>29019715.19999957</v>
+        <v>27490291.20000029</v>
       </c>
       <c r="AY24" t="n">
-        <v>29306812.80000067</v>
+        <v>27098256.00000018</v>
       </c>
       <c r="AZ24" t="n">
-        <v>33511065.59999776</v>
+        <v>30112358.40000051</v>
       </c>
       <c r="BA24" t="n">
-        <v>32826710.39999723</v>
+        <v>31583011.1999982</v>
       </c>
       <c r="BB24" t="n">
-        <v>31902662.40000153</v>
+        <v>31561823.99999952</v>
       </c>
       <c r="BC24" t="n">
-        <v>31796793.6000005</v>
+        <v>32336198.39999723</v>
       </c>
       <c r="BD24" t="n">
-        <v>31870665.5999999</v>
+        <v>31516924.80000281</v>
       </c>
       <c r="BE24" t="n">
-        <v>31801631.99999821</v>
+        <v>31240732.79999745</v>
       </c>
       <c r="BF24" t="n">
-        <v>34350028.799999</v>
+        <v>33203980.79999804</v>
       </c>
       <c r="BG24" t="n">
-        <v>36174796.79999888</v>
+        <v>36773049.59999883</v>
       </c>
       <c r="BH24" t="n">
-        <v>38203142.40000284</v>
+        <v>38560972.79999995</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>39338150.40000141</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>26000</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Income from insurance packages</t>
+        </is>
       </c>
       <c r="B25" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="C25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>28000</v>
+      </c>
+      <c r="F25" t="n">
         <v>36000</v>
       </c>
-      <c r="D25" t="n">
-        <v>40000</v>
-      </c>
-      <c r="E25" t="n">
-        <v>30000</v>
-      </c>
-      <c r="F25" t="n">
-        <v>32000</v>
-      </c>
       <c r="G25" t="n">
-        <v>54000</v>
+        <v>68000</v>
       </c>
       <c r="H25" t="n">
-        <v>46000</v>
+        <v>38000</v>
       </c>
       <c r="I25" t="n">
-        <v>60000</v>
+        <v>74000</v>
       </c>
       <c r="J25" t="n">
-        <v>58000</v>
+        <v>42000</v>
       </c>
       <c r="K25" t="n">
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="L25" t="n">
-        <v>94000</v>
+        <v>66000</v>
       </c>
       <c r="M25" t="n">
-        <v>140000</v>
+        <v>48000</v>
       </c>
       <c r="N25" t="n">
-        <v>152000</v>
+        <v>126000</v>
       </c>
       <c r="O25" t="n">
-        <v>156000</v>
+        <v>124000</v>
       </c>
       <c r="P25" t="n">
-        <v>164000</v>
+        <v>150000</v>
       </c>
       <c r="Q25" t="n">
-        <v>170000</v>
+        <v>142000</v>
       </c>
       <c r="R25" t="n">
-        <v>178000</v>
+        <v>184000</v>
       </c>
       <c r="S25" t="n">
-        <v>170000</v>
+        <v>240000</v>
       </c>
       <c r="T25" t="n">
-        <v>198000</v>
+        <v>224000</v>
       </c>
       <c r="U25" t="n">
-        <v>244000</v>
+        <v>196000</v>
       </c>
       <c r="V25" t="n">
-        <v>298000</v>
+        <v>192000</v>
       </c>
       <c r="W25" t="n">
-        <v>304000</v>
+        <v>256000</v>
       </c>
       <c r="X25" t="n">
-        <v>328000</v>
+        <v>272000</v>
       </c>
       <c r="Y25" t="n">
-        <v>456000</v>
+        <v>274000</v>
       </c>
       <c r="Z25" t="n">
-        <v>386000</v>
+        <v>402000</v>
       </c>
       <c r="AA25" t="n">
-        <v>464000</v>
+        <v>444000</v>
       </c>
       <c r="AB25" t="n">
-        <v>530000</v>
+        <v>428000</v>
       </c>
       <c r="AC25" t="n">
-        <v>518000</v>
+        <v>428000</v>
       </c>
       <c r="AD25" t="n">
-        <v>516000</v>
+        <v>520000</v>
       </c>
       <c r="AE25" t="n">
-        <v>518000</v>
+        <v>586000</v>
       </c>
       <c r="AF25" t="n">
-        <v>594000</v>
+        <v>556000</v>
       </c>
       <c r="AG25" t="n">
-        <v>622000</v>
+        <v>586000</v>
       </c>
       <c r="AH25" t="n">
-        <v>768000</v>
+        <v>602000</v>
       </c>
       <c r="AI25" t="n">
-        <v>756000</v>
+        <v>660000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>804000</v>
+        <v>692000</v>
       </c>
       <c r="AK25" t="n">
-        <v>976000</v>
+        <v>698000</v>
       </c>
       <c r="AL25" t="n">
-        <v>874000</v>
+        <v>820000</v>
       </c>
       <c r="AM25" t="n">
-        <v>952000</v>
+        <v>800000</v>
       </c>
       <c r="AN25" t="n">
-        <v>980000</v>
+        <v>914000</v>
       </c>
       <c r="AO25" t="n">
-        <v>936000</v>
+        <v>910000</v>
       </c>
       <c r="AP25" t="n">
-        <v>1072000</v>
+        <v>956000</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1072000</v>
+        <v>1026000</v>
       </c>
       <c r="AR25" t="n">
-        <v>1138000</v>
+        <v>1116000</v>
       </c>
       <c r="AS25" t="n">
-        <v>1170000</v>
+        <v>1200000</v>
       </c>
       <c r="AT25" t="n">
-        <v>1360000</v>
+        <v>1264000</v>
       </c>
       <c r="AU25" t="n">
+        <v>1346000</v>
+      </c>
+      <c r="AV25" t="n">
         <v>1340000</v>
       </c>
-      <c r="AV25" t="n">
-        <v>1506000</v>
-      </c>
       <c r="AW25" t="n">
-        <v>1620000</v>
+        <v>1420000</v>
       </c>
       <c r="AX25" t="n">
-        <v>1648000</v>
+        <v>1552000</v>
       </c>
       <c r="AY25" t="n">
-        <v>1696000</v>
+        <v>1574000</v>
       </c>
       <c r="AZ25" t="n">
+        <v>1782000</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>1778000</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1806000</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>1852000</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1740000</v>
+      </c>
+      <c r="BE25" t="n">
         <v>1868000</v>
       </c>
-      <c r="BA25" t="n">
-        <v>1870000</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>1824000</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>1874000</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>1826000</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>1896000</v>
-      </c>
       <c r="BF25" t="n">
-        <v>2048000</v>
+        <v>2056000</v>
       </c>
       <c r="BG25" t="n">
-        <v>2164000</v>
+        <v>2106000</v>
       </c>
       <c r="BH25" t="n">
-        <v>2300000</v>
+        <v>2222000</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>2368000</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>1144496</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Total income</t>
+        </is>
       </c>
       <c r="B26" t="n">
-        <v>738953.5999999995</v>
+        <v>745977.6</v>
       </c>
       <c r="C26" t="n">
-        <v>1188969.600000002</v>
+        <v>601580.7999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>1417772.799999999</v>
+        <v>987055.9999999995</v>
       </c>
       <c r="E26" t="n">
-        <v>1502102.400000001</v>
+        <v>1179539.2</v>
       </c>
       <c r="F26" t="n">
-        <v>1476521.600000001</v>
+        <v>1372195.2</v>
       </c>
       <c r="G26" t="n">
-        <v>1481251.200000002</v>
+        <v>2188217.600000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1766512.000000007</v>
+        <v>1610681.599999998</v>
       </c>
       <c r="I26" t="n">
-        <v>2088960.000000007</v>
+        <v>2434332.800000004</v>
       </c>
       <c r="J26" t="n">
-        <v>2255929.600000001</v>
+        <v>1622140.800000003</v>
       </c>
       <c r="K26" t="n">
-        <v>2221712.000000002</v>
+        <v>2475817.599999998</v>
       </c>
       <c r="L26" t="n">
-        <v>3048880.000000002</v>
+        <v>2836089.600000003</v>
       </c>
       <c r="M26" t="n">
-        <v>4250585.599999987</v>
+        <v>2354063.999999991</v>
       </c>
       <c r="N26" t="n">
-        <v>4132975.999999985</v>
+        <v>3851299.199999996</v>
       </c>
       <c r="O26" t="n">
-        <v>4326960.000000015</v>
+        <v>4119126.400000002</v>
       </c>
       <c r="P26" t="n">
-        <v>5026361.599999994</v>
+        <v>4792147.200000003</v>
       </c>
       <c r="Q26" t="n">
-        <v>5104246.399999995</v>
+        <v>4885398.400000002</v>
       </c>
       <c r="R26" t="n">
-        <v>5679721.600000039</v>
+        <v>4719289.599999972</v>
       </c>
       <c r="S26" t="n">
-        <v>4991830.400000021</v>
+        <v>6131990.399999969</v>
       </c>
       <c r="T26" t="n">
-        <v>5832691.199999973</v>
+        <v>6507651.200000018</v>
       </c>
       <c r="U26" t="n">
-        <v>5857254.399999969</v>
+        <v>5140172.799999975</v>
       </c>
       <c r="V26" t="n">
-        <v>7875807.999999978</v>
+        <v>5225491.199999973</v>
       </c>
       <c r="W26" t="n">
-        <v>7908246.399999969</v>
+        <v>6780044.800000004</v>
       </c>
       <c r="X26" t="n">
-        <v>9038800.000000119</v>
+        <v>7492956.799999982</v>
       </c>
       <c r="Y26" t="n">
-        <v>10730476.80000016</v>
+        <v>7770496.000000089</v>
       </c>
       <c r="Z26" t="n">
-        <v>10123030.40000007</v>
+        <v>9854140.799999982</v>
       </c>
       <c r="AA26" t="n">
-        <v>10868787.19999997</v>
+        <v>10469068.79999994</v>
       </c>
       <c r="AB26" t="n">
-        <v>12787299.20000006</v>
+        <v>10221219.20000003</v>
       </c>
       <c r="AC26" t="n">
-        <v>12431446.39999993</v>
+        <v>10599267.19999997</v>
       </c>
       <c r="AD26" t="n">
-        <v>12418041.60000013</v>
+        <v>12069635.19999996</v>
       </c>
       <c r="AE26" t="n">
-        <v>12245408.00000015</v>
+        <v>13928339.20000006</v>
       </c>
       <c r="AF26" t="n">
-        <v>13398249.60000014</v>
+        <v>13710342.3999998</v>
       </c>
       <c r="AG26" t="n">
-        <v>13900912.00000015</v>
+        <v>13933206.40000027</v>
       </c>
       <c r="AH26" t="n">
-        <v>17756515.1999999</v>
+        <v>13274393.60000011</v>
       </c>
       <c r="AI26" t="n">
-        <v>17512809.59999999</v>
+        <v>15258096.00000003</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18594710.39999983</v>
+        <v>16161459.20000011</v>
       </c>
       <c r="AK26" t="n">
-        <v>20972991.99999988</v>
+        <v>15241299.19999981</v>
       </c>
       <c r="AL26" t="n">
-        <v>19624835.19999969</v>
+        <v>17405593.60000032</v>
       </c>
       <c r="AM26" t="n">
-        <v>19826214.39999983</v>
+        <v>17405504.00000015</v>
       </c>
       <c r="AN26" t="n">
-        <v>21489900.8000004</v>
+        <v>20282153.59999964</v>
       </c>
       <c r="AO26" t="n">
-        <v>20095632.00000042</v>
+        <v>20515340.80000043</v>
       </c>
       <c r="AP26" t="n">
-        <v>22939561.59999973</v>
+        <v>21166793.60000068</v>
       </c>
       <c r="AQ26" t="n">
-        <v>22685276.79999989</v>
+        <v>22368431.99999982</v>
       </c>
       <c r="AR26" t="n">
-        <v>23826918.40000057</v>
+        <v>23753529.60000002</v>
       </c>
       <c r="AS26" t="n">
-        <v>24866419.19999969</v>
+        <v>25629888.00000012</v>
       </c>
       <c r="AT26" t="n">
-        <v>27553235.2000007</v>
+        <v>26339967.99999958</v>
       </c>
       <c r="AU26" t="n">
-        <v>27888944.00000036</v>
+        <v>29640867.20000052</v>
       </c>
       <c r="AV26" t="n">
-        <v>31480070.39999986</v>
+        <v>29082867.19999862</v>
       </c>
       <c r="AW26" t="n">
-        <v>32201068.79999846</v>
+        <v>29317062.39999866</v>
       </c>
       <c r="AX26" t="n">
-        <v>34170515.19999957</v>
+        <v>32336291.20000029</v>
       </c>
       <c r="AY26" t="n">
-        <v>34667612.80000067</v>
+        <v>32038256.00000018</v>
       </c>
       <c r="AZ26" t="n">
-        <v>39306665.59999776</v>
+        <v>35620358.40000051</v>
       </c>
       <c r="BA26" t="n">
-        <v>38678310.39999723</v>
+        <v>37105011.1999982</v>
       </c>
       <c r="BB26" t="n">
-        <v>37585862.40000153</v>
+        <v>37140623.99999952</v>
       </c>
       <c r="BC26" t="n">
-        <v>37659593.6000005</v>
+        <v>37989798.39999723</v>
       </c>
       <c r="BD26" t="n">
-        <v>37570265.5999999</v>
+        <v>36968524.80000281</v>
       </c>
       <c r="BE26" t="n">
-        <v>37675631.99999821</v>
+        <v>36917532.79999745</v>
       </c>
       <c r="BF26" t="n">
-        <v>40653228.799999</v>
+        <v>39450380.79999804</v>
       </c>
       <c r="BG26" t="n">
-        <v>42799196.79999888</v>
+        <v>43177449.59999883</v>
       </c>
       <c r="BH26" t="n">
-        <v>45093142.40000284</v>
+        <v>45372972.79999995</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>46522950.40000141</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>2</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Admin staff</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>2</v>
@@ -5344,21 +5476,26 @@
         <v>2</v>
       </c>
       <c r="BH27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI27" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tele staff</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
         <v>3</v>
       </c>
-      <c r="B28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C28" t="n">
-        <v>4</v>
-      </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -5385,55 +5522,55 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4</v>
+      </c>
+      <c r="O28" t="n">
         <v>5</v>
       </c>
-      <c r="N28" t="n">
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6</v>
       </c>
-      <c r="O28" t="n">
+      <c r="Z28" t="n">
         <v>6</v>
       </c>
-      <c r="P28" t="n">
+      <c r="AA28" t="n">
         <v>6</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="AB28" t="n">
         <v>6</v>
       </c>
-      <c r="R28" t="n">
+      <c r="AC28" t="n">
         <v>6</v>
-      </c>
-      <c r="S28" t="n">
-        <v>7</v>
-      </c>
-      <c r="T28" t="n">
-        <v>7</v>
-      </c>
-      <c r="U28" t="n">
-        <v>7</v>
-      </c>
-      <c r="V28" t="n">
-        <v>7</v>
-      </c>
-      <c r="W28" t="n">
-        <v>7</v>
-      </c>
-      <c r="X28" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7</v>
       </c>
       <c r="AD28" t="n">
         <v>7</v>
@@ -5457,25 +5594,25 @@
         <v>7</v>
       </c>
       <c r="AK28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>8</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>9</v>
       </c>
       <c r="AR28" t="n">
         <v>9</v>
@@ -5490,72 +5627,77 @@
         <v>9</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW28" t="n">
         <v>10</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BE28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BF28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BG28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BH28" t="n">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sales staff</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="n">
         <v>3</v>
       </c>
-      <c r="B29" t="n">
+      <c r="D29" t="n">
         <v>4</v>
       </c>
-      <c r="C29" t="n">
+      <c r="E29" t="n">
         <v>4</v>
       </c>
-      <c r="D29" t="n">
-        <v>5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5</v>
-      </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
         <v>5</v>
@@ -5591,7 +5733,7 @@
         <v>5</v>
       </c>
       <c r="U29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>7</v>
@@ -5615,37 +5757,37 @@
         <v>7</v>
       </c>
       <c r="AC29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH29" t="n">
         <v>8</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AI29" t="n">
         <v>8</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AJ29" t="n">
         <v>8</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AK29" t="n">
         <v>8</v>
       </c>
-      <c r="AG29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>9</v>
-      </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="n">
         <v>9</v>
@@ -5654,13 +5796,13 @@
         <v>9</v>
       </c>
       <c r="AP29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS29" t="n">
         <v>10</v>
@@ -5678,7 +5820,7 @@
         <v>10</v>
       </c>
       <c r="AX29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY29" t="n">
         <v>12</v>
@@ -5696,30 +5838,35 @@
         <v>12</v>
       </c>
       <c r="BD29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BE29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BG29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BH29" t="n">
         <v>14</v>
       </c>
+      <c r="BI29" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>3</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cyber staff</t>
+        </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>3</v>
@@ -5749,28 +5896,28 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U30" t="n">
         <v>5</v>
@@ -5788,22 +5935,22 @@
         <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>6</v>
@@ -5833,22 +5980,22 @@
         <v>6</v>
       </c>
       <c r="AO30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU30" t="n">
         <v>8</v>
@@ -5857,31 +6004,31 @@
         <v>8</v>
       </c>
       <c r="AW30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BE30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF30" t="n">
         <v>9</v>
@@ -5892,10 +6039,15 @@
       <c r="BH30" t="n">
         <v>9</v>
       </c>
+      <c r="BI30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Logistics staff</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -5994,16 +6146,16 @@
         <v>1</v>
       </c>
       <c r="AH31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL31" t="n">
         <v>2</v>
@@ -6039,10 +6191,10 @@
         <v>2</v>
       </c>
       <c r="AW31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY31" t="n">
         <v>3</v>
@@ -6074,34 +6226,39 @@
       <c r="BH31" t="n">
         <v>3</v>
       </c>
+      <c r="BI31" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>12</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Total staff</t>
+        </is>
       </c>
       <c r="B32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10</v>
+      </c>
+      <c r="D32" t="n">
+        <v>13</v>
+      </c>
+      <c r="E32" t="n">
         <v>14</v>
       </c>
-      <c r="C32" t="n">
+      <c r="F32" t="n">
         <v>14</v>
       </c>
-      <c r="D32" t="n">
+      <c r="G32" t="n">
+        <v>14</v>
+      </c>
+      <c r="H32" t="n">
+        <v>14</v>
+      </c>
+      <c r="I32" t="n">
         <v>15</v>
-      </c>
-      <c r="E32" t="n">
-        <v>15</v>
-      </c>
-      <c r="F32" t="n">
-        <v>15</v>
-      </c>
-      <c r="G32" t="n">
-        <v>15</v>
-      </c>
-      <c r="H32" t="n">
-        <v>15</v>
-      </c>
-      <c r="I32" t="n">
-        <v>16</v>
       </c>
       <c r="J32" t="n">
         <v>16</v>
@@ -6113,43 +6270,43 @@
         <v>16</v>
       </c>
       <c r="M32" t="n">
+        <v>16</v>
+      </c>
+      <c r="N32" t="n">
+        <v>16</v>
+      </c>
+      <c r="O32" t="n">
+        <v>17</v>
+      </c>
+      <c r="P32" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>17</v>
+      </c>
+      <c r="R32" t="n">
+        <v>17</v>
+      </c>
+      <c r="S32" t="n">
+        <v>17</v>
+      </c>
+      <c r="T32" t="n">
+        <v>17</v>
+      </c>
+      <c r="U32" t="n">
         <v>18</v>
       </c>
-      <c r="N32" t="n">
-        <v>19</v>
-      </c>
-      <c r="O32" t="n">
-        <v>19</v>
-      </c>
-      <c r="P32" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>19</v>
-      </c>
-      <c r="R32" t="n">
-        <v>19</v>
-      </c>
-      <c r="S32" t="n">
+      <c r="V32" t="n">
         <v>20</v>
       </c>
-      <c r="T32" t="n">
+      <c r="W32" t="n">
         <v>20</v>
       </c>
-      <c r="U32" t="n">
-        <v>22</v>
-      </c>
-      <c r="V32" t="n">
-        <v>22</v>
-      </c>
-      <c r="W32" t="n">
-        <v>22</v>
-      </c>
       <c r="X32" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z32" t="n">
         <v>22</v>
@@ -6161,7 +6318,7 @@
         <v>22</v>
       </c>
       <c r="AC32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD32" t="n">
         <v>23</v>
@@ -6170,61 +6327,61 @@
         <v>23</v>
       </c>
       <c r="AF32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH32" t="n">
         <v>24</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AI32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL32" t="n">
         <v>25</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AM32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN32" t="n">
         <v>26</v>
       </c>
-      <c r="AI32" t="n">
+      <c r="AO32" t="n">
         <v>26</v>
       </c>
-      <c r="AJ32" t="n">
+      <c r="AP32" t="n">
         <v>26</v>
       </c>
-      <c r="AK32" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>30</v>
-      </c>
       <c r="AQ32" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR32" t="n">
         <v>30</v>
       </c>
       <c r="AS32" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AT32" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AU32" t="n">
         <v>31</v>
       </c>
       <c r="AV32" t="n">
+        <v>31</v>
+      </c>
+      <c r="AW32" t="n">
         <v>32</v>
       </c>
-      <c r="AW32" t="n">
-        <v>34</v>
-      </c>
       <c r="AX32" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AY32" t="n">
         <v>36</v>
@@ -6242,776 +6399,801 @@
         <v>37</v>
       </c>
       <c r="BD32" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BE32" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BF32" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BG32" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BH32" t="n">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>266435</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Labor cost</t>
+        </is>
       </c>
       <c r="B33" t="n">
-        <v>288145</v>
+        <v>165230</v>
       </c>
       <c r="C33" t="n">
-        <v>292110</v>
+        <v>186160</v>
       </c>
       <c r="D33" t="n">
-        <v>306930</v>
+        <v>278070</v>
       </c>
       <c r="E33" t="n">
-        <v>307125</v>
+        <v>290030</v>
       </c>
       <c r="F33" t="n">
-        <v>307645</v>
+        <v>296660</v>
       </c>
       <c r="G33" t="n">
-        <v>312780</v>
+        <v>302640</v>
       </c>
       <c r="H33" t="n">
-        <v>313755</v>
+        <v>298350</v>
       </c>
       <c r="I33" t="n">
-        <v>358540</v>
+        <v>345410</v>
       </c>
       <c r="J33" t="n">
-        <v>361205</v>
+        <v>353340</v>
       </c>
       <c r="K33" t="n">
-        <v>362050</v>
+        <v>359775</v>
       </c>
       <c r="L33" t="n">
-        <v>369655</v>
+        <v>363350</v>
       </c>
       <c r="M33" t="n">
-        <v>432315</v>
+        <v>360750</v>
       </c>
       <c r="N33" t="n">
-        <v>439790</v>
+        <v>377845</v>
       </c>
       <c r="O33" t="n">
-        <v>445185</v>
+        <v>392015</v>
       </c>
       <c r="P33" t="n">
-        <v>449085</v>
+        <v>398710</v>
       </c>
       <c r="Q33" t="n">
-        <v>448630</v>
+        <v>392665</v>
       </c>
       <c r="R33" t="n">
-        <v>452010</v>
+        <v>403130</v>
       </c>
       <c r="S33" t="n">
-        <v>465140</v>
+        <v>415155</v>
       </c>
       <c r="T33" t="n">
-        <v>474890</v>
+        <v>413660</v>
       </c>
       <c r="U33" t="n">
-        <v>508300</v>
+        <v>450320</v>
       </c>
       <c r="V33" t="n">
-        <v>517335</v>
+        <v>477620</v>
       </c>
       <c r="W33" t="n">
-        <v>524030</v>
+        <v>485810</v>
       </c>
       <c r="X33" t="n">
-        <v>528450</v>
+        <v>491725</v>
       </c>
       <c r="Y33" t="n">
-        <v>552760</v>
+        <v>506610</v>
       </c>
       <c r="Z33" t="n">
-        <v>543985</v>
+        <v>571870</v>
       </c>
       <c r="AA33" t="n">
-        <v>556465</v>
+        <v>581425</v>
       </c>
       <c r="AB33" t="n">
-        <v>573235</v>
+        <v>577525</v>
       </c>
       <c r="AC33" t="n">
-        <v>582725</v>
+        <v>578630</v>
       </c>
       <c r="AD33" t="n">
-        <v>585195</v>
+        <v>609700</v>
       </c>
       <c r="AE33" t="n">
-        <v>588965</v>
+        <v>627640</v>
       </c>
       <c r="AF33" t="n">
-        <v>635440</v>
+        <v>618995</v>
       </c>
       <c r="AG33" t="n">
-        <v>659555</v>
+        <v>625365</v>
       </c>
       <c r="AH33" t="n">
-        <v>713570</v>
+        <v>639860</v>
       </c>
       <c r="AI33" t="n">
-        <v>711425</v>
+        <v>656630</v>
       </c>
       <c r="AJ33" t="n">
-        <v>720395</v>
+        <v>665015</v>
       </c>
       <c r="AK33" t="n">
-        <v>761410</v>
+        <v>669500</v>
       </c>
       <c r="AL33" t="n">
-        <v>746005</v>
+        <v>712205</v>
       </c>
       <c r="AM33" t="n">
-        <v>760890</v>
+        <v>713895</v>
       </c>
       <c r="AN33" t="n">
-        <v>764530</v>
+        <v>742430</v>
       </c>
       <c r="AO33" t="n">
-        <v>797680</v>
+        <v>744185</v>
       </c>
       <c r="AP33" t="n">
-        <v>849485</v>
+        <v>754845</v>
       </c>
       <c r="AQ33" t="n">
-        <v>862615</v>
+        <v>854750</v>
       </c>
       <c r="AR33" t="n">
-        <v>871780</v>
+        <v>884455</v>
       </c>
       <c r="AS33" t="n">
-        <v>880295</v>
+        <v>920465</v>
       </c>
       <c r="AT33" t="n">
-        <v>919685</v>
+        <v>931125</v>
       </c>
       <c r="AU33" t="n">
-        <v>959010</v>
+        <v>955760</v>
       </c>
       <c r="AV33" t="n">
-        <v>1008800</v>
+        <v>955110</v>
       </c>
       <c r="AW33" t="n">
-        <v>1088425</v>
+        <v>979875</v>
       </c>
       <c r="AX33" t="n">
-        <v>1101165</v>
+        <v>1026740</v>
       </c>
       <c r="AY33" t="n">
-        <v>1131520</v>
+        <v>1071265</v>
       </c>
       <c r="AZ33" t="n">
-        <v>1162460</v>
+        <v>1123005</v>
       </c>
       <c r="BA33" t="n">
-        <v>1165970</v>
+        <v>1133795</v>
       </c>
       <c r="BB33" t="n">
-        <v>1166035</v>
+        <v>1142570</v>
       </c>
       <c r="BC33" t="n">
-        <v>1171300</v>
+        <v>1155960</v>
       </c>
       <c r="BD33" t="n">
-        <v>1165385</v>
+        <v>1147835</v>
       </c>
       <c r="BE33" t="n">
-        <v>1184950</v>
+        <v>1182675</v>
       </c>
       <c r="BF33" t="n">
-        <v>1246505</v>
+        <v>1256840</v>
       </c>
       <c r="BG33" t="n">
-        <v>1267825</v>
+        <v>1271075</v>
       </c>
       <c r="BH33" t="n">
-        <v>1281670</v>
+        <v>1308840</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1365325</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>106560</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Risk assessment packages cost</t>
+        </is>
       </c>
       <c r="B34" t="n">
-        <v>83520</v>
+        <v>92160</v>
       </c>
       <c r="C34" t="n">
-        <v>118080</v>
+        <v>74880</v>
       </c>
       <c r="D34" t="n">
-        <v>144000</v>
+        <v>97920</v>
       </c>
       <c r="E34" t="n">
-        <v>161280</v>
+        <v>112320</v>
       </c>
       <c r="F34" t="n">
-        <v>164160</v>
+        <v>184320</v>
       </c>
       <c r="G34" t="n">
-        <v>181440</v>
+        <v>218880</v>
       </c>
       <c r="H34" t="n">
         <v>204480</v>
       </c>
       <c r="I34" t="n">
-        <v>250560</v>
+        <v>247680</v>
       </c>
       <c r="J34" t="n">
-        <v>290880</v>
+        <v>230400</v>
       </c>
       <c r="K34" t="n">
-        <v>290880</v>
+        <v>267840</v>
       </c>
       <c r="L34" t="n">
-        <v>313920</v>
+        <v>299520</v>
       </c>
       <c r="M34" t="n">
-        <v>440640</v>
+        <v>282240</v>
       </c>
       <c r="N34" t="n">
+        <v>406080</v>
+      </c>
+      <c r="O34" t="n">
         <v>426240</v>
       </c>
-      <c r="O34" t="n">
-        <v>469440</v>
-      </c>
       <c r="P34" t="n">
-        <v>506880</v>
+        <v>480960</v>
       </c>
       <c r="Q34" t="n">
-        <v>509760</v>
+        <v>449280</v>
       </c>
       <c r="R34" t="n">
-        <v>544320</v>
+        <v>495360</v>
       </c>
       <c r="S34" t="n">
-        <v>584640</v>
+        <v>561600</v>
       </c>
       <c r="T34" t="n">
-        <v>601920</v>
+        <v>564480</v>
       </c>
       <c r="U34" t="n">
-        <v>604800</v>
+        <v>547200</v>
       </c>
       <c r="V34" t="n">
-        <v>740160</v>
+        <v>570240</v>
       </c>
       <c r="W34" t="n">
-        <v>777600</v>
+        <v>633600</v>
       </c>
       <c r="X34" t="n">
-        <v>826560</v>
+        <v>705600</v>
       </c>
       <c r="Y34" t="n">
-        <v>979200</v>
+        <v>748800</v>
       </c>
       <c r="Z34" t="n">
-        <v>947520</v>
+        <v>953280</v>
       </c>
       <c r="AA34" t="n">
-        <v>1056960</v>
+        <v>999360</v>
       </c>
       <c r="AB34" t="n">
-        <v>1123200</v>
+        <v>987840</v>
       </c>
       <c r="AC34" t="n">
-        <v>1094400</v>
+        <v>973440</v>
       </c>
       <c r="AD34" t="n">
-        <v>1108800</v>
+        <v>1120320</v>
       </c>
       <c r="AE34" t="n">
-        <v>1169280</v>
+        <v>1258560</v>
       </c>
       <c r="AF34" t="n">
-        <v>1198080</v>
+        <v>1209600</v>
       </c>
       <c r="AG34" t="n">
-        <v>1293120</v>
+        <v>1284480</v>
       </c>
       <c r="AH34" t="n">
-        <v>1609920</v>
+        <v>1275840</v>
       </c>
       <c r="AI34" t="n">
-        <v>1584000</v>
+        <v>1376640</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1632960</v>
+        <v>1379520</v>
       </c>
       <c r="AK34" t="n">
-        <v>1846080</v>
+        <v>1379520</v>
       </c>
       <c r="AL34" t="n">
-        <v>1722240</v>
+        <v>1532160</v>
       </c>
       <c r="AM34" t="n">
-        <v>1776960</v>
+        <v>1488960</v>
       </c>
       <c r="AN34" t="n">
-        <v>1779840</v>
+        <v>1771200</v>
       </c>
       <c r="AO34" t="n">
-        <v>1722240</v>
+        <v>1742400</v>
       </c>
       <c r="AP34" t="n">
-        <v>1915200</v>
+        <v>1831680</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1958400</v>
+        <v>1874880</v>
       </c>
       <c r="AR34" t="n">
-        <v>2062080</v>
+        <v>1923840</v>
       </c>
       <c r="AS34" t="n">
-        <v>2122560</v>
+        <v>2154240</v>
       </c>
       <c r="AT34" t="n">
-        <v>2327040</v>
+        <v>2269440</v>
       </c>
       <c r="AU34" t="n">
-        <v>2341440</v>
+        <v>2459520</v>
       </c>
       <c r="AV34" t="n">
-        <v>2643840</v>
+        <v>2427840</v>
       </c>
       <c r="AW34" t="n">
-        <v>2727360</v>
+        <v>2534400</v>
       </c>
       <c r="AX34" t="n">
-        <v>2802240</v>
+        <v>2635200</v>
       </c>
       <c r="AY34" t="n">
-        <v>2931840</v>
+        <v>2692800</v>
       </c>
       <c r="AZ34" t="n">
-        <v>3142080</v>
+        <v>2980800</v>
       </c>
       <c r="BA34" t="n">
-        <v>3185280</v>
+        <v>2995200</v>
       </c>
       <c r="BB34" t="n">
-        <v>3087360</v>
+        <v>3018240</v>
       </c>
       <c r="BC34" t="n">
-        <v>3191040</v>
+        <v>3041280</v>
       </c>
       <c r="BD34" t="n">
-        <v>3098880</v>
+        <v>2969280</v>
       </c>
       <c r="BE34" t="n">
-        <v>3182400</v>
+        <v>3047040</v>
       </c>
       <c r="BF34" t="n">
-        <v>3404160</v>
+        <v>3352320</v>
       </c>
       <c r="BG34" t="n">
-        <v>3568320</v>
+        <v>3438720</v>
       </c>
       <c r="BH34" t="n">
         <v>3672000</v>
       </c>
+      <c r="BI34" t="n">
+        <v>3853440</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>821080</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SOC packages cost</t>
+        </is>
       </c>
       <c r="B35" t="n">
-        <v>517128</v>
+        <v>500648</v>
       </c>
       <c r="C35" t="n">
-        <v>837808</v>
+        <v>409984</v>
       </c>
       <c r="D35" t="n">
-        <v>998144</v>
+        <v>703880</v>
       </c>
       <c r="E35" t="n">
-        <v>1058752</v>
+        <v>842616</v>
       </c>
       <c r="F35" t="n">
-        <v>1032768</v>
+        <v>921496</v>
       </c>
       <c r="G35" t="n">
-        <v>1000376</v>
+        <v>1538848</v>
       </c>
       <c r="H35" t="n">
-        <v>1220760</v>
+        <v>1097568</v>
       </c>
       <c r="I35" t="n">
-        <v>1429800</v>
+        <v>1708944</v>
       </c>
       <c r="J35" t="n">
-        <v>1528608</v>
+        <v>1076784</v>
       </c>
       <c r="K35" t="n">
-        <v>1501760</v>
+        <v>1730848</v>
       </c>
       <c r="L35" t="n">
-        <v>2135400</v>
+        <v>1996408</v>
       </c>
       <c r="M35" t="n">
-        <v>2966488</v>
+        <v>1627720</v>
       </c>
       <c r="N35" t="n">
-        <v>2873480</v>
+        <v>2681416</v>
       </c>
       <c r="O35" t="n">
-        <v>2986800</v>
+        <v>2885272</v>
       </c>
       <c r="P35" t="n">
-        <v>3523968</v>
+        <v>3367456</v>
       </c>
       <c r="Q35" t="n">
-        <v>3580872</v>
+        <v>3484832</v>
       </c>
       <c r="R35" t="n">
-        <v>4017768</v>
+        <v>3263408</v>
       </c>
       <c r="S35" t="n">
-        <v>3409192</v>
+        <v>4324992</v>
       </c>
       <c r="T35" t="n">
-        <v>4068576</v>
+        <v>4648376</v>
       </c>
       <c r="U35" t="n">
-        <v>4047712</v>
+        <v>3550144</v>
       </c>
       <c r="V35" t="n">
-        <v>5543840</v>
+        <v>3600576</v>
       </c>
       <c r="W35" t="n">
-        <v>5526872</v>
+        <v>4776704</v>
       </c>
       <c r="X35" t="n">
-        <v>6398000</v>
+        <v>5282464</v>
       </c>
       <c r="Y35" t="n">
-        <v>7542064</v>
+        <v>5467080</v>
       </c>
       <c r="Z35" t="n">
-        <v>7127192</v>
+        <v>6883784</v>
       </c>
       <c r="AA35" t="n">
-        <v>7569656</v>
+        <v>7313224</v>
       </c>
       <c r="AB35" t="n">
-        <v>9044416</v>
+        <v>7132016</v>
       </c>
       <c r="AC35" t="n">
-        <v>8787872</v>
+        <v>7462056</v>
       </c>
       <c r="AD35" t="n">
-        <v>8763368</v>
+        <v>8457696</v>
       </c>
       <c r="AE35" t="n">
-        <v>8554840</v>
+        <v>9807616</v>
       </c>
       <c r="AF35" t="n">
-        <v>9422208</v>
+        <v>9701952</v>
       </c>
       <c r="AG35" t="n">
-        <v>9718760</v>
+        <v>9784672</v>
       </c>
       <c r="AH35" t="n">
-        <v>12480096</v>
+        <v>9231328</v>
       </c>
       <c r="AI35" t="n">
-        <v>12314008</v>
+        <v>10731080</v>
       </c>
       <c r="AJ35" t="n">
-        <v>13124592</v>
+        <v>11454216</v>
       </c>
       <c r="AK35" t="n">
-        <v>14741160</v>
+        <v>10682416</v>
       </c>
       <c r="AL35" t="n">
-        <v>13831696</v>
+        <v>12225328</v>
       </c>
       <c r="AM35" t="n">
-        <v>13877512</v>
+        <v>12286920</v>
       </c>
       <c r="AN35" t="n">
-        <v>15237584</v>
+        <v>14295128</v>
       </c>
       <c r="AO35" t="n">
-        <v>14172360</v>
+        <v>14522784</v>
       </c>
       <c r="AP35" t="n">
-        <v>16227968</v>
+        <v>14934328</v>
       </c>
       <c r="AQ35" t="n">
-        <v>15971064</v>
+        <v>15832360</v>
       </c>
       <c r="AR35" t="n">
-        <v>16759432</v>
+        <v>16860608</v>
       </c>
       <c r="AS35" t="n">
-        <v>17536016</v>
+        <v>18114240</v>
       </c>
       <c r="AT35" t="n">
-        <v>19403696</v>
+        <v>18532640</v>
       </c>
       <c r="AU35" t="n">
-        <v>19685120</v>
+        <v>21017056</v>
       </c>
       <c r="AV35" t="n">
-        <v>22224392</v>
+        <v>20590056</v>
       </c>
       <c r="AW35" t="n">
-        <v>22643224</v>
+        <v>20607552</v>
       </c>
       <c r="AX35" t="n">
-        <v>24183096</v>
+        <v>22908576</v>
       </c>
       <c r="AY35" t="n">
-        <v>24422344</v>
+        <v>22581880</v>
       </c>
       <c r="AZ35" t="n">
-        <v>27925888</v>
+        <v>25093632</v>
       </c>
       <c r="BA35" t="n">
-        <v>27355592</v>
+        <v>26319176</v>
       </c>
       <c r="BB35" t="n">
-        <v>26585552</v>
+        <v>26301520</v>
       </c>
       <c r="BC35" t="n">
-        <v>26497328</v>
+        <v>26946832</v>
       </c>
       <c r="BD35" t="n">
-        <v>26558888</v>
+        <v>26264104</v>
       </c>
       <c r="BE35" t="n">
-        <v>26501360</v>
+        <v>26033944</v>
       </c>
       <c r="BF35" t="n">
-        <v>28625024</v>
+        <v>27669984</v>
       </c>
       <c r="BG35" t="n">
-        <v>30145664</v>
+        <v>30644208</v>
       </c>
       <c r="BH35" t="n">
-        <v>31835952</v>
+        <v>32134144</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>32781792</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>29500</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Marketing cost</t>
+        </is>
       </c>
       <c r="B36" t="n">
-        <v>20500</v>
+        <v>32500</v>
       </c>
       <c r="C36" t="n">
+        <v>22000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>31000</v>
+      </c>
+      <c r="F36" t="n">
         <v>37000</v>
       </c>
-      <c r="D36" t="n">
-        <v>40000</v>
-      </c>
-      <c r="E36" t="n">
-        <v>32500</v>
-      </c>
-      <c r="F36" t="n">
-        <v>34000</v>
-      </c>
       <c r="G36" t="n">
-        <v>50500</v>
+        <v>61000</v>
       </c>
       <c r="H36" t="n">
-        <v>44500</v>
+        <v>38500</v>
       </c>
       <c r="I36" t="n">
-        <v>55000</v>
+        <v>65500</v>
       </c>
       <c r="J36" t="n">
-        <v>53500</v>
+        <v>41500</v>
       </c>
       <c r="K36" t="n">
-        <v>52000</v>
+        <v>58000</v>
       </c>
       <c r="L36" t="n">
-        <v>80500</v>
+        <v>59500</v>
       </c>
       <c r="M36" t="n">
-        <v>115000</v>
+        <v>46000</v>
       </c>
       <c r="N36" t="n">
-        <v>124000</v>
+        <v>104500</v>
       </c>
       <c r="O36" t="n">
-        <v>127000</v>
+        <v>103000</v>
       </c>
       <c r="P36" t="n">
-        <v>133000</v>
+        <v>122500</v>
       </c>
       <c r="Q36" t="n">
-        <v>137500</v>
+        <v>116500</v>
       </c>
       <c r="R36" t="n">
-        <v>143500</v>
+        <v>148000</v>
       </c>
       <c r="S36" t="n">
-        <v>137500</v>
+        <v>190000</v>
       </c>
       <c r="T36" t="n">
-        <v>158500</v>
+        <v>178000</v>
       </c>
       <c r="U36" t="n">
-        <v>193000</v>
+        <v>157000</v>
       </c>
       <c r="V36" t="n">
-        <v>233500</v>
+        <v>154000</v>
       </c>
       <c r="W36" t="n">
-        <v>238000</v>
+        <v>202000</v>
       </c>
       <c r="X36" t="n">
-        <v>256000</v>
+        <v>214000</v>
       </c>
       <c r="Y36" t="n">
-        <v>352000</v>
+        <v>215500</v>
       </c>
       <c r="Z36" t="n">
-        <v>299500</v>
+        <v>311500</v>
       </c>
       <c r="AA36" t="n">
-        <v>358000</v>
+        <v>343000</v>
       </c>
       <c r="AB36" t="n">
-        <v>407500</v>
+        <v>331000</v>
       </c>
       <c r="AC36" t="n">
-        <v>398500</v>
+        <v>331000</v>
       </c>
       <c r="AD36" t="n">
-        <v>397000</v>
+        <v>400000</v>
       </c>
       <c r="AE36" t="n">
-        <v>398500</v>
+        <v>449500</v>
       </c>
       <c r="AF36" t="n">
-        <v>455500</v>
+        <v>427000</v>
       </c>
       <c r="AG36" t="n">
-        <v>476500</v>
+        <v>449500</v>
       </c>
       <c r="AH36" t="n">
-        <v>586000</v>
+        <v>461500</v>
       </c>
       <c r="AI36" t="n">
-        <v>577000</v>
+        <v>505000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>613000</v>
+        <v>529000</v>
       </c>
       <c r="AK36" t="n">
-        <v>742000</v>
+        <v>533500</v>
       </c>
       <c r="AL36" t="n">
-        <v>665500</v>
+        <v>625000</v>
       </c>
       <c r="AM36" t="n">
-        <v>724000</v>
+        <v>610000</v>
       </c>
       <c r="AN36" t="n">
-        <v>745000</v>
+        <v>695500</v>
       </c>
       <c r="AO36" t="n">
-        <v>712000</v>
+        <v>692500</v>
       </c>
       <c r="AP36" t="n">
-        <v>814000</v>
+        <v>727000</v>
       </c>
       <c r="AQ36" t="n">
-        <v>814000</v>
+        <v>779500</v>
       </c>
       <c r="AR36" t="n">
-        <v>863500</v>
+        <v>847000</v>
       </c>
       <c r="AS36" t="n">
-        <v>887500</v>
+        <v>910000</v>
       </c>
       <c r="AT36" t="n">
-        <v>1030000</v>
+        <v>958000</v>
       </c>
       <c r="AU36" t="n">
+        <v>1019500</v>
+      </c>
+      <c r="AV36" t="n">
         <v>1015000</v>
       </c>
-      <c r="AV36" t="n">
-        <v>1139500</v>
-      </c>
       <c r="AW36" t="n">
-        <v>1225000</v>
+        <v>1075000</v>
       </c>
       <c r="AX36" t="n">
-        <v>1246000</v>
+        <v>1174000</v>
       </c>
       <c r="AY36" t="n">
-        <v>1282000</v>
+        <v>1190500</v>
       </c>
       <c r="AZ36" t="n">
+        <v>1346500</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1343500</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1364500</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>1399000</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1315000</v>
+      </c>
+      <c r="BE36" t="n">
         <v>1411000</v>
       </c>
-      <c r="BA36" t="n">
-        <v>1412500</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>1378000</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>1415500</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>1379500</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>1432000</v>
-      </c>
       <c r="BF36" t="n">
-        <v>1546000</v>
+        <v>1552000</v>
       </c>
       <c r="BG36" t="n">
-        <v>1633000</v>
+        <v>1589500</v>
       </c>
       <c r="BH36" t="n">
-        <v>1735000</v>
+        <v>1676500</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1786000</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>37500</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>General overhead</t>
+        </is>
       </c>
       <c r="B37" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C37" t="n">
+        <v>31250</v>
+      </c>
+      <c r="D37" t="n">
+        <v>40625</v>
+      </c>
+      <c r="E37" t="n">
         <v>43750</v>
       </c>
-      <c r="C37" t="n">
+      <c r="F37" t="n">
         <v>43750</v>
       </c>
-      <c r="D37" t="n">
+      <c r="G37" t="n">
+        <v>43750</v>
+      </c>
+      <c r="H37" t="n">
+        <v>43750</v>
+      </c>
+      <c r="I37" t="n">
         <v>46875</v>
-      </c>
-      <c r="E37" t="n">
-        <v>46875</v>
-      </c>
-      <c r="F37" t="n">
-        <v>46875</v>
-      </c>
-      <c r="G37" t="n">
-        <v>46875</v>
-      </c>
-      <c r="H37" t="n">
-        <v>46875</v>
-      </c>
-      <c r="I37" t="n">
-        <v>50000</v>
       </c>
       <c r="J37" t="n">
         <v>50000</v>
@@ -7166,37 +7348,42 @@
       <c r="BH37" t="n">
         <v>50000</v>
       </c>
+      <c r="BI37" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>22889</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Legal &amp; Accounting cost</t>
+        </is>
       </c>
       <c r="B38" t="n">
-        <v>14779</v>
+        <v>14919</v>
       </c>
       <c r="C38" t="n">
-        <v>23779</v>
+        <v>12031</v>
       </c>
       <c r="D38" t="n">
-        <v>28355</v>
+        <v>19741</v>
       </c>
       <c r="E38" t="n">
-        <v>30042</v>
+        <v>23590</v>
       </c>
       <c r="F38" t="n">
-        <v>29530</v>
+        <v>27443</v>
       </c>
       <c r="G38" t="n">
-        <v>29625</v>
+        <v>40000</v>
       </c>
       <c r="H38" t="n">
-        <v>35330</v>
+        <v>32213</v>
       </c>
       <c r="I38" t="n">
         <v>40000</v>
       </c>
       <c r="J38" t="n">
-        <v>40000</v>
+        <v>32442</v>
       </c>
       <c r="K38" t="n">
         <v>40000</v>
@@ -7348,369 +7535,382 @@
       <c r="BH38" t="n">
         <v>40000</v>
       </c>
+      <c r="BI38" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>1283964</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Total cost</t>
+        </is>
       </c>
       <c r="B39" t="n">
-        <v>967822</v>
+        <v>830457</v>
       </c>
       <c r="C39" t="n">
-        <v>1352527</v>
+        <v>736305</v>
       </c>
       <c r="D39" t="n">
-        <v>1564304</v>
+        <v>1165236</v>
       </c>
       <c r="E39" t="n">
-        <v>1636574</v>
+        <v>1343306</v>
       </c>
       <c r="F39" t="n">
-        <v>1614978</v>
+        <v>1510669</v>
       </c>
       <c r="G39" t="n">
-        <v>1621596</v>
+        <v>2205118</v>
       </c>
       <c r="H39" t="n">
-        <v>1865700</v>
+        <v>1714861</v>
       </c>
       <c r="I39" t="n">
-        <v>2183900</v>
+        <v>2454409</v>
       </c>
       <c r="J39" t="n">
-        <v>2324193</v>
+        <v>1784466</v>
       </c>
       <c r="K39" t="n">
-        <v>2296690</v>
+        <v>2506463</v>
       </c>
       <c r="L39" t="n">
-        <v>2989475</v>
+        <v>2808778</v>
       </c>
       <c r="M39" t="n">
-        <v>4044443</v>
+        <v>2406710</v>
       </c>
       <c r="N39" t="n">
-        <v>3953510</v>
+        <v>3659841</v>
       </c>
       <c r="O39" t="n">
-        <v>4118425</v>
+        <v>3896527</v>
       </c>
       <c r="P39" t="n">
-        <v>4702933</v>
+        <v>4459626</v>
       </c>
       <c r="Q39" t="n">
-        <v>4766762</v>
+        <v>4533277</v>
       </c>
       <c r="R39" t="n">
-        <v>5247598</v>
+        <v>4399898</v>
       </c>
       <c r="S39" t="n">
-        <v>4686472</v>
+        <v>5581747</v>
       </c>
       <c r="T39" t="n">
-        <v>5393886</v>
+        <v>5894516</v>
       </c>
       <c r="U39" t="n">
-        <v>5443812</v>
+        <v>4794664</v>
       </c>
       <c r="V39" t="n">
-        <v>7124835</v>
+        <v>4892436</v>
       </c>
       <c r="W39" t="n">
-        <v>7156502</v>
+        <v>6188114</v>
       </c>
       <c r="X39" t="n">
-        <v>8099010</v>
+        <v>6783789</v>
       </c>
       <c r="Y39" t="n">
-        <v>9516024</v>
+        <v>7027990</v>
       </c>
       <c r="Z39" t="n">
-        <v>9008197</v>
+        <v>8810434</v>
       </c>
       <c r="AA39" t="n">
-        <v>9631081</v>
+        <v>9327009</v>
       </c>
       <c r="AB39" t="n">
-        <v>11238351</v>
+        <v>9118381</v>
       </c>
       <c r="AC39" t="n">
-        <v>10953497</v>
+        <v>9435126</v>
       </c>
       <c r="AD39" t="n">
-        <v>10944363</v>
+        <v>10677716</v>
       </c>
       <c r="AE39" t="n">
-        <v>10801585</v>
+        <v>12233316</v>
       </c>
       <c r="AF39" t="n">
-        <v>11801228</v>
+        <v>12047547</v>
       </c>
       <c r="AG39" t="n">
-        <v>12237935</v>
+        <v>12234017</v>
       </c>
       <c r="AH39" t="n">
-        <v>15479586</v>
+        <v>11698528</v>
       </c>
       <c r="AI39" t="n">
-        <v>15276433</v>
+        <v>13359350</v>
       </c>
       <c r="AJ39" t="n">
-        <v>16180947</v>
+        <v>14117751</v>
       </c>
       <c r="AK39" t="n">
-        <v>18180650</v>
+        <v>13354936</v>
       </c>
       <c r="AL39" t="n">
-        <v>17055441</v>
+        <v>15184693</v>
       </c>
       <c r="AM39" t="n">
-        <v>17229362</v>
+        <v>15189775</v>
       </c>
       <c r="AN39" t="n">
-        <v>18616954</v>
+        <v>17594258</v>
       </c>
       <c r="AO39" t="n">
-        <v>17494280</v>
+        <v>17791869</v>
       </c>
       <c r="AP39" t="n">
-        <v>19896653</v>
+        <v>18337853</v>
       </c>
       <c r="AQ39" t="n">
-        <v>19696079</v>
+        <v>19431490</v>
       </c>
       <c r="AR39" t="n">
-        <v>20646792</v>
+        <v>20605903</v>
       </c>
       <c r="AS39" t="n">
-        <v>21516371</v>
+        <v>22188945</v>
       </c>
       <c r="AT39" t="n">
-        <v>23770421</v>
+        <v>22781205</v>
       </c>
       <c r="AU39" t="n">
-        <v>24090570</v>
+        <v>25541836</v>
       </c>
       <c r="AV39" t="n">
-        <v>27106532</v>
+        <v>25078006</v>
       </c>
       <c r="AW39" t="n">
-        <v>27774009</v>
+        <v>25286827</v>
       </c>
       <c r="AX39" t="n">
-        <v>29422501</v>
+        <v>27834516</v>
       </c>
       <c r="AY39" t="n">
-        <v>29857704</v>
+        <v>27626445</v>
       </c>
       <c r="AZ39" t="n">
-        <v>33731428</v>
+        <v>30633937</v>
       </c>
       <c r="BA39" t="n">
-        <v>33209342</v>
+        <v>31881671</v>
       </c>
       <c r="BB39" t="n">
-        <v>32306947</v>
+        <v>31916830</v>
       </c>
       <c r="BC39" t="n">
-        <v>32365168</v>
+        <v>32633072</v>
       </c>
       <c r="BD39" t="n">
-        <v>32292653</v>
+        <v>31786219</v>
       </c>
       <c r="BE39" t="n">
-        <v>32390710</v>
+        <v>31764659</v>
       </c>
       <c r="BF39" t="n">
-        <v>34911689</v>
+        <v>33921144</v>
       </c>
       <c r="BG39" t="n">
-        <v>36704809</v>
+        <v>37033503</v>
       </c>
       <c r="BH39" t="n">
-        <v>38614622</v>
+        <v>38881484</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>39876557</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>-139468</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Gross profit</t>
+        </is>
       </c>
       <c r="B40" t="n">
-        <v>-228868.4000000005</v>
+        <v>-84479.40000000002</v>
       </c>
       <c r="C40" t="n">
-        <v>-163557.3999999983</v>
+        <v>-134724.2000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>-146531.2000000007</v>
+        <v>-178180.0000000005</v>
       </c>
       <c r="E40" t="n">
-        <v>-134471.5999999992</v>
+        <v>-163766.8000000003</v>
       </c>
       <c r="F40" t="n">
-        <v>-138456.3999999994</v>
+        <v>-138473.7999999998</v>
       </c>
       <c r="G40" t="n">
-        <v>-140344.799999998</v>
+        <v>-16900.39999999898</v>
       </c>
       <c r="H40" t="n">
-        <v>-99187.99999999348</v>
+        <v>-104179.4000000022</v>
       </c>
       <c r="I40" t="n">
-        <v>-94939.99999999255</v>
+        <v>-20076.19999999553</v>
       </c>
       <c r="J40" t="n">
-        <v>-68263.39999999851</v>
+        <v>-162325.1999999974</v>
       </c>
       <c r="K40" t="n">
-        <v>-74977.99999999814</v>
+        <v>-30645.40000000224</v>
       </c>
       <c r="L40" t="n">
-        <v>59405.00000000186</v>
+        <v>27311.60000000335</v>
       </c>
       <c r="M40" t="n">
-        <v>206142.5999999866</v>
+        <v>-52646.00000000931</v>
       </c>
       <c r="N40" t="n">
-        <v>179465.9999999851</v>
+        <v>191458.1999999955</v>
       </c>
       <c r="O40" t="n">
-        <v>208535.0000000149</v>
+        <v>222599.4000000022</v>
       </c>
       <c r="P40" t="n">
-        <v>323428.599999994</v>
+        <v>332521.200000003</v>
       </c>
       <c r="Q40" t="n">
-        <v>337484.3999999948</v>
+        <v>352121.4000000022</v>
       </c>
       <c r="R40" t="n">
-        <v>432123.6000000387</v>
+        <v>319391.5999999717</v>
       </c>
       <c r="S40" t="n">
-        <v>305358.4000000209</v>
+        <v>550243.3999999687</v>
       </c>
       <c r="T40" t="n">
-        <v>438805.1999999732</v>
+        <v>613135.2000000179</v>
       </c>
       <c r="U40" t="n">
-        <v>413442.3999999687</v>
+        <v>345508.7999999747</v>
       </c>
       <c r="V40" t="n">
-        <v>750972.9999999776</v>
+        <v>333055.1999999732</v>
       </c>
       <c r="W40" t="n">
-        <v>751744.3999999687</v>
+        <v>591930.8000000045</v>
       </c>
       <c r="X40" t="n">
-        <v>939790.0000001192</v>
+        <v>709167.7999999821</v>
       </c>
       <c r="Y40" t="n">
-        <v>1214452.800000161</v>
+        <v>742506.0000000894</v>
       </c>
       <c r="Z40" t="n">
-        <v>1114833.400000066</v>
+        <v>1043706.799999982</v>
       </c>
       <c r="AA40" t="n">
-        <v>1237706.199999973</v>
+        <v>1142059.799999937</v>
       </c>
       <c r="AB40" t="n">
-        <v>1548948.200000063</v>
+        <v>1102838.200000033</v>
       </c>
       <c r="AC40" t="n">
-        <v>1477949.399999931</v>
+        <v>1164141.199999973</v>
       </c>
       <c r="AD40" t="n">
-        <v>1473678.600000128</v>
+        <v>1391919.199999958</v>
       </c>
       <c r="AE40" t="n">
-        <v>1443823.000000149</v>
+        <v>1695023.200000063</v>
       </c>
       <c r="AF40" t="n">
-        <v>1597021.600000143</v>
+        <v>1662795.399999797</v>
       </c>
       <c r="AG40" t="n">
-        <v>1662977.000000149</v>
+        <v>1699189.400000274</v>
       </c>
       <c r="AH40" t="n">
-        <v>2276929.199999899</v>
+        <v>1575865.600000113</v>
       </c>
       <c r="AI40" t="n">
-        <v>2236376.599999994</v>
+        <v>1898746.00000003</v>
       </c>
       <c r="AJ40" t="n">
-        <v>2413763.399999827</v>
+        <v>2043708.200000107</v>
       </c>
       <c r="AK40" t="n">
-        <v>2792341.999999881</v>
+        <v>1886363.199999809</v>
       </c>
       <c r="AL40" t="n">
-        <v>2569394.19999969</v>
+        <v>2220900.600000322</v>
       </c>
       <c r="AM40" t="n">
-        <v>2596852.399999827</v>
+        <v>2215729.000000149</v>
       </c>
       <c r="AN40" t="n">
-        <v>2872946.800000399</v>
+        <v>2687895.599999636</v>
       </c>
       <c r="AO40" t="n">
-        <v>2601352.000000417</v>
+        <v>2723471.800000429</v>
       </c>
       <c r="AP40" t="n">
-        <v>3042908.599999726</v>
+        <v>2828940.600000679</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2989197.799999893</v>
+        <v>2936941.999999821</v>
       </c>
       <c r="AR40" t="n">
-        <v>3180126.400000572</v>
+        <v>3147626.600000024</v>
       </c>
       <c r="AS40" t="n">
-        <v>3350048.19999969</v>
+        <v>3440943.000000119</v>
       </c>
       <c r="AT40" t="n">
-        <v>3782814.200000703</v>
+        <v>3558762.999999583</v>
       </c>
       <c r="AU40" t="n">
-        <v>3798374.000000358</v>
+        <v>4099031.200000525</v>
       </c>
       <c r="AV40" t="n">
-        <v>4373538.399999857</v>
+        <v>4004861.199998617</v>
       </c>
       <c r="AW40" t="n">
-        <v>4427059.799998462</v>
+        <v>4030235.399998665</v>
       </c>
       <c r="AX40" t="n">
-        <v>4748014.199999571</v>
+        <v>4501775.200000286</v>
       </c>
       <c r="AY40" t="n">
-        <v>4809908.800000668</v>
+        <v>4411811.000000179</v>
       </c>
       <c r="AZ40" t="n">
-        <v>5575237.599997759</v>
+        <v>4986421.400000513</v>
       </c>
       <c r="BA40" t="n">
-        <v>5468968.399997234</v>
+        <v>5223340.1999982</v>
       </c>
       <c r="BB40" t="n">
-        <v>5278915.400001526</v>
+        <v>5223793.999999523</v>
       </c>
       <c r="BC40" t="n">
-        <v>5294425.600000501</v>
+        <v>5356726.399997234</v>
       </c>
       <c r="BD40" t="n">
-        <v>5277612.599999905</v>
+        <v>5182305.800002813</v>
       </c>
       <c r="BE40" t="n">
-        <v>5284921.999998212</v>
+        <v>5152873.799997449</v>
       </c>
       <c r="BF40" t="n">
-        <v>5741539.799998999</v>
+        <v>5529236.799998045</v>
       </c>
       <c r="BG40" t="n">
-        <v>6094387.799998879</v>
+        <v>6143946.599998832</v>
       </c>
       <c r="BH40" t="n">
-        <v>6478520.400002837</v>
+        <v>6491488.799999952</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>6646393.400001407</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -651,148 +651,148 @@
         <v>285</v>
       </c>
       <c r="N2" t="n">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="O2" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P2" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="Q2" t="n">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="R2" t="n">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="S2" t="n">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="T2" t="n">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="U2" t="n">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="V2" t="n">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="W2" t="n">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="X2" t="n">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="Y2" t="n">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="Z2" t="n">
-        <v>688</v>
+        <v>650</v>
       </c>
       <c r="AA2" t="n">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="AB2" t="n">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AC2" t="n">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="AD2" t="n">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="AE2" t="n">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="AF2" t="n">
-        <v>831</v>
+        <v>857</v>
       </c>
       <c r="AG2" t="n">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="AH2" t="n">
-        <v>952</v>
+        <v>906</v>
       </c>
       <c r="AI2" t="n">
+        <v>950</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
         <v>1008</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>1035</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1057</v>
-      </c>
       <c r="AL2" t="n">
-        <v>1246</v>
+        <v>1137</v>
       </c>
       <c r="AM2" t="n">
-        <v>1260</v>
+        <v>1145</v>
       </c>
       <c r="AN2" t="n">
-        <v>1314</v>
+        <v>1222</v>
       </c>
       <c r="AO2" t="n">
-        <v>1306</v>
+        <v>1254</v>
       </c>
       <c r="AP2" t="n">
-        <v>1337</v>
+        <v>1276</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1416</v>
+        <v>1422</v>
       </c>
       <c r="AR2" t="n">
-        <v>1447</v>
+        <v>1485</v>
       </c>
       <c r="AS2" t="n">
-        <v>1508</v>
+        <v>1479</v>
       </c>
       <c r="AT2" t="n">
-        <v>1631</v>
+        <v>1524</v>
       </c>
       <c r="AU2" t="n">
-        <v>1724</v>
+        <v>1577</v>
       </c>
       <c r="AV2" t="n">
-        <v>1765</v>
+        <v>1689</v>
       </c>
       <c r="AW2" t="n">
-        <v>1803</v>
+        <v>1674</v>
       </c>
       <c r="AX2" t="n">
-        <v>2067</v>
+        <v>1876</v>
       </c>
       <c r="AY2" t="n">
-        <v>2103</v>
+        <v>1860</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2150</v>
+        <v>1945</v>
       </c>
       <c r="BA2" t="n">
-        <v>2104</v>
+        <v>1967</v>
       </c>
       <c r="BB2" t="n">
-        <v>2158</v>
+        <v>2038</v>
       </c>
       <c r="BC2" t="n">
-        <v>2286</v>
+        <v>2256</v>
       </c>
       <c r="BD2" t="n">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="BE2" t="n">
-        <v>2403</v>
+        <v>2315</v>
       </c>
       <c r="BF2" t="n">
-        <v>2539</v>
+        <v>2451</v>
       </c>
       <c r="BG2" t="n">
-        <v>2681</v>
+        <v>2533</v>
       </c>
       <c r="BH2" t="n">
-        <v>2810</v>
+        <v>2668</v>
       </c>
       <c r="BI2" t="n">
-        <v>2877</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -814,172 +814,172 @@
         <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M3" t="n">
         <v>31</v>
       </c>
       <c r="N3" t="n">
+        <v>27</v>
+      </c>
+      <c r="O3" t="n">
+        <v>36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>41</v>
+      </c>
+      <c r="R3" t="n">
+        <v>30</v>
+      </c>
+      <c r="S3" t="n">
         <v>33</v>
       </c>
-      <c r="O3" t="n">
-        <v>32</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="T3" t="n">
         <v>29</v>
       </c>
-      <c r="Q3" t="n">
-        <v>47</v>
-      </c>
-      <c r="R3" t="n">
-        <v>37</v>
-      </c>
-      <c r="S3" t="n">
-        <v>35</v>
-      </c>
-      <c r="T3" t="n">
-        <v>33</v>
-      </c>
       <c r="U3" t="n">
+        <v>51</v>
+      </c>
+      <c r="V3" t="n">
         <v>46</v>
       </c>
-      <c r="V3" t="n">
-        <v>28</v>
-      </c>
       <c r="W3" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="X3" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Y3" t="n">
         <v>57</v>
       </c>
       <c r="Z3" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>63</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>43</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>64</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>64</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>72</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>62</v>
       </c>
-      <c r="AA3" t="n">
-        <v>54</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>58</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>52</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>57</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>69</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>63</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>69</v>
-      </c>
       <c r="AK3" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AL3" t="n">
+        <v>68</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>91</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>83</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>79</v>
+      </c>
+      <c r="AT3" t="n">
         <v>78</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AU3" t="n">
         <v>71</v>
       </c>
-      <c r="AN3" t="n">
-        <v>63</v>
-      </c>
-      <c r="AO3" t="n">
+      <c r="AV3" t="n">
         <v>76</v>
       </c>
-      <c r="AP3" t="n">
-        <v>78</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>87</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>77</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>73</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>80</v>
-      </c>
       <c r="AW3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>93</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>86</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>88</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>93</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>110</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>88</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>103</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH3" t="n">
         <v>94</v>
       </c>
-      <c r="AX3" t="n">
-        <v>96</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>114</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>95</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>89</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>89</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>84</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>91</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>92</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>109</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>102</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>85</v>
-      </c>
       <c r="BI3" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -989,184 +989,184 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F4" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G4" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H4" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I4" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="K4" t="n">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="L4" t="n">
         <v>101</v>
       </c>
       <c r="M4" t="n">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N4" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O4" t="n">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="P4" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="Q4" t="n">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="R4" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="S4" t="n">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="T4" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="U4" t="n">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="V4" t="n">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="W4" t="n">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="X4" t="n">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="Y4" t="n">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="Z4" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA4" t="n">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="AB4" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AC4" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AD4" t="n">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="AE4" t="n">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="AF4" t="n">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="AG4" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AH4" t="n">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="AI4" t="n">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="AJ4" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AK4" t="n">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="AL4" t="n">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AM4" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AN4" t="n">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AO4" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AP4" t="n">
+        <v>306</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>317</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>309</v>
-      </c>
       <c r="AR4" t="n">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="AS4" t="n">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="AT4" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AU4" t="n">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="AV4" t="n">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="AW4" t="n">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="AX4" t="n">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AY4" t="n">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="BA4" t="n">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="BB4" t="n">
+        <v>431</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>349</v>
+      </c>
+      <c r="BD4" t="n">
         <v>357</v>
       </c>
-      <c r="BC4" t="n">
-        <v>367</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>371</v>
-      </c>
       <c r="BE4" t="n">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="BF4" t="n">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="BG4" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BH4" t="n">
-        <v>361</v>
+        <v>420</v>
       </c>
       <c r="BI4" t="n">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5">
@@ -1176,184 +1176,184 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F5" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G5" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H5" t="n">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="I5" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="J5" t="n">
+        <v>120</v>
+      </c>
+      <c r="K5" t="n">
         <v>114</v>
       </c>
-      <c r="K5" t="n">
-        <v>131</v>
-      </c>
       <c r="L5" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M5" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="N5" t="n">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="O5" t="n">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="P5" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q5" t="n">
+        <v>155</v>
+      </c>
+      <c r="R5" t="n">
         <v>183</v>
       </c>
-      <c r="R5" t="n">
-        <v>184</v>
-      </c>
       <c r="S5" t="n">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="T5" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U5" t="n">
+        <v>197</v>
+      </c>
+      <c r="V5" t="n">
         <v>195</v>
       </c>
-      <c r="V5" t="n">
-        <v>224</v>
-      </c>
       <c r="W5" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X5" t="n">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Y5" t="n">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="Z5" t="n">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="AA5" t="n">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="AB5" t="n">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="AC5" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AD5" t="n">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="AE5" t="n">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="AF5" t="n">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="AG5" t="n">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AH5" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="AI5" t="n">
+        <v>321</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>331</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>358</v>
+      </c>
+      <c r="AL5" t="n">
         <v>359</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>321</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>340</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>361</v>
-      </c>
       <c r="AM5" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AN5" t="n">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="AO5" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="AP5" t="n">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AQ5" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AR5" t="n">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="AS5" t="n">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="AT5" t="n">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AU5" t="n">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="AV5" t="n">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="AW5" t="n">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="AX5" t="n">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="AY5" t="n">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AZ5" t="n">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="BA5" t="n">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="BB5" t="n">
-        <v>500</v>
+        <v>427</v>
       </c>
       <c r="BC5" t="n">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="BD5" t="n">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="BE5" t="n">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="BF5" t="n">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="BG5" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="BH5" t="n">
-        <v>558</v>
+        <v>490</v>
       </c>
       <c r="BI5" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6">
@@ -1399,148 +1399,148 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="O6" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P6" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q6" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="R6" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="S6" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="T6" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="U6" t="n">
+        <v>73</v>
+      </c>
+      <c r="V6" t="n">
         <v>79</v>
       </c>
-      <c r="V6" t="n">
-        <v>91</v>
-      </c>
       <c r="W6" t="n">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="X6" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Z6" t="n">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="AA6" t="n">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AB6" t="n">
+        <v>192</v>
+      </c>
+      <c r="AC6" t="n">
         <v>193</v>
       </c>
-      <c r="AC6" t="n">
-        <v>187</v>
-      </c>
       <c r="AD6" t="n">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="AE6" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AF6" t="n">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="AG6" t="n">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AH6" t="n">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="AI6" t="n">
-        <v>353</v>
+        <v>295</v>
       </c>
       <c r="AJ6" t="n">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="AK6" t="n">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="AL6" t="n">
-        <v>530</v>
+        <v>421</v>
       </c>
       <c r="AM6" t="n">
-        <v>529</v>
+        <v>414</v>
       </c>
       <c r="AN6" t="n">
-        <v>569</v>
+        <v>477</v>
       </c>
       <c r="AO6" t="n">
-        <v>545</v>
+        <v>493</v>
       </c>
       <c r="AP6" t="n">
-        <v>562</v>
+        <v>501</v>
       </c>
       <c r="AQ6" t="n">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="AR6" t="n">
-        <v>640</v>
+        <v>678</v>
       </c>
       <c r="AS6" t="n">
+        <v>656</v>
+      </c>
+      <c r="AT6" t="n">
         <v>685</v>
       </c>
-      <c r="AT6" t="n">
-        <v>792</v>
-      </c>
       <c r="AU6" t="n">
-        <v>868</v>
+        <v>721</v>
       </c>
       <c r="AV6" t="n">
-        <v>891</v>
+        <v>815</v>
       </c>
       <c r="AW6" t="n">
-        <v>913</v>
+        <v>784</v>
       </c>
       <c r="AX6" t="n">
-        <v>1158</v>
+        <v>967</v>
       </c>
       <c r="AY6" t="n">
-        <v>1186</v>
+        <v>943</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1223</v>
+        <v>1018</v>
       </c>
       <c r="BA6" t="n">
-        <v>1168</v>
+        <v>1031</v>
       </c>
       <c r="BB6" t="n">
-        <v>1212</v>
+        <v>1092</v>
       </c>
       <c r="BC6" t="n">
+        <v>1301</v>
+      </c>
+      <c r="BD6" t="n">
         <v>1331</v>
       </c>
-      <c r="BD6" t="n">
-        <v>1334</v>
-      </c>
       <c r="BE6" t="n">
-        <v>1429</v>
+        <v>1341</v>
       </c>
       <c r="BF6" t="n">
-        <v>1555</v>
+        <v>1467</v>
       </c>
       <c r="BG6" t="n">
-        <v>1687</v>
+        <v>1539</v>
       </c>
       <c r="BH6" t="n">
-        <v>1806</v>
+        <v>1664</v>
       </c>
       <c r="BI6" t="n">
-        <v>1864</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="7">
@@ -1550,184 +1550,184 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I7" t="n">
+        <v>22</v>
+      </c>
+      <c r="J7" t="n">
+        <v>25</v>
+      </c>
+      <c r="K7" t="n">
         <v>26</v>
       </c>
-      <c r="J7" t="n">
-        <v>36</v>
-      </c>
-      <c r="K7" t="n">
-        <v>31</v>
-      </c>
       <c r="L7" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M7" t="n">
+        <v>38</v>
+      </c>
+      <c r="N7" t="n">
+        <v>28</v>
+      </c>
+      <c r="O7" t="n">
         <v>32</v>
       </c>
-      <c r="N7" t="n">
-        <v>41</v>
-      </c>
-      <c r="O7" t="n">
-        <v>47</v>
-      </c>
       <c r="P7" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q7" t="n">
         <v>34</v>
       </c>
       <c r="R7" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S7" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="T7" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="U7" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="W7" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X7" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Y7" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Z7" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AA7" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>59</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>68</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>68</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>73</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>78</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>77</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>86</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>61</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>63</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>78</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>71</v>
+      </c>
+      <c r="AR7" t="n">
         <v>67</v>
       </c>
-      <c r="AB7" t="n">
-        <v>61</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>72</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>76</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>62</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AS7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>71</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>89</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>77</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>99</v>
+      </c>
+      <c r="AX7" t="n">
         <v>70</v>
       </c>
-      <c r="AG7" t="n">
-        <v>62</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AY7" t="n">
+        <v>68</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>84</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>83</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>85</v>
+      </c>
+      <c r="BC7" t="n">
         <v>54</v>
       </c>
-      <c r="AI7" t="n">
-        <v>71</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>76</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>71</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>88</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>79</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>79</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>74</v>
-      </c>
-      <c r="AS7" t="n">
+      <c r="BD7" t="n">
+        <v>75</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>96</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>93</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>89</v>
+      </c>
+      <c r="BH7" t="n">
         <v>83</v>
       </c>
-      <c r="AT7" t="n">
-        <v>61</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>59</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>69</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>79</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>91</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>83</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>93</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>93</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>102</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>88</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>93</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>82</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>75</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>92</v>
-      </c>
       <c r="BI7" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1737,22 +1737,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1782,16 +1782,16 @@
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1800,16 +1800,16 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8" t="n">
         <v>1</v>
@@ -1818,25 +1818,25 @@
         <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
@@ -1845,28 +1845,28 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -1878,43 +1878,43 @@
         <v>0</v>
       </c>
       <c r="AW8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD8" t="n">
         <v>3</v>
       </c>
-      <c r="AX8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC8" t="n">
+      <c r="BE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
         <v>3</v>
       </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>1</v>
-      </c>
       <c r="BH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1924,184 +1924,184 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
         <v>4</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="n">
         <v>11</v>
       </c>
-      <c r="O9" t="n">
-        <v>10</v>
-      </c>
-      <c r="P9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
       <c r="R9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S9" t="n">
         <v>9</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W9" t="n">
         <v>8</v>
       </c>
       <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
         <v>10</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA9" t="n">
         <v>14</v>
       </c>
-      <c r="Z9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="AD9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH9" t="n">
         <v>17</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR9" t="n">
         <v>10</v>
       </c>
-      <c r="AM9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AS9" t="n">
         <v>18</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>14</v>
       </c>
       <c r="AT9" t="n">
         <v>10</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AV9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW9" t="n">
         <v>20</v>
       </c>
-      <c r="AW9" t="n">
-        <v>17</v>
-      </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY9" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC9" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="BD9" t="n">
         <v>16</v>
       </c>
       <c r="BE9" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BF9" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BG9" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="BH9" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BI9" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -2111,184 +2111,184 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" t="n">
         <v>9</v>
       </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
       <c r="G10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" t="n">
         <v>18</v>
       </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
       <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>22</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17</v>
+      </c>
+      <c r="L10" t="n">
+        <v>21</v>
+      </c>
+      <c r="M10" t="n">
+        <v>33</v>
+      </c>
+      <c r="N10" t="n">
         <v>20</v>
       </c>
-      <c r="J10" t="n">
+      <c r="O10" t="n">
+        <v>25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>23</v>
+      </c>
+      <c r="R10" t="n">
+        <v>29</v>
+      </c>
+      <c r="S10" t="n">
+        <v>23</v>
+      </c>
+      <c r="T10" t="n">
+        <v>36</v>
+      </c>
+      <c r="U10" t="n">
+        <v>23</v>
+      </c>
+      <c r="V10" t="n">
         <v>28</v>
-      </c>
-      <c r="K10" t="n">
-        <v>25</v>
-      </c>
-      <c r="L10" t="n">
-        <v>23</v>
-      </c>
-      <c r="M10" t="n">
-        <v>25</v>
-      </c>
-      <c r="N10" t="n">
-        <v>30</v>
-      </c>
-      <c r="O10" t="n">
-        <v>35</v>
-      </c>
-      <c r="P10" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>28</v>
-      </c>
-      <c r="R10" t="n">
-        <v>34</v>
-      </c>
-      <c r="S10" t="n">
-        <v>28</v>
-      </c>
-      <c r="T10" t="n">
-        <v>33</v>
-      </c>
-      <c r="U10" t="n">
-        <v>30</v>
-      </c>
-      <c r="V10" t="n">
-        <v>40</v>
       </c>
       <c r="W10" t="n">
         <v>36</v>
       </c>
       <c r="X10" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>52</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>61</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>53</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>61</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>58</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>53</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN10" t="n">
         <v>41</v>
       </c>
-      <c r="Z10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>56</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>61</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>63</v>
-      </c>
-      <c r="AM10" t="n">
+      <c r="AO10" t="n">
+        <v>47</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>58</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>52</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>66</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>58</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>61</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>57</v>
       </c>
       <c r="AR10" t="n">
         <v>50</v>
       </c>
       <c r="AS10" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AT10" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AU10" t="n">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="AV10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>76</v>
+      </c>
+      <c r="AX10" t="n">
         <v>46</v>
       </c>
-      <c r="AW10" t="n">
-        <v>52</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>42</v>
-      </c>
       <c r="AY10" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AZ10" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="BA10" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="BB10" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="BC10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>54</v>
+      </c>
+      <c r="BE10" t="n">
         <v>70</v>
       </c>
-      <c r="BD10" t="n">
-        <v>70</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>72</v>
-      </c>
       <c r="BF10" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="BG10" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="BH10" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="BI10" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2346,88 +2346,88 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W11" t="n">
         <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AO11" t="n">
         <v>3</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>4</v>
@@ -2436,46 +2436,46 @@
         <v>5</v>
       </c>
       <c r="AV11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BB11" t="n">
         <v>5</v>
       </c>
       <c r="BC11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BD11" t="n">
         <v>2</v>
       </c>
       <c r="BE11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI11" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -2485,184 +2485,184 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
+        <v>26</v>
+      </c>
+      <c r="I12" t="n">
         <v>21</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
+        <v>35</v>
+      </c>
+      <c r="K12" t="n">
+        <v>30</v>
+      </c>
+      <c r="L12" t="n">
         <v>29</v>
-      </c>
-      <c r="J12" t="n">
-        <v>28</v>
-      </c>
-      <c r="K12" t="n">
-        <v>39</v>
-      </c>
-      <c r="L12" t="n">
-        <v>34</v>
       </c>
       <c r="M12" t="n">
         <v>33</v>
       </c>
       <c r="N12" t="n">
+        <v>41</v>
+      </c>
+      <c r="O12" t="n">
+        <v>40</v>
+      </c>
+      <c r="P12" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q12" t="n">
         <v>37</v>
       </c>
-      <c r="O12" t="n">
+      <c r="R12" t="n">
+        <v>36</v>
+      </c>
+      <c r="S12" t="n">
+        <v>45</v>
+      </c>
+      <c r="T12" t="n">
+        <v>56</v>
+      </c>
+      <c r="U12" t="n">
+        <v>44</v>
+      </c>
+      <c r="V12" t="n">
+        <v>46</v>
+      </c>
+      <c r="W12" t="n">
+        <v>49</v>
+      </c>
+      <c r="X12" t="n">
+        <v>58</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA12" t="n">
         <v>39</v>
       </c>
-      <c r="P12" t="n">
-        <v>41</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>32</v>
-      </c>
-      <c r="R12" t="n">
-        <v>52</v>
-      </c>
-      <c r="S12" t="n">
-        <v>43</v>
-      </c>
-      <c r="T12" t="n">
-        <v>49</v>
-      </c>
-      <c r="U12" t="n">
-        <v>47</v>
-      </c>
-      <c r="V12" t="n">
-        <v>47</v>
-      </c>
-      <c r="W12" t="n">
-        <v>72</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="AB12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>56</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>53</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>57</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH12" t="n">
         <v>61</v>
       </c>
-      <c r="Y12" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>64</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>72</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>59</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>54</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>71</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>82</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>72</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>82</v>
-      </c>
       <c r="AI12" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="AJ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>84</v>
+      </c>
+      <c r="AL12" t="n">
         <v>70</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AM12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>73</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>57</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>69</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>53</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AU12" t="n">
         <v>91</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AV12" t="n">
+        <v>74</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>84</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>69</v>
       </c>
-      <c r="AM12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>87</v>
-      </c>
-      <c r="AP12" t="n">
+      <c r="BA12" t="n">
+        <v>91</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>69</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>79</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>79</v>
+      </c>
+      <c r="BF12" t="n">
         <v>94</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>57</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>84</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>76</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>76</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>68</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>84</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>99</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>84</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>72</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>97</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>100</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>76</v>
-      </c>
-      <c r="BF12" t="n">
+      <c r="BG12" t="n">
         <v>86</v>
       </c>
-      <c r="BG12" t="n">
-        <v>75</v>
-      </c>
       <c r="BH12" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="BI12" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2699,76 +2699,76 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -2777,19 +2777,19 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -2801,31 +2801,31 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV13" t="n">
         <v>1</v>
       </c>
       <c r="AW13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX13" t="n">
         <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB13" t="n">
         <v>1</v>
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="BE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
         <v>1</v>
@@ -2859,184 +2859,184 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
       </c>
       <c r="K14" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>8</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
         <v>9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>9</v>
-      </c>
-      <c r="P14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>15</v>
-      </c>
-      <c r="S14" t="n">
-        <v>8</v>
       </c>
       <c r="T14" t="n">
         <v>13</v>
       </c>
       <c r="U14" t="n">
+        <v>13</v>
+      </c>
+      <c r="V14" t="n">
+        <v>15</v>
+      </c>
+      <c r="W14" t="n">
+        <v>11</v>
+      </c>
+      <c r="X14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE14" t="n">
         <v>9</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AF14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
         <v>9</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AI14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL14" t="n">
         <v>13</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AM14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR14" t="n">
         <v>10</v>
       </c>
-      <c r="Y14" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AS14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW14" t="n">
         <v>14</v>
       </c>
-      <c r="AA14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AX14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>19</v>
+      </c>
+      <c r="BC14" t="n">
         <v>10</v>
       </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="BD14" t="n">
+        <v>17</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF14" t="n">
         <v>18</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="BG14" t="n">
+        <v>18</v>
+      </c>
+      <c r="BH14" t="n">
         <v>19</v>
       </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>14</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>21</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>21</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>14</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>16</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>17</v>
-      </c>
       <c r="BI14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -3046,184 +3046,184 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H15" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J15" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
+        <v>24</v>
+      </c>
+      <c r="L15" t="n">
+        <v>19</v>
+      </c>
+      <c r="M15" t="n">
+        <v>27</v>
+      </c>
+      <c r="N15" t="n">
+        <v>32</v>
+      </c>
+      <c r="O15" t="n">
         <v>30</v>
       </c>
-      <c r="L15" t="n">
-        <v>27</v>
-      </c>
-      <c r="M15" t="n">
-        <v>28</v>
-      </c>
-      <c r="N15" t="n">
-        <v>28</v>
-      </c>
-      <c r="O15" t="n">
-        <v>29</v>
-      </c>
       <c r="P15" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Q15" t="n">
         <v>23</v>
       </c>
       <c r="R15" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U15" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="V15" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="W15" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="X15" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Y15" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Z15" t="n">
         <v>45</v>
       </c>
       <c r="AA15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>43</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>47</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>57</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>49</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>47</v>
+      </c>
+      <c r="AN15" t="n">
         <v>53</v>
       </c>
-      <c r="AB15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AO15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>62</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>72</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>52</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>63</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>58</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>64</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>48</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>58</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>50</v>
+      </c>
+      <c r="BD15" t="n">
         <v>54</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>58</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>57</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>57</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>53</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>63</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>54</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>68</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>58</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>62</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>61</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>56</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>56</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>64</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>43</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>58</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>69</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>54</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>53</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>66</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>74</v>
       </c>
       <c r="BE15" t="n">
         <v>59</v>
       </c>
       <c r="BF15" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="BG15" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="BH15" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="BI15" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -3269,148 +3269,148 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5</v>
+      </c>
+      <c r="U16" t="n">
         <v>3</v>
       </c>
-      <c r="T16" t="n">
-        <v>2</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
         <v>4</v>
       </c>
-      <c r="V16" t="n">
+      <c r="Y16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="n">
         <v>6</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AD16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF16" t="n">
         <v>7</v>
       </c>
-      <c r="X16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="AG16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK16" t="n">
         <v>6</v>
       </c>
-      <c r="Z16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>9</v>
-      </c>
       <c r="AL16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM16" t="n">
         <v>6</v>
       </c>
       <c r="AN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR16" t="n">
         <v>7</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AS16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX16" t="n">
         <v>7</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AY16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE16" t="n">
         <v>8</v>
       </c>
-      <c r="AQ16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB16" t="n">
+      <c r="BF16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG16" t="n">
         <v>4</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>13</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>6</v>
       </c>
       <c r="BH16" t="n">
         <v>8</v>
       </c>
       <c r="BI16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -3420,184 +3420,184 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
         <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J17" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K17" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L17" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N17" t="n">
+        <v>53</v>
+      </c>
+      <c r="O17" t="n">
+        <v>56</v>
+      </c>
+      <c r="P17" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>67</v>
+      </c>
+      <c r="R17" t="n">
         <v>69</v>
       </c>
-      <c r="O17" t="n">
-        <v>59</v>
-      </c>
-      <c r="P17" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>83</v>
-      </c>
-      <c r="R17" t="n">
-        <v>64</v>
-      </c>
       <c r="S17" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T17" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U17" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="V17" t="n">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="W17" t="n">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="X17" t="n">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="Y17" t="n">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="Z17" t="n">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="AA17" t="n">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="AB17" t="n">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="AC17" t="n">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="AD17" t="n">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="AE17" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AF17" t="n">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="AG17" t="n">
+        <v>268</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>287</v>
+      </c>
+      <c r="AI17" t="n">
         <v>288</v>
       </c>
-      <c r="AH17" t="n">
-        <v>341</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>373</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="AK17" t="n">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="AL17" t="n">
-        <v>483</v>
+        <v>399</v>
       </c>
       <c r="AM17" t="n">
-        <v>491</v>
+        <v>376</v>
       </c>
       <c r="AN17" t="n">
-        <v>486</v>
+        <v>407</v>
       </c>
       <c r="AO17" t="n">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="AP17" t="n">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="AQ17" t="n">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="AR17" t="n">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="AS17" t="n">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="AT17" t="n">
         <v>626</v>
       </c>
       <c r="AU17" t="n">
-        <v>684</v>
+        <v>638</v>
       </c>
       <c r="AV17" t="n">
-        <v>746</v>
+        <v>698</v>
       </c>
       <c r="AW17" t="n">
-        <v>797</v>
+        <v>680</v>
       </c>
       <c r="AX17" t="n">
-        <v>867</v>
+        <v>736</v>
       </c>
       <c r="AY17" t="n">
-        <v>935</v>
+        <v>737</v>
       </c>
       <c r="AZ17" t="n">
-        <v>975</v>
+        <v>776</v>
       </c>
       <c r="BA17" t="n">
-        <v>941</v>
+        <v>782</v>
       </c>
       <c r="BB17" t="n">
-        <v>963</v>
+        <v>825</v>
       </c>
       <c r="BC17" t="n">
-        <v>993</v>
+        <v>908</v>
       </c>
       <c r="BD17" t="n">
-        <v>1016</v>
+        <v>902</v>
       </c>
       <c r="BE17" t="n">
-        <v>1078</v>
+        <v>959</v>
       </c>
       <c r="BF17" t="n">
-        <v>1131</v>
+        <v>1104</v>
       </c>
       <c r="BG17" t="n">
-        <v>1134</v>
+        <v>1191</v>
       </c>
       <c r="BH17" t="n">
-        <v>1111</v>
+        <v>1210</v>
       </c>
       <c r="BI17" t="n">
-        <v>1221</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="18">
@@ -3631,160 +3631,160 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
         <v>3</v>
       </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>0</v>
-      </c>
       <c r="BI18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3794,55 +3794,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>3</v>
       </c>
       <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="n">
         <v>3</v>
       </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2</v>
-      </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" t="n">
         <v>5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6</v>
       </c>
       <c r="K19" t="n">
         <v>7</v>
       </c>
       <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" t="n">
         <v>9</v>
       </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q19" t="n">
         <v>7</v>
       </c>
-      <c r="O19" t="n">
+      <c r="R19" t="n">
         <v>8</v>
-      </c>
-      <c r="P19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>9</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
       </c>
       <c r="S19" t="n">
         <v>9</v>
@@ -3851,127 +3851,127 @@
         <v>9</v>
       </c>
       <c r="U19" t="n">
+        <v>15</v>
+      </c>
+      <c r="V19" t="n">
+        <v>12</v>
+      </c>
+      <c r="W19" t="n">
+        <v>12</v>
+      </c>
+      <c r="X19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA19" t="n">
         <v>6</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AB19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH19" t="n">
         <v>13</v>
       </c>
-      <c r="W19" t="n">
-        <v>10</v>
-      </c>
-      <c r="X19" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA19" t="n">
+      <c r="AI19" t="n">
         <v>14</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>13</v>
       </c>
       <c r="AJ19" t="n">
         <v>18</v>
       </c>
       <c r="AK19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT19" t="n">
         <v>18</v>
       </c>
-      <c r="AL19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM19" t="n">
+      <c r="AU19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW19" t="n">
         <v>16</v>
       </c>
-      <c r="AN19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO19" t="n">
+      <c r="AX19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>19</v>
+      </c>
+      <c r="BC19" t="n">
         <v>12</v>
       </c>
-      <c r="AP19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="BD19" t="n">
+        <v>12</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG19" t="n">
         <v>13</v>
       </c>
-      <c r="AS19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>13</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>18</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>7</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>17</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>25</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>19</v>
-      </c>
       <c r="BH19" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="BI19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -3981,184 +3981,184 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" t="n">
         <v>16</v>
       </c>
       <c r="I20" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J20" t="n">
+        <v>14</v>
+      </c>
+      <c r="K20" t="n">
+        <v>22</v>
+      </c>
+      <c r="L20" t="n">
+        <v>38</v>
+      </c>
+      <c r="M20" t="n">
+        <v>20</v>
+      </c>
+      <c r="N20" t="n">
+        <v>23</v>
+      </c>
+      <c r="O20" t="n">
+        <v>22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q20" t="n">
         <v>19</v>
       </c>
-      <c r="K20" t="n">
-        <v>25</v>
-      </c>
-      <c r="L20" t="n">
-        <v>31</v>
-      </c>
-      <c r="M20" t="n">
-        <v>24</v>
-      </c>
-      <c r="N20" t="n">
-        <v>28</v>
-      </c>
-      <c r="O20" t="n">
-        <v>27</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
+        <v>29</v>
+      </c>
+      <c r="S20" t="n">
+        <v>34</v>
+      </c>
+      <c r="T20" t="n">
+        <v>35</v>
+      </c>
+      <c r="U20" t="n">
+        <v>29</v>
+      </c>
+      <c r="V20" t="n">
+        <v>26</v>
+      </c>
+      <c r="W20" t="n">
+        <v>32</v>
+      </c>
+      <c r="X20" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z20" t="n">
         <v>33</v>
       </c>
-      <c r="Q20" t="n">
-        <v>39</v>
-      </c>
-      <c r="R20" t="n">
-        <v>39</v>
-      </c>
-      <c r="S20" t="n">
-        <v>37</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="AA20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>43</v>
+      </c>
+      <c r="AC20" t="n">
         <v>38</v>
       </c>
-      <c r="U20" t="n">
-        <v>32</v>
-      </c>
-      <c r="V20" t="n">
+      <c r="AD20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>54</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>53</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI20" t="n">
         <v>44</v>
       </c>
-      <c r="W20" t="n">
-        <v>34</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="AJ20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>52</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>44</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AR20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>58</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>53</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>62</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>48</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>64</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>59</v>
+      </c>
+      <c r="BE20" t="n">
         <v>54</v>
       </c>
-      <c r="Z20" t="n">
-        <v>47</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>43</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>59</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>43</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>52</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>49</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>63</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>56</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>47</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>56</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>49</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>47</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>54</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>69</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>54</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>61</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>64</v>
-      </c>
-      <c r="BA20" t="n">
+      <c r="BF20" t="n">
+        <v>66</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>88</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>58</v>
+      </c>
+      <c r="BI20" t="n">
         <v>57</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>60</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>69</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>72</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>63</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>57</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>61</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>62</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -4204,148 +4204,148 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O21" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P21" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="R21" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="S21" t="n">
+        <v>47</v>
+      </c>
+      <c r="T21" t="n">
         <v>44</v>
       </c>
-      <c r="T21" t="n">
-        <v>42</v>
-      </c>
       <c r="U21" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V21" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W21" t="n">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="X21" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="Y21" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="n">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="AA21" t="n">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="AB21" t="n">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="AC21" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AD21" t="n">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="AE21" t="n">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AF21" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="n">
+        <v>204</v>
+      </c>
+      <c r="AH21" t="n">
         <v>228</v>
       </c>
-      <c r="AH21" t="n">
-        <v>274</v>
-      </c>
       <c r="AI21" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="AJ21" t="n">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="AK21" t="n">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="AL21" t="n">
-        <v>414</v>
+        <v>323</v>
       </c>
       <c r="AM21" t="n">
-        <v>419</v>
+        <v>314</v>
       </c>
       <c r="AN21" t="n">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="AO21" t="n">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="AP21" t="n">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="AQ21" t="n">
+        <v>468</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>485</v>
+      </c>
+      <c r="AS21" t="n">
         <v>476</v>
       </c>
-      <c r="AR21" t="n">
-        <v>498</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>516</v>
-      </c>
       <c r="AT21" t="n">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="AU21" t="n">
-        <v>611</v>
+        <v>561</v>
       </c>
       <c r="AV21" t="n">
-        <v>673</v>
+        <v>620</v>
       </c>
       <c r="AW21" t="n">
-        <v>704</v>
+        <v>598</v>
       </c>
       <c r="AX21" t="n">
-        <v>802</v>
+        <v>677</v>
       </c>
       <c r="AY21" t="n">
-        <v>850</v>
+        <v>667</v>
       </c>
       <c r="AZ21" t="n">
-        <v>897</v>
+        <v>703</v>
       </c>
       <c r="BA21" t="n">
-        <v>870</v>
+        <v>706</v>
       </c>
       <c r="BB21" t="n">
-        <v>892</v>
+        <v>757</v>
       </c>
       <c r="BC21" t="n">
-        <v>905</v>
+        <v>832</v>
       </c>
       <c r="BD21" t="n">
-        <v>937</v>
+        <v>830</v>
       </c>
       <c r="BE21" t="n">
-        <v>996</v>
+        <v>884</v>
       </c>
       <c r="BF21" t="n">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="BG21" t="n">
-        <v>1052</v>
+        <v>1090</v>
       </c>
       <c r="BH21" t="n">
-        <v>1038</v>
+        <v>1129</v>
       </c>
       <c r="BI21" t="n">
-        <v>1138</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="22">
@@ -4355,184 +4355,184 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140400</v>
+        <v>93600</v>
       </c>
       <c r="C22" t="n">
-        <v>111600</v>
+        <v>122400</v>
       </c>
       <c r="D22" t="n">
-        <v>147600</v>
+        <v>172800</v>
       </c>
       <c r="E22" t="n">
-        <v>136800</v>
+        <v>198000</v>
       </c>
       <c r="F22" t="n">
-        <v>79200</v>
+        <v>172800</v>
       </c>
       <c r="G22" t="n">
-        <v>205200</v>
+        <v>219600</v>
       </c>
       <c r="H22" t="n">
-        <v>194400</v>
+        <v>237600</v>
       </c>
       <c r="I22" t="n">
+        <v>262800</v>
+      </c>
+      <c r="J22" t="n">
         <v>284400</v>
       </c>
-      <c r="J22" t="n">
-        <v>327600</v>
-      </c>
       <c r="K22" t="n">
-        <v>370800</v>
+        <v>306000</v>
       </c>
       <c r="L22" t="n">
-        <v>370800</v>
+        <v>345600</v>
       </c>
       <c r="M22" t="n">
-        <v>338400</v>
+        <v>349200</v>
       </c>
       <c r="N22" t="n">
+        <v>439200</v>
+      </c>
+      <c r="O22" t="n">
+        <v>460800</v>
+      </c>
+      <c r="P22" t="n">
+        <v>518400</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>496800</v>
+      </c>
+      <c r="R22" t="n">
         <v>529200</v>
       </c>
-      <c r="O22" t="n">
-        <v>522000</v>
-      </c>
-      <c r="P22" t="n">
-        <v>547200</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>536400</v>
-      </c>
-      <c r="R22" t="n">
-        <v>579600</v>
-      </c>
       <c r="S22" t="n">
-        <v>619200</v>
+        <v>612000</v>
       </c>
       <c r="T22" t="n">
-        <v>637200</v>
+        <v>687600</v>
       </c>
       <c r="U22" t="n">
-        <v>662400</v>
+        <v>648000</v>
       </c>
       <c r="V22" t="n">
-        <v>806400</v>
+        <v>684000</v>
       </c>
       <c r="W22" t="n">
-        <v>900000</v>
+        <v>756000</v>
       </c>
       <c r="X22" t="n">
-        <v>925200</v>
+        <v>824400</v>
       </c>
       <c r="Y22" t="n">
-        <v>961200</v>
+        <v>774000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1238400</v>
+        <v>982800</v>
       </c>
       <c r="AA22" t="n">
-        <v>1270800</v>
+        <v>907200</v>
       </c>
       <c r="AB22" t="n">
-        <v>1353600</v>
+        <v>1026000</v>
       </c>
       <c r="AC22" t="n">
-        <v>1288800</v>
+        <v>1080000</v>
       </c>
       <c r="AD22" t="n">
-        <v>1364400</v>
+        <v>1101600</v>
       </c>
       <c r="AE22" t="n">
-        <v>1425600</v>
+        <v>1440000</v>
       </c>
       <c r="AF22" t="n">
-        <v>1472400</v>
+        <v>1515600</v>
       </c>
       <c r="AG22" t="n">
-        <v>1519200</v>
+        <v>1450800</v>
       </c>
       <c r="AH22" t="n">
-        <v>1717200</v>
+        <v>1497600</v>
       </c>
       <c r="AI22" t="n">
-        <v>1854000</v>
+        <v>1533600</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1911600</v>
+        <v>1764000</v>
       </c>
       <c r="AK22" t="n">
-        <v>1987200</v>
+        <v>1699200</v>
       </c>
       <c r="AL22" t="n">
-        <v>2260800</v>
+        <v>1965600</v>
       </c>
       <c r="AM22" t="n">
-        <v>2365200</v>
+        <v>1904400</v>
       </c>
       <c r="AN22" t="n">
-        <v>2354400</v>
+        <v>1947600</v>
       </c>
       <c r="AO22" t="n">
-        <v>2242800</v>
+        <v>1936800</v>
       </c>
       <c r="AP22" t="n">
-        <v>2340000</v>
+        <v>2127600</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2541600</v>
+        <v>2412000</v>
       </c>
       <c r="AR22" t="n">
-        <v>2498400</v>
+        <v>2350800</v>
       </c>
       <c r="AS22" t="n">
-        <v>2678400</v>
+        <v>2466000</v>
       </c>
       <c r="AT22" t="n">
-        <v>2746800</v>
+        <v>2815200</v>
       </c>
       <c r="AU22" t="n">
-        <v>2948400</v>
+        <v>2944800</v>
       </c>
       <c r="AV22" t="n">
-        <v>3294000</v>
+        <v>3056400</v>
       </c>
       <c r="AW22" t="n">
-        <v>3423600</v>
+        <v>3106800</v>
       </c>
       <c r="AX22" t="n">
-        <v>3582000</v>
+        <v>3189600</v>
       </c>
       <c r="AY22" t="n">
-        <v>3996000</v>
+        <v>3258000</v>
       </c>
       <c r="AZ22" t="n">
-        <v>4165200</v>
+        <v>3344400</v>
       </c>
       <c r="BA22" t="n">
-        <v>4024800</v>
+        <v>3441600</v>
       </c>
       <c r="BB22" t="n">
-        <v>4060800</v>
+        <v>3567600</v>
       </c>
       <c r="BC22" t="n">
-        <v>4291200</v>
+        <v>3711600</v>
       </c>
       <c r="BD22" t="n">
-        <v>4334400</v>
+        <v>3801600</v>
       </c>
       <c r="BE22" t="n">
-        <v>4489200</v>
+        <v>4082400</v>
       </c>
       <c r="BF22" t="n">
-        <v>4676400</v>
+        <v>4647600</v>
       </c>
       <c r="BG22" t="n">
-        <v>4622400</v>
+        <v>4917600</v>
       </c>
       <c r="BH22" t="n">
-        <v>4654800</v>
+        <v>5025600</v>
       </c>
       <c r="BI22" t="n">
-        <v>4975200</v>
+        <v>5108400</v>
       </c>
     </row>
     <row r="23">
@@ -4542,184 +4542,184 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872208</v>
+        <v>580780.7999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>609590.4000000001</v>
+        <v>629807.9999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>754675.2000000004</v>
+        <v>808521.5999999996</v>
       </c>
       <c r="E23" t="n">
-        <v>711129.5999999996</v>
+        <v>1236067.2</v>
       </c>
       <c r="F23" t="n">
-        <v>327868.8000000007</v>
+        <v>1246358.399999999</v>
       </c>
       <c r="G23" t="n">
-        <v>1277088</v>
+        <v>1270579.200000002</v>
       </c>
       <c r="H23" t="n">
-        <v>1361596.800000001</v>
+        <v>1467503.999999998</v>
       </c>
       <c r="I23" t="n">
-        <v>1712495.999999999</v>
+        <v>1638287.999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>1702204.800000003</v>
+        <v>1572825.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2138572.800000006</v>
+        <v>1868246.399999999</v>
       </c>
       <c r="L23" t="n">
-        <v>2245958.399999999</v>
+        <v>2361484.800000001</v>
       </c>
       <c r="M23" t="n">
-        <v>1877951.999999998</v>
+        <v>1751088</v>
       </c>
       <c r="N23" t="n">
-        <v>3367968.000000006</v>
+        <v>2892134.400000002</v>
       </c>
       <c r="O23" t="n">
-        <v>3105868.800000008</v>
+        <v>3022847.999999989</v>
       </c>
       <c r="P23" t="n">
-        <v>3947481.599999979</v>
+        <v>3099283.199999973</v>
       </c>
       <c r="Q23" t="n">
-        <v>3347318.399999987</v>
+        <v>3378259.199999996</v>
       </c>
       <c r="R23" t="n">
-        <v>3625478.399999987</v>
+        <v>3431433.599999983</v>
       </c>
       <c r="S23" t="n">
-        <v>4157750.399999965</v>
+        <v>4256620.800000057</v>
       </c>
       <c r="T23" t="n">
-        <v>4228185.600000001</v>
+        <v>4448736.000000007</v>
       </c>
       <c r="U23" t="n">
-        <v>4693718.400000006</v>
+        <v>4622697.600000001</v>
       </c>
       <c r="V23" t="n">
-        <v>5483798.399999969</v>
+        <v>4536278.400000066</v>
       </c>
       <c r="W23" t="n">
-        <v>6245222.399999917</v>
+        <v>5028777.599999994</v>
       </c>
       <c r="X23" t="n">
-        <v>6233155.200000025</v>
+        <v>5156236.800000019</v>
       </c>
       <c r="Y23" t="n">
-        <v>6576489.599999964</v>
+        <v>4867487.99999997</v>
       </c>
       <c r="Z23" t="n">
-        <v>9225110.399999961</v>
+        <v>6822595.200000003</v>
       </c>
       <c r="AA23" t="n">
-        <v>8890655.999999985</v>
+        <v>6079171.200000077</v>
       </c>
       <c r="AB23" t="n">
-        <v>9807523.200000137</v>
+        <v>7697750.400000051</v>
       </c>
       <c r="AC23" t="n">
-        <v>8826892.799999997</v>
+        <v>8146118.399999961</v>
       </c>
       <c r="AD23" t="n">
-        <v>9674352.000000179</v>
+        <v>7979625.600000098</v>
       </c>
       <c r="AE23" t="n">
-        <v>10770143.99999993</v>
+        <v>10022524.80000009</v>
       </c>
       <c r="AF23" t="n">
-        <v>10661212.79999992</v>
+        <v>10389350.39999995</v>
       </c>
       <c r="AG23" t="n">
-        <v>11732774.39999983</v>
+        <v>10667798.40000007</v>
       </c>
       <c r="AH23" t="n">
-        <v>13165718.40000036</v>
+        <v>10543103.99999969</v>
       </c>
       <c r="AI23" t="n">
-        <v>13886841.60000035</v>
+        <v>11494224.00000012</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13909343.99999985</v>
+        <v>12981456</v>
       </c>
       <c r="AK23" t="n">
-        <v>14620415.99999988</v>
+        <v>11677056.00000033</v>
       </c>
       <c r="AL23" t="n">
-        <v>17001907.20000008</v>
+        <v>14860060.80000004</v>
       </c>
       <c r="AM23" t="n">
-        <v>18500351.99999982</v>
+        <v>13770940.8000001</v>
       </c>
       <c r="AN23" t="n">
-        <v>17919494.3999998</v>
+        <v>15338188.8000001</v>
       </c>
       <c r="AO23" t="n">
-        <v>16880812.80000022</v>
+        <v>15105494.40000015</v>
       </c>
       <c r="AP23" t="n">
-        <v>18100051.19999897</v>
+        <v>16266614.3999998</v>
       </c>
       <c r="AQ23" t="n">
-        <v>20031465.59999996</v>
+        <v>18689807.99999937</v>
       </c>
       <c r="AR23" t="n">
-        <v>18814771.19999999</v>
+        <v>17753337.60000008</v>
       </c>
       <c r="AS23" t="n">
-        <v>20960188.80000067</v>
+        <v>20044031.9999994</v>
       </c>
       <c r="AT23" t="n">
-        <v>22348742.3999998</v>
+        <v>22022236.79999989</v>
       </c>
       <c r="AU23" t="n">
-        <v>24146188.799999</v>
+        <v>23193475.19999903</v>
       </c>
       <c r="AV23" t="n">
-        <v>26197689.59999985</v>
+        <v>24057484.79999983</v>
       </c>
       <c r="AW23" t="n">
-        <v>26394643.20000023</v>
+        <v>22962316.80000019</v>
       </c>
       <c r="AX23" t="n">
-        <v>28832246.40000033</v>
+        <v>25641849.60000062</v>
       </c>
       <c r="AY23" t="n">
-        <v>32523369.6000002</v>
+        <v>26644982.39999926</v>
       </c>
       <c r="AZ23" t="n">
-        <v>34435007.99999881</v>
+        <v>26615740.79999954</v>
       </c>
       <c r="BA23" t="n">
-        <v>32093327.99999821</v>
+        <v>28011311.9999994</v>
       </c>
       <c r="BB23" t="n">
-        <v>32442595.20000124</v>
+        <v>28714233.59999967</v>
       </c>
       <c r="BC23" t="n">
-        <v>34664755.19999874</v>
+        <v>30310780.8000015</v>
       </c>
       <c r="BD23" t="n">
-        <v>34266067.19999874</v>
+        <v>29498083.20000112</v>
       </c>
       <c r="BE23" t="n">
-        <v>36703488.00000131</v>
+        <v>33635807.99999905</v>
       </c>
       <c r="BF23" t="n">
-        <v>38337571.19999814</v>
+        <v>37366656.00000393</v>
       </c>
       <c r="BG23" t="n">
-        <v>38418134.39999759</v>
+        <v>40777910.39999676</v>
       </c>
       <c r="BH23" t="n">
-        <v>37406428.79999959</v>
+        <v>41074262.40000153</v>
       </c>
       <c r="BI23" t="n">
-        <v>39920812.80000067</v>
+        <v>39802060.79999876</v>
       </c>
     </row>
     <row r="24">
@@ -4729,184 +4729,184 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18000</v>
+        <v>16800</v>
       </c>
       <c r="C24" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="D24" t="n">
-        <v>20000</v>
+        <v>31200</v>
       </c>
       <c r="E24" t="n">
-        <v>36000</v>
+        <v>45600</v>
       </c>
       <c r="F24" t="n">
-        <v>10000</v>
+        <v>57600</v>
       </c>
       <c r="G24" t="n">
-        <v>38000</v>
+        <v>45600</v>
       </c>
       <c r="H24" t="n">
-        <v>40000</v>
+        <v>45600</v>
       </c>
       <c r="I24" t="n">
-        <v>48000</v>
+        <v>72000</v>
       </c>
       <c r="J24" t="n">
-        <v>54000</v>
+        <v>45600</v>
       </c>
       <c r="K24" t="n">
-        <v>66000</v>
+        <v>69600</v>
       </c>
       <c r="L24" t="n">
-        <v>80000</v>
+        <v>103200</v>
       </c>
       <c r="M24" t="n">
-        <v>58000</v>
+        <v>62400</v>
       </c>
       <c r="N24" t="n">
-        <v>138000</v>
+        <v>127200</v>
       </c>
       <c r="O24" t="n">
-        <v>118000</v>
+        <v>134400</v>
       </c>
       <c r="P24" t="n">
-        <v>154000</v>
+        <v>172800</v>
       </c>
       <c r="Q24" t="n">
-        <v>166000</v>
+        <v>160800</v>
       </c>
       <c r="R24" t="n">
-        <v>128000</v>
+        <v>165600</v>
       </c>
       <c r="S24" t="n">
-        <v>180000</v>
+        <v>218400</v>
       </c>
       <c r="T24" t="n">
-        <v>178000</v>
+        <v>211200</v>
       </c>
       <c r="U24" t="n">
-        <v>196000</v>
+        <v>242400</v>
       </c>
       <c r="V24" t="n">
-        <v>252000</v>
+        <v>247200</v>
       </c>
       <c r="W24" t="n">
+        <v>273600</v>
+      </c>
+      <c r="X24" t="n">
         <v>264000</v>
       </c>
-      <c r="X24" t="n">
-        <v>292000</v>
-      </c>
       <c r="Y24" t="n">
-        <v>294000</v>
+        <v>290400</v>
       </c>
       <c r="Z24" t="n">
-        <v>462000</v>
+        <v>362400</v>
       </c>
       <c r="AA24" t="n">
-        <v>428000</v>
+        <v>369600</v>
       </c>
       <c r="AB24" t="n">
-        <v>512000</v>
+        <v>458400</v>
       </c>
       <c r="AC24" t="n">
-        <v>464000</v>
+        <v>480000</v>
       </c>
       <c r="AD24" t="n">
-        <v>452000</v>
+        <v>465600</v>
       </c>
       <c r="AE24" t="n">
-        <v>526000</v>
+        <v>643200</v>
       </c>
       <c r="AF24" t="n">
-        <v>514000</v>
+        <v>648000</v>
       </c>
       <c r="AG24" t="n">
-        <v>576000</v>
+        <v>643200</v>
       </c>
       <c r="AH24" t="n">
-        <v>682000</v>
+        <v>688800</v>
       </c>
       <c r="AI24" t="n">
-        <v>746000</v>
+        <v>691200</v>
       </c>
       <c r="AJ24" t="n">
-        <v>732000</v>
+        <v>840000</v>
       </c>
       <c r="AK24" t="n">
-        <v>762000</v>
+        <v>744000</v>
       </c>
       <c r="AL24" t="n">
-        <v>966000</v>
+        <v>957600</v>
       </c>
       <c r="AM24" t="n">
-        <v>982000</v>
+        <v>902400</v>
       </c>
       <c r="AN24" t="n">
-        <v>972000</v>
+        <v>976800</v>
       </c>
       <c r="AO24" t="n">
-        <v>914000</v>
+        <v>979200</v>
       </c>
       <c r="AP24" t="n">
-        <v>952000</v>
+        <v>1094400</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1084000</v>
+        <v>1272000</v>
       </c>
       <c r="AR24" t="n">
-        <v>1126000</v>
+        <v>1279200</v>
       </c>
       <c r="AS24" t="n">
-        <v>1154000</v>
+        <v>1320000</v>
       </c>
       <c r="AT24" t="n">
-        <v>1252000</v>
+        <v>1502400</v>
       </c>
       <c r="AU24" t="n">
-        <v>1368000</v>
+        <v>1531200</v>
       </c>
       <c r="AV24" t="n">
-        <v>1492000</v>
+        <v>1675200</v>
       </c>
       <c r="AW24" t="n">
-        <v>1594000</v>
+        <v>1632000</v>
       </c>
       <c r="AX24" t="n">
-        <v>1734000</v>
+        <v>1766400</v>
       </c>
       <c r="AY24" t="n">
-        <v>1870000</v>
+        <v>1768800</v>
       </c>
       <c r="AZ24" t="n">
-        <v>1950000</v>
+        <v>1862400</v>
       </c>
       <c r="BA24" t="n">
-        <v>1882000</v>
+        <v>1876800</v>
       </c>
       <c r="BB24" t="n">
-        <v>1926000</v>
+        <v>1980000</v>
       </c>
       <c r="BC24" t="n">
-        <v>1986000</v>
+        <v>2179200</v>
       </c>
       <c r="BD24" t="n">
-        <v>2032000</v>
+        <v>2164800</v>
       </c>
       <c r="BE24" t="n">
-        <v>2156000</v>
+        <v>2301600</v>
       </c>
       <c r="BF24" t="n">
-        <v>2262000</v>
+        <v>2649600</v>
       </c>
       <c r="BG24" t="n">
-        <v>2268000</v>
+        <v>2858400</v>
       </c>
       <c r="BH24" t="n">
-        <v>2222000</v>
+        <v>2904000</v>
       </c>
       <c r="BI24" t="n">
-        <v>2442000</v>
+        <v>2971200</v>
       </c>
     </row>
     <row r="25">
@@ -4916,184 +4916,184 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1030608</v>
+        <v>691180.7999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>739190.4000000001</v>
+        <v>764207.9999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>922275.2000000004</v>
+        <v>1012521.6</v>
       </c>
       <c r="E25" t="n">
-        <v>883929.5999999996</v>
+        <v>1479667.2</v>
       </c>
       <c r="F25" t="n">
-        <v>417068.8000000007</v>
+        <v>1476758.399999999</v>
       </c>
       <c r="G25" t="n">
-        <v>1520288</v>
+        <v>1535779.200000002</v>
       </c>
       <c r="H25" t="n">
-        <v>1595996.800000001</v>
+        <v>1750703.999999998</v>
       </c>
       <c r="I25" t="n">
-        <v>2044895.999999999</v>
+        <v>1973087.999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>2083804.800000003</v>
+        <v>1902825.6</v>
       </c>
       <c r="K25" t="n">
-        <v>2575372.800000006</v>
+        <v>2243846.399999999</v>
       </c>
       <c r="L25" t="n">
-        <v>2696758.399999999</v>
+        <v>2810284.800000001</v>
       </c>
       <c r="M25" t="n">
-        <v>2274351.999999998</v>
+        <v>2162688</v>
       </c>
       <c r="N25" t="n">
-        <v>4035168.000000006</v>
+        <v>3458534.400000002</v>
       </c>
       <c r="O25" t="n">
-        <v>3745868.800000008</v>
+        <v>3618047.999999989</v>
       </c>
       <c r="P25" t="n">
-        <v>4648681.599999979</v>
+        <v>3790483.199999973</v>
       </c>
       <c r="Q25" t="n">
-        <v>4049718.399999987</v>
+        <v>4035859.199999996</v>
       </c>
       <c r="R25" t="n">
-        <v>4333078.399999987</v>
+        <v>4126233.599999983</v>
       </c>
       <c r="S25" t="n">
-        <v>4956950.399999965</v>
+        <v>5087020.800000057</v>
       </c>
       <c r="T25" t="n">
-        <v>5043385.600000001</v>
+        <v>5347536.000000007</v>
       </c>
       <c r="U25" t="n">
-        <v>5552118.400000006</v>
+        <v>5513097.600000001</v>
       </c>
       <c r="V25" t="n">
-        <v>6542198.399999969</v>
+        <v>5467478.400000066</v>
       </c>
       <c r="W25" t="n">
-        <v>7409222.399999917</v>
+        <v>6058377.599999994</v>
       </c>
       <c r="X25" t="n">
-        <v>7450355.200000025</v>
+        <v>6244636.800000019</v>
       </c>
       <c r="Y25" t="n">
-        <v>7831689.599999964</v>
+        <v>5931887.99999997</v>
       </c>
       <c r="Z25" t="n">
-        <v>10925510.39999996</v>
+        <v>8167795.200000003</v>
       </c>
       <c r="AA25" t="n">
-        <v>10589455.99999999</v>
+        <v>7355971.200000077</v>
       </c>
       <c r="AB25" t="n">
-        <v>11673123.20000014</v>
+        <v>9182150.400000051</v>
       </c>
       <c r="AC25" t="n">
-        <v>10579692.8</v>
+        <v>9706118.399999961</v>
       </c>
       <c r="AD25" t="n">
-        <v>11490752.00000018</v>
+        <v>9546825.600000098</v>
       </c>
       <c r="AE25" t="n">
-        <v>12721743.99999993</v>
+        <v>12105724.80000009</v>
       </c>
       <c r="AF25" t="n">
-        <v>12647612.79999992</v>
+        <v>12552950.39999995</v>
       </c>
       <c r="AG25" t="n">
-        <v>13827974.39999983</v>
+        <v>12761798.40000007</v>
       </c>
       <c r="AH25" t="n">
-        <v>15564918.40000036</v>
+        <v>12729503.99999969</v>
       </c>
       <c r="AI25" t="n">
-        <v>16486841.60000035</v>
+        <v>13719024.00000012</v>
       </c>
       <c r="AJ25" t="n">
-        <v>16552943.99999985</v>
+        <v>15585456</v>
       </c>
       <c r="AK25" t="n">
-        <v>17369615.99999988</v>
+        <v>14120256.00000033</v>
       </c>
       <c r="AL25" t="n">
-        <v>20228707.20000008</v>
+        <v>17783260.80000004</v>
       </c>
       <c r="AM25" t="n">
-        <v>21847551.99999982</v>
+        <v>16577740.8000001</v>
       </c>
       <c r="AN25" t="n">
-        <v>21245894.3999998</v>
+        <v>18262588.8000001</v>
       </c>
       <c r="AO25" t="n">
-        <v>20037612.80000022</v>
+        <v>18021494.40000015</v>
       </c>
       <c r="AP25" t="n">
-        <v>21392051.19999897</v>
+        <v>19488614.3999998</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23657065.59999996</v>
+        <v>22373807.99999937</v>
       </c>
       <c r="AR25" t="n">
-        <v>22439171.19999999</v>
+        <v>21383337.60000008</v>
       </c>
       <c r="AS25" t="n">
-        <v>24792588.80000067</v>
+        <v>23830031.9999994</v>
       </c>
       <c r="AT25" t="n">
-        <v>26347542.3999998</v>
+        <v>26339836.79999989</v>
       </c>
       <c r="AU25" t="n">
-        <v>28462588.799999</v>
+        <v>27669475.19999903</v>
       </c>
       <c r="AV25" t="n">
-        <v>30983689.59999985</v>
+        <v>28789084.79999983</v>
       </c>
       <c r="AW25" t="n">
-        <v>31412243.20000023</v>
+        <v>27701116.80000019</v>
       </c>
       <c r="AX25" t="n">
-        <v>34148246.40000033</v>
+        <v>30597849.60000062</v>
       </c>
       <c r="AY25" t="n">
-        <v>38389369.6000002</v>
+        <v>31671782.39999926</v>
       </c>
       <c r="AZ25" t="n">
-        <v>40550207.99999881</v>
+        <v>31822540.79999954</v>
       </c>
       <c r="BA25" t="n">
-        <v>38000127.99999821</v>
+        <v>33329711.9999994</v>
       </c>
       <c r="BB25" t="n">
-        <v>38429395.20000124</v>
+        <v>34261833.59999967</v>
       </c>
       <c r="BC25" t="n">
-        <v>40941955.19999874</v>
+        <v>36201580.8000015</v>
       </c>
       <c r="BD25" t="n">
-        <v>40632467.19999874</v>
+        <v>35464483.20000112</v>
       </c>
       <c r="BE25" t="n">
-        <v>43348688.00000131</v>
+        <v>40019807.99999905</v>
       </c>
       <c r="BF25" t="n">
-        <v>45275971.19999814</v>
+        <v>44663856.00000393</v>
       </c>
       <c r="BG25" t="n">
-        <v>45308534.39999759</v>
+        <v>48553910.39999676</v>
       </c>
       <c r="BH25" t="n">
-        <v>44283228.79999959</v>
+        <v>49003862.40000153</v>
       </c>
       <c r="BI25" t="n">
-        <v>47338012.80000067</v>
+        <v>47881660.79999876</v>
       </c>
     </row>
     <row r="26">
@@ -5290,67 +5290,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
         <v>5</v>
       </c>
       <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>5</v>
+      </c>
+      <c r="U27" t="n">
         <v>6</v>
       </c>
-      <c r="S27" t="n">
-        <v>7</v>
-      </c>
-      <c r="T27" t="n">
-        <v>7</v>
-      </c>
-      <c r="U27" t="n">
-        <v>7</v>
-      </c>
       <c r="V27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W27" t="n">
         <v>7</v>
@@ -5368,19 +5368,19 @@
         <v>7</v>
       </c>
       <c r="AB27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG27" t="n">
         <v>8</v>
@@ -5407,67 +5407,67 @@
         <v>8</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
         <v>9</v>
       </c>
       <c r="AQ27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY27" t="n">
         <v>10</v>
       </c>
-      <c r="AR27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS27" t="n">
+      <c r="AZ27" t="n">
         <v>11</v>
       </c>
-      <c r="AT27" t="n">
+      <c r="BA27" t="n">
         <v>11</v>
       </c>
-      <c r="AU27" t="n">
+      <c r="BB27" t="n">
         <v>11</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>12</v>
       </c>
       <c r="BC27" t="n">
         <v>12</v>
       </c>
       <c r="BD27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BE27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BF27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BG27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BH27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -5477,10 +5477,10 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
         <v>3</v>
-      </c>
-      <c r="C28" t="n">
-        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>4</v>
@@ -5501,31 +5501,31 @@
         <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -5537,73 +5537,73 @@
         <v>5</v>
       </c>
       <c r="V28" t="n">
+        <v>5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE28" t="n">
         <v>7</v>
       </c>
-      <c r="W28" t="n">
+      <c r="AF28" t="n">
         <v>7</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AG28" t="n">
         <v>7</v>
       </c>
-      <c r="Y28" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>8</v>
-      </c>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ28" t="n">
         <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS28" t="n">
         <v>10</v>
@@ -5618,28 +5618,28 @@
         <v>10</v>
       </c>
       <c r="AW28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ28" t="n">
         <v>11</v>
       </c>
-      <c r="AX28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY28" t="n">
+      <c r="BA28" t="n">
         <v>12</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>13</v>
       </c>
       <c r="BB28" t="n">
         <v>13</v>
       </c>
       <c r="BC28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BE28" t="n">
         <v>14</v>
@@ -5654,7 +5654,7 @@
         <v>14</v>
       </c>
       <c r="BI28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -5667,16 +5667,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -5724,124 +5724,124 @@
         <v>3</v>
       </c>
       <c r="V29" t="n">
+        <v>3</v>
+      </c>
+      <c r="W29" t="n">
+        <v>3</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB29" t="n">
         <v>5</v>
       </c>
-      <c r="W29" t="n">
+      <c r="AC29" t="n">
         <v>5</v>
       </c>
-      <c r="X29" t="n">
+      <c r="AD29" t="n">
         <v>5</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AE29" t="n">
         <v>5</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AF29" t="n">
         <v>5</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AG29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP29" t="n">
         <v>6</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AQ29" t="n">
         <v>6</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>7</v>
       </c>
       <c r="AR29" t="n">
         <v>7</v>
       </c>
       <c r="AS29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
       </c>
       <c r="AV29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BE29" t="n">
         <v>9</v>
       </c>
       <c r="BF29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BH29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BI29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -5950,13 +5950,13 @@
         <v>1</v>
       </c>
       <c r="AI30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
         <v>2</v>
@@ -5992,19 +5992,19 @@
         <v>2</v>
       </c>
       <c r="AW30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB30" t="n">
         <v>3</v>
@@ -6022,10 +6022,10 @@
         <v>3</v>
       </c>
       <c r="BG30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI30" t="n">
         <v>4</v>
@@ -6038,13 +6038,13 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" t="n">
         <v>10</v>
       </c>
-      <c r="C31" t="n">
-        <v>13</v>
-      </c>
       <c r="D31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -6053,13 +6053,13 @@
         <v>13</v>
       </c>
       <c r="G31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J31" t="n">
         <v>15</v>
@@ -6083,136 +6083,136 @@
         <v>15</v>
       </c>
       <c r="Q31" t="n">
+        <v>15</v>
+      </c>
+      <c r="R31" t="n">
+        <v>15</v>
+      </c>
+      <c r="S31" t="n">
         <v>16</v>
       </c>
-      <c r="R31" t="n">
+      <c r="T31" t="n">
+        <v>16</v>
+      </c>
+      <c r="U31" t="n">
         <v>17</v>
       </c>
-      <c r="S31" t="n">
+      <c r="V31" t="n">
+        <v>17</v>
+      </c>
+      <c r="W31" t="n">
         <v>18</v>
       </c>
-      <c r="T31" t="n">
+      <c r="X31" t="n">
         <v>18</v>
       </c>
-      <c r="U31" t="n">
-        <v>18</v>
-      </c>
-      <c r="V31" t="n">
+      <c r="Y31" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE31" t="n">
         <v>22</v>
       </c>
-      <c r="W31" t="n">
+      <c r="AF31" t="n">
         <v>22</v>
       </c>
-      <c r="X31" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y31" t="n">
+      <c r="AG31" t="n">
         <v>23</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AH31" t="n">
         <v>23</v>
       </c>
-      <c r="AA31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB31" t="n">
+      <c r="AI31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>25</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AK31" t="n">
         <v>25</v>
       </c>
-      <c r="AD31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH31" t="n">
+      <c r="AL31" t="n">
         <v>26</v>
       </c>
-      <c r="AI31" t="n">
+      <c r="AM31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO31" t="n">
         <v>27</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK31" t="n">
+      <c r="AP31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR31" t="n">
         <v>29</v>
       </c>
-      <c r="AL31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ31" t="n">
+      <c r="AS31" t="n">
         <v>31</v>
       </c>
-      <c r="AR31" t="n">
+      <c r="AT31" t="n">
         <v>31</v>
       </c>
-      <c r="AS31" t="n">
+      <c r="AU31" t="n">
+        <v>31</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>31</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>31</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>31</v>
+      </c>
+      <c r="AY31" t="n">
         <v>32</v>
       </c>
-      <c r="AT31" t="n">
-        <v>32</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>33</v>
-      </c>
-      <c r="AV31" t="n">
+      <c r="AZ31" t="n">
         <v>34</v>
       </c>
-      <c r="AW31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AY31" t="n">
+      <c r="BA31" t="n">
+        <v>35</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>37</v>
+      </c>
+      <c r="BC31" t="n">
         <v>38</v>
       </c>
-      <c r="AZ31" t="n">
+      <c r="BD31" t="n">
         <v>38</v>
       </c>
-      <c r="BA31" t="n">
-        <v>39</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>39</v>
-      </c>
-      <c r="BC31" t="n">
+      <c r="BE31" t="n">
         <v>40</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>41</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>41</v>
       </c>
       <c r="BF31" t="n">
         <v>41</v>
       </c>
       <c r="BG31" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BH31" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BI31" t="n">
         <v>44</v>
@@ -6225,184 +6225,184 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>187525</v>
+        <v>162214</v>
       </c>
       <c r="C32" t="n">
-        <v>278005</v>
+        <v>188045</v>
       </c>
       <c r="D32" t="n">
-        <v>279370</v>
+        <v>214526</v>
       </c>
       <c r="E32" t="n">
-        <v>280670</v>
+        <v>258518</v>
       </c>
       <c r="F32" t="n">
-        <v>277875</v>
+        <v>257933</v>
       </c>
       <c r="G32" t="n">
-        <v>286650</v>
+        <v>297388</v>
       </c>
       <c r="H32" t="n">
-        <v>285090</v>
+        <v>298883</v>
       </c>
       <c r="I32" t="n">
-        <v>302120</v>
+        <v>313885</v>
       </c>
       <c r="J32" t="n">
-        <v>319605</v>
+        <v>311753</v>
       </c>
       <c r="K32" t="n">
-        <v>324480</v>
+        <v>317083</v>
       </c>
       <c r="L32" t="n">
-        <v>326495</v>
+        <v>323726</v>
       </c>
       <c r="M32" t="n">
-        <v>321750</v>
+        <v>321607</v>
       </c>
       <c r="N32" t="n">
-        <v>340665</v>
+        <v>334256</v>
       </c>
       <c r="O32" t="n">
-        <v>338260</v>
+        <v>337532</v>
       </c>
       <c r="P32" t="n">
-        <v>344760</v>
+        <v>343564</v>
       </c>
       <c r="Q32" t="n">
-        <v>356980</v>
+        <v>340769</v>
       </c>
       <c r="R32" t="n">
-        <v>364325</v>
+        <v>345423</v>
       </c>
       <c r="S32" t="n">
-        <v>383565</v>
+        <v>366652</v>
       </c>
       <c r="T32" t="n">
-        <v>384280</v>
+        <v>372151</v>
       </c>
       <c r="U32" t="n">
-        <v>391430</v>
+        <v>382642</v>
       </c>
       <c r="V32" t="n">
-        <v>510055</v>
+        <v>387296</v>
       </c>
       <c r="W32" t="n">
-        <v>511095</v>
+        <v>406978</v>
       </c>
       <c r="X32" t="n">
-        <v>514735</v>
+        <v>409110</v>
       </c>
       <c r="Y32" t="n">
-        <v>533650</v>
+        <v>449917</v>
       </c>
       <c r="Z32" t="n">
-        <v>565695</v>
+        <v>471887</v>
       </c>
       <c r="AA32" t="n">
-        <v>604240</v>
+        <v>469638</v>
       </c>
       <c r="AB32" t="n">
-        <v>625950</v>
+        <v>539227</v>
       </c>
       <c r="AC32" t="n">
-        <v>620750</v>
+        <v>540280</v>
       </c>
       <c r="AD32" t="n">
-        <v>621205</v>
+        <v>544453</v>
       </c>
       <c r="AE32" t="n">
-        <v>635830</v>
+        <v>587626</v>
       </c>
       <c r="AF32" t="n">
-        <v>633685</v>
+        <v>596245</v>
       </c>
       <c r="AG32" t="n">
-        <v>644410</v>
+        <v>603421</v>
       </c>
       <c r="AH32" t="n">
-        <v>678145</v>
+        <v>609999</v>
       </c>
       <c r="AI32" t="n">
-        <v>711360</v>
+        <v>617721</v>
       </c>
       <c r="AJ32" t="n">
-        <v>714480</v>
+        <v>669370</v>
       </c>
       <c r="AK32" t="n">
-        <v>775060</v>
+        <v>658775</v>
       </c>
       <c r="AL32" t="n">
-        <v>812695</v>
+        <v>713908</v>
       </c>
       <c r="AM32" t="n">
-        <v>816985</v>
+        <v>710047</v>
       </c>
       <c r="AN32" t="n">
-        <v>818285</v>
+        <v>718809</v>
       </c>
       <c r="AO32" t="n">
-        <v>807560</v>
+        <v>734916</v>
       </c>
       <c r="AP32" t="n">
-        <v>824850</v>
+        <v>788892</v>
       </c>
       <c r="AQ32" t="n">
-        <v>868465</v>
+        <v>825045</v>
       </c>
       <c r="AR32" t="n">
-        <v>878280</v>
+        <v>868296</v>
       </c>
       <c r="AS32" t="n">
-        <v>901615</v>
+        <v>929565</v>
       </c>
       <c r="AT32" t="n">
-        <v>925340</v>
+        <v>960297</v>
       </c>
       <c r="AU32" t="n">
-        <v>987870</v>
+        <v>973401</v>
       </c>
       <c r="AV32" t="n">
-        <v>1047150</v>
+        <v>997321</v>
       </c>
       <c r="AW32" t="n">
-        <v>1093235</v>
+        <v>993135</v>
       </c>
       <c r="AX32" t="n">
-        <v>1122355</v>
+        <v>1016002</v>
       </c>
       <c r="AY32" t="n">
-        <v>1183260</v>
+        <v>1038934</v>
       </c>
       <c r="AZ32" t="n">
-        <v>1200745</v>
+        <v>1077687</v>
       </c>
       <c r="BA32" t="n">
-        <v>1195675</v>
+        <v>1096199</v>
       </c>
       <c r="BB32" t="n">
-        <v>1209260</v>
+        <v>1145820</v>
       </c>
       <c r="BC32" t="n">
-        <v>1245855</v>
+        <v>1202136</v>
       </c>
       <c r="BD32" t="n">
-        <v>1256515</v>
+        <v>1207934</v>
       </c>
       <c r="BE32" t="n">
-        <v>1279785</v>
+        <v>1281878</v>
       </c>
       <c r="BF32" t="n">
-        <v>1306110</v>
+        <v>1381913</v>
       </c>
       <c r="BG32" t="n">
-        <v>1315990</v>
+        <v>1430182</v>
       </c>
       <c r="BH32" t="n">
-        <v>1317810</v>
+        <v>1468090</v>
       </c>
       <c r="BI32" t="n">
-        <v>1394640</v>
+        <v>1479101</v>
       </c>
     </row>
     <row r="33">
@@ -6412,184 +6412,184 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>112320</v>
+        <v>74880</v>
       </c>
       <c r="C33" t="n">
-        <v>89280</v>
+        <v>97920</v>
       </c>
       <c r="D33" t="n">
-        <v>118080</v>
+        <v>138240</v>
       </c>
       <c r="E33" t="n">
-        <v>109440</v>
+        <v>158400</v>
       </c>
       <c r="F33" t="n">
-        <v>63360</v>
+        <v>138240</v>
       </c>
       <c r="G33" t="n">
-        <v>164160</v>
+        <v>175680</v>
       </c>
       <c r="H33" t="n">
-        <v>155520</v>
+        <v>190080</v>
       </c>
       <c r="I33" t="n">
+        <v>210240</v>
+      </c>
+      <c r="J33" t="n">
         <v>227520</v>
       </c>
-      <c r="J33" t="n">
-        <v>262080</v>
-      </c>
       <c r="K33" t="n">
-        <v>296640</v>
+        <v>244800</v>
       </c>
       <c r="L33" t="n">
-        <v>296640</v>
+        <v>276480</v>
       </c>
       <c r="M33" t="n">
-        <v>270720</v>
+        <v>279360</v>
       </c>
       <c r="N33" t="n">
+        <v>351360</v>
+      </c>
+      <c r="O33" t="n">
+        <v>368640</v>
+      </c>
+      <c r="P33" t="n">
+        <v>414720</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>397440</v>
+      </c>
+      <c r="R33" t="n">
         <v>423360</v>
       </c>
-      <c r="O33" t="n">
-        <v>417600</v>
-      </c>
-      <c r="P33" t="n">
-        <v>437760</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>429120</v>
-      </c>
-      <c r="R33" t="n">
-        <v>463680</v>
-      </c>
       <c r="S33" t="n">
-        <v>495360</v>
+        <v>489600</v>
       </c>
       <c r="T33" t="n">
-        <v>509760</v>
+        <v>550080</v>
       </c>
       <c r="U33" t="n">
-        <v>529920</v>
+        <v>518400</v>
       </c>
       <c r="V33" t="n">
-        <v>645120</v>
+        <v>547200</v>
       </c>
       <c r="W33" t="n">
-        <v>720000</v>
+        <v>604800</v>
       </c>
       <c r="X33" t="n">
-        <v>740160</v>
+        <v>659520</v>
       </c>
       <c r="Y33" t="n">
-        <v>768960</v>
+        <v>619200</v>
       </c>
       <c r="Z33" t="n">
-        <v>990720</v>
+        <v>786240</v>
       </c>
       <c r="AA33" t="n">
-        <v>1016640</v>
+        <v>725760</v>
       </c>
       <c r="AB33" t="n">
-        <v>1082880</v>
+        <v>820800</v>
       </c>
       <c r="AC33" t="n">
-        <v>1031040</v>
+        <v>864000</v>
       </c>
       <c r="AD33" t="n">
-        <v>1091520</v>
+        <v>881280</v>
       </c>
       <c r="AE33" t="n">
-        <v>1140480</v>
+        <v>1152000</v>
       </c>
       <c r="AF33" t="n">
-        <v>1177920</v>
+        <v>1212480</v>
       </c>
       <c r="AG33" t="n">
-        <v>1215360</v>
+        <v>1160640</v>
       </c>
       <c r="AH33" t="n">
-        <v>1373760</v>
+        <v>1198080</v>
       </c>
       <c r="AI33" t="n">
-        <v>1483200</v>
+        <v>1226880</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1529280</v>
+        <v>1411200</v>
       </c>
       <c r="AK33" t="n">
-        <v>1589760</v>
+        <v>1359360</v>
       </c>
       <c r="AL33" t="n">
-        <v>1808640</v>
+        <v>1572480</v>
       </c>
       <c r="AM33" t="n">
-        <v>1892160</v>
+        <v>1523520</v>
       </c>
       <c r="AN33" t="n">
-        <v>1883520</v>
+        <v>1558080</v>
       </c>
       <c r="AO33" t="n">
-        <v>1794240</v>
+        <v>1549440</v>
       </c>
       <c r="AP33" t="n">
-        <v>1872000</v>
+        <v>1702080</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2033280</v>
+        <v>1929600</v>
       </c>
       <c r="AR33" t="n">
-        <v>1998720</v>
+        <v>1880640</v>
       </c>
       <c r="AS33" t="n">
-        <v>2142720</v>
+        <v>1972800</v>
       </c>
       <c r="AT33" t="n">
-        <v>2197440</v>
+        <v>2252160</v>
       </c>
       <c r="AU33" t="n">
-        <v>2358720</v>
+        <v>2355840</v>
       </c>
       <c r="AV33" t="n">
-        <v>2635200</v>
+        <v>2445120</v>
       </c>
       <c r="AW33" t="n">
-        <v>2738880</v>
+        <v>2485440</v>
       </c>
       <c r="AX33" t="n">
-        <v>2865600</v>
+        <v>2551680</v>
       </c>
       <c r="AY33" t="n">
-        <v>3196800</v>
+        <v>2606400</v>
       </c>
       <c r="AZ33" t="n">
-        <v>3332160</v>
+        <v>2675520</v>
       </c>
       <c r="BA33" t="n">
-        <v>3219840</v>
+        <v>2753280</v>
       </c>
       <c r="BB33" t="n">
-        <v>3248640</v>
+        <v>2854080</v>
       </c>
       <c r="BC33" t="n">
-        <v>3432960</v>
+        <v>2969280</v>
       </c>
       <c r="BD33" t="n">
-        <v>3467520</v>
+        <v>3041280</v>
       </c>
       <c r="BE33" t="n">
-        <v>3591360</v>
+        <v>3265920</v>
       </c>
       <c r="BF33" t="n">
-        <v>3741120</v>
+        <v>3718080</v>
       </c>
       <c r="BG33" t="n">
-        <v>3697920</v>
+        <v>3934080</v>
       </c>
       <c r="BH33" t="n">
-        <v>3723840</v>
+        <v>4020480</v>
       </c>
       <c r="BI33" t="n">
-        <v>3980160</v>
+        <v>4086720</v>
       </c>
     </row>
     <row r="34">
@@ -6599,184 +6599,184 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>726840</v>
+        <v>483984</v>
       </c>
       <c r="C34" t="n">
-        <v>507992</v>
+        <v>524840</v>
       </c>
       <c r="D34" t="n">
-        <v>628896</v>
+        <v>673768</v>
       </c>
       <c r="E34" t="n">
-        <v>592608</v>
+        <v>1030056</v>
       </c>
       <c r="F34" t="n">
-        <v>273224</v>
+        <v>1038632</v>
       </c>
       <c r="G34" t="n">
-        <v>1064240</v>
+        <v>1058816</v>
       </c>
       <c r="H34" t="n">
-        <v>1134664</v>
+        <v>1222920</v>
       </c>
       <c r="I34" t="n">
-        <v>1427080</v>
+        <v>1365240</v>
       </c>
       <c r="J34" t="n">
-        <v>1418504</v>
+        <v>1310688</v>
       </c>
       <c r="K34" t="n">
-        <v>1782144</v>
+        <v>1556872</v>
       </c>
       <c r="L34" t="n">
-        <v>1871632</v>
+        <v>1967904</v>
       </c>
       <c r="M34" t="n">
-        <v>1564960</v>
+        <v>1459240</v>
       </c>
       <c r="N34" t="n">
-        <v>2806640</v>
+        <v>2410112</v>
       </c>
       <c r="O34" t="n">
-        <v>2588224</v>
+        <v>2519040</v>
       </c>
       <c r="P34" t="n">
-        <v>3289568</v>
+        <v>2582736</v>
       </c>
       <c r="Q34" t="n">
-        <v>2789432</v>
+        <v>2815216</v>
       </c>
       <c r="R34" t="n">
-        <v>3021232</v>
+        <v>2859528</v>
       </c>
       <c r="S34" t="n">
-        <v>3464792</v>
+        <v>3547184</v>
       </c>
       <c r="T34" t="n">
-        <v>3523488</v>
+        <v>3707280</v>
       </c>
       <c r="U34" t="n">
-        <v>3911432</v>
+        <v>3852248</v>
       </c>
       <c r="V34" t="n">
-        <v>4569832</v>
+        <v>3780232</v>
       </c>
       <c r="W34" t="n">
-        <v>5204352</v>
+        <v>4190648</v>
       </c>
       <c r="X34" t="n">
-        <v>5194296</v>
+        <v>4296864</v>
       </c>
       <c r="Y34" t="n">
-        <v>5480408</v>
+        <v>4056240</v>
       </c>
       <c r="Z34" t="n">
-        <v>7687592</v>
+        <v>5685496</v>
       </c>
       <c r="AA34" t="n">
-        <v>7408880</v>
+        <v>5065976</v>
       </c>
       <c r="AB34" t="n">
-        <v>8172936</v>
+        <v>6414792</v>
       </c>
       <c r="AC34" t="n">
-        <v>7355744</v>
+        <v>6788432</v>
       </c>
       <c r="AD34" t="n">
-        <v>8061960</v>
+        <v>6649688</v>
       </c>
       <c r="AE34" t="n">
-        <v>8975120</v>
+        <v>8352104</v>
       </c>
       <c r="AF34" t="n">
-        <v>8884344</v>
+        <v>8657792</v>
       </c>
       <c r="AG34" t="n">
-        <v>9777312</v>
+        <v>8889832</v>
       </c>
       <c r="AH34" t="n">
-        <v>10971432</v>
+        <v>8785920</v>
       </c>
       <c r="AI34" t="n">
-        <v>11572368</v>
+        <v>9578520</v>
       </c>
       <c r="AJ34" t="n">
-        <v>11591120</v>
+        <v>10817880</v>
       </c>
       <c r="AK34" t="n">
-        <v>12183680</v>
+        <v>9730880</v>
       </c>
       <c r="AL34" t="n">
-        <v>14168256</v>
+        <v>12383384</v>
       </c>
       <c r="AM34" t="n">
-        <v>15416960</v>
+        <v>11475784</v>
       </c>
       <c r="AN34" t="n">
-        <v>14932912</v>
+        <v>12781824</v>
       </c>
       <c r="AO34" t="n">
-        <v>14067344</v>
+        <v>12587912</v>
       </c>
       <c r="AP34" t="n">
-        <v>15083376</v>
+        <v>13555512</v>
       </c>
       <c r="AQ34" t="n">
-        <v>16692888</v>
+        <v>15574840</v>
       </c>
       <c r="AR34" t="n">
-        <v>15678976</v>
+        <v>14794448</v>
       </c>
       <c r="AS34" t="n">
-        <v>17466824</v>
+        <v>16703360</v>
       </c>
       <c r="AT34" t="n">
-        <v>18623952</v>
+        <v>18351864</v>
       </c>
       <c r="AU34" t="n">
-        <v>20121824</v>
+        <v>19327896</v>
       </c>
       <c r="AV34" t="n">
-        <v>21831408</v>
+        <v>20047904</v>
       </c>
       <c r="AW34" t="n">
-        <v>21995536</v>
+        <v>19135264</v>
       </c>
       <c r="AX34" t="n">
-        <v>24026872</v>
+        <v>21368208</v>
       </c>
       <c r="AY34" t="n">
-        <v>27102808</v>
+        <v>22204152</v>
       </c>
       <c r="AZ34" t="n">
-        <v>28695840</v>
+        <v>22179784</v>
       </c>
       <c r="BA34" t="n">
-        <v>26744440</v>
+        <v>23342760</v>
       </c>
       <c r="BB34" t="n">
-        <v>27035496</v>
+        <v>23928528</v>
       </c>
       <c r="BC34" t="n">
-        <v>28887296</v>
+        <v>25258984</v>
       </c>
       <c r="BD34" t="n">
-        <v>28555056</v>
+        <v>24581736</v>
       </c>
       <c r="BE34" t="n">
-        <v>30586240</v>
+        <v>28029840</v>
       </c>
       <c r="BF34" t="n">
-        <v>31947976</v>
+        <v>31138880</v>
       </c>
       <c r="BG34" t="n">
-        <v>32015112</v>
+        <v>33981592</v>
       </c>
       <c r="BH34" t="n">
-        <v>31172024</v>
+        <v>34228552</v>
       </c>
       <c r="BI34" t="n">
-        <v>33267344</v>
+        <v>33168384</v>
       </c>
     </row>
     <row r="35">
@@ -6786,184 +6786,184 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23500</v>
+        <v>20500</v>
       </c>
       <c r="C35" t="n">
-        <v>23500</v>
+        <v>17500</v>
       </c>
       <c r="D35" t="n">
-        <v>25000</v>
+        <v>29500</v>
       </c>
       <c r="E35" t="n">
-        <v>37000</v>
+        <v>38500</v>
       </c>
       <c r="F35" t="n">
-        <v>17500</v>
+        <v>46000</v>
       </c>
       <c r="G35" t="n">
         <v>38500</v>
       </c>
       <c r="H35" t="n">
-        <v>40000</v>
+        <v>38500</v>
       </c>
       <c r="I35" t="n">
-        <v>46000</v>
+        <v>55000</v>
       </c>
       <c r="J35" t="n">
-        <v>50500</v>
+        <v>38500</v>
       </c>
       <c r="K35" t="n">
-        <v>59500</v>
+        <v>53500</v>
       </c>
       <c r="L35" t="n">
-        <v>70000</v>
+        <v>74500</v>
       </c>
       <c r="M35" t="n">
-        <v>53500</v>
+        <v>49000</v>
       </c>
       <c r="N35" t="n">
+        <v>89500</v>
+      </c>
+      <c r="O35" t="n">
+        <v>94000</v>
+      </c>
+      <c r="P35" t="n">
+        <v>118000</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>110500</v>
+      </c>
+      <c r="R35" t="n">
         <v>113500</v>
       </c>
-      <c r="O35" t="n">
-        <v>98500</v>
-      </c>
-      <c r="P35" t="n">
-        <v>125500</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>134500</v>
-      </c>
-      <c r="R35" t="n">
-        <v>106000</v>
-      </c>
       <c r="S35" t="n">
-        <v>145000</v>
+        <v>146500</v>
       </c>
       <c r="T35" t="n">
-        <v>143500</v>
+        <v>142000</v>
       </c>
       <c r="U35" t="n">
-        <v>157000</v>
+        <v>161500</v>
       </c>
       <c r="V35" t="n">
-        <v>199000</v>
+        <v>164500</v>
       </c>
       <c r="W35" t="n">
-        <v>208000</v>
+        <v>181000</v>
       </c>
       <c r="X35" t="n">
-        <v>229000</v>
+        <v>175000</v>
       </c>
       <c r="Y35" t="n">
-        <v>230500</v>
+        <v>191500</v>
       </c>
       <c r="Z35" t="n">
-        <v>356500</v>
+        <v>236500</v>
       </c>
       <c r="AA35" t="n">
-        <v>331000</v>
+        <v>241000</v>
       </c>
       <c r="AB35" t="n">
-        <v>394000</v>
+        <v>296500</v>
       </c>
       <c r="AC35" t="n">
-        <v>358000</v>
+        <v>310000</v>
       </c>
       <c r="AD35" t="n">
-        <v>349000</v>
+        <v>301000</v>
       </c>
       <c r="AE35" t="n">
-        <v>404500</v>
+        <v>412000</v>
       </c>
       <c r="AF35" t="n">
-        <v>395500</v>
+        <v>415000</v>
       </c>
       <c r="AG35" t="n">
+        <v>412000</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>440500</v>
+      </c>
+      <c r="AI35" t="n">
         <v>442000</v>
       </c>
-      <c r="AH35" t="n">
-        <v>521500</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>569500</v>
-      </c>
       <c r="AJ35" t="n">
-        <v>559000</v>
+        <v>535000</v>
       </c>
       <c r="AK35" t="n">
-        <v>581500</v>
+        <v>475000</v>
       </c>
       <c r="AL35" t="n">
-        <v>734500</v>
+        <v>608500</v>
       </c>
       <c r="AM35" t="n">
-        <v>746500</v>
+        <v>574000</v>
       </c>
       <c r="AN35" t="n">
-        <v>739000</v>
+        <v>620500</v>
       </c>
       <c r="AO35" t="n">
-        <v>695500</v>
+        <v>622000</v>
       </c>
       <c r="AP35" t="n">
-        <v>724000</v>
+        <v>694000</v>
       </c>
       <c r="AQ35" t="n">
-        <v>823000</v>
+        <v>805000</v>
       </c>
       <c r="AR35" t="n">
-        <v>854500</v>
+        <v>809500</v>
       </c>
       <c r="AS35" t="n">
-        <v>875500</v>
+        <v>835000</v>
       </c>
       <c r="AT35" t="n">
         <v>949000</v>
       </c>
       <c r="AU35" t="n">
-        <v>1036000</v>
+        <v>967000</v>
       </c>
       <c r="AV35" t="n">
-        <v>1129000</v>
+        <v>1057000</v>
       </c>
       <c r="AW35" t="n">
-        <v>1205500</v>
+        <v>1030000</v>
       </c>
       <c r="AX35" t="n">
-        <v>1310500</v>
+        <v>1114000</v>
       </c>
       <c r="AY35" t="n">
-        <v>1412500</v>
+        <v>1115500</v>
       </c>
       <c r="AZ35" t="n">
-        <v>1472500</v>
+        <v>1174000</v>
       </c>
       <c r="BA35" t="n">
-        <v>1421500</v>
+        <v>1183000</v>
       </c>
       <c r="BB35" t="n">
-        <v>1454500</v>
+        <v>1247500</v>
       </c>
       <c r="BC35" t="n">
-        <v>1499500</v>
+        <v>1372000</v>
       </c>
       <c r="BD35" t="n">
-        <v>1534000</v>
+        <v>1363000</v>
       </c>
       <c r="BE35" t="n">
-        <v>1627000</v>
+        <v>1448500</v>
       </c>
       <c r="BF35" t="n">
-        <v>1706500</v>
+        <v>1666000</v>
       </c>
       <c r="BG35" t="n">
-        <v>1711000</v>
+        <v>1796500</v>
       </c>
       <c r="BH35" t="n">
-        <v>1676500</v>
+        <v>1825000</v>
       </c>
       <c r="BI35" t="n">
-        <v>1841500</v>
+        <v>1867000</v>
       </c>
     </row>
     <row r="36">
@@ -6973,13 +6973,13 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C36" t="n">
         <v>31250</v>
       </c>
-      <c r="C36" t="n">
-        <v>40625</v>
-      </c>
       <c r="D36" t="n">
-        <v>40625</v>
+        <v>37500</v>
       </c>
       <c r="E36" t="n">
         <v>40625</v>
@@ -6988,13 +6988,13 @@
         <v>40625</v>
       </c>
       <c r="G36" t="n">
-        <v>40625</v>
+        <v>43750</v>
       </c>
       <c r="H36" t="n">
-        <v>40625</v>
+        <v>43750</v>
       </c>
       <c r="I36" t="n">
-        <v>43750</v>
+        <v>46875</v>
       </c>
       <c r="J36" t="n">
         <v>46875</v>
@@ -7018,10 +7018,10 @@
         <v>46875</v>
       </c>
       <c r="Q36" t="n">
-        <v>50000</v>
+        <v>46875</v>
       </c>
       <c r="R36" t="n">
-        <v>50000</v>
+        <v>46875</v>
       </c>
       <c r="S36" t="n">
         <v>50000</v>
@@ -7160,31 +7160,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20612</v>
+        <v>13823</v>
       </c>
       <c r="C37" t="n">
-        <v>14783</v>
+        <v>15284</v>
       </c>
       <c r="D37" t="n">
-        <v>18445</v>
+        <v>20250</v>
       </c>
       <c r="E37" t="n">
-        <v>17678</v>
+        <v>29593</v>
       </c>
       <c r="F37" t="n">
-        <v>8341</v>
+        <v>29535</v>
       </c>
       <c r="G37" t="n">
-        <v>30405</v>
+        <v>30715</v>
       </c>
       <c r="H37" t="n">
-        <v>31919</v>
+        <v>35014</v>
       </c>
       <c r="I37" t="n">
-        <v>40000</v>
+        <v>39461</v>
       </c>
       <c r="J37" t="n">
-        <v>40000</v>
+        <v>38056</v>
       </c>
       <c r="K37" t="n">
         <v>40000</v>
@@ -7347,184 +7347,184 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1102047</v>
+        <v>780401</v>
       </c>
       <c r="C38" t="n">
-        <v>954185</v>
+        <v>874839</v>
       </c>
       <c r="D38" t="n">
-        <v>1110416</v>
+        <v>1113784</v>
       </c>
       <c r="E38" t="n">
-        <v>1078021</v>
+        <v>1555692</v>
       </c>
       <c r="F38" t="n">
-        <v>680925</v>
+        <v>1550965</v>
       </c>
       <c r="G38" t="n">
-        <v>1624580</v>
+        <v>1644849</v>
       </c>
       <c r="H38" t="n">
-        <v>1687818</v>
+        <v>1829147</v>
       </c>
       <c r="I38" t="n">
-        <v>2086470</v>
+        <v>2030701</v>
       </c>
       <c r="J38" t="n">
-        <v>2137564</v>
+        <v>1973392</v>
       </c>
       <c r="K38" t="n">
-        <v>2549639</v>
+        <v>2259130</v>
       </c>
       <c r="L38" t="n">
-        <v>2651642</v>
+        <v>2729485</v>
       </c>
       <c r="M38" t="n">
-        <v>2297805</v>
+        <v>2196082</v>
       </c>
       <c r="N38" t="n">
-        <v>3771040</v>
+        <v>3272103</v>
       </c>
       <c r="O38" t="n">
-        <v>3529459</v>
+        <v>3406087</v>
       </c>
       <c r="P38" t="n">
-        <v>4284463</v>
+        <v>3545895</v>
       </c>
       <c r="Q38" t="n">
-        <v>3800032</v>
+        <v>3750800</v>
       </c>
       <c r="R38" t="n">
-        <v>4045237</v>
+        <v>3828686</v>
       </c>
       <c r="S38" t="n">
-        <v>4578717</v>
+        <v>4639936</v>
       </c>
       <c r="T38" t="n">
-        <v>4651028</v>
+        <v>4861511</v>
       </c>
       <c r="U38" t="n">
-        <v>5079782</v>
+        <v>5004790</v>
       </c>
       <c r="V38" t="n">
-        <v>6014007</v>
+        <v>4969228</v>
       </c>
       <c r="W38" t="n">
-        <v>6733447</v>
+        <v>5473426</v>
       </c>
       <c r="X38" t="n">
-        <v>6768191</v>
+        <v>5630494</v>
       </c>
       <c r="Y38" t="n">
-        <v>7103518</v>
+        <v>5406857</v>
       </c>
       <c r="Z38" t="n">
-        <v>9690507</v>
+        <v>7270123</v>
       </c>
       <c r="AA38" t="n">
-        <v>9450760</v>
+        <v>6592374</v>
       </c>
       <c r="AB38" t="n">
-        <v>10365766</v>
+        <v>8161319</v>
       </c>
       <c r="AC38" t="n">
-        <v>9455534</v>
+        <v>8592712</v>
       </c>
       <c r="AD38" t="n">
-        <v>10213685</v>
+        <v>8466421</v>
       </c>
       <c r="AE38" t="n">
-        <v>11245930</v>
+        <v>10593730</v>
       </c>
       <c r="AF38" t="n">
-        <v>11181449</v>
+        <v>10971517</v>
       </c>
       <c r="AG38" t="n">
-        <v>12169082</v>
+        <v>11155893</v>
       </c>
       <c r="AH38" t="n">
-        <v>13634837</v>
+        <v>11124499</v>
       </c>
       <c r="AI38" t="n">
-        <v>14426428</v>
+        <v>11955121</v>
       </c>
       <c r="AJ38" t="n">
-        <v>14483880</v>
+        <v>13523450</v>
       </c>
       <c r="AK38" t="n">
-        <v>15220000</v>
+        <v>12314015</v>
       </c>
       <c r="AL38" t="n">
-        <v>17614091</v>
+        <v>15368272</v>
       </c>
       <c r="AM38" t="n">
-        <v>18962605</v>
+        <v>14373351</v>
       </c>
       <c r="AN38" t="n">
-        <v>18463717</v>
+        <v>15769213</v>
       </c>
       <c r="AO38" t="n">
-        <v>17454644</v>
+        <v>15584268</v>
       </c>
       <c r="AP38" t="n">
-        <v>18594226</v>
+        <v>16830484</v>
       </c>
       <c r="AQ38" t="n">
-        <v>20507633</v>
+        <v>19224485</v>
       </c>
       <c r="AR38" t="n">
-        <v>19500476</v>
+        <v>18442884</v>
       </c>
       <c r="AS38" t="n">
-        <v>21476659</v>
+        <v>20530725</v>
       </c>
       <c r="AT38" t="n">
-        <v>22785732</v>
+        <v>22603321</v>
       </c>
       <c r="AU38" t="n">
-        <v>24594414</v>
+        <v>23714137</v>
       </c>
       <c r="AV38" t="n">
-        <v>26732758</v>
+        <v>24637345</v>
       </c>
       <c r="AW38" t="n">
-        <v>27123151</v>
+        <v>23733839</v>
       </c>
       <c r="AX38" t="n">
-        <v>29415327</v>
+        <v>26139890</v>
       </c>
       <c r="AY38" t="n">
-        <v>32985368</v>
+        <v>27054986</v>
       </c>
       <c r="AZ38" t="n">
-        <v>34791245</v>
+        <v>27196991</v>
       </c>
       <c r="BA38" t="n">
-        <v>32671455</v>
+        <v>28465239</v>
       </c>
       <c r="BB38" t="n">
-        <v>33037896</v>
+        <v>29265928</v>
       </c>
       <c r="BC38" t="n">
-        <v>35155611</v>
+        <v>30892400</v>
       </c>
       <c r="BD38" t="n">
-        <v>34903091</v>
+        <v>30283950</v>
       </c>
       <c r="BE38" t="n">
-        <v>37174385</v>
+        <v>34116138</v>
       </c>
       <c r="BF38" t="n">
-        <v>38791706</v>
+        <v>37994873</v>
       </c>
       <c r="BG38" t="n">
-        <v>38830022</v>
+        <v>41232354</v>
       </c>
       <c r="BH38" t="n">
-        <v>37980174</v>
+        <v>41632122</v>
       </c>
       <c r="BI38" t="n">
-        <v>40573644</v>
+        <v>40691205</v>
       </c>
     </row>
     <row r="39">
@@ -7534,184 +7534,184 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-71439</v>
+        <v>-89220.20000000007</v>
       </c>
       <c r="C39" t="n">
-        <v>-214994.5999999999</v>
+        <v>-110631.0000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>-188140.7999999996</v>
+        <v>-101262.4000000004</v>
       </c>
       <c r="E39" t="n">
-        <v>-194091.4000000004</v>
+        <v>-76024.80000000028</v>
       </c>
       <c r="F39" t="n">
-        <v>-263856.1999999993</v>
+        <v>-74206.60000000102</v>
       </c>
       <c r="G39" t="n">
-        <v>-104292</v>
+        <v>-109069.799999998</v>
       </c>
       <c r="H39" t="n">
-        <v>-91821.19999999925</v>
+        <v>-78443.00000000186</v>
       </c>
       <c r="I39" t="n">
-        <v>-41574.00000000093</v>
+        <v>-57613.00000000093</v>
       </c>
       <c r="J39" t="n">
-        <v>-53759.19999999739</v>
+        <v>-70566.40000000037</v>
       </c>
       <c r="K39" t="n">
-        <v>25733.80000000633</v>
+        <v>-15283.60000000149</v>
       </c>
       <c r="L39" t="n">
-        <v>45116.39999999851</v>
+        <v>80799.80000000075</v>
       </c>
       <c r="M39" t="n">
-        <v>-23453.00000000186</v>
+        <v>-33394</v>
       </c>
       <c r="N39" t="n">
-        <v>264128.0000000056</v>
+        <v>186431.4000000022</v>
       </c>
       <c r="O39" t="n">
-        <v>216409.8000000082</v>
+        <v>211960.9999999888</v>
       </c>
       <c r="P39" t="n">
-        <v>364218.5999999791</v>
+        <v>244588.1999999732</v>
       </c>
       <c r="Q39" t="n">
-        <v>249686.3999999873</v>
+        <v>285059.1999999955</v>
       </c>
       <c r="R39" t="n">
-        <v>287841.3999999873</v>
+        <v>297547.5999999829</v>
       </c>
       <c r="S39" t="n">
-        <v>378233.399999965</v>
+        <v>447084.8000000566</v>
       </c>
       <c r="T39" t="n">
-        <v>392357.6000000015</v>
+        <v>486025.0000000075</v>
       </c>
       <c r="U39" t="n">
-        <v>472336.400000006</v>
+        <v>508307.6000000015</v>
       </c>
       <c r="V39" t="n">
-        <v>528191.3999999687</v>
+        <v>498250.4000000656</v>
       </c>
       <c r="W39" t="n">
-        <v>675775.3999999166</v>
+        <v>584951.599999994</v>
       </c>
       <c r="X39" t="n">
-        <v>682164.2000000253</v>
+        <v>614142.8000000194</v>
       </c>
       <c r="Y39" t="n">
-        <v>728171.5999999642</v>
+        <v>525030.9999999702</v>
       </c>
       <c r="Z39" t="n">
-        <v>1235003.399999961</v>
+        <v>897672.200000003</v>
       </c>
       <c r="AA39" t="n">
-        <v>1138695.999999985</v>
+        <v>763597.2000000775</v>
       </c>
       <c r="AB39" t="n">
-        <v>1307357.200000137</v>
+        <v>1020831.400000051</v>
       </c>
       <c r="AC39" t="n">
-        <v>1124158.799999997</v>
+        <v>1113406.399999961</v>
       </c>
       <c r="AD39" t="n">
-        <v>1277067.000000179</v>
+        <v>1080404.600000098</v>
       </c>
       <c r="AE39" t="n">
-        <v>1475813.999999925</v>
+        <v>1511994.800000086</v>
       </c>
       <c r="AF39" t="n">
-        <v>1466163.799999923</v>
+        <v>1581433.399999946</v>
       </c>
       <c r="AG39" t="n">
-        <v>1658892.399999827</v>
+        <v>1605905.400000066</v>
       </c>
       <c r="AH39" t="n">
-        <v>1930081.400000364</v>
+        <v>1605004.999999687</v>
       </c>
       <c r="AI39" t="n">
-        <v>2060413.600000352</v>
+        <v>1763903.000000119</v>
       </c>
       <c r="AJ39" t="n">
-        <v>2069063.999999851</v>
+        <v>2062006</v>
       </c>
       <c r="AK39" t="n">
-        <v>2149615.999999881</v>
+        <v>1806241.000000328</v>
       </c>
       <c r="AL39" t="n">
-        <v>2614616.200000077</v>
+        <v>2414988.800000042</v>
       </c>
       <c r="AM39" t="n">
-        <v>2884946.999999821</v>
+        <v>2204389.800000101</v>
       </c>
       <c r="AN39" t="n">
-        <v>2782177.399999797</v>
+        <v>2493375.800000101</v>
       </c>
       <c r="AO39" t="n">
-        <v>2582968.800000221</v>
+        <v>2437226.400000155</v>
       </c>
       <c r="AP39" t="n">
-        <v>2797825.199998975</v>
+        <v>2658130.399999797</v>
       </c>
       <c r="AQ39" t="n">
-        <v>3149432.599999964</v>
+        <v>3149322.999999374</v>
       </c>
       <c r="AR39" t="n">
-        <v>2938695.199999988</v>
+        <v>2940453.600000083</v>
       </c>
       <c r="AS39" t="n">
-        <v>3315929.800000668</v>
+        <v>3299306.999999404</v>
       </c>
       <c r="AT39" t="n">
-        <v>3561810.399999797</v>
+        <v>3736515.799999893</v>
       </c>
       <c r="AU39" t="n">
-        <v>3868174.799998999</v>
+        <v>3955338.199999034</v>
       </c>
       <c r="AV39" t="n">
-        <v>4250931.599999845</v>
+        <v>4151739.799999833</v>
       </c>
       <c r="AW39" t="n">
-        <v>4289092.200000226</v>
+        <v>3967277.800000191</v>
       </c>
       <c r="AX39" t="n">
-        <v>4732919.400000334</v>
+        <v>4457959.60000062</v>
       </c>
       <c r="AY39" t="n">
-        <v>5404001.600000203</v>
+        <v>4616796.399999261</v>
       </c>
       <c r="AZ39" t="n">
-        <v>5758962.999998808</v>
+        <v>4625549.799999535</v>
       </c>
       <c r="BA39" t="n">
-        <v>5328672.999998212</v>
+        <v>4864472.999999404</v>
       </c>
       <c r="BB39" t="n">
-        <v>5391499.20000124</v>
+        <v>4995905.599999666</v>
       </c>
       <c r="BC39" t="n">
-        <v>5786344.199998736</v>
+        <v>5309180.800001502</v>
       </c>
       <c r="BD39" t="n">
-        <v>5729376.199998736</v>
+        <v>5180533.200001121</v>
       </c>
       <c r="BE39" t="n">
-        <v>6174303.000001311</v>
+        <v>5903669.999999046</v>
       </c>
       <c r="BF39" t="n">
-        <v>6484265.19999814</v>
+        <v>6668983.000003934</v>
       </c>
       <c r="BG39" t="n">
-        <v>6478512.399997592</v>
+        <v>7321556.399996758</v>
       </c>
       <c r="BH39" t="n">
-        <v>6303054.799999595</v>
+        <v>7371740.400001526</v>
       </c>
       <c r="BI39" t="n">
-        <v>6764368.800000668</v>
+        <v>7190455.79999876</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -651,148 +651,148 @@
         <v>285</v>
       </c>
       <c r="N2" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="O2" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P2" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q2" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="R2" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S2" t="n">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="T2" t="n">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="U2" t="n">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="V2" t="n">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W2" t="n">
         <v>531</v>
       </c>
       <c r="X2" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Y2" t="n">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="Z2" t="n">
-        <v>650</v>
+        <v>691</v>
       </c>
       <c r="AA2" t="n">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="AB2" t="n">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="AC2" t="n">
-        <v>742</v>
+        <v>787</v>
       </c>
       <c r="AD2" t="n">
-        <v>761</v>
+        <v>779</v>
       </c>
       <c r="AE2" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AF2" t="n">
-        <v>857</v>
+        <v>881</v>
       </c>
       <c r="AG2" t="n">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="AH2" t="n">
-        <v>906</v>
+        <v>923</v>
       </c>
       <c r="AI2" t="n">
-        <v>950</v>
+        <v>963</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="AK2" t="n">
-        <v>1008</v>
+        <v>1061</v>
       </c>
       <c r="AL2" t="n">
-        <v>1137</v>
+        <v>1203</v>
       </c>
       <c r="AM2" t="n">
-        <v>1145</v>
+        <v>1233</v>
       </c>
       <c r="AN2" t="n">
-        <v>1222</v>
+        <v>1315</v>
       </c>
       <c r="AO2" t="n">
-        <v>1254</v>
+        <v>1344</v>
       </c>
       <c r="AP2" t="n">
-        <v>1276</v>
+        <v>1329</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1422</v>
+        <v>1384</v>
       </c>
       <c r="AR2" t="n">
-        <v>1485</v>
+        <v>1466</v>
       </c>
       <c r="AS2" t="n">
-        <v>1479</v>
+        <v>1438</v>
       </c>
       <c r="AT2" t="n">
-        <v>1524</v>
+        <v>1547</v>
       </c>
       <c r="AU2" t="n">
-        <v>1577</v>
+        <v>1600</v>
       </c>
       <c r="AV2" t="n">
-        <v>1689</v>
+        <v>1658</v>
       </c>
       <c r="AW2" t="n">
-        <v>1674</v>
+        <v>1722</v>
       </c>
       <c r="AX2" t="n">
-        <v>1876</v>
+        <v>1937</v>
       </c>
       <c r="AY2" t="n">
-        <v>1860</v>
+        <v>1946</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1945</v>
+        <v>2192</v>
       </c>
       <c r="BA2" t="n">
-        <v>1967</v>
+        <v>2201</v>
       </c>
       <c r="BB2" t="n">
-        <v>2038</v>
+        <v>2196</v>
       </c>
       <c r="BC2" t="n">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="BD2" t="n">
-        <v>2295</v>
+        <v>2360</v>
       </c>
       <c r="BE2" t="n">
-        <v>2315</v>
+        <v>2290</v>
       </c>
       <c r="BF2" t="n">
-        <v>2451</v>
+        <v>2446</v>
       </c>
       <c r="BG2" t="n">
-        <v>2533</v>
+        <v>2514</v>
       </c>
       <c r="BH2" t="n">
-        <v>2668</v>
+        <v>2604</v>
       </c>
       <c r="BI2" t="n">
-        <v>2660</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="3">
@@ -802,184 +802,184 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
         <v>15</v>
       </c>
-      <c r="F3" t="n">
-        <v>16</v>
-      </c>
       <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15</v>
+      </c>
+      <c r="K3" t="n">
         <v>17</v>
       </c>
-      <c r="H3" t="n">
-        <v>16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>24</v>
-      </c>
-      <c r="K3" t="n">
-        <v>24</v>
-      </c>
       <c r="L3" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="O3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P3" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>40</v>
+      </c>
+      <c r="R3" t="n">
+        <v>50</v>
+      </c>
+      <c r="S3" t="n">
+        <v>41</v>
+      </c>
+      <c r="T3" t="n">
+        <v>41</v>
+      </c>
+      <c r="U3" t="n">
+        <v>47</v>
+      </c>
+      <c r="V3" t="n">
         <v>44</v>
       </c>
-      <c r="Q3" t="n">
-        <v>41</v>
-      </c>
-      <c r="R3" t="n">
-        <v>30</v>
-      </c>
-      <c r="S3" t="n">
-        <v>33</v>
-      </c>
-      <c r="T3" t="n">
-        <v>29</v>
-      </c>
-      <c r="U3" t="n">
-        <v>51</v>
-      </c>
-      <c r="V3" t="n">
-        <v>46</v>
-      </c>
       <c r="W3" t="n">
+        <v>52</v>
+      </c>
+      <c r="X3" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>61</v>
+      </c>
+      <c r="Z3" t="n">
         <v>55</v>
       </c>
-      <c r="X3" t="n">
-        <v>46</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>47</v>
-      </c>
       <c r="AA3" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AB3" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AC3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD3" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="AE3" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AF3" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="AG3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>71</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>59</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>61</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>74</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>69</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>74</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>68</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>88</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>87</v>
+      </c>
+      <c r="AT3" t="n">
         <v>64</v>
       </c>
-      <c r="AH3" t="n">
-        <v>64</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>72</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>62</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>62</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>68</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>91</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AU3" t="n">
         <v>83</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>79</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>78</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>71</v>
-      </c>
       <c r="AV3" t="n">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AX3" t="n">
         <v>93</v>
       </c>
       <c r="AY3" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AZ3" t="n">
+        <v>95</v>
+      </c>
+      <c r="BA3" t="n">
         <v>84</v>
       </c>
-      <c r="BA3" t="n">
-        <v>86</v>
-      </c>
       <c r="BB3" t="n">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="BC3" t="n">
         <v>93</v>
       </c>
       <c r="BD3" t="n">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="BE3" t="n">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="BF3" t="n">
         <v>103</v>
       </c>
       <c r="BG3" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="BH3" t="n">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="BI3" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
@@ -989,184 +989,184 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
+        <v>53</v>
+      </c>
+      <c r="F4" t="n">
         <v>57</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>58</v>
+      </c>
+      <c r="H4" t="n">
+        <v>59</v>
+      </c>
+      <c r="I4" t="n">
         <v>66</v>
       </c>
-      <c r="G4" t="n">
-        <v>66</v>
-      </c>
-      <c r="H4" t="n">
-        <v>72</v>
-      </c>
-      <c r="I4" t="n">
-        <v>81</v>
-      </c>
       <c r="J4" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="K4" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L4" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M4" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N4" t="n">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="O4" t="n">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="P4" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q4" t="n">
+        <v>138</v>
+      </c>
+      <c r="R4" t="n">
+        <v>142</v>
+      </c>
+      <c r="S4" t="n">
+        <v>158</v>
+      </c>
+      <c r="T4" t="n">
         <v>157</v>
       </c>
-      <c r="R4" t="n">
-        <v>154</v>
-      </c>
-      <c r="S4" t="n">
-        <v>167</v>
-      </c>
-      <c r="T4" t="n">
-        <v>158</v>
-      </c>
       <c r="U4" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="V4" t="n">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="W4" t="n">
+        <v>178</v>
+      </c>
+      <c r="X4" t="n">
+        <v>195</v>
+      </c>
+      <c r="Y4" t="n">
         <v>181</v>
       </c>
-      <c r="X4" t="n">
-        <v>181</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>207</v>
-      </c>
       <c r="Z4" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA4" t="n">
+        <v>193</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>220</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>217</v>
+      </c>
+      <c r="AD4" t="n">
         <v>227</v>
       </c>
-      <c r="AB4" t="n">
-        <v>202</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>219</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>220</v>
-      </c>
       <c r="AE4" t="n">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="AF4" t="n">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="AG4" t="n">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="AH4" t="n">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="AI4" t="n">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="AJ4" t="n">
+        <v>265</v>
+      </c>
+      <c r="AK4" t="n">
         <v>282</v>
       </c>
-      <c r="AK4" t="n">
-        <v>276</v>
-      </c>
       <c r="AL4" t="n">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AM4" t="n">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="AN4" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AO4" t="n">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="AP4" t="n">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="AQ4" t="n">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="AR4" t="n">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="AS4" t="n">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="AT4" t="n">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="AU4" t="n">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="AV4" t="n">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="AW4" t="n">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="AX4" t="n">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="AY4" t="n">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="AZ4" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="BA4" t="n">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="BB4" t="n">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="BC4" t="n">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="BD4" t="n">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="BE4" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="BF4" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="BG4" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="BH4" t="n">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="BI4" t="n">
-        <v>429</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5">
@@ -1176,184 +1176,184 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C5" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
+        <v>58</v>
+      </c>
+      <c r="E5" t="n">
         <v>67</v>
       </c>
-      <c r="E5" t="n">
-        <v>61</v>
-      </c>
       <c r="F5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H5" t="n">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="I5" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K5" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L5" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="M5" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N5" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O5" t="n">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="P5" t="n">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Q5" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="R5" t="n">
+        <v>175</v>
+      </c>
+      <c r="S5" t="n">
         <v>183</v>
       </c>
-      <c r="S5" t="n">
-        <v>182</v>
-      </c>
       <c r="T5" t="n">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="U5" t="n">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="V5" t="n">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="W5" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="X5" t="n">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="Y5" t="n">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="Z5" t="n">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AA5" t="n">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="AB5" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AC5" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AD5" t="n">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AE5" t="n">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="AF5" t="n">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="AG5" t="n">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="AH5" t="n">
+        <v>314</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>318</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>349</v>
+      </c>
+      <c r="AK5" t="n">
         <v>340</v>
       </c>
-      <c r="AI5" t="n">
-        <v>321</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>331</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>358</v>
-      </c>
       <c r="AL5" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="AM5" t="n">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="AN5" t="n">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="AO5" t="n">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="AP5" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AQ5" t="n">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="AR5" t="n">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AS5" t="n">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AT5" t="n">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="AU5" t="n">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="AV5" t="n">
-        <v>454</v>
+        <v>417</v>
       </c>
       <c r="AW5" t="n">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="AX5" t="n">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="AY5" t="n">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="AZ5" t="n">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="BA5" t="n">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="BB5" t="n">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="BC5" t="n">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="BD5" t="n">
+        <v>482</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>481</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>488</v>
+      </c>
+      <c r="BG5" t="n">
         <v>497</v>
       </c>
-      <c r="BE5" t="n">
-        <v>508</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>491</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>494</v>
-      </c>
       <c r="BH5" t="n">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="BI5" t="n">
-        <v>485</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6">
@@ -1399,148 +1399,148 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P6" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q6" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R6" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S6" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="T6" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="U6" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V6" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W6" t="n">
         <v>85</v>
       </c>
       <c r="X6" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="n">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="AA6" t="n">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="AB6" t="n">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="AC6" t="n">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="AD6" t="n">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="AE6" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF6" t="n">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="AG6" t="n">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="AH6" t="n">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="AI6" t="n">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AJ6" t="n">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AK6" t="n">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="AL6" t="n">
-        <v>421</v>
+        <v>487</v>
       </c>
       <c r="AM6" t="n">
-        <v>414</v>
+        <v>502</v>
       </c>
       <c r="AN6" t="n">
-        <v>477</v>
+        <v>570</v>
       </c>
       <c r="AO6" t="n">
-        <v>493</v>
+        <v>583</v>
       </c>
       <c r="AP6" t="n">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="AQ6" t="n">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="AR6" t="n">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="AS6" t="n">
-        <v>656</v>
+        <v>615</v>
       </c>
       <c r="AT6" t="n">
-        <v>685</v>
+        <v>708</v>
       </c>
       <c r="AU6" t="n">
-        <v>721</v>
+        <v>744</v>
       </c>
       <c r="AV6" t="n">
-        <v>815</v>
+        <v>784</v>
       </c>
       <c r="AW6" t="n">
-        <v>784</v>
+        <v>832</v>
       </c>
       <c r="AX6" t="n">
-        <v>967</v>
+        <v>1028</v>
       </c>
       <c r="AY6" t="n">
-        <v>943</v>
+        <v>1029</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1018</v>
+        <v>1265</v>
       </c>
       <c r="BA6" t="n">
-        <v>1031</v>
+        <v>1265</v>
       </c>
       <c r="BB6" t="n">
-        <v>1092</v>
+        <v>1250</v>
       </c>
       <c r="BC6" t="n">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="BD6" t="n">
-        <v>1331</v>
+        <v>1396</v>
       </c>
       <c r="BE6" t="n">
-        <v>1341</v>
+        <v>1316</v>
       </c>
       <c r="BF6" t="n">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="BG6" t="n">
-        <v>1539</v>
+        <v>1520</v>
       </c>
       <c r="BH6" t="n">
-        <v>1664</v>
+        <v>1600</v>
       </c>
       <c r="BI6" t="n">
-        <v>1647</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="7">
@@ -1550,184 +1550,184 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18</v>
+      </c>
+      <c r="H7" t="n">
+        <v>24</v>
+      </c>
+      <c r="I7" t="n">
         <v>16</v>
       </c>
-      <c r="F7" t="n">
-        <v>11</v>
-      </c>
-      <c r="G7" t="n">
-        <v>21</v>
-      </c>
-      <c r="H7" t="n">
-        <v>21</v>
-      </c>
-      <c r="I7" t="n">
-        <v>22</v>
-      </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L7" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M7" t="n">
+        <v>37</v>
+      </c>
+      <c r="N7" t="n">
         <v>38</v>
       </c>
-      <c r="N7" t="n">
-        <v>28</v>
-      </c>
       <c r="O7" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P7" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q7" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="R7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S7" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="T7" t="n">
+        <v>58</v>
+      </c>
+      <c r="U7" t="n">
+        <v>46</v>
+      </c>
+      <c r="V7" t="n">
         <v>47</v>
       </c>
-      <c r="U7" t="n">
-        <v>35</v>
-      </c>
-      <c r="V7" t="n">
-        <v>41</v>
-      </c>
       <c r="W7" t="n">
+        <v>58</v>
+      </c>
+      <c r="X7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z7" t="n">
         <v>47</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>71</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>64</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>64</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>63</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>69</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>68</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>49</v>
+      </c>
+      <c r="AL7" t="n">
         <v>61</v>
       </c>
-      <c r="Y7" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>52</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>59</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>59</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AM7" t="n">
+        <v>53</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>71</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>92</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>71</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>78</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>84</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>78</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>76</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>78</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>93</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>72</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>95</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>61</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>79</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>74</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>74</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>72</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>84</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>72</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>78</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>73</v>
+      </c>
+      <c r="BI7" t="n">
         <v>81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>68</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>68</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>73</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>78</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>77</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>86</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>61</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>63</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>78</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>71</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>71</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>89</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>77</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>99</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>68</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>84</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>83</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>85</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>54</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>75</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>96</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>93</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>89</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>83</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1773,148 +1773,148 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU8" t="n">
         <v>3</v>
       </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AV8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH8" t="n">
         <v>3</v>
       </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>2</v>
-      </c>
       <c r="BI8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1927,181 +1927,181 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
         <v>3</v>
       </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" t="n">
         <v>4</v>
       </c>
-      <c r="H9" t="n">
+      <c r="M9" t="n">
         <v>3</v>
       </c>
-      <c r="I9" t="n">
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" t="n">
         <v>7</v>
       </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
+        <v>12</v>
+      </c>
+      <c r="R9" t="n">
         <v>8</v>
       </c>
-      <c r="O9" t="n">
-        <v>6</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>11</v>
-      </c>
-      <c r="R9" t="n">
-        <v>11</v>
-      </c>
       <c r="S9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V9" t="n">
         <v>9</v>
       </c>
       <c r="W9" t="n">
+        <v>15</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA9" t="n">
         <v>8</v>
       </c>
-      <c r="X9" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="BB9" t="n">
+        <v>19</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF9" t="n">
         <v>14</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="BG9" t="n">
         <v>9</v>
       </c>
-      <c r="AC9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG9" t="n">
+      <c r="BH9" t="n">
         <v>14</v>
       </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ9" t="n">
+      <c r="BI9" t="n">
         <v>15</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>18</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>16</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>22</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>26</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>13</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>22</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -2111,184 +2111,184 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
         <v>13</v>
       </c>
-      <c r="D10" t="n">
-        <v>16</v>
-      </c>
       <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14</v>
+      </c>
+      <c r="H10" t="n">
+        <v>19</v>
+      </c>
+      <c r="I10" t="n">
         <v>13</v>
       </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="n">
-        <v>16</v>
-      </c>
-      <c r="H10" t="n">
-        <v>18</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
       <c r="J10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L10" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M10" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N10" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="O10" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="P10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q10" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="R10" t="n">
         <v>29</v>
       </c>
       <c r="S10" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T10" t="n">
+        <v>44</v>
+      </c>
+      <c r="U10" t="n">
+        <v>34</v>
+      </c>
+      <c r="V10" t="n">
+        <v>37</v>
+      </c>
+      <c r="W10" t="n">
+        <v>42</v>
+      </c>
+      <c r="X10" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>53</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>49</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>49</v>
+      </c>
+      <c r="AK10" t="n">
         <v>36</v>
       </c>
-      <c r="U10" t="n">
-        <v>23</v>
-      </c>
-      <c r="V10" t="n">
-        <v>28</v>
-      </c>
-      <c r="W10" t="n">
-        <v>36</v>
-      </c>
-      <c r="X10" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AL10" t="n">
+        <v>47</v>
+      </c>
+      <c r="AM10" t="n">
         <v>45</v>
       </c>
-      <c r="AA10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>52</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>61</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>53</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>61</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>58</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>53</v>
-      </c>
-      <c r="AM10" t="n">
+      <c r="AN10" t="n">
+        <v>57</v>
+      </c>
+      <c r="AO10" t="n">
         <v>67</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>47</v>
       </c>
       <c r="AP10" t="n">
         <v>58</v>
       </c>
       <c r="AQ10" t="n">
+        <v>62</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>63</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>61</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>71</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>56</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>71</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>42</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB10" t="n">
         <v>52</v>
       </c>
-      <c r="AR10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>53</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>57</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>66</v>
-      </c>
-      <c r="AV10" t="n">
+      <c r="BC10" t="n">
+        <v>56</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>56</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>63</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>65</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BI10" t="n">
         <v>60</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>76</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>66</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>63</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>61</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>41</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>54</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>70</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>66</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>66</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>55</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -2340,16 +2340,16 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -2358,124 +2358,124 @@
         <v>1</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="n">
         <v>4</v>
       </c>
-      <c r="W11" t="n">
-        <v>2</v>
-      </c>
-      <c r="X11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1</v>
-      </c>
       <c r="AC11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
         <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL11" t="n">
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>3</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AR11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
         <v>8</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AV11" t="n">
         <v>4</v>
       </c>
-      <c r="AR11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT11" t="n">
+      <c r="AW11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX11" t="n">
         <v>4</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AY11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH11" t="n">
         <v>5</v>
       </c>
-      <c r="AV11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>4</v>
-      </c>
       <c r="BI11" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2485,184 +2485,184 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="C12" t="n">
-        <v>14</v>
-      </c>
-      <c r="D12" t="n">
-        <v>16</v>
-      </c>
       <c r="E12" t="n">
+        <v>21</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G12" t="n">
         <v>20</v>
-      </c>
-      <c r="F12" t="n">
-        <v>13</v>
-      </c>
-      <c r="G12" t="n">
-        <v>21</v>
       </c>
       <c r="H12" t="n">
         <v>26</v>
       </c>
       <c r="I12" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L12" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M12" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12" t="n">
         <v>40</v>
       </c>
       <c r="P12" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="Q12" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="R12" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="S12" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T12" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U12" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V12" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W12" t="n">
+        <v>40</v>
+      </c>
+      <c r="X12" t="n">
         <v>49</v>
       </c>
-      <c r="X12" t="n">
-        <v>58</v>
-      </c>
       <c r="Y12" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="Z12" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AA12" t="n">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="AB12" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="AC12" t="n">
         <v>56</v>
       </c>
       <c r="AD12" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE12" t="n">
         <v>57</v>
       </c>
       <c r="AF12" t="n">
+        <v>47</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>47</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>72</v>
+      </c>
+      <c r="AI12" t="n">
         <v>70</v>
       </c>
-      <c r="AG12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AJ12" t="n">
+        <v>62</v>
+      </c>
+      <c r="AK12" t="n">
         <v>61</v>
       </c>
-      <c r="AI12" t="n">
-        <v>63</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AL12" t="n">
+        <v>68</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>74</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>77</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>74</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>74</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>82</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>91</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>105</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>66</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>82</v>
+      </c>
+      <c r="BA12" t="n">
         <v>84</v>
       </c>
-      <c r="AL12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN12" t="n">
+      <c r="BB12" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD12" t="n">
         <v>73</v>
       </c>
-      <c r="AO12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>57</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>69</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>53</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>91</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>74</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>84</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>69</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>91</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>69</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>79</v>
-      </c>
       <c r="BE12" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="BF12" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="BG12" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="BH12" t="n">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="BI12" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -2726,25 +2726,25 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -2753,10 +2753,10 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -2765,46 +2765,46 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>1</v>
@@ -2813,25 +2813,25 @@
         <v>1</v>
       </c>
       <c r="AW13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX13" t="n">
         <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
         <v>1</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" t="n">
         <v>1</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="BH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2859,184 +2859,184 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" t="n">
-        <v>7</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
+        <v>9</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>12</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>14</v>
+      </c>
+      <c r="R14" t="n">
+        <v>16</v>
+      </c>
+      <c r="S14" t="n">
         <v>10</v>
       </c>
-      <c r="M14" t="n">
+      <c r="T14" t="n">
+        <v>11</v>
+      </c>
+      <c r="U14" t="n">
+        <v>9</v>
+      </c>
+      <c r="V14" t="n">
+        <v>13</v>
+      </c>
+      <c r="W14" t="n">
+        <v>9</v>
+      </c>
+      <c r="X14" t="n">
         <v>6</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>8</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>10</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>9</v>
-      </c>
-      <c r="T14" t="n">
-        <v>13</v>
-      </c>
-      <c r="U14" t="n">
-        <v>13</v>
-      </c>
-      <c r="V14" t="n">
-        <v>15</v>
-      </c>
-      <c r="W14" t="n">
-        <v>11</v>
-      </c>
-      <c r="X14" t="n">
-        <v>11</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
       </c>
       <c r="Z14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA14" t="n">
         <v>16</v>
       </c>
-      <c r="AA14" t="n">
-        <v>10</v>
-      </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
         <v>8</v>
       </c>
       <c r="AE14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG14" t="n">
         <v>9</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>9</v>
       </c>
       <c r="AI14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP14" t="n">
         <v>19</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>7</v>
       </c>
       <c r="AQ14" t="n">
         <v>12</v>
       </c>
       <c r="AR14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA14" t="n">
         <v>10</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="BB14" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD14" t="n">
         <v>16</v>
       </c>
-      <c r="AT14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW14" t="n">
+      <c r="BE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>16</v>
+      </c>
+      <c r="BG14" t="n">
         <v>14</v>
       </c>
-      <c r="AX14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>19</v>
-      </c>
-      <c r="BC14" t="n">
+      <c r="BH14" t="n">
         <v>10</v>
       </c>
-      <c r="BD14" t="n">
-        <v>17</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>12</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>18</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>18</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>19</v>
-      </c>
       <c r="BI14" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -3046,184 +3046,184 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H15" t="n">
+        <v>24</v>
+      </c>
+      <c r="I15" t="n">
+        <v>21</v>
+      </c>
+      <c r="J15" t="n">
+        <v>19</v>
+      </c>
+      <c r="K15" t="n">
         <v>23</v>
       </c>
-      <c r="I15" t="n">
-        <v>19</v>
-      </c>
-      <c r="J15" t="n">
-        <v>30</v>
-      </c>
-      <c r="K15" t="n">
-        <v>24</v>
-      </c>
       <c r="L15" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M15" t="n">
+        <v>22</v>
+      </c>
+      <c r="N15" t="n">
+        <v>33</v>
+      </c>
+      <c r="O15" t="n">
         <v>27</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q15" t="n">
         <v>32</v>
       </c>
-      <c r="O15" t="n">
-        <v>30</v>
-      </c>
-      <c r="P15" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>23</v>
-      </c>
       <c r="R15" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S15" t="n">
         <v>34</v>
       </c>
       <c r="T15" t="n">
+        <v>37</v>
+      </c>
+      <c r="U15" t="n">
+        <v>35</v>
+      </c>
+      <c r="V15" t="n">
+        <v>33</v>
+      </c>
+      <c r="W15" t="n">
+        <v>28</v>
+      </c>
+      <c r="X15" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z15" t="n">
         <v>36</v>
       </c>
-      <c r="U15" t="n">
-        <v>27</v>
-      </c>
-      <c r="V15" t="n">
-        <v>28</v>
-      </c>
-      <c r="W15" t="n">
-        <v>38</v>
-      </c>
-      <c r="X15" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>45</v>
-      </c>
       <c r="AA15" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AB15" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE15" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AF15" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="AG15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>53</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>49</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>50</v>
       </c>
-      <c r="AH15" t="n">
-        <v>47</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>48</v>
-      </c>
       <c r="AK15" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
         <v>49</v>
       </c>
       <c r="AM15" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AN15" t="n">
+        <v>49</v>
+      </c>
+      <c r="AO15" t="n">
         <v>53</v>
       </c>
-      <c r="AO15" t="n">
-        <v>44</v>
-      </c>
       <c r="AP15" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AR15" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AS15" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AT15" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AU15" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AV15" t="n">
         <v>52</v>
       </c>
       <c r="AW15" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AX15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>49</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>64</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>66</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>48</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>71</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>61</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>48</v>
+      </c>
+      <c r="BH15" t="n">
         <v>58</v>
       </c>
-      <c r="AY15" t="n">
-        <v>64</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>48</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>65</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>58</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>50</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>54</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>59</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>68</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>64</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>75</v>
-      </c>
       <c r="BI15" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -3272,145 +3272,145 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
         <v>3</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
         <v>3</v>
       </c>
-      <c r="V16" t="n">
+      <c r="X16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC16" t="n">
         <v>3</v>
       </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="AD16" t="n">
         <v>3</v>
       </c>
-      <c r="Z16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC16" t="n">
+      <c r="AE16" t="n">
         <v>6</v>
       </c>
-      <c r="AD16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>5</v>
-      </c>
       <c r="AF16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AG16" t="n">
         <v>3</v>
       </c>
       <c r="AH16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI16" t="n">
         <v>5</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
         <v>4</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AK16" t="n">
         <v>7</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>6</v>
       </c>
       <c r="AL16" t="n">
         <v>8</v>
       </c>
       <c r="AM16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN16" t="n">
         <v>6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AO16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY16" t="n">
         <v>4</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AZ16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB16" t="n">
         <v>6</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="BC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF16" t="n">
         <v>5</v>
       </c>
-      <c r="AQ16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC16" t="n">
+      <c r="BG16" t="n">
         <v>9</v>
       </c>
-      <c r="BD16" t="n">
-        <v>7</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>4</v>
-      </c>
       <c r="BH16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -3420,184 +3420,184 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
         <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I17" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J17" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K17" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L17" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M17" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="O17" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="P17" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q17" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="R17" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="S17" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T17" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="U17" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V17" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="W17" t="n">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="X17" t="n">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="Y17" t="n">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="Z17" t="n">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="AA17" t="n">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="AB17" t="n">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AC17" t="n">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="AD17" t="n">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="AE17" t="n">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="AF17" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AG17" t="n">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="AH17" t="n">
         <v>287</v>
       </c>
       <c r="AI17" t="n">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="AJ17" t="n">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="AK17" t="n">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AL17" t="n">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="AM17" t="n">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="AN17" t="n">
-        <v>407</v>
+        <v>550</v>
       </c>
       <c r="AO17" t="n">
-        <v>408</v>
+        <v>513</v>
       </c>
       <c r="AP17" t="n">
-        <v>456</v>
+        <v>540</v>
       </c>
       <c r="AQ17" t="n">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="AR17" t="n">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="AS17" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AT17" t="n">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="AU17" t="n">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="AV17" t="n">
-        <v>698</v>
+        <v>658</v>
       </c>
       <c r="AW17" t="n">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="AX17" t="n">
-        <v>736</v>
+        <v>839</v>
       </c>
       <c r="AY17" t="n">
-        <v>737</v>
+        <v>847</v>
       </c>
       <c r="AZ17" t="n">
-        <v>776</v>
+        <v>880</v>
       </c>
       <c r="BA17" t="n">
-        <v>782</v>
+        <v>891</v>
       </c>
       <c r="BB17" t="n">
-        <v>825</v>
+        <v>954</v>
       </c>
       <c r="BC17" t="n">
-        <v>908</v>
+        <v>976</v>
       </c>
       <c r="BD17" t="n">
-        <v>902</v>
+        <v>993</v>
       </c>
       <c r="BE17" t="n">
-        <v>959</v>
+        <v>938</v>
       </c>
       <c r="BF17" t="n">
-        <v>1104</v>
+        <v>1011</v>
       </c>
       <c r="BG17" t="n">
-        <v>1191</v>
+        <v>1030</v>
       </c>
       <c r="BH17" t="n">
-        <v>1210</v>
+        <v>1014</v>
       </c>
       <c r="BI17" t="n">
-        <v>1238</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="18">
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -3637,10 +3637,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -3652,10 +3652,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -3664,19 +3664,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>1</v>
       </c>
       <c r="Y18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
@@ -3727,13 +3727,13 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS18" t="n">
         <v>1</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
         <v>1</v>
@@ -3754,34 +3754,34 @@
         <v>1</v>
       </c>
       <c r="AY18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ18" t="n">
         <v>0</v>
       </c>
       <c r="BA18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" t="n">
         <v>0</v>
       </c>
       <c r="BF18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BI18" t="n">
         <v>2</v>
@@ -3794,184 +3794,184 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" t="n">
         <v>5</v>
       </c>
-      <c r="K19" t="n">
-        <v>7</v>
-      </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
         <v>6</v>
       </c>
       <c r="P19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
         <v>9</v>
       </c>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W19" t="n">
         <v>12</v>
       </c>
       <c r="X19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG19" t="n">
         <v>7</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AH19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>10</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AK19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>10</v>
       </c>
-      <c r="AA19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AR19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS19" t="n">
         <v>12</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AT19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU19" t="n">
         <v>16</v>
       </c>
-      <c r="AF19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AV19" t="n">
         <v>11</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AW19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY19" t="n">
         <v>13</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>18</v>
       </c>
       <c r="AZ19" t="n">
         <v>8</v>
       </c>
       <c r="BA19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BB19" t="n">
         <v>19</v>
       </c>
       <c r="BC19" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>14</v>
+      </c>
+      <c r="BE19" t="n">
         <v>12</v>
       </c>
-      <c r="BD19" t="n">
+      <c r="BF19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>19</v>
+      </c>
+      <c r="BH19" t="n">
         <v>12</v>
       </c>
-      <c r="BE19" t="n">
-        <v>21</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>13</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>20</v>
-      </c>
       <c r="BI19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -3981,184 +3981,184 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I20" t="n">
+        <v>24</v>
+      </c>
+      <c r="J20" t="n">
+        <v>21</v>
+      </c>
+      <c r="K20" t="n">
+        <v>26</v>
+      </c>
+      <c r="L20" t="n">
         <v>23</v>
       </c>
-      <c r="J20" t="n">
-        <v>14</v>
-      </c>
-      <c r="K20" t="n">
-        <v>22</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
+        <v>31</v>
+      </c>
+      <c r="N20" t="n">
         <v>38</v>
       </c>
-      <c r="M20" t="n">
-        <v>20</v>
-      </c>
-      <c r="N20" t="n">
-        <v>23</v>
-      </c>
       <c r="O20" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q20" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="R20" t="n">
+        <v>33</v>
+      </c>
+      <c r="S20" t="n">
+        <v>35</v>
+      </c>
+      <c r="T20" t="n">
         <v>29</v>
       </c>
-      <c r="S20" t="n">
-        <v>34</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
+        <v>32</v>
+      </c>
+      <c r="V20" t="n">
+        <v>36</v>
+      </c>
+      <c r="W20" t="n">
+        <v>42</v>
+      </c>
+      <c r="X20" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>39</v>
+      </c>
+      <c r="AB20" t="n">
         <v>35</v>
       </c>
-      <c r="U20" t="n">
-        <v>29</v>
-      </c>
-      <c r="V20" t="n">
-        <v>26</v>
-      </c>
-      <c r="W20" t="n">
-        <v>32</v>
-      </c>
-      <c r="X20" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>33</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>43</v>
-      </c>
       <c r="AC20" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD20" t="n">
+        <v>39</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>47</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>52</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>66</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>54</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>62</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>56</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>57</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>61</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>72</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>49</v>
+      </c>
+      <c r="BA20" t="n">
         <v>45</v>
       </c>
-      <c r="AE20" t="n">
-        <v>54</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>49</v>
-      </c>
-      <c r="AG20" t="n">
+      <c r="BB20" t="n">
+        <v>58</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>60</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>62</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>63</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>63</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>56</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BI20" t="n">
         <v>53</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>52</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>58</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>53</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>62</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>65</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>48</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>64</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>59</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>54</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>66</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>88</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>58</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>57</v>
       </c>
     </row>
     <row r="21">
@@ -4204,148 +4204,148 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="O21" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q21" t="n">
+        <v>52</v>
+      </c>
+      <c r="R21" t="n">
         <v>41</v>
       </c>
-      <c r="R21" t="n">
-        <v>32</v>
-      </c>
       <c r="S21" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T21" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="U21" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="V21" t="n">
         <v>64</v>
       </c>
       <c r="W21" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="X21" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Y21" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z21" t="n">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="AA21" t="n">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="AB21" t="n">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="AC21" t="n">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="AD21" t="n">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="AE21" t="n">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AH21" t="n">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AI21" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AJ21" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AK21" t="n">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="AL21" t="n">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="AM21" t="n">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="AN21" t="n">
-        <v>347</v>
+        <v>480</v>
       </c>
       <c r="AO21" t="n">
-        <v>347</v>
+        <v>461</v>
       </c>
       <c r="AP21" t="n">
-        <v>392</v>
+        <v>468</v>
       </c>
       <c r="AQ21" t="n">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="AR21" t="n">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="AS21" t="n">
         <v>476</v>
       </c>
       <c r="AT21" t="n">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="AU21" t="n">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="AV21" t="n">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="AW21" t="n">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="AX21" t="n">
-        <v>677</v>
+        <v>752</v>
       </c>
       <c r="AY21" t="n">
-        <v>667</v>
+        <v>762</v>
       </c>
       <c r="AZ21" t="n">
-        <v>703</v>
+        <v>823</v>
       </c>
       <c r="BA21" t="n">
-        <v>706</v>
+        <v>833</v>
       </c>
       <c r="BB21" t="n">
-        <v>757</v>
+        <v>875</v>
       </c>
       <c r="BC21" t="n">
-        <v>832</v>
+        <v>900</v>
       </c>
       <c r="BD21" t="n">
-        <v>830</v>
+        <v>917</v>
       </c>
       <c r="BE21" t="n">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="BF21" t="n">
-        <v>1027</v>
+        <v>935</v>
       </c>
       <c r="BG21" t="n">
-        <v>1090</v>
+        <v>954</v>
       </c>
       <c r="BH21" t="n">
-        <v>1129</v>
+        <v>951</v>
       </c>
       <c r="BI21" t="n">
-        <v>1167</v>
+        <v>995</v>
       </c>
     </row>
     <row r="22">
@@ -4355,184 +4355,184 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93600</v>
+        <v>115200</v>
       </c>
       <c r="C22" t="n">
-        <v>122400</v>
+        <v>104400</v>
       </c>
       <c r="D22" t="n">
-        <v>172800</v>
+        <v>154800</v>
       </c>
       <c r="E22" t="n">
-        <v>198000</v>
+        <v>190800</v>
       </c>
       <c r="F22" t="n">
-        <v>172800</v>
+        <v>158400</v>
       </c>
       <c r="G22" t="n">
-        <v>219600</v>
+        <v>205200</v>
       </c>
       <c r="H22" t="n">
-        <v>237600</v>
+        <v>262800</v>
       </c>
       <c r="I22" t="n">
-        <v>262800</v>
+        <v>255600</v>
       </c>
       <c r="J22" t="n">
-        <v>284400</v>
+        <v>280800</v>
       </c>
       <c r="K22" t="n">
         <v>306000</v>
       </c>
       <c r="L22" t="n">
-        <v>345600</v>
+        <v>349200</v>
       </c>
       <c r="M22" t="n">
-        <v>349200</v>
+        <v>388800</v>
       </c>
       <c r="N22" t="n">
-        <v>439200</v>
+        <v>565200</v>
       </c>
       <c r="O22" t="n">
-        <v>460800</v>
+        <v>525600</v>
       </c>
       <c r="P22" t="n">
-        <v>518400</v>
+        <v>637200</v>
       </c>
       <c r="Q22" t="n">
-        <v>496800</v>
+        <v>666000</v>
       </c>
       <c r="R22" t="n">
-        <v>529200</v>
+        <v>608400</v>
       </c>
       <c r="S22" t="n">
-        <v>612000</v>
+        <v>630000</v>
       </c>
       <c r="T22" t="n">
-        <v>687600</v>
+        <v>748800</v>
       </c>
       <c r="U22" t="n">
-        <v>648000</v>
+        <v>709200</v>
       </c>
       <c r="V22" t="n">
-        <v>684000</v>
+        <v>748800</v>
       </c>
       <c r="W22" t="n">
-        <v>756000</v>
+        <v>802800</v>
       </c>
       <c r="X22" t="n">
-        <v>824400</v>
+        <v>846000</v>
       </c>
       <c r="Y22" t="n">
-        <v>774000</v>
+        <v>925200</v>
       </c>
       <c r="Z22" t="n">
-        <v>982800</v>
+        <v>1072800</v>
       </c>
       <c r="AA22" t="n">
-        <v>907200</v>
+        <v>1177200</v>
       </c>
       <c r="AB22" t="n">
-        <v>1026000</v>
+        <v>1260000</v>
       </c>
       <c r="AC22" t="n">
-        <v>1080000</v>
+        <v>1242000</v>
       </c>
       <c r="AD22" t="n">
-        <v>1101600</v>
+        <v>1227600</v>
       </c>
       <c r="AE22" t="n">
-        <v>1440000</v>
+        <v>1299600</v>
       </c>
       <c r="AF22" t="n">
-        <v>1515600</v>
+        <v>1360800</v>
       </c>
       <c r="AG22" t="n">
-        <v>1450800</v>
+        <v>1249200</v>
       </c>
       <c r="AH22" t="n">
-        <v>1497600</v>
+        <v>1519200</v>
       </c>
       <c r="AI22" t="n">
-        <v>1533600</v>
+        <v>1569600</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1764000</v>
+        <v>1627200</v>
       </c>
       <c r="AK22" t="n">
-        <v>1699200</v>
+        <v>1681200</v>
       </c>
       <c r="AL22" t="n">
-        <v>1965600</v>
+        <v>1947600</v>
       </c>
       <c r="AM22" t="n">
-        <v>1904400</v>
+        <v>1897200</v>
       </c>
       <c r="AN22" t="n">
-        <v>1947600</v>
+        <v>2502000</v>
       </c>
       <c r="AO22" t="n">
-        <v>1936800</v>
+        <v>2455200</v>
       </c>
       <c r="AP22" t="n">
-        <v>2127600</v>
+        <v>2505600</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2412000</v>
+        <v>2545200</v>
       </c>
       <c r="AR22" t="n">
-        <v>2350800</v>
+        <v>2653200</v>
       </c>
       <c r="AS22" t="n">
-        <v>2466000</v>
+        <v>2523600</v>
       </c>
       <c r="AT22" t="n">
-        <v>2815200</v>
+        <v>2714400</v>
       </c>
       <c r="AU22" t="n">
-        <v>2944800</v>
+        <v>2793600</v>
       </c>
       <c r="AV22" t="n">
-        <v>3056400</v>
+        <v>2937600</v>
       </c>
       <c r="AW22" t="n">
-        <v>3106800</v>
+        <v>3135600</v>
       </c>
       <c r="AX22" t="n">
-        <v>3189600</v>
+        <v>3657600</v>
       </c>
       <c r="AY22" t="n">
-        <v>3258000</v>
+        <v>3628800</v>
       </c>
       <c r="AZ22" t="n">
-        <v>3344400</v>
+        <v>3682800</v>
       </c>
       <c r="BA22" t="n">
-        <v>3441600</v>
+        <v>3794400</v>
       </c>
       <c r="BB22" t="n">
-        <v>3567600</v>
+        <v>4024800</v>
       </c>
       <c r="BC22" t="n">
-        <v>3711600</v>
+        <v>4071600</v>
       </c>
       <c r="BD22" t="n">
-        <v>3801600</v>
+        <v>4096800</v>
       </c>
       <c r="BE22" t="n">
-        <v>4082400</v>
+        <v>4021200</v>
       </c>
       <c r="BF22" t="n">
-        <v>4647600</v>
+        <v>4197600</v>
       </c>
       <c r="BG22" t="n">
-        <v>4917600</v>
+        <v>4244400</v>
       </c>
       <c r="BH22" t="n">
-        <v>5025600</v>
+        <v>4194000</v>
       </c>
       <c r="BI22" t="n">
-        <v>5108400</v>
+        <v>4399200</v>
       </c>
     </row>
     <row r="23">
@@ -4542,184 +4542,184 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>580780.7999999999</v>
+        <v>766444.8</v>
       </c>
       <c r="C23" t="n">
-        <v>629807.9999999999</v>
+        <v>703939.2000000002</v>
       </c>
       <c r="D23" t="n">
-        <v>808521.5999999996</v>
+        <v>722457.6000000003</v>
       </c>
       <c r="E23" t="n">
-        <v>1236067.2</v>
+        <v>1416988.8</v>
       </c>
       <c r="F23" t="n">
-        <v>1246358.399999999</v>
+        <v>879686.3999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>1270579.200000002</v>
+        <v>1210665.600000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1467503.999999998</v>
+        <v>1620067.199999999</v>
       </c>
       <c r="I23" t="n">
-        <v>1638287.999999999</v>
+        <v>1650883.2</v>
       </c>
       <c r="J23" t="n">
-        <v>1572825.6</v>
+        <v>1776182.399999999</v>
       </c>
       <c r="K23" t="n">
-        <v>1868246.399999999</v>
+        <v>1666732.799999993</v>
       </c>
       <c r="L23" t="n">
-        <v>2361484.800000001</v>
+        <v>2084870.400000002</v>
       </c>
       <c r="M23" t="n">
-        <v>1751088</v>
+        <v>2404732.800000004</v>
       </c>
       <c r="N23" t="n">
-        <v>2892134.400000002</v>
+        <v>3673545.599999994</v>
       </c>
       <c r="O23" t="n">
-        <v>3022847.999999989</v>
+        <v>3564297.600000005</v>
       </c>
       <c r="P23" t="n">
-        <v>3099283.199999973</v>
+        <v>3905654.400000002</v>
       </c>
       <c r="Q23" t="n">
-        <v>3378259.199999996</v>
+        <v>4324233.600000009</v>
       </c>
       <c r="R23" t="n">
-        <v>3431433.599999983</v>
+        <v>4054435.200000022</v>
       </c>
       <c r="S23" t="n">
-        <v>4256620.800000057</v>
+        <v>4167456.000000007</v>
       </c>
       <c r="T23" t="n">
-        <v>4448736.000000007</v>
+        <v>4984991.999999985</v>
       </c>
       <c r="U23" t="n">
-        <v>4622697.600000001</v>
+        <v>4748380.79999999</v>
       </c>
       <c r="V23" t="n">
-        <v>4536278.400000066</v>
+        <v>5408688.00000003</v>
       </c>
       <c r="W23" t="n">
-        <v>5028777.599999994</v>
+        <v>5307235.200000018</v>
       </c>
       <c r="X23" t="n">
-        <v>5156236.800000019</v>
+        <v>6105830.399999999</v>
       </c>
       <c r="Y23" t="n">
-        <v>4867487.99999997</v>
+        <v>6444796.799999967</v>
       </c>
       <c r="Z23" t="n">
-        <v>6822595.200000003</v>
+        <v>7810780.800000042</v>
       </c>
       <c r="AA23" t="n">
-        <v>6079171.200000077</v>
+        <v>8162860.800000027</v>
       </c>
       <c r="AB23" t="n">
-        <v>7697750.400000051</v>
+        <v>8424969.600000054</v>
       </c>
       <c r="AC23" t="n">
-        <v>8146118.399999961</v>
+        <v>9643977.599999905</v>
       </c>
       <c r="AD23" t="n">
-        <v>7979625.600000098</v>
+        <v>8203680.00000003</v>
       </c>
       <c r="AE23" t="n">
-        <v>10022524.80000009</v>
+        <v>9521193.600000054</v>
       </c>
       <c r="AF23" t="n">
-        <v>10389350.39999995</v>
+        <v>10279487.99999994</v>
       </c>
       <c r="AG23" t="n">
-        <v>10667798.40000007</v>
+        <v>9209712.000000149</v>
       </c>
       <c r="AH23" t="n">
-        <v>10543103.99999969</v>
+        <v>11749583.99999991</v>
       </c>
       <c r="AI23" t="n">
-        <v>11494224.00000012</v>
+        <v>12043305.59999993</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12981456</v>
+        <v>12333484.79999983</v>
       </c>
       <c r="AK23" t="n">
-        <v>11677056.00000033</v>
+        <v>13425504</v>
       </c>
       <c r="AL23" t="n">
-        <v>14860060.80000004</v>
+        <v>14933836.80000001</v>
       </c>
       <c r="AM23" t="n">
-        <v>13770940.8000001</v>
+        <v>15247756.79999968</v>
       </c>
       <c r="AN23" t="n">
-        <v>15338188.8000001</v>
+        <v>19460851.20000014</v>
       </c>
       <c r="AO23" t="n">
-        <v>15105494.40000015</v>
+        <v>19443993.5999999</v>
       </c>
       <c r="AP23" t="n">
-        <v>16266614.3999998</v>
+        <v>19250678.39999998</v>
       </c>
       <c r="AQ23" t="n">
-        <v>18689807.99999937</v>
+        <v>19742275.19999969</v>
       </c>
       <c r="AR23" t="n">
-        <v>17753337.60000008</v>
+        <v>21743184.00000012</v>
       </c>
       <c r="AS23" t="n">
-        <v>20044031.9999994</v>
+        <v>19148995.20000023</v>
       </c>
       <c r="AT23" t="n">
-        <v>22022236.79999989</v>
+        <v>22571932.79999906</v>
       </c>
       <c r="AU23" t="n">
-        <v>23193475.19999903</v>
+        <v>22393247.99999994</v>
       </c>
       <c r="AV23" t="n">
-        <v>24057484.79999983</v>
+        <v>23526374.40000063</v>
       </c>
       <c r="AW23" t="n">
-        <v>22962316.80000019</v>
+        <v>24619142.40000093</v>
       </c>
       <c r="AX23" t="n">
-        <v>25641849.60000062</v>
+        <v>29253792.00000072</v>
       </c>
       <c r="AY23" t="n">
-        <v>26644982.39999926</v>
+        <v>28744310.39999992</v>
       </c>
       <c r="AZ23" t="n">
-        <v>26615740.79999954</v>
+        <v>29632915.19999963</v>
       </c>
       <c r="BA23" t="n">
-        <v>28011311.9999994</v>
+        <v>31641955.2000016</v>
       </c>
       <c r="BB23" t="n">
-        <v>28714233.59999967</v>
+        <v>32038847.99999952</v>
       </c>
       <c r="BC23" t="n">
-        <v>30310780.8000015</v>
+        <v>33226224.00000179</v>
       </c>
       <c r="BD23" t="n">
-        <v>29498083.20000112</v>
+        <v>35393740.79999959</v>
       </c>
       <c r="BE23" t="n">
-        <v>33635807.99999905</v>
+        <v>31624483.19999778</v>
       </c>
       <c r="BF23" t="n">
-        <v>37366656.00000393</v>
+        <v>35621875.20000064</v>
       </c>
       <c r="BG23" t="n">
-        <v>40777910.39999676</v>
+        <v>35650915.20000076</v>
       </c>
       <c r="BH23" t="n">
-        <v>41074262.40000153</v>
+        <v>35170790.39999902</v>
       </c>
       <c r="BI23" t="n">
-        <v>39802060.79999876</v>
+        <v>36086351.99999869</v>
       </c>
     </row>
     <row r="24">
@@ -4729,184 +4729,184 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16800</v>
+        <v>20000</v>
       </c>
       <c r="C24" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="D24" t="n">
-        <v>31200</v>
+        <v>22000</v>
       </c>
       <c r="E24" t="n">
-        <v>45600</v>
+        <v>36000</v>
       </c>
       <c r="F24" t="n">
-        <v>57600</v>
+        <v>28000</v>
       </c>
       <c r="G24" t="n">
-        <v>45600</v>
+        <v>38000</v>
       </c>
       <c r="H24" t="n">
-        <v>45600</v>
+        <v>46000</v>
       </c>
       <c r="I24" t="n">
-        <v>72000</v>
+        <v>56000</v>
       </c>
       <c r="J24" t="n">
-        <v>45600</v>
+        <v>56000</v>
       </c>
       <c r="K24" t="n">
-        <v>69600</v>
+        <v>62000</v>
       </c>
       <c r="L24" t="n">
-        <v>103200</v>
+        <v>56000</v>
       </c>
       <c r="M24" t="n">
-        <v>62400</v>
+        <v>80000</v>
       </c>
       <c r="N24" t="n">
-        <v>127200</v>
+        <v>158000</v>
       </c>
       <c r="O24" t="n">
-        <v>134400</v>
+        <v>138000</v>
       </c>
       <c r="P24" t="n">
-        <v>172800</v>
+        <v>142000</v>
       </c>
       <c r="Q24" t="n">
-        <v>160800</v>
+        <v>176000</v>
       </c>
       <c r="R24" t="n">
-        <v>165600</v>
+        <v>154000</v>
       </c>
       <c r="S24" t="n">
-        <v>218400</v>
+        <v>178000</v>
       </c>
       <c r="T24" t="n">
-        <v>211200</v>
+        <v>198000</v>
       </c>
       <c r="U24" t="n">
-        <v>242400</v>
+        <v>208000</v>
       </c>
       <c r="V24" t="n">
-        <v>247200</v>
+        <v>222000</v>
       </c>
       <c r="W24" t="n">
-        <v>273600</v>
+        <v>250000</v>
       </c>
       <c r="X24" t="n">
-        <v>264000</v>
+        <v>286000</v>
       </c>
       <c r="Y24" t="n">
-        <v>290400</v>
+        <v>276000</v>
       </c>
       <c r="Z24" t="n">
-        <v>362400</v>
+        <v>406000</v>
       </c>
       <c r="AA24" t="n">
-        <v>369600</v>
+        <v>384000</v>
       </c>
       <c r="AB24" t="n">
-        <v>458400</v>
+        <v>446000</v>
       </c>
       <c r="AC24" t="n">
+        <v>478000</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>438000</v>
+      </c>
+      <c r="AE24" t="n">
         <v>480000</v>
       </c>
-      <c r="AD24" t="n">
-        <v>465600</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>643200</v>
-      </c>
       <c r="AF24" t="n">
-        <v>648000</v>
+        <v>534000</v>
       </c>
       <c r="AG24" t="n">
-        <v>643200</v>
+        <v>504000</v>
       </c>
       <c r="AH24" t="n">
-        <v>688800</v>
+        <v>574000</v>
       </c>
       <c r="AI24" t="n">
-        <v>691200</v>
+        <v>594000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>840000</v>
+        <v>644000</v>
       </c>
       <c r="AK24" t="n">
-        <v>744000</v>
+        <v>714000</v>
       </c>
       <c r="AL24" t="n">
-        <v>957600</v>
+        <v>824000</v>
       </c>
       <c r="AM24" t="n">
-        <v>902400</v>
+        <v>828000</v>
       </c>
       <c r="AN24" t="n">
-        <v>976800</v>
+        <v>1100000</v>
       </c>
       <c r="AO24" t="n">
-        <v>979200</v>
+        <v>1026000</v>
       </c>
       <c r="AP24" t="n">
-        <v>1094400</v>
+        <v>1080000</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1272000</v>
+        <v>1110000</v>
       </c>
       <c r="AR24" t="n">
-        <v>1279200</v>
+        <v>1176000</v>
       </c>
       <c r="AS24" t="n">
-        <v>1320000</v>
+        <v>1098000</v>
       </c>
       <c r="AT24" t="n">
-        <v>1502400</v>
+        <v>1216000</v>
       </c>
       <c r="AU24" t="n">
-        <v>1531200</v>
+        <v>1236000</v>
       </c>
       <c r="AV24" t="n">
-        <v>1675200</v>
+        <v>1316000</v>
       </c>
       <c r="AW24" t="n">
-        <v>1632000</v>
+        <v>1374000</v>
       </c>
       <c r="AX24" t="n">
-        <v>1766400</v>
+        <v>1678000</v>
       </c>
       <c r="AY24" t="n">
-        <v>1768800</v>
+        <v>1694000</v>
       </c>
       <c r="AZ24" t="n">
-        <v>1862400</v>
+        <v>1760000</v>
       </c>
       <c r="BA24" t="n">
-        <v>1876800</v>
+        <v>1782000</v>
       </c>
       <c r="BB24" t="n">
-        <v>1980000</v>
+        <v>1908000</v>
       </c>
       <c r="BC24" t="n">
-        <v>2179200</v>
+        <v>1952000</v>
       </c>
       <c r="BD24" t="n">
-        <v>2164800</v>
+        <v>1986000</v>
       </c>
       <c r="BE24" t="n">
-        <v>2301600</v>
+        <v>1876000</v>
       </c>
       <c r="BF24" t="n">
-        <v>2649600</v>
+        <v>2022000</v>
       </c>
       <c r="BG24" t="n">
-        <v>2858400</v>
+        <v>2060000</v>
       </c>
       <c r="BH24" t="n">
-        <v>2904000</v>
+        <v>2028000</v>
       </c>
       <c r="BI24" t="n">
-        <v>2971200</v>
+        <v>2128000</v>
       </c>
     </row>
     <row r="25">
@@ -4916,184 +4916,184 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>691180.7999999999</v>
+        <v>901644.8</v>
       </c>
       <c r="C25" t="n">
-        <v>764207.9999999999</v>
+        <v>828339.2000000002</v>
       </c>
       <c r="D25" t="n">
-        <v>1012521.6</v>
+        <v>899257.6000000003</v>
       </c>
       <c r="E25" t="n">
-        <v>1479667.2</v>
+        <v>1643788.8</v>
       </c>
       <c r="F25" t="n">
-        <v>1476758.399999999</v>
+        <v>1066086.4</v>
       </c>
       <c r="G25" t="n">
-        <v>1535779.200000002</v>
+        <v>1453865.600000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1750703.999999998</v>
+        <v>1928867.199999999</v>
       </c>
       <c r="I25" t="n">
-        <v>1973087.999999999</v>
+        <v>1962483.2</v>
       </c>
       <c r="J25" t="n">
-        <v>1902825.6</v>
+        <v>2112982.399999999</v>
       </c>
       <c r="K25" t="n">
-        <v>2243846.399999999</v>
+        <v>2034732.799999993</v>
       </c>
       <c r="L25" t="n">
-        <v>2810284.800000001</v>
+        <v>2490070.400000002</v>
       </c>
       <c r="M25" t="n">
-        <v>2162688</v>
+        <v>2873532.800000004</v>
       </c>
       <c r="N25" t="n">
-        <v>3458534.400000002</v>
+        <v>4396745.599999994</v>
       </c>
       <c r="O25" t="n">
-        <v>3618047.999999989</v>
+        <v>4227897.600000005</v>
       </c>
       <c r="P25" t="n">
-        <v>3790483.199999973</v>
+        <v>4684854.400000002</v>
       </c>
       <c r="Q25" t="n">
-        <v>4035859.199999996</v>
+        <v>5166233.600000009</v>
       </c>
       <c r="R25" t="n">
-        <v>4126233.599999983</v>
+        <v>4816835.200000022</v>
       </c>
       <c r="S25" t="n">
-        <v>5087020.800000057</v>
+        <v>4975456.000000007</v>
       </c>
       <c r="T25" t="n">
-        <v>5347536.000000007</v>
+        <v>5931791.999999985</v>
       </c>
       <c r="U25" t="n">
-        <v>5513097.600000001</v>
+        <v>5665580.79999999</v>
       </c>
       <c r="V25" t="n">
-        <v>5467478.400000066</v>
+        <v>6379488.00000003</v>
       </c>
       <c r="W25" t="n">
-        <v>6058377.599999994</v>
+        <v>6360035.200000018</v>
       </c>
       <c r="X25" t="n">
-        <v>6244636.800000019</v>
+        <v>7237830.399999999</v>
       </c>
       <c r="Y25" t="n">
-        <v>5931887.99999997</v>
+        <v>7645996.799999967</v>
       </c>
       <c r="Z25" t="n">
-        <v>8167795.200000003</v>
+        <v>9289580.800000042</v>
       </c>
       <c r="AA25" t="n">
-        <v>7355971.200000077</v>
+        <v>9724060.800000027</v>
       </c>
       <c r="AB25" t="n">
-        <v>9182150.400000051</v>
+        <v>10130969.60000005</v>
       </c>
       <c r="AC25" t="n">
-        <v>9706118.399999961</v>
+        <v>11363977.5999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>9546825.600000098</v>
+        <v>9869280.00000003</v>
       </c>
       <c r="AE25" t="n">
-        <v>12105724.80000009</v>
+        <v>11300793.60000005</v>
       </c>
       <c r="AF25" t="n">
-        <v>12552950.39999995</v>
+        <v>12174287.99999994</v>
       </c>
       <c r="AG25" t="n">
-        <v>12761798.40000007</v>
+        <v>10962912.00000015</v>
       </c>
       <c r="AH25" t="n">
-        <v>12729503.99999969</v>
+        <v>13842783.99999991</v>
       </c>
       <c r="AI25" t="n">
-        <v>13719024.00000012</v>
+        <v>14206905.59999993</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15585456</v>
+        <v>14604684.79999983</v>
       </c>
       <c r="AK25" t="n">
-        <v>14120256.00000033</v>
+        <v>15820704</v>
       </c>
       <c r="AL25" t="n">
-        <v>17783260.80000004</v>
+        <v>17705436.80000001</v>
       </c>
       <c r="AM25" t="n">
-        <v>16577740.8000001</v>
+        <v>17972956.79999968</v>
       </c>
       <c r="AN25" t="n">
-        <v>18262588.8000001</v>
+        <v>23062851.20000014</v>
       </c>
       <c r="AO25" t="n">
-        <v>18021494.40000015</v>
+        <v>22925193.5999999</v>
       </c>
       <c r="AP25" t="n">
-        <v>19488614.3999998</v>
+        <v>22836278.39999998</v>
       </c>
       <c r="AQ25" t="n">
-        <v>22373807.99999937</v>
+        <v>23397475.19999969</v>
       </c>
       <c r="AR25" t="n">
-        <v>21383337.60000008</v>
+        <v>25572384.00000012</v>
       </c>
       <c r="AS25" t="n">
-        <v>23830031.9999994</v>
+        <v>22770595.20000023</v>
       </c>
       <c r="AT25" t="n">
-        <v>26339836.79999989</v>
+        <v>26502332.79999906</v>
       </c>
       <c r="AU25" t="n">
-        <v>27669475.19999903</v>
+        <v>26422847.99999994</v>
       </c>
       <c r="AV25" t="n">
-        <v>28789084.79999983</v>
+        <v>27779974.40000063</v>
       </c>
       <c r="AW25" t="n">
-        <v>27701116.80000019</v>
+        <v>29128742.40000093</v>
       </c>
       <c r="AX25" t="n">
-        <v>30597849.60000062</v>
+        <v>34589392.00000072</v>
       </c>
       <c r="AY25" t="n">
-        <v>31671782.39999926</v>
+        <v>34067110.39999992</v>
       </c>
       <c r="AZ25" t="n">
-        <v>31822540.79999954</v>
+        <v>35075715.19999963</v>
       </c>
       <c r="BA25" t="n">
-        <v>33329711.9999994</v>
+        <v>37218355.2000016</v>
       </c>
       <c r="BB25" t="n">
-        <v>34261833.59999967</v>
+        <v>37971647.99999952</v>
       </c>
       <c r="BC25" t="n">
-        <v>36201580.8000015</v>
+        <v>39249824.00000179</v>
       </c>
       <c r="BD25" t="n">
-        <v>35464483.20000112</v>
+        <v>41476540.79999959</v>
       </c>
       <c r="BE25" t="n">
-        <v>40019807.99999905</v>
+        <v>37521683.19999778</v>
       </c>
       <c r="BF25" t="n">
-        <v>44663856.00000393</v>
+        <v>41841475.20000064</v>
       </c>
       <c r="BG25" t="n">
-        <v>48553910.39999676</v>
+        <v>41955315.20000076</v>
       </c>
       <c r="BH25" t="n">
-        <v>49003862.40000153</v>
+        <v>41392790.39999902</v>
       </c>
       <c r="BI25" t="n">
-        <v>47881660.79999876</v>
+        <v>42613551.99999869</v>
       </c>
     </row>
     <row r="26">
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
@@ -5311,13 +5311,13 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
         <v>5</v>
@@ -5347,49 +5347,49 @@
         <v>5</v>
       </c>
       <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB27" t="n">
         <v>6</v>
       </c>
-      <c r="V27" t="n">
+      <c r="AC27" t="n">
         <v>6</v>
       </c>
-      <c r="W27" t="n">
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH27" t="n">
         <v>7</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AI27" t="n">
         <v>7</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>8</v>
       </c>
       <c r="AJ27" t="n">
         <v>8</v>
@@ -5401,70 +5401,70 @@
         <v>8</v>
       </c>
       <c r="AM27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>9</v>
       </c>
       <c r="AP27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BE27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BG27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BH27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BI27" t="n">
         <v>14</v>
@@ -5477,7 +5477,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
@@ -5495,145 +5495,145 @@
         <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA28" t="n">
         <v>12</v>
       </c>
       <c r="BB28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC28" t="n">
         <v>13</v>
@@ -5642,19 +5642,19 @@
         <v>13</v>
       </c>
       <c r="BE28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BF28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BG28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BH28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BI28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -5673,13 +5673,13 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
@@ -5697,49 +5697,49 @@
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB29" t="n">
         <v>5</v>
@@ -5769,40 +5769,40 @@
         <v>5</v>
       </c>
       <c r="AK29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP29" t="n">
         <v>6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR29" t="n">
         <v>7</v>
       </c>
       <c r="AS29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>8</v>
@@ -5820,28 +5820,28 @@
         <v>8</v>
       </c>
       <c r="BB29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE29" t="n">
         <v>9</v>
       </c>
       <c r="BF29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BG29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BI29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -5995,16 +5995,16 @@
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>3</v>
@@ -6022,13 +6022,13 @@
         <v>3</v>
       </c>
       <c r="BG30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -6038,7 +6038,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
         <v>10</v>
@@ -6047,16 +6047,16 @@
         <v>12</v>
       </c>
       <c r="E31" t="n">
+        <v>12</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12</v>
+      </c>
+      <c r="G31" t="n">
         <v>13</v>
       </c>
-      <c r="F31" t="n">
-        <v>13</v>
-      </c>
-      <c r="G31" t="n">
-        <v>14</v>
-      </c>
       <c r="H31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="n">
         <v>15</v>
@@ -6068,52 +6068,52 @@
         <v>15</v>
       </c>
       <c r="L31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q31" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R31" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S31" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T31" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="U31" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V31" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="W31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="X31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="n">
         <v>21</v>
@@ -6122,7 +6122,7 @@
         <v>21</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>22</v>
@@ -6131,7 +6131,7 @@
         <v>22</v>
       </c>
       <c r="AG31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH31" t="n">
         <v>23</v>
@@ -6140,7 +6140,7 @@
         <v>23</v>
       </c>
       <c r="AJ31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK31" t="n">
         <v>25</v>
@@ -6149,73 +6149,73 @@
         <v>26</v>
       </c>
       <c r="AM31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ31" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AR31" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AS31" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AT31" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AU31" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AV31" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AW31" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AX31" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AY31" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AZ31" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BA31" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB31" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BC31" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BD31" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BE31" t="n">
         <v>40</v>
       </c>
       <c r="BF31" t="n">
+        <v>40</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>40</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>40</v>
+      </c>
+      <c r="BI31" t="n">
         <v>41</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>42</v>
-      </c>
-      <c r="BH31" t="n">
-        <v>44</v>
-      </c>
-      <c r="BI31" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="32">
@@ -6225,184 +6225,184 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162214</v>
+        <v>186355</v>
       </c>
       <c r="C32" t="n">
-        <v>188045</v>
+        <v>188890</v>
       </c>
       <c r="D32" t="n">
-        <v>214526</v>
+        <v>212160</v>
       </c>
       <c r="E32" t="n">
-        <v>258518</v>
+        <v>216515</v>
       </c>
       <c r="F32" t="n">
-        <v>257933</v>
+        <v>214045</v>
       </c>
       <c r="G32" t="n">
-        <v>297388</v>
+        <v>258245</v>
       </c>
       <c r="H32" t="n">
-        <v>298883</v>
+        <v>313820</v>
       </c>
       <c r="I32" t="n">
-        <v>313885</v>
+        <v>314405</v>
       </c>
       <c r="J32" t="n">
-        <v>311753</v>
+        <v>316095</v>
       </c>
       <c r="K32" t="n">
-        <v>317083</v>
+        <v>319670</v>
       </c>
       <c r="L32" t="n">
-        <v>323726</v>
+        <v>330525</v>
       </c>
       <c r="M32" t="n">
-        <v>321607</v>
+        <v>375180</v>
       </c>
       <c r="N32" t="n">
-        <v>334256</v>
+        <v>395590</v>
       </c>
       <c r="O32" t="n">
-        <v>337532</v>
+        <v>405730</v>
       </c>
       <c r="P32" t="n">
-        <v>343564</v>
+        <v>424320</v>
       </c>
       <c r="Q32" t="n">
-        <v>340769</v>
+        <v>468195</v>
       </c>
       <c r="R32" t="n">
-        <v>345423</v>
+        <v>460915</v>
       </c>
       <c r="S32" t="n">
-        <v>366652</v>
+        <v>464750</v>
       </c>
       <c r="T32" t="n">
-        <v>372151</v>
+        <v>474370</v>
       </c>
       <c r="U32" t="n">
-        <v>382642</v>
+        <v>474825</v>
       </c>
       <c r="V32" t="n">
-        <v>387296</v>
+        <v>481455</v>
       </c>
       <c r="W32" t="n">
-        <v>406978</v>
+        <v>488150</v>
       </c>
       <c r="X32" t="n">
-        <v>409110</v>
+        <v>492505</v>
       </c>
       <c r="Y32" t="n">
-        <v>449917</v>
+        <v>495495</v>
       </c>
       <c r="Z32" t="n">
-        <v>471887</v>
+        <v>520455</v>
       </c>
       <c r="AA32" t="n">
-        <v>469638</v>
+        <v>521495</v>
       </c>
       <c r="AB32" t="n">
-        <v>539227</v>
+        <v>543855</v>
       </c>
       <c r="AC32" t="n">
-        <v>540280</v>
+        <v>547495</v>
       </c>
       <c r="AD32" t="n">
-        <v>544453</v>
+        <v>556400</v>
       </c>
       <c r="AE32" t="n">
-        <v>587626</v>
+        <v>564200</v>
       </c>
       <c r="AF32" t="n">
-        <v>596245</v>
+        <v>571610</v>
       </c>
       <c r="AG32" t="n">
-        <v>603421</v>
+        <v>566215</v>
       </c>
       <c r="AH32" t="n">
-        <v>609999</v>
+        <v>603070</v>
       </c>
       <c r="AI32" t="n">
-        <v>617721</v>
+        <v>610350</v>
       </c>
       <c r="AJ32" t="n">
-        <v>669370</v>
+        <v>626470</v>
       </c>
       <c r="AK32" t="n">
-        <v>658775</v>
+        <v>676455</v>
       </c>
       <c r="AL32" t="n">
-        <v>713908</v>
+        <v>718445</v>
       </c>
       <c r="AM32" t="n">
-        <v>710047</v>
+        <v>733590</v>
       </c>
       <c r="AN32" t="n">
-        <v>718809</v>
+        <v>812175</v>
       </c>
       <c r="AO32" t="n">
-        <v>734916</v>
+        <v>805675</v>
       </c>
       <c r="AP32" t="n">
-        <v>788892</v>
+        <v>823680</v>
       </c>
       <c r="AQ32" t="n">
-        <v>825045</v>
+        <v>888680</v>
       </c>
       <c r="AR32" t="n">
-        <v>868296</v>
+        <v>902915</v>
       </c>
       <c r="AS32" t="n">
-        <v>929565</v>
+        <v>890110</v>
       </c>
       <c r="AT32" t="n">
-        <v>960297</v>
+        <v>920985</v>
       </c>
       <c r="AU32" t="n">
-        <v>973401</v>
+        <v>932555</v>
       </c>
       <c r="AV32" t="n">
-        <v>997321</v>
+        <v>964015</v>
       </c>
       <c r="AW32" t="n">
-        <v>993135</v>
+        <v>1021735</v>
       </c>
       <c r="AX32" t="n">
-        <v>1016002</v>
+        <v>1091220</v>
       </c>
       <c r="AY32" t="n">
-        <v>1038934</v>
+        <v>1094925</v>
       </c>
       <c r="AZ32" t="n">
-        <v>1077687</v>
+        <v>1123590</v>
       </c>
       <c r="BA32" t="n">
-        <v>1096199</v>
+        <v>1137500</v>
       </c>
       <c r="BB32" t="n">
-        <v>1145820</v>
+        <v>1195480</v>
       </c>
       <c r="BC32" t="n">
-        <v>1202136</v>
+        <v>1224470</v>
       </c>
       <c r="BD32" t="n">
-        <v>1207934</v>
+        <v>1236040</v>
       </c>
       <c r="BE32" t="n">
-        <v>1281878</v>
+        <v>1213875</v>
       </c>
       <c r="BF32" t="n">
-        <v>1381913</v>
+        <v>1250600</v>
       </c>
       <c r="BG32" t="n">
-        <v>1430182</v>
+        <v>1259505</v>
       </c>
       <c r="BH32" t="n">
-        <v>1468090</v>
+        <v>1260025</v>
       </c>
       <c r="BI32" t="n">
-        <v>1479101</v>
+        <v>1289860</v>
       </c>
     </row>
     <row r="33">
@@ -6412,184 +6412,184 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>74880</v>
+        <v>92160</v>
       </c>
       <c r="C33" t="n">
-        <v>97920</v>
+        <v>83520</v>
       </c>
       <c r="D33" t="n">
-        <v>138240</v>
+        <v>123840</v>
       </c>
       <c r="E33" t="n">
-        <v>158400</v>
+        <v>152640</v>
       </c>
       <c r="F33" t="n">
-        <v>138240</v>
+        <v>126720</v>
       </c>
       <c r="G33" t="n">
-        <v>175680</v>
+        <v>164160</v>
       </c>
       <c r="H33" t="n">
-        <v>190080</v>
+        <v>210240</v>
       </c>
       <c r="I33" t="n">
-        <v>210240</v>
+        <v>204480</v>
       </c>
       <c r="J33" t="n">
-        <v>227520</v>
+        <v>224640</v>
       </c>
       <c r="K33" t="n">
         <v>244800</v>
       </c>
       <c r="L33" t="n">
-        <v>276480</v>
+        <v>279360</v>
       </c>
       <c r="M33" t="n">
-        <v>279360</v>
+        <v>311040</v>
       </c>
       <c r="N33" t="n">
-        <v>351360</v>
+        <v>452160</v>
       </c>
       <c r="O33" t="n">
-        <v>368640</v>
+        <v>420480</v>
       </c>
       <c r="P33" t="n">
-        <v>414720</v>
+        <v>509760</v>
       </c>
       <c r="Q33" t="n">
-        <v>397440</v>
+        <v>532800</v>
       </c>
       <c r="R33" t="n">
-        <v>423360</v>
+        <v>486720</v>
       </c>
       <c r="S33" t="n">
-        <v>489600</v>
+        <v>504000</v>
       </c>
       <c r="T33" t="n">
-        <v>550080</v>
+        <v>599040</v>
       </c>
       <c r="U33" t="n">
-        <v>518400</v>
+        <v>567360</v>
       </c>
       <c r="V33" t="n">
-        <v>547200</v>
+        <v>599040</v>
       </c>
       <c r="W33" t="n">
-        <v>604800</v>
+        <v>642240</v>
       </c>
       <c r="X33" t="n">
-        <v>659520</v>
+        <v>676800</v>
       </c>
       <c r="Y33" t="n">
-        <v>619200</v>
+        <v>740160</v>
       </c>
       <c r="Z33" t="n">
-        <v>786240</v>
+        <v>858240</v>
       </c>
       <c r="AA33" t="n">
-        <v>725760</v>
+        <v>941760</v>
       </c>
       <c r="AB33" t="n">
-        <v>820800</v>
+        <v>1008000</v>
       </c>
       <c r="AC33" t="n">
-        <v>864000</v>
+        <v>993600</v>
       </c>
       <c r="AD33" t="n">
-        <v>881280</v>
+        <v>982080</v>
       </c>
       <c r="AE33" t="n">
-        <v>1152000</v>
+        <v>1039680</v>
       </c>
       <c r="AF33" t="n">
-        <v>1212480</v>
+        <v>1088640</v>
       </c>
       <c r="AG33" t="n">
-        <v>1160640</v>
+        <v>999360</v>
       </c>
       <c r="AH33" t="n">
-        <v>1198080</v>
+        <v>1215360</v>
       </c>
       <c r="AI33" t="n">
-        <v>1226880</v>
+        <v>1255680</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1411200</v>
+        <v>1301760</v>
       </c>
       <c r="AK33" t="n">
-        <v>1359360</v>
+        <v>1344960</v>
       </c>
       <c r="AL33" t="n">
-        <v>1572480</v>
+        <v>1558080</v>
       </c>
       <c r="AM33" t="n">
-        <v>1523520</v>
+        <v>1517760</v>
       </c>
       <c r="AN33" t="n">
-        <v>1558080</v>
+        <v>2001600</v>
       </c>
       <c r="AO33" t="n">
-        <v>1549440</v>
+        <v>1964160</v>
       </c>
       <c r="AP33" t="n">
-        <v>1702080</v>
+        <v>2004480</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1929600</v>
+        <v>2036160</v>
       </c>
       <c r="AR33" t="n">
-        <v>1880640</v>
+        <v>2122560</v>
       </c>
       <c r="AS33" t="n">
-        <v>1972800</v>
+        <v>2018880</v>
       </c>
       <c r="AT33" t="n">
-        <v>2252160</v>
+        <v>2171520</v>
       </c>
       <c r="AU33" t="n">
-        <v>2355840</v>
+        <v>2234880</v>
       </c>
       <c r="AV33" t="n">
-        <v>2445120</v>
+        <v>2350080</v>
       </c>
       <c r="AW33" t="n">
-        <v>2485440</v>
+        <v>2508480</v>
       </c>
       <c r="AX33" t="n">
-        <v>2551680</v>
+        <v>2926080</v>
       </c>
       <c r="AY33" t="n">
-        <v>2606400</v>
+        <v>2903040</v>
       </c>
       <c r="AZ33" t="n">
-        <v>2675520</v>
+        <v>2946240</v>
       </c>
       <c r="BA33" t="n">
-        <v>2753280</v>
+        <v>3035520</v>
       </c>
       <c r="BB33" t="n">
-        <v>2854080</v>
+        <v>3219840</v>
       </c>
       <c r="BC33" t="n">
-        <v>2969280</v>
+        <v>3257280</v>
       </c>
       <c r="BD33" t="n">
-        <v>3041280</v>
+        <v>3277440</v>
       </c>
       <c r="BE33" t="n">
-        <v>3265920</v>
+        <v>3216960</v>
       </c>
       <c r="BF33" t="n">
-        <v>3718080</v>
+        <v>3358080</v>
       </c>
       <c r="BG33" t="n">
-        <v>3934080</v>
+        <v>3395520</v>
       </c>
       <c r="BH33" t="n">
-        <v>4020480</v>
+        <v>3355200</v>
       </c>
       <c r="BI33" t="n">
-        <v>4086720</v>
+        <v>3519360</v>
       </c>
     </row>
     <row r="34">
@@ -6599,184 +6599,184 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>483984</v>
+        <v>638704</v>
       </c>
       <c r="C34" t="n">
-        <v>524840</v>
+        <v>586616</v>
       </c>
       <c r="D34" t="n">
-        <v>673768</v>
+        <v>602048</v>
       </c>
       <c r="E34" t="n">
-        <v>1030056</v>
+        <v>1180824</v>
       </c>
       <c r="F34" t="n">
-        <v>1038632</v>
+        <v>733072</v>
       </c>
       <c r="G34" t="n">
-        <v>1058816</v>
+        <v>1008888</v>
       </c>
       <c r="H34" t="n">
-        <v>1222920</v>
+        <v>1350056</v>
       </c>
       <c r="I34" t="n">
-        <v>1365240</v>
+        <v>1375736</v>
       </c>
       <c r="J34" t="n">
-        <v>1310688</v>
+        <v>1480152</v>
       </c>
       <c r="K34" t="n">
-        <v>1556872</v>
+        <v>1388944</v>
       </c>
       <c r="L34" t="n">
-        <v>1967904</v>
+        <v>1737392</v>
       </c>
       <c r="M34" t="n">
-        <v>1459240</v>
+        <v>2003944</v>
       </c>
       <c r="N34" t="n">
-        <v>2410112</v>
+        <v>3061288</v>
       </c>
       <c r="O34" t="n">
-        <v>2519040</v>
+        <v>2970248</v>
       </c>
       <c r="P34" t="n">
-        <v>2582736</v>
+        <v>3254712</v>
       </c>
       <c r="Q34" t="n">
-        <v>2815216</v>
+        <v>3603528</v>
       </c>
       <c r="R34" t="n">
-        <v>2859528</v>
+        <v>3378696</v>
       </c>
       <c r="S34" t="n">
-        <v>3547184</v>
+        <v>3472880</v>
       </c>
       <c r="T34" t="n">
-        <v>3707280</v>
+        <v>4154160</v>
       </c>
       <c r="U34" t="n">
-        <v>3852248</v>
+        <v>3956984</v>
       </c>
       <c r="V34" t="n">
-        <v>3780232</v>
+        <v>4507240</v>
       </c>
       <c r="W34" t="n">
-        <v>4190648</v>
+        <v>4422696</v>
       </c>
       <c r="X34" t="n">
-        <v>4296864</v>
+        <v>5088192</v>
       </c>
       <c r="Y34" t="n">
-        <v>4056240</v>
+        <v>5370664</v>
       </c>
       <c r="Z34" t="n">
-        <v>5685496</v>
+        <v>6508984</v>
       </c>
       <c r="AA34" t="n">
-        <v>5065976</v>
+        <v>6802384</v>
       </c>
       <c r="AB34" t="n">
-        <v>6414792</v>
+        <v>7020808</v>
       </c>
       <c r="AC34" t="n">
-        <v>6788432</v>
+        <v>8036648</v>
       </c>
       <c r="AD34" t="n">
-        <v>6649688</v>
+        <v>6836400</v>
       </c>
       <c r="AE34" t="n">
-        <v>8352104</v>
+        <v>7934328</v>
       </c>
       <c r="AF34" t="n">
-        <v>8657792</v>
+        <v>8566240</v>
       </c>
       <c r="AG34" t="n">
-        <v>8889832</v>
+        <v>7674760</v>
       </c>
       <c r="AH34" t="n">
-        <v>8785920</v>
+        <v>9791320</v>
       </c>
       <c r="AI34" t="n">
-        <v>9578520</v>
+        <v>10036088</v>
       </c>
       <c r="AJ34" t="n">
-        <v>10817880</v>
+        <v>10277904</v>
       </c>
       <c r="AK34" t="n">
-        <v>9730880</v>
+        <v>11187920</v>
       </c>
       <c r="AL34" t="n">
-        <v>12383384</v>
+        <v>12444864</v>
       </c>
       <c r="AM34" t="n">
-        <v>11475784</v>
+        <v>12706464</v>
       </c>
       <c r="AN34" t="n">
-        <v>12781824</v>
+        <v>16217376</v>
       </c>
       <c r="AO34" t="n">
-        <v>12587912</v>
+        <v>16203328</v>
       </c>
       <c r="AP34" t="n">
-        <v>13555512</v>
+        <v>16042232</v>
       </c>
       <c r="AQ34" t="n">
-        <v>15574840</v>
+        <v>16451896</v>
       </c>
       <c r="AR34" t="n">
-        <v>14794448</v>
+        <v>18119320</v>
       </c>
       <c r="AS34" t="n">
-        <v>16703360</v>
+        <v>15957496</v>
       </c>
       <c r="AT34" t="n">
-        <v>18351864</v>
+        <v>18809944</v>
       </c>
       <c r="AU34" t="n">
-        <v>19327896</v>
+        <v>18661040</v>
       </c>
       <c r="AV34" t="n">
-        <v>20047904</v>
+        <v>19605312</v>
       </c>
       <c r="AW34" t="n">
-        <v>19135264</v>
+        <v>20515952</v>
       </c>
       <c r="AX34" t="n">
-        <v>21368208</v>
+        <v>24378160</v>
       </c>
       <c r="AY34" t="n">
-        <v>22204152</v>
+        <v>23953592</v>
       </c>
       <c r="AZ34" t="n">
-        <v>22179784</v>
+        <v>24694096</v>
       </c>
       <c r="BA34" t="n">
-        <v>23342760</v>
+        <v>26368296</v>
       </c>
       <c r="BB34" t="n">
-        <v>23928528</v>
+        <v>26699040</v>
       </c>
       <c r="BC34" t="n">
-        <v>25258984</v>
+        <v>27688520</v>
       </c>
       <c r="BD34" t="n">
-        <v>24581736</v>
+        <v>29494784</v>
       </c>
       <c r="BE34" t="n">
-        <v>28029840</v>
+        <v>26353736</v>
       </c>
       <c r="BF34" t="n">
-        <v>31138880</v>
+        <v>29684896</v>
       </c>
       <c r="BG34" t="n">
-        <v>33981592</v>
+        <v>29709096</v>
       </c>
       <c r="BH34" t="n">
-        <v>34228552</v>
+        <v>29308992</v>
       </c>
       <c r="BI34" t="n">
-        <v>33168384</v>
+        <v>30071960</v>
       </c>
     </row>
     <row r="35">
@@ -6786,184 +6786,184 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="C35" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="D35" t="n">
-        <v>29500</v>
+        <v>26500</v>
       </c>
       <c r="E35" t="n">
-        <v>38500</v>
+        <v>37000</v>
       </c>
       <c r="F35" t="n">
-        <v>46000</v>
+        <v>31000</v>
       </c>
       <c r="G35" t="n">
         <v>38500</v>
       </c>
       <c r="H35" t="n">
-        <v>38500</v>
+        <v>44500</v>
       </c>
       <c r="I35" t="n">
-        <v>55000</v>
+        <v>52000</v>
       </c>
       <c r="J35" t="n">
-        <v>38500</v>
+        <v>52000</v>
       </c>
       <c r="K35" t="n">
-        <v>53500</v>
+        <v>56500</v>
       </c>
       <c r="L35" t="n">
-        <v>74500</v>
+        <v>52000</v>
       </c>
       <c r="M35" t="n">
-        <v>49000</v>
+        <v>70000</v>
       </c>
       <c r="N35" t="n">
-        <v>89500</v>
+        <v>128500</v>
       </c>
       <c r="O35" t="n">
-        <v>94000</v>
+        <v>113500</v>
       </c>
       <c r="P35" t="n">
-        <v>118000</v>
+        <v>116500</v>
       </c>
       <c r="Q35" t="n">
-        <v>110500</v>
+        <v>142000</v>
       </c>
       <c r="R35" t="n">
-        <v>113500</v>
+        <v>125500</v>
       </c>
       <c r="S35" t="n">
-        <v>146500</v>
+        <v>143500</v>
       </c>
       <c r="T35" t="n">
-        <v>142000</v>
+        <v>158500</v>
       </c>
       <c r="U35" t="n">
-        <v>161500</v>
+        <v>166000</v>
       </c>
       <c r="V35" t="n">
-        <v>164500</v>
+        <v>176500</v>
       </c>
       <c r="W35" t="n">
-        <v>181000</v>
+        <v>197500</v>
       </c>
       <c r="X35" t="n">
-        <v>175000</v>
+        <v>224500</v>
       </c>
       <c r="Y35" t="n">
-        <v>191500</v>
+        <v>217000</v>
       </c>
       <c r="Z35" t="n">
-        <v>236500</v>
+        <v>314500</v>
       </c>
       <c r="AA35" t="n">
-        <v>241000</v>
+        <v>298000</v>
       </c>
       <c r="AB35" t="n">
-        <v>296500</v>
+        <v>344500</v>
       </c>
       <c r="AC35" t="n">
-        <v>310000</v>
+        <v>368500</v>
       </c>
       <c r="AD35" t="n">
-        <v>301000</v>
+        <v>338500</v>
       </c>
       <c r="AE35" t="n">
-        <v>412000</v>
+        <v>370000</v>
       </c>
       <c r="AF35" t="n">
-        <v>415000</v>
+        <v>410500</v>
       </c>
       <c r="AG35" t="n">
-        <v>412000</v>
+        <v>388000</v>
       </c>
       <c r="AH35" t="n">
         <v>440500</v>
       </c>
       <c r="AI35" t="n">
-        <v>442000</v>
+        <v>455500</v>
       </c>
       <c r="AJ35" t="n">
-        <v>535000</v>
+        <v>493000</v>
       </c>
       <c r="AK35" t="n">
-        <v>475000</v>
+        <v>545500</v>
       </c>
       <c r="AL35" t="n">
-        <v>608500</v>
+        <v>628000</v>
       </c>
       <c r="AM35" t="n">
-        <v>574000</v>
+        <v>631000</v>
       </c>
       <c r="AN35" t="n">
-        <v>620500</v>
+        <v>835000</v>
       </c>
       <c r="AO35" t="n">
-        <v>622000</v>
+        <v>779500</v>
       </c>
       <c r="AP35" t="n">
-        <v>694000</v>
+        <v>820000</v>
       </c>
       <c r="AQ35" t="n">
-        <v>805000</v>
+        <v>842500</v>
       </c>
       <c r="AR35" t="n">
-        <v>809500</v>
+        <v>892000</v>
       </c>
       <c r="AS35" t="n">
-        <v>835000</v>
+        <v>833500</v>
       </c>
       <c r="AT35" t="n">
-        <v>949000</v>
+        <v>922000</v>
       </c>
       <c r="AU35" t="n">
-        <v>967000</v>
+        <v>937000</v>
       </c>
       <c r="AV35" t="n">
-        <v>1057000</v>
+        <v>997000</v>
       </c>
       <c r="AW35" t="n">
-        <v>1030000</v>
+        <v>1040500</v>
       </c>
       <c r="AX35" t="n">
-        <v>1114000</v>
+        <v>1268500</v>
       </c>
       <c r="AY35" t="n">
-        <v>1115500</v>
+        <v>1280500</v>
       </c>
       <c r="AZ35" t="n">
-        <v>1174000</v>
+        <v>1330000</v>
       </c>
       <c r="BA35" t="n">
-        <v>1183000</v>
+        <v>1346500</v>
       </c>
       <c r="BB35" t="n">
-        <v>1247500</v>
+        <v>1441000</v>
       </c>
       <c r="BC35" t="n">
-        <v>1372000</v>
+        <v>1474000</v>
       </c>
       <c r="BD35" t="n">
-        <v>1363000</v>
+        <v>1499500</v>
       </c>
       <c r="BE35" t="n">
-        <v>1448500</v>
+        <v>1417000</v>
       </c>
       <c r="BF35" t="n">
-        <v>1666000</v>
+        <v>1526500</v>
       </c>
       <c r="BG35" t="n">
-        <v>1796500</v>
+        <v>1555000</v>
       </c>
       <c r="BH35" t="n">
-        <v>1825000</v>
+        <v>1531000</v>
       </c>
       <c r="BI35" t="n">
-        <v>1867000</v>
+        <v>1606000</v>
       </c>
     </row>
     <row r="36">
@@ -6973,7 +6973,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25000</v>
+        <v>31250</v>
       </c>
       <c r="C36" t="n">
         <v>31250</v>
@@ -6982,16 +6982,16 @@
         <v>37500</v>
       </c>
       <c r="E36" t="n">
+        <v>37500</v>
+      </c>
+      <c r="F36" t="n">
+        <v>37500</v>
+      </c>
+      <c r="G36" t="n">
         <v>40625</v>
       </c>
-      <c r="F36" t="n">
-        <v>40625</v>
-      </c>
-      <c r="G36" t="n">
-        <v>43750</v>
-      </c>
       <c r="H36" t="n">
-        <v>43750</v>
+        <v>46875</v>
       </c>
       <c r="I36" t="n">
         <v>46875</v>
@@ -7003,25 +7003,25 @@
         <v>46875</v>
       </c>
       <c r="L36" t="n">
-        <v>46875</v>
+        <v>50000</v>
       </c>
       <c r="M36" t="n">
-        <v>46875</v>
+        <v>50000</v>
       </c>
       <c r="N36" t="n">
-        <v>46875</v>
+        <v>50000</v>
       </c>
       <c r="O36" t="n">
-        <v>46875</v>
+        <v>50000</v>
       </c>
       <c r="P36" t="n">
-        <v>46875</v>
+        <v>50000</v>
       </c>
       <c r="Q36" t="n">
-        <v>46875</v>
+        <v>50000</v>
       </c>
       <c r="R36" t="n">
-        <v>46875</v>
+        <v>50000</v>
       </c>
       <c r="S36" t="n">
         <v>50000</v>
@@ -7160,31 +7160,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13823</v>
+        <v>18032</v>
       </c>
       <c r="C37" t="n">
-        <v>15284</v>
+        <v>16566</v>
       </c>
       <c r="D37" t="n">
-        <v>20250</v>
+        <v>17985</v>
       </c>
       <c r="E37" t="n">
-        <v>29593</v>
+        <v>32875</v>
       </c>
       <c r="F37" t="n">
-        <v>29535</v>
+        <v>21321</v>
       </c>
       <c r="G37" t="n">
-        <v>30715</v>
+        <v>29077</v>
       </c>
       <c r="H37" t="n">
-        <v>35014</v>
+        <v>38577</v>
       </c>
       <c r="I37" t="n">
-        <v>39461</v>
+        <v>39249</v>
       </c>
       <c r="J37" t="n">
-        <v>38056</v>
+        <v>40000</v>
       </c>
       <c r="K37" t="n">
         <v>40000</v>
@@ -7347,184 +7347,184 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>780401</v>
+        <v>991501</v>
       </c>
       <c r="C38" t="n">
-        <v>874839</v>
+        <v>931842</v>
       </c>
       <c r="D38" t="n">
-        <v>1113784</v>
+        <v>1020033</v>
       </c>
       <c r="E38" t="n">
-        <v>1555692</v>
+        <v>1657354</v>
       </c>
       <c r="F38" t="n">
-        <v>1550965</v>
+        <v>1163658</v>
       </c>
       <c r="G38" t="n">
-        <v>1644849</v>
+        <v>1539495</v>
       </c>
       <c r="H38" t="n">
-        <v>1829147</v>
+        <v>2004068</v>
       </c>
       <c r="I38" t="n">
-        <v>2030701</v>
+        <v>2032745</v>
       </c>
       <c r="J38" t="n">
-        <v>1973392</v>
+        <v>2159762</v>
       </c>
       <c r="K38" t="n">
-        <v>2259130</v>
+        <v>2096789</v>
       </c>
       <c r="L38" t="n">
-        <v>2729485</v>
+        <v>2489277</v>
       </c>
       <c r="M38" t="n">
-        <v>2196082</v>
+        <v>2850164</v>
       </c>
       <c r="N38" t="n">
-        <v>3272103</v>
+        <v>4127538</v>
       </c>
       <c r="O38" t="n">
-        <v>3406087</v>
+        <v>3999958</v>
       </c>
       <c r="P38" t="n">
-        <v>3545895</v>
+        <v>4395292</v>
       </c>
       <c r="Q38" t="n">
-        <v>3750800</v>
+        <v>4836523</v>
       </c>
       <c r="R38" t="n">
-        <v>3828686</v>
+        <v>4541831</v>
       </c>
       <c r="S38" t="n">
-        <v>4639936</v>
+        <v>4675130</v>
       </c>
       <c r="T38" t="n">
-        <v>4861511</v>
+        <v>5476070</v>
       </c>
       <c r="U38" t="n">
-        <v>5004790</v>
+        <v>5255169</v>
       </c>
       <c r="V38" t="n">
-        <v>4969228</v>
+        <v>5854235</v>
       </c>
       <c r="W38" t="n">
-        <v>5473426</v>
+        <v>5840586</v>
       </c>
       <c r="X38" t="n">
-        <v>5630494</v>
+        <v>6571997</v>
       </c>
       <c r="Y38" t="n">
-        <v>5406857</v>
+        <v>6913319</v>
       </c>
       <c r="Z38" t="n">
-        <v>7270123</v>
+        <v>8292179</v>
       </c>
       <c r="AA38" t="n">
-        <v>6592374</v>
+        <v>8653639</v>
       </c>
       <c r="AB38" t="n">
-        <v>8161319</v>
+        <v>9007163</v>
       </c>
       <c r="AC38" t="n">
-        <v>8592712</v>
+        <v>10036243</v>
       </c>
       <c r="AD38" t="n">
-        <v>8466421</v>
+        <v>8803380</v>
       </c>
       <c r="AE38" t="n">
-        <v>10593730</v>
+        <v>9998208</v>
       </c>
       <c r="AF38" t="n">
-        <v>10971517</v>
+        <v>10726990</v>
       </c>
       <c r="AG38" t="n">
-        <v>11155893</v>
+        <v>9718335</v>
       </c>
       <c r="AH38" t="n">
-        <v>11124499</v>
+        <v>12140250</v>
       </c>
       <c r="AI38" t="n">
-        <v>11955121</v>
+        <v>12447618</v>
       </c>
       <c r="AJ38" t="n">
-        <v>13523450</v>
+        <v>12789134</v>
       </c>
       <c r="AK38" t="n">
-        <v>12314015</v>
+        <v>13844835</v>
       </c>
       <c r="AL38" t="n">
-        <v>15368272</v>
+        <v>15439389</v>
       </c>
       <c r="AM38" t="n">
-        <v>14373351</v>
+        <v>15678814</v>
       </c>
       <c r="AN38" t="n">
-        <v>15769213</v>
+        <v>19956151</v>
       </c>
       <c r="AO38" t="n">
-        <v>15584268</v>
+        <v>19842663</v>
       </c>
       <c r="AP38" t="n">
-        <v>16830484</v>
+        <v>19780392</v>
       </c>
       <c r="AQ38" t="n">
-        <v>19224485</v>
+        <v>20309236</v>
       </c>
       <c r="AR38" t="n">
-        <v>18442884</v>
+        <v>22126795</v>
       </c>
       <c r="AS38" t="n">
-        <v>20530725</v>
+        <v>19789986</v>
       </c>
       <c r="AT38" t="n">
-        <v>22603321</v>
+        <v>22914449</v>
       </c>
       <c r="AU38" t="n">
-        <v>23714137</v>
+        <v>22855475</v>
       </c>
       <c r="AV38" t="n">
-        <v>24637345</v>
+        <v>24006407</v>
       </c>
       <c r="AW38" t="n">
-        <v>23733839</v>
+        <v>25176667</v>
       </c>
       <c r="AX38" t="n">
-        <v>26139890</v>
+        <v>29753960</v>
       </c>
       <c r="AY38" t="n">
-        <v>27054986</v>
+        <v>29322057</v>
       </c>
       <c r="AZ38" t="n">
-        <v>27196991</v>
+        <v>30183926</v>
       </c>
       <c r="BA38" t="n">
-        <v>28465239</v>
+        <v>31977816</v>
       </c>
       <c r="BB38" t="n">
-        <v>29265928</v>
+        <v>32645360</v>
       </c>
       <c r="BC38" t="n">
-        <v>30892400</v>
+        <v>33734270</v>
       </c>
       <c r="BD38" t="n">
-        <v>30283950</v>
+        <v>35597764</v>
       </c>
       <c r="BE38" t="n">
-        <v>34116138</v>
+        <v>32291571</v>
       </c>
       <c r="BF38" t="n">
-        <v>37994873</v>
+        <v>35910076</v>
       </c>
       <c r="BG38" t="n">
-        <v>41232354</v>
+        <v>36009121</v>
       </c>
       <c r="BH38" t="n">
-        <v>41632122</v>
+        <v>35545217</v>
       </c>
       <c r="BI38" t="n">
-        <v>40691205</v>
+        <v>36577180</v>
       </c>
     </row>
     <row r="39">
@@ -7534,184 +7534,184 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-89220.20000000007</v>
+        <v>-89856.19999999995</v>
       </c>
       <c r="C39" t="n">
-        <v>-110631.0000000001</v>
+        <v>-103502.7999999998</v>
       </c>
       <c r="D39" t="n">
-        <v>-101262.4000000004</v>
+        <v>-120775.3999999997</v>
       </c>
       <c r="E39" t="n">
-        <v>-76024.80000000028</v>
+        <v>-13565.19999999972</v>
       </c>
       <c r="F39" t="n">
-        <v>-74206.60000000102</v>
+        <v>-97571.60000000009</v>
       </c>
       <c r="G39" t="n">
-        <v>-109069.799999998</v>
+        <v>-85629.39999999944</v>
       </c>
       <c r="H39" t="n">
-        <v>-78443.00000000186</v>
+        <v>-75200.80000000075</v>
       </c>
       <c r="I39" t="n">
-        <v>-57613.00000000093</v>
+        <v>-70261.79999999981</v>
       </c>
       <c r="J39" t="n">
-        <v>-70566.40000000037</v>
+        <v>-46779.60000000149</v>
       </c>
       <c r="K39" t="n">
-        <v>-15283.60000000149</v>
+        <v>-62056.20000000671</v>
       </c>
       <c r="L39" t="n">
-        <v>80799.80000000075</v>
+        <v>793.4000000022352</v>
       </c>
       <c r="M39" t="n">
-        <v>-33394</v>
+        <v>23368.80000000447</v>
       </c>
       <c r="N39" t="n">
-        <v>186431.4000000022</v>
+        <v>269207.599999994</v>
       </c>
       <c r="O39" t="n">
-        <v>211960.9999999888</v>
+        <v>227939.6000000052</v>
       </c>
       <c r="P39" t="n">
-        <v>244588.1999999732</v>
+        <v>289562.4000000022</v>
       </c>
       <c r="Q39" t="n">
-        <v>285059.1999999955</v>
+        <v>329710.6000000089</v>
       </c>
       <c r="R39" t="n">
-        <v>297547.5999999829</v>
+        <v>275004.2000000216</v>
       </c>
       <c r="S39" t="n">
-        <v>447084.8000000566</v>
+        <v>300326.0000000075</v>
       </c>
       <c r="T39" t="n">
-        <v>486025.0000000075</v>
+        <v>455721.9999999851</v>
       </c>
       <c r="U39" t="n">
-        <v>508307.6000000015</v>
+        <v>410411.7999999896</v>
       </c>
       <c r="V39" t="n">
-        <v>498250.4000000656</v>
+        <v>525253.0000000298</v>
       </c>
       <c r="W39" t="n">
-        <v>584951.599999994</v>
+        <v>519449.2000000179</v>
       </c>
       <c r="X39" t="n">
-        <v>614142.8000000194</v>
+        <v>665833.3999999985</v>
       </c>
       <c r="Y39" t="n">
-        <v>525030.9999999702</v>
+        <v>732677.7999999672</v>
       </c>
       <c r="Z39" t="n">
-        <v>897672.200000003</v>
+        <v>997401.8000000417</v>
       </c>
       <c r="AA39" t="n">
-        <v>763597.2000000775</v>
+        <v>1070421.800000027</v>
       </c>
       <c r="AB39" t="n">
-        <v>1020831.400000051</v>
+        <v>1123806.600000054</v>
       </c>
       <c r="AC39" t="n">
-        <v>1113406.399999961</v>
+        <v>1327734.599999905</v>
       </c>
       <c r="AD39" t="n">
-        <v>1080404.600000098</v>
+        <v>1065900.00000003</v>
       </c>
       <c r="AE39" t="n">
-        <v>1511994.800000086</v>
+        <v>1302585.600000054</v>
       </c>
       <c r="AF39" t="n">
-        <v>1581433.399999946</v>
+        <v>1447297.99999994</v>
       </c>
       <c r="AG39" t="n">
-        <v>1605905.400000066</v>
+        <v>1244577.000000149</v>
       </c>
       <c r="AH39" t="n">
-        <v>1605004.999999687</v>
+        <v>1702533.999999911</v>
       </c>
       <c r="AI39" t="n">
-        <v>1763903.000000119</v>
+        <v>1759287.599999934</v>
       </c>
       <c r="AJ39" t="n">
-        <v>2062006</v>
+        <v>1815550.799999833</v>
       </c>
       <c r="AK39" t="n">
-        <v>1806241.000000328</v>
+        <v>1975869</v>
       </c>
       <c r="AL39" t="n">
-        <v>2414988.800000042</v>
+        <v>2266047.800000012</v>
       </c>
       <c r="AM39" t="n">
-        <v>2204389.800000101</v>
+        <v>2294142.799999684</v>
       </c>
       <c r="AN39" t="n">
-        <v>2493375.800000101</v>
+        <v>3106700.200000137</v>
       </c>
       <c r="AO39" t="n">
-        <v>2437226.400000155</v>
+        <v>3082530.599999905</v>
       </c>
       <c r="AP39" t="n">
-        <v>2658130.399999797</v>
+        <v>3055886.399999976</v>
       </c>
       <c r="AQ39" t="n">
-        <v>3149322.999999374</v>
+        <v>3088239.19999969</v>
       </c>
       <c r="AR39" t="n">
-        <v>2940453.600000083</v>
+        <v>3445589.000000119</v>
       </c>
       <c r="AS39" t="n">
-        <v>3299306.999999404</v>
+        <v>2980609.200000226</v>
       </c>
       <c r="AT39" t="n">
-        <v>3736515.799999893</v>
+        <v>3587883.799999058</v>
       </c>
       <c r="AU39" t="n">
-        <v>3955338.199999034</v>
+        <v>3567372.99999994</v>
       </c>
       <c r="AV39" t="n">
-        <v>4151739.799999833</v>
+        <v>3773567.400000632</v>
       </c>
       <c r="AW39" t="n">
-        <v>3967277.800000191</v>
+        <v>3952075.40000093</v>
       </c>
       <c r="AX39" t="n">
-        <v>4457959.60000062</v>
+        <v>4835432.000000715</v>
       </c>
       <c r="AY39" t="n">
-        <v>4616796.399999261</v>
+        <v>4745053.399999917</v>
       </c>
       <c r="AZ39" t="n">
-        <v>4625549.799999535</v>
+        <v>4891789.19999963</v>
       </c>
       <c r="BA39" t="n">
-        <v>4864472.999999404</v>
+        <v>5240539.200001597</v>
       </c>
       <c r="BB39" t="n">
-        <v>4995905.599999666</v>
+        <v>5326287.999999523</v>
       </c>
       <c r="BC39" t="n">
-        <v>5309180.800001502</v>
+        <v>5515554.000001788</v>
       </c>
       <c r="BD39" t="n">
-        <v>5180533.200001121</v>
+        <v>5878776.799999595</v>
       </c>
       <c r="BE39" t="n">
-        <v>5903669.999999046</v>
+        <v>5230112.199997783</v>
       </c>
       <c r="BF39" t="n">
-        <v>6668983.000003934</v>
+        <v>5931399.200000644</v>
       </c>
       <c r="BG39" t="n">
-        <v>7321556.399996758</v>
+        <v>5946194.200000763</v>
       </c>
       <c r="BH39" t="n">
-        <v>7371740.400001526</v>
+        <v>5847573.399999022</v>
       </c>
       <c r="BI39" t="n">
-        <v>7190455.79999876</v>
+        <v>6036371.999998689</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -651,148 +651,148 @@
         <v>285</v>
       </c>
       <c r="N2" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O2" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="P2" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q2" t="n">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="R2" t="n">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="S2" t="n">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="T2" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U2" t="n">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="V2" t="n">
         <v>508</v>
       </c>
       <c r="W2" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X2" t="n">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="Y2" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Z2" t="n">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="AA2" t="n">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="AB2" t="n">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="AC2" t="n">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="AD2" t="n">
-        <v>779</v>
+        <v>823</v>
       </c>
       <c r="AE2" t="n">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="AF2" t="n">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="AG2" t="n">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="AH2" t="n">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="AI2" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AJ2" t="n">
         <v>1007</v>
       </c>
       <c r="AK2" t="n">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="AL2" t="n">
-        <v>1203</v>
+        <v>1236</v>
       </c>
       <c r="AM2" t="n">
-        <v>1233</v>
+        <v>1264</v>
       </c>
       <c r="AN2" t="n">
-        <v>1315</v>
+        <v>1289</v>
       </c>
       <c r="AO2" t="n">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="AP2" t="n">
-        <v>1329</v>
+        <v>1444</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1384</v>
+        <v>1413</v>
       </c>
       <c r="AR2" t="n">
-        <v>1466</v>
+        <v>1524</v>
       </c>
       <c r="AS2" t="n">
-        <v>1438</v>
+        <v>1551</v>
       </c>
       <c r="AT2" t="n">
-        <v>1547</v>
+        <v>1585</v>
       </c>
       <c r="AU2" t="n">
-        <v>1600</v>
+        <v>1678</v>
       </c>
       <c r="AV2" t="n">
-        <v>1658</v>
+        <v>1720</v>
       </c>
       <c r="AW2" t="n">
-        <v>1722</v>
+        <v>1783</v>
       </c>
       <c r="AX2" t="n">
-        <v>1937</v>
+        <v>2043</v>
       </c>
       <c r="AY2" t="n">
-        <v>1946</v>
+        <v>2078</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2192</v>
+        <v>2103</v>
       </c>
       <c r="BA2" t="n">
-        <v>2201</v>
+        <v>2158</v>
       </c>
       <c r="BB2" t="n">
-        <v>2196</v>
+        <v>2291</v>
       </c>
       <c r="BC2" t="n">
-        <v>2255</v>
+        <v>2262</v>
       </c>
       <c r="BD2" t="n">
-        <v>2360</v>
+        <v>2423</v>
       </c>
       <c r="BE2" t="n">
-        <v>2290</v>
+        <v>2474</v>
       </c>
       <c r="BF2" t="n">
-        <v>2446</v>
+        <v>2547</v>
       </c>
       <c r="BG2" t="n">
-        <v>2514</v>
+        <v>2708</v>
       </c>
       <c r="BH2" t="n">
-        <v>2604</v>
+        <v>2739</v>
       </c>
       <c r="BI2" t="n">
-        <v>2716</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="3">
@@ -802,184 +802,184 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
+        <v>26</v>
+      </c>
+      <c r="H3" t="n">
         <v>21</v>
       </c>
-      <c r="H3" t="n">
-        <v>15</v>
-      </c>
       <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>19</v>
+      </c>
+      <c r="K3" t="n">
+        <v>21</v>
+      </c>
+      <c r="L3" t="n">
+        <v>26</v>
+      </c>
+      <c r="M3" t="n">
         <v>23</v>
       </c>
-      <c r="J3" t="n">
-        <v>15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>17</v>
-      </c>
-      <c r="L3" t="n">
-        <v>21</v>
-      </c>
-      <c r="M3" t="n">
-        <v>30</v>
-      </c>
       <c r="N3" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O3" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="P3" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="R3" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="S3" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="T3" t="n">
         <v>41</v>
       </c>
       <c r="U3" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="V3" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="W3" t="n">
+        <v>51</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA3" t="n">
         <v>52</v>
       </c>
-      <c r="X3" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="AB3" t="n">
+        <v>58</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE3" t="n">
         <v>61</v>
       </c>
-      <c r="Z3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>49</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>53</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>40</v>
-      </c>
       <c r="AF3" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AH3" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AI3" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AK3" t="n">
+        <v>69</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>79</v>
+      </c>
+      <c r="AM3" t="n">
         <v>74</v>
       </c>
-      <c r="AL3" t="n">
-        <v>69</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>70</v>
-      </c>
       <c r="AN3" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO3" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AP3" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AQ3" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AR3" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AS3" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT3" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="AU3" t="n">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="AV3" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AW3" t="n">
         <v>95</v>
       </c>
       <c r="AX3" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AY3" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AZ3" t="n">
+        <v>92</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>85</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>91</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>94</v>
+      </c>
+      <c r="BD3" t="n">
         <v>95</v>
       </c>
-      <c r="BA3" t="n">
-        <v>84</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>103</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>93</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>98</v>
-      </c>
       <c r="BE3" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="BF3" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="BG3" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="BH3" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="BI3" t="n">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4">
@@ -989,184 +989,184 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G4" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I4" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J4" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
         <v>102</v>
       </c>
       <c r="L4" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M4" t="n">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="N4" t="n">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="O4" t="n">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="P4" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="Q4" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="R4" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="S4" t="n">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="T4" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="U4" t="n">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="V4" t="n">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="W4" t="n">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="X4" t="n">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="Y4" t="n">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Z4" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AA4" t="n">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="AB4" t="n">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="AC4" t="n">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="AD4" t="n">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AE4" t="n">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="AF4" t="n">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AG4" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AH4" t="n">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="AI4" t="n">
+        <v>274</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>276</v>
+      </c>
+      <c r="AK4" t="n">
         <v>278</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>265</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>282</v>
-      </c>
       <c r="AL4" t="n">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="AM4" t="n">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="AN4" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AO4" t="n">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="AP4" t="n">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="AQ4" t="n">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="AR4" t="n">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="AS4" t="n">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AT4" t="n">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="AU4" t="n">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AV4" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AW4" t="n">
+        <v>371</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>368</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>359</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>397</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>370</v>
+      </c>
+      <c r="BB4" t="n">
         <v>355</v>
       </c>
-      <c r="AX4" t="n">
-        <v>349</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>354</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>377</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>365</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>371</v>
-      </c>
       <c r="BC4" t="n">
+        <v>369</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>378</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>401</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>405</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>415</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>415</v>
+      </c>
+      <c r="BI4" t="n">
         <v>384</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>384</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>386</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>393</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>404</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>371</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>405</v>
       </c>
     </row>
     <row r="5">
@@ -1176,181 +1176,181 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F5" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G5" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H5" t="n">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I5" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J5" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K5" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L5" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="M5" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="N5" t="n">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="O5" t="n">
+        <v>157</v>
+      </c>
+      <c r="P5" t="n">
         <v>170</v>
       </c>
-      <c r="P5" t="n">
-        <v>178</v>
-      </c>
       <c r="Q5" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="R5" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="S5" t="n">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="T5" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="U5" t="n">
         <v>191</v>
       </c>
       <c r="V5" t="n">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="W5" t="n">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="X5" t="n">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="Y5" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Z5" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AA5" t="n">
+        <v>252</v>
+      </c>
+      <c r="AB5" t="n">
         <v>276</v>
       </c>
-      <c r="AB5" t="n">
-        <v>260</v>
-      </c>
       <c r="AC5" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AD5" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AE5" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AF5" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AG5" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AH5" t="n">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AI5" t="n">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AJ5" t="n">
+        <v>343</v>
+      </c>
+      <c r="AK5" t="n">
         <v>349</v>
       </c>
-      <c r="AK5" t="n">
-        <v>340</v>
-      </c>
       <c r="AL5" t="n">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AM5" t="n">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="AN5" t="n">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AO5" t="n">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="AP5" t="n">
+        <v>362</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>387</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>413</v>
-      </c>
       <c r="AR5" t="n">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="AS5" t="n">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AT5" t="n">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="AU5" t="n">
+        <v>444</v>
+      </c>
+      <c r="AV5" t="n">
         <v>422</v>
       </c>
-      <c r="AV5" t="n">
-        <v>417</v>
-      </c>
       <c r="AW5" t="n">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="AX5" t="n">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AY5" t="n">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AZ5" t="n">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="BA5" t="n">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="BB5" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>492</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>491</v>
+      </c>
+      <c r="BE5" t="n">
         <v>472</v>
       </c>
-      <c r="BC5" t="n">
-        <v>478</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>482</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>481</v>
-      </c>
       <c r="BF5" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="BG5" t="n">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="BH5" t="n">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="BI5" t="n">
         <v>505</v>
@@ -1399,148 +1399,148 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O6" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P6" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q6" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="R6" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="S6" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T6" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U6" t="n">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="V6" t="n">
         <v>78</v>
       </c>
       <c r="W6" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="X6" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="n">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AA6" t="n">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="AB6" t="n">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="AC6" t="n">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="AD6" t="n">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="AE6" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AF6" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG6" t="n">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="AH6" t="n">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="AI6" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AJ6" t="n">
         <v>332</v>
       </c>
       <c r="AK6" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL6" t="n">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="AM6" t="n">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="AN6" t="n">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AO6" t="n">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="AP6" t="n">
-        <v>554</v>
+        <v>669</v>
       </c>
       <c r="AQ6" t="n">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="AR6" t="n">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="AS6" t="n">
-        <v>615</v>
+        <v>728</v>
       </c>
       <c r="AT6" t="n">
-        <v>708</v>
+        <v>746</v>
       </c>
       <c r="AU6" t="n">
-        <v>744</v>
+        <v>822</v>
       </c>
       <c r="AV6" t="n">
-        <v>784</v>
+        <v>846</v>
       </c>
       <c r="AW6" t="n">
-        <v>832</v>
+        <v>893</v>
       </c>
       <c r="AX6" t="n">
-        <v>1028</v>
+        <v>1134</v>
       </c>
       <c r="AY6" t="n">
-        <v>1029</v>
+        <v>1161</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1265</v>
+        <v>1176</v>
       </c>
       <c r="BA6" t="n">
-        <v>1265</v>
+        <v>1222</v>
       </c>
       <c r="BB6" t="n">
-        <v>1250</v>
+        <v>1345</v>
       </c>
       <c r="BC6" t="n">
-        <v>1300</v>
+        <v>1307</v>
       </c>
       <c r="BD6" t="n">
-        <v>1396</v>
+        <v>1459</v>
       </c>
       <c r="BE6" t="n">
-        <v>1316</v>
+        <v>1500</v>
       </c>
       <c r="BF6" t="n">
-        <v>1462</v>
+        <v>1563</v>
       </c>
       <c r="BG6" t="n">
-        <v>1520</v>
+        <v>1714</v>
       </c>
       <c r="BH6" t="n">
-        <v>1600</v>
+        <v>1735</v>
       </c>
       <c r="BI6" t="n">
-        <v>1703</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="7">
@@ -1550,184 +1550,184 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
         <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
         <v>24</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L7" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M7" t="n">
+        <v>40</v>
+      </c>
+      <c r="N7" t="n">
         <v>37</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
+        <v>51</v>
+      </c>
+      <c r="P7" t="n">
         <v>38</v>
       </c>
-      <c r="O7" t="n">
-        <v>37</v>
-      </c>
-      <c r="P7" t="n">
-        <v>48</v>
-      </c>
       <c r="Q7" t="n">
+        <v>53</v>
+      </c>
+      <c r="R7" t="n">
+        <v>38</v>
+      </c>
+      <c r="S7" t="n">
+        <v>53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>52</v>
+      </c>
+      <c r="U7" t="n">
+        <v>41</v>
+      </c>
+      <c r="V7" t="n">
+        <v>53</v>
+      </c>
+      <c r="W7" t="n">
+        <v>52</v>
+      </c>
+      <c r="X7" t="n">
+        <v>52</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>61</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>53</v>
+      </c>
+      <c r="AA7" t="n">
         <v>50</v>
       </c>
-      <c r="R7" t="n">
-        <v>40</v>
-      </c>
-      <c r="S7" t="n">
-        <v>39</v>
-      </c>
-      <c r="T7" t="n">
+      <c r="AB7" t="n">
+        <v>56</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>72</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>64</v>
+      </c>
+      <c r="AE7" t="n">
         <v>58</v>
       </c>
-      <c r="U7" t="n">
-        <v>46</v>
-      </c>
-      <c r="V7" t="n">
-        <v>47</v>
-      </c>
-      <c r="W7" t="n">
-        <v>58</v>
-      </c>
-      <c r="X7" t="n">
-        <v>43</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
         <v>60</v>
       </c>
-      <c r="Z7" t="n">
-        <v>47</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AH7" t="n">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>68</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>66</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>71</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>63</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>73</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>76</v>
+      </c>
+      <c r="AP7" t="n">
         <v>67</v>
       </c>
-      <c r="AB7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AQ7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>63</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>77</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>68</v>
+      </c>
+      <c r="AU7" t="n">
         <v>71</v>
       </c>
-      <c r="AE7" t="n">
-        <v>64</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>64</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>63</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>69</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>68</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>49</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>61</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>53</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>71</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>92</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>71</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>78</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>84</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>78</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>76</v>
-      </c>
       <c r="AV7" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AW7" t="n">
+        <v>86</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>86</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>86</v>
+      </c>
+      <c r="BA7" t="n">
         <v>93</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="BB7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>77</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>83</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>91</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>86</v>
+      </c>
+      <c r="BH7" t="n">
         <v>72</v>
       </c>
-      <c r="AY7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>61</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>79</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>74</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>74</v>
-      </c>
-      <c r="BD7" t="n">
+      <c r="BI7" t="n">
         <v>72</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>84</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>72</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>78</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>73</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -1740,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1755,10 +1755,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1785,67 +1785,67 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="n">
         <v>2</v>
       </c>
       <c r="AK8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -1860,41 +1860,41 @@
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
         <v>3</v>
       </c>
-      <c r="AV8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
@@ -1902,16 +1902,16 @@
         <v>1</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG8" t="n">
         <v>1</v>
       </c>
       <c r="BH8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
         <v>0</v>
@@ -1924,184 +1924,184 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>4</v>
       </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" t="n">
+        <v>14</v>
+      </c>
+      <c r="O9" t="n">
         <v>7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>5</v>
       </c>
       <c r="P9" t="n">
         <v>7</v>
       </c>
       <c r="Q9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>9</v>
+      </c>
+      <c r="T9" t="n">
         <v>8</v>
       </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>12</v>
-      </c>
       <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
         <v>10</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>9</v>
-      </c>
-      <c r="W9" t="n">
-        <v>15</v>
       </c>
       <c r="X9" t="n">
         <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
         <v>10</v>
       </c>
       <c r="AA9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB9" t="n">
         <v>11</v>
       </c>
-      <c r="AB9" t="n">
-        <v>17</v>
-      </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL9" t="n">
         <v>9</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN9" t="n">
         <v>12</v>
       </c>
-      <c r="AM9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN9" t="n">
+      <c r="AO9" t="n">
         <v>13</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>19</v>
       </c>
-      <c r="AP9" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU9" t="n">
         <v>13</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AV9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>27</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>23</v>
+      </c>
+      <c r="BG9" t="n">
         <v>21</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="BH9" t="n">
         <v>12</v>
       </c>
-      <c r="AT9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>19</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>16</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>12</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>19</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>14</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>9</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>14</v>
-      </c>
       <c r="BI9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -2111,184 +2111,184 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" t="n">
         <v>13</v>
       </c>
-      <c r="E10" t="n">
-        <v>10</v>
-      </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
+        <v>13</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18</v>
+      </c>
+      <c r="I10" t="n">
         <v>14</v>
-      </c>
-      <c r="H10" t="n">
-        <v>19</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13</v>
       </c>
       <c r="J10" t="n">
         <v>20</v>
       </c>
       <c r="K10" t="n">
+        <v>21</v>
+      </c>
+      <c r="L10" t="n">
+        <v>19</v>
+      </c>
+      <c r="M10" t="n">
+        <v>29</v>
+      </c>
+      <c r="N10" t="n">
         <v>23</v>
       </c>
-      <c r="L10" t="n">
-        <v>29</v>
-      </c>
-      <c r="M10" t="n">
-        <v>34</v>
-      </c>
-      <c r="N10" t="n">
-        <v>27</v>
-      </c>
       <c r="O10" t="n">
+        <v>43</v>
+      </c>
+      <c r="P10" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>38</v>
+      </c>
+      <c r="R10" t="n">
         <v>32</v>
       </c>
-      <c r="P10" t="n">
+      <c r="S10" t="n">
+        <v>44</v>
+      </c>
+      <c r="T10" t="n">
         <v>41</v>
       </c>
-      <c r="Q10" t="n">
-        <v>37</v>
-      </c>
-      <c r="R10" t="n">
-        <v>29</v>
-      </c>
-      <c r="S10" t="n">
-        <v>32</v>
-      </c>
-      <c r="T10" t="n">
-        <v>44</v>
-      </c>
       <c r="U10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W10" t="n">
         <v>42</v>
       </c>
       <c r="X10" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Y10" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>43</v>
+      </c>
+      <c r="AC10" t="n">
         <v>55</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AD10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>43</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>52</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>49</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>56</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>61</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>56</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>54</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>47</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>54</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>59</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>57</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>68</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>58</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>68</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>58</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>62</v>
+      </c>
+      <c r="BD10" t="n">
         <v>53</v>
       </c>
-      <c r="AC10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="BE10" t="n">
+        <v>64</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>72</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>63</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>55</v>
+      </c>
+      <c r="BI10" t="n">
         <v>56</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>33</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>49</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>49</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>47</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>57</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>58</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>62</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>62</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>63</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>61</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>71</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>56</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>71</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>42</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>52</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>56</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>56</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>63</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>54</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>65</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -2346,136 +2346,136 @@
         <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
         <v>1</v>
       </c>
       <c r="AB11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="n">
         <v>4</v>
       </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AJ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK11" t="n">
         <v>4</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AL11" t="n">
         <v>4</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AM11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="n">
         <v>4</v>
       </c>
-      <c r="AH11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
       <c r="AO11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR11" t="n">
         <v>6</v>
       </c>
-      <c r="AP11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ11" t="n">
+      <c r="AS11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU11" t="n">
         <v>3</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>4</v>
       </c>
       <c r="AW11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" t="n">
         <v>3</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AY11" t="n">
         <v>4</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AZ11" t="n">
         <v>3</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="BA11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE11" t="n">
         <v>4</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>2</v>
       </c>
       <c r="BF11" t="n">
         <v>3</v>
       </c>
       <c r="BG11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH11" t="n">
         <v>5</v>
       </c>
       <c r="BI11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -2485,184 +2485,184 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J12" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L12" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P12" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>43</v>
+      </c>
+      <c r="R12" t="n">
+        <v>56</v>
+      </c>
+      <c r="S12" t="n">
+        <v>46</v>
+      </c>
+      <c r="T12" t="n">
         <v>58</v>
       </c>
-      <c r="Q12" t="n">
-        <v>47</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="U12" t="n">
+        <v>55</v>
+      </c>
+      <c r="V12" t="n">
+        <v>48</v>
+      </c>
+      <c r="W12" t="n">
+        <v>54</v>
+      </c>
+      <c r="X12" t="n">
         <v>52</v>
       </c>
-      <c r="S12" t="n">
-        <v>47</v>
-      </c>
-      <c r="T12" t="n">
-        <v>51</v>
-      </c>
-      <c r="U12" t="n">
-        <v>47</v>
-      </c>
-      <c r="V12" t="n">
+      <c r="Y12" t="n">
         <v>50</v>
       </c>
-      <c r="W12" t="n">
-        <v>40</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA12" t="n">
         <v>49</v>
       </c>
-      <c r="Y12" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>68</v>
-      </c>
       <c r="AB12" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AC12" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AD12" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AF12" t="n">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="AG12" t="n">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="n">
+        <v>76</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>88</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>71</v>
+      </c>
+      <c r="AL12" t="n">
         <v>72</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AM12" t="n">
+        <v>66</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>79</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>79</v>
+      </c>
+      <c r="AP12" t="n">
         <v>70</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>62</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>61</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>68</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>74</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>77</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>85</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AR12" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AS12" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AT12" t="n">
+        <v>82</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>91</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>86</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>83</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>89</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>88</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>86</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>84</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>86</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>87</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>84</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>103</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>84</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>87</v>
+      </c>
+      <c r="BI12" t="n">
         <v>81</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>82</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>91</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>105</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>66</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>82</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>84</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>90</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>73</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>95</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>83</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>71</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>78</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -2675,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2717,130 +2717,130 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
         <v>3</v>
       </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC13" t="n">
         <v>3</v>
       </c>
-      <c r="AI13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>1</v>
-      </c>
       <c r="BD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG13" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -2868,7 +2868,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -2880,163 +2880,163 @@
         <v>2</v>
       </c>
       <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M14" t="n">
         <v>5</v>
       </c>
-      <c r="J14" t="n">
-        <v>4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>11</v>
+      </c>
+      <c r="P14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>8</v>
+      </c>
+      <c r="R14" t="n">
+        <v>13</v>
+      </c>
+      <c r="S14" t="n">
+        <v>12</v>
+      </c>
+      <c r="T14" t="n">
+        <v>9</v>
+      </c>
+      <c r="U14" t="n">
+        <v>14</v>
+      </c>
+      <c r="V14" t="n">
+        <v>11</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA14" t="n">
         <v>6</v>
       </c>
-      <c r="M14" t="n">
+      <c r="AB14" t="n">
         <v>9</v>
       </c>
-      <c r="N14" t="n">
-        <v>6</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="AC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK14" t="n">
         <v>12</v>
       </c>
-      <c r="P14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>14</v>
-      </c>
-      <c r="R14" t="n">
-        <v>16</v>
-      </c>
-      <c r="S14" t="n">
-        <v>10</v>
-      </c>
-      <c r="T14" t="n">
+      <c r="AL14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM14" t="n">
         <v>11</v>
       </c>
-      <c r="U14" t="n">
-        <v>9</v>
-      </c>
-      <c r="V14" t="n">
-        <v>13</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9</v>
-      </c>
-      <c r="X14" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>9</v>
-      </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>17</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AQ14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB14" t="n">
         <v>12</v>
       </c>
-      <c r="AR14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AT14" t="n">
+      <c r="BC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="BF14" t="n">
         <v>14</v>
       </c>
-      <c r="AU14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW14" t="n">
+      <c r="BG14" t="n">
+        <v>16</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI14" t="n">
         <v>18</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>17</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>19</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>16</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>16</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>14</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -3046,184 +3046,184 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" t="n">
         <v>10</v>
       </c>
-      <c r="C15" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I15" t="n">
         <v>21</v>
       </c>
       <c r="J15" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L15" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O15" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P15" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>34</v>
+      </c>
+      <c r="R15" t="n">
+        <v>38</v>
+      </c>
+      <c r="S15" t="n">
+        <v>32</v>
+      </c>
+      <c r="T15" t="n">
+        <v>44</v>
+      </c>
+      <c r="U15" t="n">
+        <v>38</v>
+      </c>
+      <c r="V15" t="n">
+        <v>35</v>
+      </c>
+      <c r="W15" t="n">
+        <v>42</v>
+      </c>
+      <c r="X15" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
         <v>45</v>
       </c>
-      <c r="Q15" t="n">
-        <v>32</v>
-      </c>
-      <c r="R15" t="n">
-        <v>34</v>
-      </c>
-      <c r="S15" t="n">
-        <v>34</v>
-      </c>
-      <c r="T15" t="n">
-        <v>37</v>
-      </c>
-      <c r="U15" t="n">
-        <v>35</v>
-      </c>
-      <c r="V15" t="n">
-        <v>33</v>
-      </c>
-      <c r="W15" t="n">
-        <v>28</v>
-      </c>
-      <c r="X15" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA15" t="n">
+      <c r="AD15" t="n">
+        <v>53</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>56</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG15" t="n">
         <v>50</v>
       </c>
-      <c r="AB15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>39</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>37</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>34</v>
-      </c>
       <c r="AH15" t="n">
+        <v>54</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>68</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>61</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>54</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AN15" t="n">
         <v>53</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AO15" t="n">
+        <v>57</v>
+      </c>
+      <c r="AP15" t="n">
         <v>49</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>49</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>48</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>49</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>53</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>60</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="AR15" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AS15" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AT15" t="n">
         <v>58</v>
       </c>
       <c r="AU15" t="n">
+        <v>68</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW15" t="n">
         <v>64</v>
       </c>
-      <c r="AV15" t="n">
-        <v>52</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>66</v>
-      </c>
       <c r="AX15" t="n">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="AY15" t="n">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AZ15" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>65</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>58</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>78</v>
+      </c>
+      <c r="BG15" t="n">
         <v>64</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BH15" t="n">
         <v>67</v>
       </c>
-      <c r="BB15" t="n">
-        <v>66</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>53</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>48</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>71</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>61</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>48</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>58</v>
-      </c>
       <c r="BI15" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -3272,145 +3272,145 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
         <v>4</v>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2</v>
-      </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
         <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
+        <v>6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z16" t="n">
         <v>3</v>
       </c>
-      <c r="X16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
         <v>4</v>
       </c>
-      <c r="AA16" t="n">
-        <v>2</v>
-      </c>
       <c r="AB16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC16" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI16" t="n">
         <v>7</v>
       </c>
-      <c r="AI16" t="n">
-        <v>5</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
       </c>
       <c r="AL16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM16" t="n">
         <v>8</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>3</v>
       </c>
       <c r="AN16" t="n">
         <v>6</v>
       </c>
       <c r="AO16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
         <v>6</v>
       </c>
       <c r="AS16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY16" t="n">
         <v>3</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AZ16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA16" t="n">
         <v>8</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="BB16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC16" t="n">
         <v>6</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="BD16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI16" t="n">
         <v>7</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>8</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>9</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -3420,184 +3420,184 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
         <v>11</v>
       </c>
-      <c r="E17" t="n">
-        <v>18</v>
-      </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
+        <v>22</v>
+      </c>
+      <c r="H17" t="n">
+        <v>34</v>
+      </c>
+      <c r="I17" t="n">
+        <v>35</v>
+      </c>
+      <c r="J17" t="n">
+        <v>23</v>
+      </c>
+      <c r="K17" t="n">
         <v>19</v>
       </c>
-      <c r="H17" t="n">
-        <v>23</v>
-      </c>
-      <c r="I17" t="n">
-        <v>28</v>
-      </c>
-      <c r="J17" t="n">
-        <v>28</v>
-      </c>
-      <c r="K17" t="n">
-        <v>31</v>
-      </c>
       <c r="L17" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N17" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="O17" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P17" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="Q17" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="R17" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="S17" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="T17" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="U17" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="V17" t="n">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="W17" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="X17" t="n">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="Y17" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Z17" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="AA17" t="n">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="AB17" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="AC17" t="n">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="AD17" t="n">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="AE17" t="n">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="AF17" t="n">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="AG17" t="n">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="AH17" t="n">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="AI17" t="n">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="AJ17" t="n">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AK17" t="n">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="AL17" t="n">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="AM17" t="n">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="AN17" t="n">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="AO17" t="n">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="AP17" t="n">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AQ17" t="n">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="AR17" t="n">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="AS17" t="n">
-        <v>549</v>
+        <v>624</v>
       </c>
       <c r="AT17" t="n">
-        <v>608</v>
+        <v>667</v>
       </c>
       <c r="AU17" t="n">
-        <v>618</v>
+        <v>730</v>
       </c>
       <c r="AV17" t="n">
-        <v>658</v>
+        <v>724</v>
       </c>
       <c r="AW17" t="n">
-        <v>687</v>
+        <v>735</v>
       </c>
       <c r="AX17" t="n">
-        <v>839</v>
+        <v>885</v>
       </c>
       <c r="AY17" t="n">
-        <v>847</v>
+        <v>908</v>
       </c>
       <c r="AZ17" t="n">
-        <v>880</v>
+        <v>945</v>
       </c>
       <c r="BA17" t="n">
-        <v>891</v>
+        <v>971</v>
       </c>
       <c r="BB17" t="n">
-        <v>954</v>
+        <v>970</v>
       </c>
       <c r="BC17" t="n">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="BD17" t="n">
-        <v>993</v>
+        <v>1031</v>
       </c>
       <c r="BE17" t="n">
-        <v>938</v>
+        <v>1128</v>
       </c>
       <c r="BF17" t="n">
-        <v>1011</v>
+        <v>1171</v>
       </c>
       <c r="BG17" t="n">
-        <v>1030</v>
+        <v>1218</v>
       </c>
       <c r="BH17" t="n">
-        <v>1014</v>
+        <v>1193</v>
       </c>
       <c r="BI17" t="n">
-        <v>1064</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="18">
@@ -3616,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -3631,28 +3631,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -3667,76 +3667,76 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
         <v>1</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" t="n">
         <v>1</v>
@@ -3769,22 +3769,22 @@
         <v>2</v>
       </c>
       <c r="BD18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3794,121 +3794,121 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
         <v>4</v>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
         <v>5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>7</v>
       </c>
       <c r="K19" t="n">
         <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N19" t="n">
         <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q19" t="n">
         <v>6</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U19" t="n">
         <v>10</v>
       </c>
       <c r="V19" t="n">
+        <v>5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6</v>
+      </c>
+      <c r="X19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y19" t="n">
         <v>10</v>
       </c>
-      <c r="W19" t="n">
+      <c r="Z19" t="n">
         <v>12</v>
       </c>
-      <c r="X19" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>6</v>
-      </c>
       <c r="AA19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AC19" t="n">
         <v>14</v>
       </c>
       <c r="AD19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="n">
         <v>13</v>
       </c>
-      <c r="AE19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF19" t="n">
+      <c r="AI19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL19" t="n">
         <v>13</v>
       </c>
-      <c r="AG19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK19" t="n">
+      <c r="AM19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN19" t="n">
         <v>13</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>15</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
@@ -3917,61 +3917,61 @@
         <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU19" t="n">
         <v>17</v>
       </c>
-      <c r="AS19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT19" t="n">
+      <c r="AV19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD19" t="n">
         <v>15</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="BE19" t="n">
+        <v>25</v>
+      </c>
+      <c r="BF19" t="n">
         <v>16</v>
       </c>
-      <c r="AV19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW19" t="n">
+      <c r="BG19" t="n">
         <v>14</v>
       </c>
-      <c r="AX19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>19</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>14</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>14</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>12</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>11</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>19</v>
-      </c>
       <c r="BH19" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="BI19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -3981,184 +3981,184 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
         <v>10</v>
       </c>
-      <c r="E20" t="n">
-        <v>13</v>
-      </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
         <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I20" t="n">
+        <v>32</v>
+      </c>
+      <c r="J20" t="n">
+        <v>17</v>
+      </c>
+      <c r="K20" t="n">
+        <v>14</v>
+      </c>
+      <c r="L20" t="n">
         <v>24</v>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
+        <v>29</v>
+      </c>
+      <c r="N20" t="n">
+        <v>24</v>
+      </c>
+      <c r="O20" t="n">
         <v>21</v>
       </c>
-      <c r="K20" t="n">
-        <v>26</v>
-      </c>
-      <c r="L20" t="n">
-        <v>23</v>
-      </c>
-      <c r="M20" t="n">
-        <v>31</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="P20" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>33</v>
+      </c>
+      <c r="R20" t="n">
         <v>38</v>
       </c>
-      <c r="O20" t="n">
-        <v>32</v>
-      </c>
-      <c r="P20" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="S20" t="n">
+        <v>29</v>
+      </c>
+      <c r="T20" t="n">
+        <v>30</v>
+      </c>
+      <c r="U20" t="n">
+        <v>27</v>
+      </c>
+      <c r="V20" t="n">
         <v>28</v>
       </c>
-      <c r="R20" t="n">
-        <v>33</v>
-      </c>
-      <c r="S20" t="n">
-        <v>35</v>
-      </c>
-      <c r="T20" t="n">
-        <v>29</v>
-      </c>
-      <c r="U20" t="n">
-        <v>32</v>
-      </c>
-      <c r="V20" t="n">
-        <v>36</v>
-      </c>
       <c r="W20" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="X20" t="n">
         <v>38</v>
       </c>
       <c r="Y20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="n">
         <v>46</v>
       </c>
       <c r="AA20" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AB20" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AC20" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AD20" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AE20" t="n">
         <v>48</v>
       </c>
       <c r="AF20" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AG20" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AI20" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="AJ20" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="AK20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>53</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>73</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>58</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>54</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>49</v>
+      </c>
+      <c r="AV20" t="n">
         <v>52</v>
       </c>
-      <c r="AL20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN20" t="n">
+      <c r="AW20" t="n">
+        <v>49</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>63</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>61</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>55</v>
       </c>
-      <c r="AO20" t="n">
-        <v>37</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AQ20" t="n">
+      <c r="BA20" t="n">
+        <v>61</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>52</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>59</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>71</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>58</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>64</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>52</v>
+      </c>
+      <c r="BI20" t="n">
         <v>66</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>54</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>62</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>56</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>57</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>61</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>72</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>49</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>45</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>58</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>60</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>62</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>63</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>63</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>56</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -4207,145 +4207,145 @@
         <v>30</v>
       </c>
       <c r="O21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P21" t="n">
         <v>36</v>
       </c>
       <c r="Q21" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="R21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="S21" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T21" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U21" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="V21" t="n">
         <v>64</v>
       </c>
       <c r="W21" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="X21" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Y21" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Z21" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AA21" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="AB21" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC21" t="n">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="AD21" t="n">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="AE21" t="n">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AG21" t="n">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="AH21" t="n">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="AI21" t="n">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="AJ21" t="n">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="AK21" t="n">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="AL21" t="n">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="AM21" t="n">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="AN21" t="n">
-        <v>480</v>
+        <v>414</v>
       </c>
       <c r="AO21" t="n">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="AP21" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AQ21" t="n">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="AR21" t="n">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="AS21" t="n">
-        <v>476</v>
+        <v>552</v>
       </c>
       <c r="AT21" t="n">
-        <v>531</v>
+        <v>605</v>
       </c>
       <c r="AU21" t="n">
-        <v>546</v>
+        <v>664</v>
       </c>
       <c r="AV21" t="n">
-        <v>590</v>
+        <v>657</v>
       </c>
       <c r="AW21" t="n">
-        <v>611</v>
+        <v>669</v>
       </c>
       <c r="AX21" t="n">
-        <v>752</v>
+        <v>805</v>
       </c>
       <c r="AY21" t="n">
-        <v>762</v>
+        <v>828</v>
       </c>
       <c r="AZ21" t="n">
-        <v>823</v>
+        <v>876</v>
       </c>
       <c r="BA21" t="n">
-        <v>833</v>
+        <v>893</v>
       </c>
       <c r="BB21" t="n">
-        <v>875</v>
+        <v>907</v>
       </c>
       <c r="BC21" t="n">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="BD21" t="n">
-        <v>917</v>
+        <v>948</v>
       </c>
       <c r="BE21" t="n">
-        <v>863</v>
+        <v>1029</v>
       </c>
       <c r="BF21" t="n">
-        <v>935</v>
+        <v>1097</v>
       </c>
       <c r="BG21" t="n">
-        <v>954</v>
+        <v>1140</v>
       </c>
       <c r="BH21" t="n">
-        <v>951</v>
+        <v>1115</v>
       </c>
       <c r="BI21" t="n">
-        <v>995</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="22">
@@ -4355,184 +4355,184 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>115200</v>
+        <v>111600</v>
       </c>
       <c r="C22" t="n">
-        <v>104400</v>
+        <v>126000</v>
       </c>
       <c r="D22" t="n">
-        <v>154800</v>
+        <v>140400</v>
       </c>
       <c r="E22" t="n">
-        <v>190800</v>
+        <v>151200</v>
       </c>
       <c r="F22" t="n">
-        <v>158400</v>
+        <v>226800</v>
       </c>
       <c r="G22" t="n">
-        <v>205200</v>
+        <v>198000</v>
       </c>
       <c r="H22" t="n">
-        <v>262800</v>
+        <v>259200</v>
       </c>
       <c r="I22" t="n">
-        <v>255600</v>
+        <v>324000</v>
       </c>
       <c r="J22" t="n">
         <v>280800</v>
       </c>
       <c r="K22" t="n">
-        <v>306000</v>
+        <v>295200</v>
       </c>
       <c r="L22" t="n">
-        <v>349200</v>
+        <v>338400</v>
       </c>
       <c r="M22" t="n">
-        <v>388800</v>
+        <v>392400</v>
       </c>
       <c r="N22" t="n">
-        <v>565200</v>
+        <v>540000</v>
       </c>
       <c r="O22" t="n">
-        <v>525600</v>
+        <v>576000</v>
       </c>
       <c r="P22" t="n">
-        <v>637200</v>
+        <v>604800</v>
       </c>
       <c r="Q22" t="n">
-        <v>666000</v>
+        <v>615600</v>
       </c>
       <c r="R22" t="n">
-        <v>608400</v>
+        <v>698400</v>
       </c>
       <c r="S22" t="n">
-        <v>630000</v>
+        <v>651600</v>
       </c>
       <c r="T22" t="n">
-        <v>748800</v>
+        <v>759600</v>
       </c>
       <c r="U22" t="n">
-        <v>709200</v>
+        <v>741600</v>
       </c>
       <c r="V22" t="n">
-        <v>748800</v>
+        <v>712800</v>
       </c>
       <c r="W22" t="n">
-        <v>802800</v>
+        <v>799200</v>
       </c>
       <c r="X22" t="n">
-        <v>846000</v>
+        <v>856800</v>
       </c>
       <c r="Y22" t="n">
         <v>925200</v>
       </c>
       <c r="Z22" t="n">
-        <v>1072800</v>
+        <v>1220400</v>
       </c>
       <c r="AA22" t="n">
-        <v>1177200</v>
+        <v>1216800</v>
       </c>
       <c r="AB22" t="n">
-        <v>1260000</v>
+        <v>1213200</v>
       </c>
       <c r="AC22" t="n">
-        <v>1242000</v>
+        <v>1314000</v>
       </c>
       <c r="AD22" t="n">
-        <v>1227600</v>
+        <v>1483200</v>
       </c>
       <c r="AE22" t="n">
-        <v>1299600</v>
+        <v>1389600</v>
       </c>
       <c r="AF22" t="n">
-        <v>1360800</v>
+        <v>1562400</v>
       </c>
       <c r="AG22" t="n">
-        <v>1249200</v>
+        <v>1555200</v>
       </c>
       <c r="AH22" t="n">
-        <v>1519200</v>
+        <v>1692000</v>
       </c>
       <c r="AI22" t="n">
-        <v>1569600</v>
+        <v>1864800</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1627200</v>
+        <v>1850400</v>
       </c>
       <c r="AK22" t="n">
-        <v>1681200</v>
+        <v>1897200</v>
       </c>
       <c r="AL22" t="n">
-        <v>1947600</v>
+        <v>2210400</v>
       </c>
       <c r="AM22" t="n">
-        <v>1897200</v>
+        <v>2260800</v>
       </c>
       <c r="AN22" t="n">
-        <v>2502000</v>
+        <v>2275200</v>
       </c>
       <c r="AO22" t="n">
-        <v>2455200</v>
+        <v>2318400</v>
       </c>
       <c r="AP22" t="n">
-        <v>2505600</v>
+        <v>2433600</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2545200</v>
+        <v>2466000</v>
       </c>
       <c r="AR22" t="n">
-        <v>2653200</v>
+        <v>2671200</v>
       </c>
       <c r="AS22" t="n">
-        <v>2523600</v>
+        <v>2779200</v>
       </c>
       <c r="AT22" t="n">
-        <v>2714400</v>
+        <v>2941200</v>
       </c>
       <c r="AU22" t="n">
-        <v>2793600</v>
+        <v>3211200</v>
       </c>
       <c r="AV22" t="n">
-        <v>2937600</v>
+        <v>3200400</v>
       </c>
       <c r="AW22" t="n">
-        <v>3135600</v>
+        <v>3319200</v>
       </c>
       <c r="AX22" t="n">
-        <v>3657600</v>
+        <v>3736800</v>
       </c>
       <c r="AY22" t="n">
-        <v>3628800</v>
+        <v>3898800</v>
       </c>
       <c r="AZ22" t="n">
-        <v>3682800</v>
+        <v>4028400</v>
       </c>
       <c r="BA22" t="n">
-        <v>3794400</v>
+        <v>4140000</v>
       </c>
       <c r="BB22" t="n">
-        <v>4024800</v>
+        <v>4086000</v>
       </c>
       <c r="BC22" t="n">
-        <v>4071600</v>
+        <v>4039200</v>
       </c>
       <c r="BD22" t="n">
-        <v>4096800</v>
+        <v>4323600</v>
       </c>
       <c r="BE22" t="n">
-        <v>4021200</v>
+        <v>4690800</v>
       </c>
       <c r="BF22" t="n">
-        <v>4197600</v>
+        <v>4946400</v>
       </c>
       <c r="BG22" t="n">
-        <v>4244400</v>
+        <v>4996800</v>
       </c>
       <c r="BH22" t="n">
-        <v>4194000</v>
+        <v>4867200</v>
       </c>
       <c r="BI22" t="n">
-        <v>4399200</v>
+        <v>5065200</v>
       </c>
     </row>
     <row r="23">
@@ -4542,184 +4542,184 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>766444.8</v>
+        <v>731865.6</v>
       </c>
       <c r="C23" t="n">
-        <v>703939.2000000002</v>
+        <v>813628.7999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>722457.6000000003</v>
+        <v>690537.6000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>1416988.8</v>
+        <v>760531.2000000007</v>
       </c>
       <c r="F23" t="n">
-        <v>879686.3999999999</v>
+        <v>1089724.8</v>
       </c>
       <c r="G23" t="n">
-        <v>1210665.600000001</v>
+        <v>1405660.8</v>
       </c>
       <c r="H23" t="n">
-        <v>1620067.199999999</v>
+        <v>1459583.999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>1650883.2</v>
+        <v>1814783.999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>1776182.399999999</v>
+        <v>1649769.599999996</v>
       </c>
       <c r="K23" t="n">
-        <v>1666732.799999993</v>
+        <v>1546531.199999996</v>
       </c>
       <c r="L23" t="n">
-        <v>2084870.400000002</v>
+        <v>2187964.799999999</v>
       </c>
       <c r="M23" t="n">
-        <v>2404732.800000004</v>
+        <v>1966089.599999996</v>
       </c>
       <c r="N23" t="n">
-        <v>3673545.599999994</v>
+        <v>3299548.800000001</v>
       </c>
       <c r="O23" t="n">
-        <v>3564297.600000005</v>
+        <v>3424848.000000019</v>
       </c>
       <c r="P23" t="n">
-        <v>3905654.400000002</v>
+        <v>4071321.599999983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4324233.600000009</v>
+        <v>3411456.000000007</v>
       </c>
       <c r="R23" t="n">
-        <v>4054435.200000022</v>
+        <v>4927161.60000002</v>
       </c>
       <c r="S23" t="n">
-        <v>4167456.000000007</v>
+        <v>4127750.399999999</v>
       </c>
       <c r="T23" t="n">
-        <v>4984991.999999985</v>
+        <v>5054025.599999942</v>
       </c>
       <c r="U23" t="n">
-        <v>4748380.79999999</v>
+        <v>4768099.200000025</v>
       </c>
       <c r="V23" t="n">
-        <v>5408688.00000003</v>
+        <v>4935811.20000004</v>
       </c>
       <c r="W23" t="n">
-        <v>5307235.200000018</v>
+        <v>5507788.800000012</v>
       </c>
       <c r="X23" t="n">
-        <v>6105830.399999999</v>
+        <v>5847955.199999973</v>
       </c>
       <c r="Y23" t="n">
-        <v>6444796.799999967</v>
+        <v>5871148.800000027</v>
       </c>
       <c r="Z23" t="n">
-        <v>7810780.800000042</v>
+        <v>8790604.799999997</v>
       </c>
       <c r="AA23" t="n">
-        <v>8162860.800000027</v>
+        <v>9244799.99999994</v>
       </c>
       <c r="AB23" t="n">
-        <v>8424969.600000054</v>
+        <v>8848732.800000072</v>
       </c>
       <c r="AC23" t="n">
-        <v>9643977.599999905</v>
+        <v>8736700.800000042</v>
       </c>
       <c r="AD23" t="n">
-        <v>8203680.00000003</v>
+        <v>10977523.19999997</v>
       </c>
       <c r="AE23" t="n">
-        <v>9521193.600000054</v>
+        <v>10451097.59999999</v>
       </c>
       <c r="AF23" t="n">
-        <v>10279487.99999994</v>
+        <v>11561193.59999998</v>
       </c>
       <c r="AG23" t="n">
-        <v>9209712.000000149</v>
+        <v>11116857.60000014</v>
       </c>
       <c r="AH23" t="n">
-        <v>11749583.99999991</v>
+        <v>12493756.79999983</v>
       </c>
       <c r="AI23" t="n">
-        <v>12043305.59999993</v>
+        <v>14675039.99999988</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12333484.79999983</v>
+        <v>14179891.19999996</v>
       </c>
       <c r="AK23" t="n">
-        <v>13425504</v>
+        <v>14131987.19999963</v>
       </c>
       <c r="AL23" t="n">
-        <v>14933836.80000001</v>
+        <v>16988131.1999996</v>
       </c>
       <c r="AM23" t="n">
-        <v>15247756.79999968</v>
+        <v>17336121.60000011</v>
       </c>
       <c r="AN23" t="n">
-        <v>19460851.20000014</v>
+        <v>17325398.3999998</v>
       </c>
       <c r="AO23" t="n">
-        <v>19443993.5999999</v>
+        <v>17226470.40000021</v>
       </c>
       <c r="AP23" t="n">
-        <v>19250678.39999998</v>
+        <v>18828086.40000033</v>
       </c>
       <c r="AQ23" t="n">
-        <v>19742275.19999969</v>
+        <v>19755215.99999976</v>
       </c>
       <c r="AR23" t="n">
-        <v>21743184.00000012</v>
+        <v>21576739.19999999</v>
       </c>
       <c r="AS23" t="n">
-        <v>19148995.20000023</v>
+        <v>21033033.59999996</v>
       </c>
       <c r="AT23" t="n">
-        <v>22571932.79999906</v>
+        <v>24298953.59999931</v>
       </c>
       <c r="AU23" t="n">
-        <v>22393247.99999994</v>
+        <v>26722128.00000101</v>
       </c>
       <c r="AV23" t="n">
-        <v>23526374.40000063</v>
+        <v>25933996.79999965</v>
       </c>
       <c r="AW23" t="n">
-        <v>24619142.40000093</v>
+        <v>25886265.60000038</v>
       </c>
       <c r="AX23" t="n">
-        <v>29253792.00000072</v>
+        <v>30251078.40000015</v>
       </c>
       <c r="AY23" t="n">
-        <v>28744310.39999992</v>
+        <v>30882825.60000032</v>
       </c>
       <c r="AZ23" t="n">
-        <v>29632915.19999963</v>
+        <v>32311363.20000046</v>
       </c>
       <c r="BA23" t="n">
-        <v>31641955.2000016</v>
+        <v>31692796.80000055</v>
       </c>
       <c r="BB23" t="n">
-        <v>32038847.99999952</v>
+        <v>32834457.59999955</v>
       </c>
       <c r="BC23" t="n">
-        <v>33226224.00000179</v>
+        <v>33740016.00000179</v>
       </c>
       <c r="BD23" t="n">
-        <v>35393740.79999959</v>
+        <v>35555923.19999897</v>
       </c>
       <c r="BE23" t="n">
-        <v>31624483.19999778</v>
+        <v>37322092.80000091</v>
       </c>
       <c r="BF23" t="n">
-        <v>35621875.20000064</v>
+        <v>41048140.80000246</v>
       </c>
       <c r="BG23" t="n">
-        <v>35650915.20000076</v>
+        <v>42252940.79999924</v>
       </c>
       <c r="BH23" t="n">
-        <v>35170790.39999902</v>
+        <v>40515974.40000081</v>
       </c>
       <c r="BI23" t="n">
-        <v>36086351.99999869</v>
+        <v>41965718.40000331</v>
       </c>
     </row>
     <row r="24">
@@ -4729,184 +4729,184 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="C24" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="D24" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E24" t="n">
         <v>22000</v>
       </c>
-      <c r="E24" t="n">
-        <v>36000</v>
-      </c>
       <c r="F24" t="n">
-        <v>28000</v>
+        <v>42000</v>
       </c>
       <c r="G24" t="n">
+        <v>44000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>68000</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70000</v>
+      </c>
+      <c r="J24" t="n">
+        <v>46000</v>
+      </c>
+      <c r="K24" t="n">
         <v>38000</v>
       </c>
-      <c r="H24" t="n">
-        <v>46000</v>
-      </c>
-      <c r="I24" t="n">
-        <v>56000</v>
-      </c>
-      <c r="J24" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K24" t="n">
-        <v>62000</v>
-      </c>
       <c r="L24" t="n">
-        <v>56000</v>
+        <v>74000</v>
       </c>
       <c r="M24" t="n">
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="N24" t="n">
-        <v>158000</v>
+        <v>134000</v>
       </c>
       <c r="O24" t="n">
-        <v>138000</v>
+        <v>118000</v>
       </c>
       <c r="P24" t="n">
-        <v>142000</v>
+        <v>164000</v>
       </c>
       <c r="Q24" t="n">
-        <v>176000</v>
+        <v>150000</v>
       </c>
       <c r="R24" t="n">
-        <v>154000</v>
+        <v>200000</v>
       </c>
       <c r="S24" t="n">
-        <v>178000</v>
+        <v>164000</v>
       </c>
       <c r="T24" t="n">
-        <v>198000</v>
+        <v>202000</v>
       </c>
       <c r="U24" t="n">
-        <v>208000</v>
+        <v>220000</v>
       </c>
       <c r="V24" t="n">
-        <v>222000</v>
+        <v>194000</v>
       </c>
       <c r="W24" t="n">
-        <v>250000</v>
+        <v>232000</v>
       </c>
       <c r="X24" t="n">
-        <v>286000</v>
+        <v>268000</v>
       </c>
       <c r="Y24" t="n">
-        <v>276000</v>
+        <v>292000</v>
       </c>
       <c r="Z24" t="n">
-        <v>406000</v>
+        <v>428000</v>
       </c>
       <c r="AA24" t="n">
-        <v>384000</v>
+        <v>478000</v>
       </c>
       <c r="AB24" t="n">
-        <v>446000</v>
+        <v>470000</v>
       </c>
       <c r="AC24" t="n">
-        <v>478000</v>
+        <v>452000</v>
       </c>
       <c r="AD24" t="n">
-        <v>438000</v>
+        <v>546000</v>
       </c>
       <c r="AE24" t="n">
-        <v>480000</v>
+        <v>522000</v>
       </c>
       <c r="AF24" t="n">
-        <v>534000</v>
+        <v>572000</v>
       </c>
       <c r="AG24" t="n">
-        <v>504000</v>
+        <v>596000</v>
       </c>
       <c r="AH24" t="n">
-        <v>574000</v>
+        <v>634000</v>
       </c>
       <c r="AI24" t="n">
-        <v>594000</v>
+        <v>698000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>644000</v>
+        <v>720000</v>
       </c>
       <c r="AK24" t="n">
-        <v>714000</v>
+        <v>770000</v>
       </c>
       <c r="AL24" t="n">
-        <v>824000</v>
+        <v>958000</v>
       </c>
       <c r="AM24" t="n">
-        <v>828000</v>
+        <v>964000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1100000</v>
+        <v>960000</v>
       </c>
       <c r="AO24" t="n">
-        <v>1026000</v>
+        <v>978000</v>
       </c>
       <c r="AP24" t="n">
-        <v>1080000</v>
+        <v>1078000</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1110000</v>
+        <v>1038000</v>
       </c>
       <c r="AR24" t="n">
-        <v>1176000</v>
+        <v>1212000</v>
       </c>
       <c r="AS24" t="n">
-        <v>1098000</v>
+        <v>1248000</v>
       </c>
       <c r="AT24" t="n">
-        <v>1216000</v>
+        <v>1334000</v>
       </c>
       <c r="AU24" t="n">
-        <v>1236000</v>
+        <v>1460000</v>
       </c>
       <c r="AV24" t="n">
-        <v>1316000</v>
+        <v>1448000</v>
       </c>
       <c r="AW24" t="n">
-        <v>1374000</v>
+        <v>1470000</v>
       </c>
       <c r="AX24" t="n">
-        <v>1678000</v>
+        <v>1770000</v>
       </c>
       <c r="AY24" t="n">
-        <v>1694000</v>
+        <v>1816000</v>
       </c>
       <c r="AZ24" t="n">
-        <v>1760000</v>
+        <v>1890000</v>
       </c>
       <c r="BA24" t="n">
-        <v>1782000</v>
+        <v>1942000</v>
       </c>
       <c r="BB24" t="n">
-        <v>1908000</v>
+        <v>1940000</v>
       </c>
       <c r="BC24" t="n">
-        <v>1952000</v>
+        <v>1918000</v>
       </c>
       <c r="BD24" t="n">
-        <v>1986000</v>
+        <v>2062000</v>
       </c>
       <c r="BE24" t="n">
-        <v>1876000</v>
+        <v>2256000</v>
       </c>
       <c r="BF24" t="n">
-        <v>2022000</v>
+        <v>2342000</v>
       </c>
       <c r="BG24" t="n">
-        <v>2060000</v>
+        <v>2436000</v>
       </c>
       <c r="BH24" t="n">
-        <v>2028000</v>
+        <v>2386000</v>
       </c>
       <c r="BI24" t="n">
-        <v>2128000</v>
+        <v>2508000</v>
       </c>
     </row>
     <row r="25">
@@ -4916,184 +4916,184 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>901644.8</v>
+        <v>861465.6</v>
       </c>
       <c r="C25" t="n">
-        <v>828339.2000000002</v>
+        <v>961628.7999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>899257.6000000003</v>
+        <v>842937.6000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>1643788.8</v>
+        <v>933731.2000000007</v>
       </c>
       <c r="F25" t="n">
-        <v>1066086.4</v>
+        <v>1358524.8</v>
       </c>
       <c r="G25" t="n">
-        <v>1453865.600000001</v>
+        <v>1647660.8</v>
       </c>
       <c r="H25" t="n">
-        <v>1928867.199999999</v>
+        <v>1786783.999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>1962483.2</v>
+        <v>2208783.999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>2112982.399999999</v>
+        <v>1976569.599999996</v>
       </c>
       <c r="K25" t="n">
-        <v>2034732.799999993</v>
+        <v>1879731.199999996</v>
       </c>
       <c r="L25" t="n">
-        <v>2490070.400000002</v>
+        <v>2600364.799999999</v>
       </c>
       <c r="M25" t="n">
-        <v>2873532.800000004</v>
+        <v>2436489.599999996</v>
       </c>
       <c r="N25" t="n">
-        <v>4396745.599999994</v>
+        <v>3973548.800000001</v>
       </c>
       <c r="O25" t="n">
-        <v>4227897.600000005</v>
+        <v>4118848.000000019</v>
       </c>
       <c r="P25" t="n">
-        <v>4684854.400000002</v>
+        <v>4840121.599999983</v>
       </c>
       <c r="Q25" t="n">
-        <v>5166233.600000009</v>
+        <v>4177056.000000007</v>
       </c>
       <c r="R25" t="n">
-        <v>4816835.200000022</v>
+        <v>5825561.60000002</v>
       </c>
       <c r="S25" t="n">
-        <v>4975456.000000007</v>
+        <v>4943350.399999999</v>
       </c>
       <c r="T25" t="n">
-        <v>5931791.999999985</v>
+        <v>6015625.599999942</v>
       </c>
       <c r="U25" t="n">
-        <v>5665580.79999999</v>
+        <v>5729699.200000025</v>
       </c>
       <c r="V25" t="n">
-        <v>6379488.00000003</v>
+        <v>5842611.20000004</v>
       </c>
       <c r="W25" t="n">
-        <v>6360035.200000018</v>
+        <v>6538988.800000012</v>
       </c>
       <c r="X25" t="n">
-        <v>7237830.399999999</v>
+        <v>6972755.199999973</v>
       </c>
       <c r="Y25" t="n">
-        <v>7645996.799999967</v>
+        <v>7088348.800000027</v>
       </c>
       <c r="Z25" t="n">
-        <v>9289580.800000042</v>
+        <v>10439004.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>9724060.800000027</v>
+        <v>10939599.99999994</v>
       </c>
       <c r="AB25" t="n">
-        <v>10130969.60000005</v>
+        <v>10531932.80000007</v>
       </c>
       <c r="AC25" t="n">
-        <v>11363977.5999999</v>
+        <v>10502700.80000004</v>
       </c>
       <c r="AD25" t="n">
-        <v>9869280.00000003</v>
+        <v>13006723.19999997</v>
       </c>
       <c r="AE25" t="n">
-        <v>11300793.60000005</v>
+        <v>12362697.59999999</v>
       </c>
       <c r="AF25" t="n">
-        <v>12174287.99999994</v>
+        <v>13695593.59999998</v>
       </c>
       <c r="AG25" t="n">
-        <v>10962912.00000015</v>
+        <v>13268057.60000014</v>
       </c>
       <c r="AH25" t="n">
-        <v>13842783.99999991</v>
+        <v>14819756.79999983</v>
       </c>
       <c r="AI25" t="n">
-        <v>14206905.59999993</v>
+        <v>17237839.99999988</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14604684.79999983</v>
+        <v>16750291.19999996</v>
       </c>
       <c r="AK25" t="n">
-        <v>15820704</v>
+        <v>16799187.19999963</v>
       </c>
       <c r="AL25" t="n">
-        <v>17705436.80000001</v>
+        <v>20156531.1999996</v>
       </c>
       <c r="AM25" t="n">
-        <v>17972956.79999968</v>
+        <v>20560921.60000011</v>
       </c>
       <c r="AN25" t="n">
-        <v>23062851.20000014</v>
+        <v>20560598.3999998</v>
       </c>
       <c r="AO25" t="n">
-        <v>22925193.5999999</v>
+        <v>20522870.40000021</v>
       </c>
       <c r="AP25" t="n">
-        <v>22836278.39999998</v>
+        <v>22339686.40000033</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23397475.19999969</v>
+        <v>23259215.99999976</v>
       </c>
       <c r="AR25" t="n">
-        <v>25572384.00000012</v>
+        <v>25459939.19999999</v>
       </c>
       <c r="AS25" t="n">
-        <v>22770595.20000023</v>
+        <v>25060233.59999996</v>
       </c>
       <c r="AT25" t="n">
-        <v>26502332.79999906</v>
+        <v>28574153.59999931</v>
       </c>
       <c r="AU25" t="n">
-        <v>26422847.99999994</v>
+        <v>31393328.00000101</v>
       </c>
       <c r="AV25" t="n">
-        <v>27779974.40000063</v>
+        <v>30582396.79999965</v>
       </c>
       <c r="AW25" t="n">
-        <v>29128742.40000093</v>
+        <v>30675465.60000038</v>
       </c>
       <c r="AX25" t="n">
-        <v>34589392.00000072</v>
+        <v>35757878.40000015</v>
       </c>
       <c r="AY25" t="n">
-        <v>34067110.39999992</v>
+        <v>36597625.60000032</v>
       </c>
       <c r="AZ25" t="n">
-        <v>35075715.19999963</v>
+        <v>38229763.20000046</v>
       </c>
       <c r="BA25" t="n">
-        <v>37218355.2000016</v>
+        <v>37774796.80000055</v>
       </c>
       <c r="BB25" t="n">
-        <v>37971647.99999952</v>
+        <v>38860457.59999955</v>
       </c>
       <c r="BC25" t="n">
-        <v>39249824.00000179</v>
+        <v>39697216.00000179</v>
       </c>
       <c r="BD25" t="n">
-        <v>41476540.79999959</v>
+        <v>41941523.19999897</v>
       </c>
       <c r="BE25" t="n">
-        <v>37521683.19999778</v>
+        <v>44268892.80000091</v>
       </c>
       <c r="BF25" t="n">
-        <v>41841475.20000064</v>
+        <v>48336540.80000246</v>
       </c>
       <c r="BG25" t="n">
-        <v>41955315.20000076</v>
+        <v>49685740.79999924</v>
       </c>
       <c r="BH25" t="n">
-        <v>41392790.39999902</v>
+        <v>47769174.40000081</v>
       </c>
       <c r="BI25" t="n">
-        <v>42613551.99999869</v>
+        <v>49538918.40000331</v>
       </c>
     </row>
     <row r="26">
@@ -5293,7 +5293,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>4</v>
@@ -5311,13 +5311,13 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
         <v>5</v>
@@ -5353,43 +5353,43 @@
         <v>5</v>
       </c>
       <c r="W27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH27" t="n">
         <v>7</v>
       </c>
       <c r="AI27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ27" t="n">
         <v>8</v>
@@ -5401,73 +5401,73 @@
         <v>8</v>
       </c>
       <c r="AM27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR27" t="n">
         <v>9</v>
       </c>
-      <c r="AN27" t="n">
+      <c r="AS27" t="n">
         <v>9</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>10</v>
       </c>
       <c r="AT27" t="n">
         <v>10</v>
       </c>
       <c r="AU27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC27" t="n">
         <v>11</v>
       </c>
-      <c r="AV27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ27" t="n">
+      <c r="BD27" t="n">
         <v>12</v>
       </c>
-      <c r="BA27" t="n">
+      <c r="BE27" t="n">
         <v>12</v>
       </c>
-      <c r="BB27" t="n">
+      <c r="BF27" t="n">
         <v>12</v>
       </c>
-      <c r="BC27" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>13</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>13</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>13</v>
-      </c>
       <c r="BG27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BI27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -5477,13 +5477,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -5495,16 +5495,16 @@
         <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
         <v>5</v>
@@ -5516,19 +5516,19 @@
         <v>5</v>
       </c>
       <c r="O28" t="n">
+        <v>5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
         <v>6</v>
       </c>
-      <c r="P28" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>7</v>
-      </c>
       <c r="R28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
@@ -5567,94 +5567,94 @@
         <v>8</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP28" t="n">
         <v>10</v>
       </c>
       <c r="AQ28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW28" t="n">
         <v>11</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>12</v>
       </c>
       <c r="AX28" t="n">
         <v>12</v>
       </c>
       <c r="AY28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC28" t="n">
         <v>13</v>
       </c>
       <c r="BD28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BE28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BF28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BG28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BH28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -5664,22 +5664,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
@@ -5697,16 +5697,16 @@
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
         <v>5</v>
@@ -5760,88 +5760,88 @@
         <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK29" t="n">
         <v>6</v>
       </c>
       <c r="AL29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BE29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BF29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BG29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BH29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BI29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -5953,10 +5953,10 @@
         <v>1</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" t="n">
         <v>2</v>
@@ -6016,19 +6016,19 @@
         <v>3</v>
       </c>
       <c r="BE30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -6041,22 +6041,22 @@
         <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" t="n">
         <v>15</v>
@@ -6071,25 +6071,25 @@
         <v>16</v>
       </c>
       <c r="M31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O31" t="n">
         <v>18</v>
       </c>
       <c r="P31" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q31" t="n">
         <v>19</v>
       </c>
-      <c r="Q31" t="n">
-        <v>20</v>
-      </c>
       <c r="R31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -6101,55 +6101,55 @@
         <v>20</v>
       </c>
       <c r="W31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ31" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN31" t="n">
         <v>29</v>
@@ -6161,13 +6161,13 @@
         <v>30</v>
       </c>
       <c r="AQ31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AS31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AT31" t="n">
         <v>32</v>
@@ -6176,46 +6176,46 @@
         <v>33</v>
       </c>
       <c r="AV31" t="n">
+        <v>33</v>
+      </c>
+      <c r="AW31" t="n">
         <v>34</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>35</v>
       </c>
       <c r="AX31" t="n">
         <v>36</v>
       </c>
       <c r="AY31" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AZ31" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BA31" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BB31" t="n">
         <v>38</v>
       </c>
       <c r="BC31" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BD31" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BE31" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="BF31" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="BG31" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="BH31" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="BI31" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
@@ -6225,184 +6225,184 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>186355</v>
+        <v>212030</v>
       </c>
       <c r="C32" t="n">
-        <v>188890</v>
+        <v>277095</v>
       </c>
       <c r="D32" t="n">
-        <v>212160</v>
+        <v>274950</v>
       </c>
       <c r="E32" t="n">
-        <v>216515</v>
+        <v>289835</v>
       </c>
       <c r="F32" t="n">
-        <v>214045</v>
+        <v>298480</v>
       </c>
       <c r="G32" t="n">
-        <v>258245</v>
+        <v>296010</v>
       </c>
       <c r="H32" t="n">
-        <v>313820</v>
+        <v>303030</v>
       </c>
       <c r="I32" t="n">
-        <v>314405</v>
+        <v>317460</v>
       </c>
       <c r="J32" t="n">
-        <v>316095</v>
+        <v>312065</v>
       </c>
       <c r="K32" t="n">
-        <v>319670</v>
+        <v>312065</v>
       </c>
       <c r="L32" t="n">
-        <v>330525</v>
+        <v>333840</v>
       </c>
       <c r="M32" t="n">
-        <v>375180</v>
+        <v>417495</v>
       </c>
       <c r="N32" t="n">
-        <v>395590</v>
+        <v>429195</v>
       </c>
       <c r="O32" t="n">
-        <v>405730</v>
+        <v>429260</v>
       </c>
       <c r="P32" t="n">
-        <v>424320</v>
+        <v>438425</v>
       </c>
       <c r="Q32" t="n">
-        <v>468195</v>
+        <v>447460</v>
       </c>
       <c r="R32" t="n">
-        <v>460915</v>
+        <v>458770</v>
       </c>
       <c r="S32" t="n">
-        <v>464750</v>
+        <v>453245</v>
       </c>
       <c r="T32" t="n">
-        <v>474370</v>
+        <v>473915</v>
       </c>
       <c r="U32" t="n">
-        <v>474825</v>
+        <v>479635</v>
       </c>
       <c r="V32" t="n">
-        <v>481455</v>
+        <v>475280</v>
       </c>
       <c r="W32" t="n">
-        <v>488150</v>
+        <v>495560</v>
       </c>
       <c r="X32" t="n">
-        <v>492505</v>
+        <v>500240</v>
       </c>
       <c r="Y32" t="n">
-        <v>495495</v>
+        <v>506675</v>
       </c>
       <c r="Z32" t="n">
-        <v>520455</v>
+        <v>536120</v>
       </c>
       <c r="AA32" t="n">
-        <v>521495</v>
+        <v>543790</v>
       </c>
       <c r="AB32" t="n">
-        <v>543855</v>
+        <v>558220</v>
       </c>
       <c r="AC32" t="n">
-        <v>547495</v>
+        <v>559780</v>
       </c>
       <c r="AD32" t="n">
-        <v>556400</v>
+        <v>595010</v>
       </c>
       <c r="AE32" t="n">
-        <v>564200</v>
+        <v>584025</v>
       </c>
       <c r="AF32" t="n">
-        <v>571610</v>
+        <v>612170</v>
       </c>
       <c r="AG32" t="n">
-        <v>566215</v>
+        <v>614770</v>
       </c>
       <c r="AH32" t="n">
-        <v>603070</v>
+        <v>662935</v>
       </c>
       <c r="AI32" t="n">
-        <v>610350</v>
+        <v>690040</v>
       </c>
       <c r="AJ32" t="n">
-        <v>626470</v>
+        <v>708370</v>
       </c>
       <c r="AK32" t="n">
-        <v>676455</v>
+        <v>718250</v>
       </c>
       <c r="AL32" t="n">
-        <v>718445</v>
+        <v>796315</v>
       </c>
       <c r="AM32" t="n">
-        <v>733590</v>
+        <v>798785</v>
       </c>
       <c r="AN32" t="n">
-        <v>812175</v>
+        <v>837980</v>
       </c>
       <c r="AO32" t="n">
-        <v>805675</v>
+        <v>842400</v>
       </c>
       <c r="AP32" t="n">
-        <v>823680</v>
+        <v>870155</v>
       </c>
       <c r="AQ32" t="n">
-        <v>888680</v>
+        <v>867425</v>
       </c>
       <c r="AR32" t="n">
-        <v>902915</v>
+        <v>911950</v>
       </c>
       <c r="AS32" t="n">
-        <v>890110</v>
+        <v>923910</v>
       </c>
       <c r="AT32" t="n">
-        <v>920985</v>
+        <v>953745</v>
       </c>
       <c r="AU32" t="n">
-        <v>932555</v>
+        <v>1026285</v>
       </c>
       <c r="AV32" t="n">
-        <v>964015</v>
+        <v>1023880</v>
       </c>
       <c r="AW32" t="n">
-        <v>1021735</v>
+        <v>1043055</v>
       </c>
       <c r="AX32" t="n">
-        <v>1091220</v>
+        <v>1137500</v>
       </c>
       <c r="AY32" t="n">
-        <v>1094925</v>
+        <v>1158365</v>
       </c>
       <c r="AZ32" t="n">
-        <v>1123590</v>
+        <v>1207245</v>
       </c>
       <c r="BA32" t="n">
-        <v>1137500</v>
+        <v>1220700</v>
       </c>
       <c r="BB32" t="n">
-        <v>1195480</v>
+        <v>1225315</v>
       </c>
       <c r="BC32" t="n">
-        <v>1224470</v>
+        <v>1228110</v>
       </c>
       <c r="BD32" t="n">
-        <v>1236040</v>
+        <v>1283100</v>
       </c>
       <c r="BE32" t="n">
-        <v>1213875</v>
+        <v>1378715</v>
       </c>
       <c r="BF32" t="n">
-        <v>1250600</v>
+        <v>1402115</v>
       </c>
       <c r="BG32" t="n">
-        <v>1259505</v>
+        <v>1419405</v>
       </c>
       <c r="BH32" t="n">
-        <v>1260025</v>
+        <v>1412320</v>
       </c>
       <c r="BI32" t="n">
-        <v>1289860</v>
+        <v>1433055</v>
       </c>
     </row>
     <row r="33">
@@ -6412,184 +6412,184 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>92160</v>
+        <v>89280</v>
       </c>
       <c r="C33" t="n">
-        <v>83520</v>
+        <v>100800</v>
       </c>
       <c r="D33" t="n">
-        <v>123840</v>
+        <v>112320</v>
       </c>
       <c r="E33" t="n">
-        <v>152640</v>
+        <v>120960</v>
       </c>
       <c r="F33" t="n">
-        <v>126720</v>
+        <v>181440</v>
       </c>
       <c r="G33" t="n">
-        <v>164160</v>
+        <v>158400</v>
       </c>
       <c r="H33" t="n">
-        <v>210240</v>
+        <v>207360</v>
       </c>
       <c r="I33" t="n">
-        <v>204480</v>
+        <v>259200</v>
       </c>
       <c r="J33" t="n">
         <v>224640</v>
       </c>
       <c r="K33" t="n">
-        <v>244800</v>
+        <v>236160</v>
       </c>
       <c r="L33" t="n">
-        <v>279360</v>
+        <v>270720</v>
       </c>
       <c r="M33" t="n">
-        <v>311040</v>
+        <v>313920</v>
       </c>
       <c r="N33" t="n">
-        <v>452160</v>
+        <v>432000</v>
       </c>
       <c r="O33" t="n">
-        <v>420480</v>
+        <v>460800</v>
       </c>
       <c r="P33" t="n">
-        <v>509760</v>
+        <v>483840</v>
       </c>
       <c r="Q33" t="n">
-        <v>532800</v>
+        <v>492480</v>
       </c>
       <c r="R33" t="n">
-        <v>486720</v>
+        <v>558720</v>
       </c>
       <c r="S33" t="n">
-        <v>504000</v>
+        <v>521280</v>
       </c>
       <c r="T33" t="n">
-        <v>599040</v>
+        <v>607680</v>
       </c>
       <c r="U33" t="n">
-        <v>567360</v>
+        <v>593280</v>
       </c>
       <c r="V33" t="n">
-        <v>599040</v>
+        <v>570240</v>
       </c>
       <c r="W33" t="n">
-        <v>642240</v>
+        <v>639360</v>
       </c>
       <c r="X33" t="n">
-        <v>676800</v>
+        <v>685440</v>
       </c>
       <c r="Y33" t="n">
         <v>740160</v>
       </c>
       <c r="Z33" t="n">
-        <v>858240</v>
+        <v>976320</v>
       </c>
       <c r="AA33" t="n">
-        <v>941760</v>
+        <v>973440</v>
       </c>
       <c r="AB33" t="n">
-        <v>1008000</v>
+        <v>970560</v>
       </c>
       <c r="AC33" t="n">
-        <v>993600</v>
+        <v>1051200</v>
       </c>
       <c r="AD33" t="n">
-        <v>982080</v>
+        <v>1186560</v>
       </c>
       <c r="AE33" t="n">
-        <v>1039680</v>
+        <v>1111680</v>
       </c>
       <c r="AF33" t="n">
-        <v>1088640</v>
+        <v>1249920</v>
       </c>
       <c r="AG33" t="n">
-        <v>999360</v>
+        <v>1244160</v>
       </c>
       <c r="AH33" t="n">
-        <v>1215360</v>
+        <v>1353600</v>
       </c>
       <c r="AI33" t="n">
-        <v>1255680</v>
+        <v>1491840</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1301760</v>
+        <v>1480320</v>
       </c>
       <c r="AK33" t="n">
-        <v>1344960</v>
+        <v>1517760</v>
       </c>
       <c r="AL33" t="n">
-        <v>1558080</v>
+        <v>1768320</v>
       </c>
       <c r="AM33" t="n">
-        <v>1517760</v>
+        <v>1808640</v>
       </c>
       <c r="AN33" t="n">
-        <v>2001600</v>
+        <v>1820160</v>
       </c>
       <c r="AO33" t="n">
-        <v>1964160</v>
+        <v>1854720</v>
       </c>
       <c r="AP33" t="n">
-        <v>2004480</v>
+        <v>1946880</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2036160</v>
+        <v>1972800</v>
       </c>
       <c r="AR33" t="n">
-        <v>2122560</v>
+        <v>2136960</v>
       </c>
       <c r="AS33" t="n">
-        <v>2018880</v>
+        <v>2223360</v>
       </c>
       <c r="AT33" t="n">
-        <v>2171520</v>
+        <v>2352960</v>
       </c>
       <c r="AU33" t="n">
-        <v>2234880</v>
+        <v>2568960</v>
       </c>
       <c r="AV33" t="n">
-        <v>2350080</v>
+        <v>2560320</v>
       </c>
       <c r="AW33" t="n">
-        <v>2508480</v>
+        <v>2655360</v>
       </c>
       <c r="AX33" t="n">
-        <v>2926080</v>
+        <v>2989440</v>
       </c>
       <c r="AY33" t="n">
-        <v>2903040</v>
+        <v>3119040</v>
       </c>
       <c r="AZ33" t="n">
-        <v>2946240</v>
+        <v>3222720</v>
       </c>
       <c r="BA33" t="n">
-        <v>3035520</v>
+        <v>3312000</v>
       </c>
       <c r="BB33" t="n">
-        <v>3219840</v>
+        <v>3268800</v>
       </c>
       <c r="BC33" t="n">
-        <v>3257280</v>
+        <v>3231360</v>
       </c>
       <c r="BD33" t="n">
-        <v>3277440</v>
+        <v>3458880</v>
       </c>
       <c r="BE33" t="n">
-        <v>3216960</v>
+        <v>3752640</v>
       </c>
       <c r="BF33" t="n">
-        <v>3358080</v>
+        <v>3957120</v>
       </c>
       <c r="BG33" t="n">
-        <v>3395520</v>
+        <v>3997440</v>
       </c>
       <c r="BH33" t="n">
-        <v>3355200</v>
+        <v>3893760</v>
       </c>
       <c r="BI33" t="n">
-        <v>3519360</v>
+        <v>4052160</v>
       </c>
     </row>
     <row r="34">
@@ -6599,184 +6599,184 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>638704</v>
+        <v>609888</v>
       </c>
       <c r="C34" t="n">
-        <v>586616</v>
+        <v>678024</v>
       </c>
       <c r="D34" t="n">
-        <v>602048</v>
+        <v>575448</v>
       </c>
       <c r="E34" t="n">
-        <v>1180824</v>
+        <v>633776</v>
       </c>
       <c r="F34" t="n">
-        <v>733072</v>
+        <v>908104</v>
       </c>
       <c r="G34" t="n">
-        <v>1008888</v>
+        <v>1171384</v>
       </c>
       <c r="H34" t="n">
-        <v>1350056</v>
+        <v>1216320</v>
       </c>
       <c r="I34" t="n">
-        <v>1375736</v>
+        <v>1512320</v>
       </c>
       <c r="J34" t="n">
-        <v>1480152</v>
+        <v>1374808</v>
       </c>
       <c r="K34" t="n">
-        <v>1388944</v>
+        <v>1288776</v>
       </c>
       <c r="L34" t="n">
-        <v>1737392</v>
+        <v>1823304</v>
       </c>
       <c r="M34" t="n">
-        <v>2003944</v>
+        <v>1638408</v>
       </c>
       <c r="N34" t="n">
-        <v>3061288</v>
+        <v>2749624</v>
       </c>
       <c r="O34" t="n">
-        <v>2970248</v>
+        <v>2854040</v>
       </c>
       <c r="P34" t="n">
-        <v>3254712</v>
+        <v>3392768</v>
       </c>
       <c r="Q34" t="n">
-        <v>3603528</v>
+        <v>2842880</v>
       </c>
       <c r="R34" t="n">
-        <v>3378696</v>
+        <v>4105968</v>
       </c>
       <c r="S34" t="n">
-        <v>3472880</v>
+        <v>3439792</v>
       </c>
       <c r="T34" t="n">
-        <v>4154160</v>
+        <v>4211688</v>
       </c>
       <c r="U34" t="n">
-        <v>3956984</v>
+        <v>3973416</v>
       </c>
       <c r="V34" t="n">
-        <v>4507240</v>
+        <v>4113176</v>
       </c>
       <c r="W34" t="n">
-        <v>4422696</v>
+        <v>4589824</v>
       </c>
       <c r="X34" t="n">
-        <v>5088192</v>
+        <v>4873296</v>
       </c>
       <c r="Y34" t="n">
-        <v>5370664</v>
+        <v>4892624</v>
       </c>
       <c r="Z34" t="n">
-        <v>6508984</v>
+        <v>7325504</v>
       </c>
       <c r="AA34" t="n">
-        <v>6802384</v>
+        <v>7704000</v>
       </c>
       <c r="AB34" t="n">
-        <v>7020808</v>
+        <v>7373944</v>
       </c>
       <c r="AC34" t="n">
-        <v>8036648</v>
+        <v>7280584</v>
       </c>
       <c r="AD34" t="n">
-        <v>6836400</v>
+        <v>9147936</v>
       </c>
       <c r="AE34" t="n">
-        <v>7934328</v>
+        <v>8709248</v>
       </c>
       <c r="AF34" t="n">
-        <v>8566240</v>
+        <v>9634328</v>
       </c>
       <c r="AG34" t="n">
-        <v>7674760</v>
+        <v>9264048</v>
       </c>
       <c r="AH34" t="n">
-        <v>9791320</v>
+        <v>10411464</v>
       </c>
       <c r="AI34" t="n">
-        <v>10036088</v>
+        <v>12229200</v>
       </c>
       <c r="AJ34" t="n">
-        <v>10277904</v>
+        <v>11816576</v>
       </c>
       <c r="AK34" t="n">
-        <v>11187920</v>
+        <v>11776656</v>
       </c>
       <c r="AL34" t="n">
-        <v>12444864</v>
+        <v>14156776</v>
       </c>
       <c r="AM34" t="n">
-        <v>12706464</v>
+        <v>14446768</v>
       </c>
       <c r="AN34" t="n">
-        <v>16217376</v>
+        <v>14437832</v>
       </c>
       <c r="AO34" t="n">
-        <v>16203328</v>
+        <v>14355392</v>
       </c>
       <c r="AP34" t="n">
-        <v>16042232</v>
+        <v>15690072</v>
       </c>
       <c r="AQ34" t="n">
-        <v>16451896</v>
+        <v>16462680</v>
       </c>
       <c r="AR34" t="n">
-        <v>18119320</v>
+        <v>17980616</v>
       </c>
       <c r="AS34" t="n">
-        <v>15957496</v>
+        <v>17527528</v>
       </c>
       <c r="AT34" t="n">
-        <v>18809944</v>
+        <v>20249128</v>
       </c>
       <c r="AU34" t="n">
-        <v>18661040</v>
+        <v>22268440</v>
       </c>
       <c r="AV34" t="n">
-        <v>19605312</v>
+        <v>21611664</v>
       </c>
       <c r="AW34" t="n">
-        <v>20515952</v>
+        <v>21571888</v>
       </c>
       <c r="AX34" t="n">
-        <v>24378160</v>
+        <v>25209232</v>
       </c>
       <c r="AY34" t="n">
-        <v>23953592</v>
+        <v>25735688</v>
       </c>
       <c r="AZ34" t="n">
-        <v>24694096</v>
+        <v>26926136</v>
       </c>
       <c r="BA34" t="n">
-        <v>26368296</v>
+        <v>26410664</v>
       </c>
       <c r="BB34" t="n">
-        <v>26699040</v>
+        <v>27362048</v>
       </c>
       <c r="BC34" t="n">
-        <v>27688520</v>
+        <v>28116680</v>
       </c>
       <c r="BD34" t="n">
-        <v>29494784</v>
+        <v>29629936</v>
       </c>
       <c r="BE34" t="n">
-        <v>26353736</v>
+        <v>31101744</v>
       </c>
       <c r="BF34" t="n">
-        <v>29684896</v>
+        <v>34206784</v>
       </c>
       <c r="BG34" t="n">
-        <v>29709096</v>
+        <v>35210784</v>
       </c>
       <c r="BH34" t="n">
-        <v>29308992</v>
+        <v>33763312</v>
       </c>
       <c r="BI34" t="n">
-        <v>30071960</v>
+        <v>34971432</v>
       </c>
     </row>
     <row r="35">
@@ -6786,184 +6786,184 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25000</v>
+        <v>23500</v>
       </c>
       <c r="C35" t="n">
-        <v>25000</v>
+        <v>26500</v>
       </c>
       <c r="D35" t="n">
+        <v>19000</v>
+      </c>
+      <c r="E35" t="n">
         <v>26500</v>
       </c>
-      <c r="E35" t="n">
-        <v>37000</v>
-      </c>
       <c r="F35" t="n">
-        <v>31000</v>
+        <v>41500</v>
       </c>
       <c r="G35" t="n">
+        <v>43000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>61000</v>
+      </c>
+      <c r="I35" t="n">
+        <v>62500</v>
+      </c>
+      <c r="J35" t="n">
+        <v>44500</v>
+      </c>
+      <c r="K35" t="n">
         <v>38500</v>
       </c>
-      <c r="H35" t="n">
-        <v>44500</v>
-      </c>
-      <c r="I35" t="n">
-        <v>52000</v>
-      </c>
-      <c r="J35" t="n">
-        <v>52000</v>
-      </c>
-      <c r="K35" t="n">
-        <v>56500</v>
-      </c>
       <c r="L35" t="n">
-        <v>52000</v>
+        <v>65500</v>
       </c>
       <c r="M35" t="n">
-        <v>70000</v>
+        <v>68500</v>
       </c>
       <c r="N35" t="n">
-        <v>128500</v>
+        <v>110500</v>
       </c>
       <c r="O35" t="n">
-        <v>113500</v>
+        <v>98500</v>
       </c>
       <c r="P35" t="n">
-        <v>116500</v>
+        <v>133000</v>
       </c>
       <c r="Q35" t="n">
-        <v>142000</v>
+        <v>122500</v>
       </c>
       <c r="R35" t="n">
-        <v>125500</v>
+        <v>160000</v>
       </c>
       <c r="S35" t="n">
-        <v>143500</v>
+        <v>133000</v>
       </c>
       <c r="T35" t="n">
-        <v>158500</v>
+        <v>161500</v>
       </c>
       <c r="U35" t="n">
-        <v>166000</v>
+        <v>175000</v>
       </c>
       <c r="V35" t="n">
-        <v>176500</v>
+        <v>155500</v>
       </c>
       <c r="W35" t="n">
-        <v>197500</v>
+        <v>184000</v>
       </c>
       <c r="X35" t="n">
-        <v>224500</v>
+        <v>211000</v>
       </c>
       <c r="Y35" t="n">
-        <v>217000</v>
+        <v>229000</v>
       </c>
       <c r="Z35" t="n">
-        <v>314500</v>
+        <v>331000</v>
       </c>
       <c r="AA35" t="n">
-        <v>298000</v>
+        <v>368500</v>
       </c>
       <c r="AB35" t="n">
-        <v>344500</v>
+        <v>362500</v>
       </c>
       <c r="AC35" t="n">
-        <v>368500</v>
+        <v>349000</v>
       </c>
       <c r="AD35" t="n">
-        <v>338500</v>
+        <v>419500</v>
       </c>
       <c r="AE35" t="n">
-        <v>370000</v>
+        <v>401500</v>
       </c>
       <c r="AF35" t="n">
-        <v>410500</v>
+        <v>439000</v>
       </c>
       <c r="AG35" t="n">
-        <v>388000</v>
+        <v>457000</v>
       </c>
       <c r="AH35" t="n">
-        <v>440500</v>
+        <v>485500</v>
       </c>
       <c r="AI35" t="n">
-        <v>455500</v>
+        <v>533500</v>
       </c>
       <c r="AJ35" t="n">
-        <v>493000</v>
+        <v>550000</v>
       </c>
       <c r="AK35" t="n">
-        <v>545500</v>
+        <v>587500</v>
       </c>
       <c r="AL35" t="n">
-        <v>628000</v>
+        <v>728500</v>
       </c>
       <c r="AM35" t="n">
-        <v>631000</v>
+        <v>733000</v>
       </c>
       <c r="AN35" t="n">
-        <v>835000</v>
+        <v>730000</v>
       </c>
       <c r="AO35" t="n">
-        <v>779500</v>
+        <v>743500</v>
       </c>
       <c r="AP35" t="n">
-        <v>820000</v>
+        <v>818500</v>
       </c>
       <c r="AQ35" t="n">
-        <v>842500</v>
+        <v>788500</v>
       </c>
       <c r="AR35" t="n">
-        <v>892000</v>
+        <v>919000</v>
       </c>
       <c r="AS35" t="n">
-        <v>833500</v>
+        <v>946000</v>
       </c>
       <c r="AT35" t="n">
-        <v>922000</v>
+        <v>1010500</v>
       </c>
       <c r="AU35" t="n">
-        <v>937000</v>
+        <v>1105000</v>
       </c>
       <c r="AV35" t="n">
-        <v>997000</v>
+        <v>1096000</v>
       </c>
       <c r="AW35" t="n">
-        <v>1040500</v>
+        <v>1112500</v>
       </c>
       <c r="AX35" t="n">
-        <v>1268500</v>
+        <v>1337500</v>
       </c>
       <c r="AY35" t="n">
-        <v>1280500</v>
+        <v>1372000</v>
       </c>
       <c r="AZ35" t="n">
-        <v>1330000</v>
+        <v>1427500</v>
       </c>
       <c r="BA35" t="n">
-        <v>1346500</v>
+        <v>1466500</v>
       </c>
       <c r="BB35" t="n">
-        <v>1441000</v>
+        <v>1465000</v>
       </c>
       <c r="BC35" t="n">
-        <v>1474000</v>
+        <v>1448500</v>
       </c>
       <c r="BD35" t="n">
-        <v>1499500</v>
+        <v>1556500</v>
       </c>
       <c r="BE35" t="n">
-        <v>1417000</v>
+        <v>1702000</v>
       </c>
       <c r="BF35" t="n">
-        <v>1526500</v>
+        <v>1766500</v>
       </c>
       <c r="BG35" t="n">
-        <v>1555000</v>
+        <v>1837000</v>
       </c>
       <c r="BH35" t="n">
-        <v>1531000</v>
+        <v>1799500</v>
       </c>
       <c r="BI35" t="n">
-        <v>1606000</v>
+        <v>1891000</v>
       </c>
     </row>
     <row r="36">
@@ -6976,22 +6976,22 @@
         <v>31250</v>
       </c>
       <c r="C36" t="n">
-        <v>31250</v>
+        <v>40625</v>
       </c>
       <c r="D36" t="n">
-        <v>37500</v>
+        <v>40625</v>
       </c>
       <c r="E36" t="n">
-        <v>37500</v>
+        <v>43750</v>
       </c>
       <c r="F36" t="n">
-        <v>37500</v>
+        <v>43750</v>
       </c>
       <c r="G36" t="n">
-        <v>40625</v>
+        <v>43750</v>
       </c>
       <c r="H36" t="n">
-        <v>46875</v>
+        <v>43750</v>
       </c>
       <c r="I36" t="n">
         <v>46875</v>
@@ -7160,34 +7160,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18032</v>
+        <v>17229</v>
       </c>
       <c r="C37" t="n">
-        <v>16566</v>
+        <v>19232</v>
       </c>
       <c r="D37" t="n">
-        <v>17985</v>
+        <v>16858</v>
       </c>
       <c r="E37" t="n">
-        <v>32875</v>
+        <v>18674</v>
       </c>
       <c r="F37" t="n">
-        <v>21321</v>
+        <v>27170</v>
       </c>
       <c r="G37" t="n">
-        <v>29077</v>
+        <v>32953</v>
       </c>
       <c r="H37" t="n">
-        <v>38577</v>
+        <v>35735</v>
       </c>
       <c r="I37" t="n">
-        <v>39249</v>
+        <v>40000</v>
       </c>
       <c r="J37" t="n">
-        <v>40000</v>
+        <v>39531</v>
       </c>
       <c r="K37" t="n">
-        <v>40000</v>
+        <v>37594</v>
       </c>
       <c r="L37" t="n">
         <v>40000</v>
@@ -7347,184 +7347,184 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>991501</v>
+        <v>983177</v>
       </c>
       <c r="C38" t="n">
-        <v>931842</v>
+        <v>1142276</v>
       </c>
       <c r="D38" t="n">
-        <v>1020033</v>
+        <v>1039201</v>
       </c>
       <c r="E38" t="n">
-        <v>1657354</v>
+        <v>1133495</v>
       </c>
       <c r="F38" t="n">
-        <v>1163658</v>
+        <v>1500444</v>
       </c>
       <c r="G38" t="n">
-        <v>1539495</v>
+        <v>1745497</v>
       </c>
       <c r="H38" t="n">
-        <v>2004068</v>
+        <v>1867195</v>
       </c>
       <c r="I38" t="n">
-        <v>2032745</v>
+        <v>2238355</v>
       </c>
       <c r="J38" t="n">
-        <v>2159762</v>
+        <v>2042419</v>
       </c>
       <c r="K38" t="n">
-        <v>2096789</v>
+        <v>1959970</v>
       </c>
       <c r="L38" t="n">
-        <v>2489277</v>
+        <v>2583364</v>
       </c>
       <c r="M38" t="n">
-        <v>2850164</v>
+        <v>2528323</v>
       </c>
       <c r="N38" t="n">
-        <v>4127538</v>
+        <v>3811319</v>
       </c>
       <c r="O38" t="n">
-        <v>3999958</v>
+        <v>3932600</v>
       </c>
       <c r="P38" t="n">
-        <v>4395292</v>
+        <v>4538033</v>
       </c>
       <c r="Q38" t="n">
-        <v>4836523</v>
+        <v>3995320</v>
       </c>
       <c r="R38" t="n">
-        <v>4541831</v>
+        <v>5373458</v>
       </c>
       <c r="S38" t="n">
-        <v>4675130</v>
+        <v>4637317</v>
       </c>
       <c r="T38" t="n">
-        <v>5476070</v>
+        <v>5544783</v>
       </c>
       <c r="U38" t="n">
-        <v>5255169</v>
+        <v>5311331</v>
       </c>
       <c r="V38" t="n">
-        <v>5854235</v>
+        <v>5404196</v>
       </c>
       <c r="W38" t="n">
-        <v>5840586</v>
+        <v>5998744</v>
       </c>
       <c r="X38" t="n">
-        <v>6571997</v>
+        <v>6359976</v>
       </c>
       <c r="Y38" t="n">
-        <v>6913319</v>
+        <v>6458459</v>
       </c>
       <c r="Z38" t="n">
-        <v>8292179</v>
+        <v>9258944</v>
       </c>
       <c r="AA38" t="n">
-        <v>8653639</v>
+        <v>9679730</v>
       </c>
       <c r="AB38" t="n">
-        <v>9007163</v>
+        <v>9355224</v>
       </c>
       <c r="AC38" t="n">
-        <v>10036243</v>
+        <v>9330564</v>
       </c>
       <c r="AD38" t="n">
-        <v>8803380</v>
+        <v>11439006</v>
       </c>
       <c r="AE38" t="n">
-        <v>9998208</v>
+        <v>10896453</v>
       </c>
       <c r="AF38" t="n">
-        <v>10726990</v>
+        <v>12025418</v>
       </c>
       <c r="AG38" t="n">
-        <v>9718335</v>
+        <v>11669978</v>
       </c>
       <c r="AH38" t="n">
-        <v>12140250</v>
+        <v>13003499</v>
       </c>
       <c r="AI38" t="n">
-        <v>12447618</v>
+        <v>15034580</v>
       </c>
       <c r="AJ38" t="n">
-        <v>12789134</v>
+        <v>14645266</v>
       </c>
       <c r="AK38" t="n">
-        <v>13844835</v>
+        <v>14690166</v>
       </c>
       <c r="AL38" t="n">
-        <v>15439389</v>
+        <v>17539911</v>
       </c>
       <c r="AM38" t="n">
-        <v>15678814</v>
+        <v>17877193</v>
       </c>
       <c r="AN38" t="n">
-        <v>19956151</v>
+        <v>17915972</v>
       </c>
       <c r="AO38" t="n">
-        <v>19842663</v>
+        <v>17886012</v>
       </c>
       <c r="AP38" t="n">
-        <v>19780392</v>
+        <v>19415607</v>
       </c>
       <c r="AQ38" t="n">
-        <v>20309236</v>
+        <v>20181405</v>
       </c>
       <c r="AR38" t="n">
-        <v>22126795</v>
+        <v>22038526</v>
       </c>
       <c r="AS38" t="n">
-        <v>19789986</v>
+        <v>21710798</v>
       </c>
       <c r="AT38" t="n">
-        <v>22914449</v>
+        <v>24656333</v>
       </c>
       <c r="AU38" t="n">
-        <v>22855475</v>
+        <v>27058685</v>
       </c>
       <c r="AV38" t="n">
-        <v>24006407</v>
+        <v>26381864</v>
       </c>
       <c r="AW38" t="n">
-        <v>25176667</v>
+        <v>26472803</v>
       </c>
       <c r="AX38" t="n">
-        <v>29753960</v>
+        <v>30763672</v>
       </c>
       <c r="AY38" t="n">
-        <v>29322057</v>
+        <v>31475093</v>
       </c>
       <c r="AZ38" t="n">
-        <v>30183926</v>
+        <v>32873601</v>
       </c>
       <c r="BA38" t="n">
-        <v>31977816</v>
+        <v>32499864</v>
       </c>
       <c r="BB38" t="n">
-        <v>32645360</v>
+        <v>33411163</v>
       </c>
       <c r="BC38" t="n">
-        <v>33734270</v>
+        <v>34114650</v>
       </c>
       <c r="BD38" t="n">
-        <v>35597764</v>
+        <v>36018416</v>
       </c>
       <c r="BE38" t="n">
-        <v>32291571</v>
+        <v>38025099</v>
       </c>
       <c r="BF38" t="n">
-        <v>35910076</v>
+        <v>41422519</v>
       </c>
       <c r="BG38" t="n">
-        <v>36009121</v>
+        <v>42554629</v>
       </c>
       <c r="BH38" t="n">
-        <v>35545217</v>
+        <v>40958892</v>
       </c>
       <c r="BI38" t="n">
-        <v>36577180</v>
+        <v>42437647</v>
       </c>
     </row>
     <row r="39">
@@ -7534,184 +7534,184 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-89856.19999999995</v>
+        <v>-121711.4</v>
       </c>
       <c r="C39" t="n">
-        <v>-103502.7999999998</v>
+        <v>-180647.2000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>-120775.3999999997</v>
+        <v>-196263.3999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>-13565.19999999972</v>
+        <v>-199763.7999999993</v>
       </c>
       <c r="F39" t="n">
-        <v>-97571.60000000009</v>
+        <v>-141919.2000000002</v>
       </c>
       <c r="G39" t="n">
-        <v>-85629.39999999944</v>
+        <v>-97836.19999999972</v>
       </c>
       <c r="H39" t="n">
-        <v>-75200.80000000075</v>
+        <v>-80411.00000000093</v>
       </c>
       <c r="I39" t="n">
-        <v>-70261.79999999981</v>
+        <v>-29571.00000000093</v>
       </c>
       <c r="J39" t="n">
-        <v>-46779.60000000149</v>
+        <v>-65849.4000000041</v>
       </c>
       <c r="K39" t="n">
-        <v>-62056.20000000671</v>
+        <v>-80238.80000000447</v>
       </c>
       <c r="L39" t="n">
-        <v>793.4000000022352</v>
+        <v>17000.79999999888</v>
       </c>
       <c r="M39" t="n">
-        <v>23368.80000000447</v>
+        <v>-91833.4000000041</v>
       </c>
       <c r="N39" t="n">
-        <v>269207.599999994</v>
+        <v>162229.8000000007</v>
       </c>
       <c r="O39" t="n">
-        <v>227939.6000000052</v>
+        <v>186248.0000000186</v>
       </c>
       <c r="P39" t="n">
-        <v>289562.4000000022</v>
+        <v>302088.5999999829</v>
       </c>
       <c r="Q39" t="n">
-        <v>329710.6000000089</v>
+        <v>181736.0000000075</v>
       </c>
       <c r="R39" t="n">
-        <v>275004.2000000216</v>
+        <v>452103.6000000201</v>
       </c>
       <c r="S39" t="n">
-        <v>300326.0000000075</v>
+        <v>306033.3999999985</v>
       </c>
       <c r="T39" t="n">
-        <v>455721.9999999851</v>
+        <v>470842.5999999419</v>
       </c>
       <c r="U39" t="n">
-        <v>410411.7999999896</v>
+        <v>418368.2000000253</v>
       </c>
       <c r="V39" t="n">
-        <v>525253.0000000298</v>
+        <v>438415.2000000402</v>
       </c>
       <c r="W39" t="n">
-        <v>519449.2000000179</v>
+        <v>540244.8000000119</v>
       </c>
       <c r="X39" t="n">
-        <v>665833.3999999985</v>
+        <v>612779.1999999732</v>
       </c>
       <c r="Y39" t="n">
-        <v>732677.7999999672</v>
+        <v>629889.8000000268</v>
       </c>
       <c r="Z39" t="n">
-        <v>997401.8000000417</v>
+        <v>1180060.799999997</v>
       </c>
       <c r="AA39" t="n">
-        <v>1070421.800000027</v>
+        <v>1259869.99999994</v>
       </c>
       <c r="AB39" t="n">
-        <v>1123806.600000054</v>
+        <v>1176708.800000072</v>
       </c>
       <c r="AC39" t="n">
-        <v>1327734.599999905</v>
+        <v>1172136.800000042</v>
       </c>
       <c r="AD39" t="n">
-        <v>1065900.00000003</v>
+        <v>1567717.199999973</v>
       </c>
       <c r="AE39" t="n">
-        <v>1302585.600000054</v>
+        <v>1466244.599999994</v>
       </c>
       <c r="AF39" t="n">
-        <v>1447297.99999994</v>
+        <v>1670175.599999979</v>
       </c>
       <c r="AG39" t="n">
-        <v>1244577.000000149</v>
+        <v>1598079.600000143</v>
       </c>
       <c r="AH39" t="n">
-        <v>1702533.999999911</v>
+        <v>1816257.799999833</v>
       </c>
       <c r="AI39" t="n">
-        <v>1759287.599999934</v>
+        <v>2203259.999999881</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1815550.799999833</v>
+        <v>2105025.199999958</v>
       </c>
       <c r="AK39" t="n">
-        <v>1975869</v>
+        <v>2109021.19999963</v>
       </c>
       <c r="AL39" t="n">
-        <v>2266047.800000012</v>
+        <v>2616620.199999601</v>
       </c>
       <c r="AM39" t="n">
-        <v>2294142.799999684</v>
+        <v>2683728.600000113</v>
       </c>
       <c r="AN39" t="n">
-        <v>3106700.200000137</v>
+        <v>2644626.399999797</v>
       </c>
       <c r="AO39" t="n">
-        <v>3082530.599999905</v>
+        <v>2636858.400000215</v>
       </c>
       <c r="AP39" t="n">
-        <v>3055886.399999976</v>
+        <v>2924079.400000334</v>
       </c>
       <c r="AQ39" t="n">
-        <v>3088239.19999969</v>
+        <v>3077810.999999762</v>
       </c>
       <c r="AR39" t="n">
-        <v>3445589.000000119</v>
+        <v>3421413.199999988</v>
       </c>
       <c r="AS39" t="n">
-        <v>2980609.200000226</v>
+        <v>3349435.599999964</v>
       </c>
       <c r="AT39" t="n">
-        <v>3587883.799999058</v>
+        <v>3917820.599999309</v>
       </c>
       <c r="AU39" t="n">
-        <v>3567372.99999994</v>
+        <v>4334643.000001013</v>
       </c>
       <c r="AV39" t="n">
-        <v>3773567.400000632</v>
+        <v>4200532.799999654</v>
       </c>
       <c r="AW39" t="n">
-        <v>3952075.40000093</v>
+        <v>4202662.600000381</v>
       </c>
       <c r="AX39" t="n">
-        <v>4835432.000000715</v>
+        <v>4994206.400000155</v>
       </c>
       <c r="AY39" t="n">
-        <v>4745053.399999917</v>
+        <v>5122532.600000322</v>
       </c>
       <c r="AZ39" t="n">
-        <v>4891789.19999963</v>
+        <v>5356162.200000465</v>
       </c>
       <c r="BA39" t="n">
-        <v>5240539.200001597</v>
+        <v>5274932.800000548</v>
       </c>
       <c r="BB39" t="n">
-        <v>5326287.999999523</v>
+        <v>5449294.599999547</v>
       </c>
       <c r="BC39" t="n">
-        <v>5515554.000001788</v>
+        <v>5582566.000001788</v>
       </c>
       <c r="BD39" t="n">
-        <v>5878776.799999595</v>
+        <v>5923107.199998975</v>
       </c>
       <c r="BE39" t="n">
-        <v>5230112.199997783</v>
+        <v>6243793.800000906</v>
       </c>
       <c r="BF39" t="n">
-        <v>5931399.200000644</v>
+        <v>6914021.800002456</v>
       </c>
       <c r="BG39" t="n">
-        <v>5946194.200000763</v>
+        <v>7131111.799999237</v>
       </c>
       <c r="BH39" t="n">
-        <v>5847573.399999022</v>
+        <v>6810282.400000811</v>
       </c>
       <c r="BI39" t="n">
-        <v>6036371.999998689</v>
+        <v>7101271.400003314</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -651,148 +651,148 @@
         <v>285</v>
       </c>
       <c r="N2" t="n">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="O2" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P2" t="n">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="Q2" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R2" t="n">
         <v>430</v>
       </c>
       <c r="S2" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="T2" t="n">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="U2" t="n">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="V2" t="n">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W2" t="n">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="X2" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="Y2" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z2" t="n">
-        <v>683</v>
+        <v>708</v>
       </c>
       <c r="AA2" t="n">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="AB2" t="n">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="AC2" t="n">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="AD2" t="n">
-        <v>823</v>
+        <v>797</v>
       </c>
       <c r="AE2" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="AF2" t="n">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="AG2" t="n">
-        <v>914</v>
+        <v>877</v>
       </c>
       <c r="AH2" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AI2" t="n">
         <v>959</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="AK2" t="n">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="AL2" t="n">
-        <v>1236</v>
+        <v>1272</v>
       </c>
       <c r="AM2" t="n">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="AN2" t="n">
-        <v>1289</v>
+        <v>1297</v>
       </c>
       <c r="AO2" t="n">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="AP2" t="n">
-        <v>1444</v>
+        <v>1410</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AR2" t="n">
-        <v>1524</v>
+        <v>1510</v>
       </c>
       <c r="AS2" t="n">
-        <v>1551</v>
+        <v>1490</v>
       </c>
       <c r="AT2" t="n">
-        <v>1585</v>
+        <v>1562</v>
       </c>
       <c r="AU2" t="n">
-        <v>1678</v>
+        <v>1614</v>
       </c>
       <c r="AV2" t="n">
-        <v>1720</v>
+        <v>1681</v>
       </c>
       <c r="AW2" t="n">
-        <v>1783</v>
+        <v>1798</v>
       </c>
       <c r="AX2" t="n">
-        <v>2043</v>
+        <v>2081</v>
       </c>
       <c r="AY2" t="n">
-        <v>2078</v>
+        <v>2058</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2103</v>
+        <v>2166</v>
       </c>
       <c r="BA2" t="n">
-        <v>2158</v>
+        <v>2216</v>
       </c>
       <c r="BB2" t="n">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="BC2" t="n">
-        <v>2262</v>
+        <v>2281</v>
       </c>
       <c r="BD2" t="n">
         <v>2423</v>
       </c>
       <c r="BE2" t="n">
-        <v>2474</v>
+        <v>2401</v>
       </c>
       <c r="BF2" t="n">
-        <v>2547</v>
+        <v>2497</v>
       </c>
       <c r="BG2" t="n">
-        <v>2708</v>
+        <v>2624</v>
       </c>
       <c r="BH2" t="n">
-        <v>2739</v>
+        <v>2750</v>
       </c>
       <c r="BI2" t="n">
-        <v>2828</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="3">
@@ -802,184 +802,184 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>18</v>
+      </c>
+      <c r="K3" t="n">
+        <v>24</v>
+      </c>
+      <c r="L3" t="n">
         <v>16</v>
       </c>
-      <c r="F3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G3" t="n">
-        <v>26</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="M3" t="n">
+        <v>30</v>
+      </c>
+      <c r="N3" t="n">
+        <v>35</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
         <v>21</v>
       </c>
-      <c r="I3" t="n">
-        <v>16</v>
-      </c>
-      <c r="J3" t="n">
-        <v>19</v>
-      </c>
-      <c r="K3" t="n">
-        <v>21</v>
-      </c>
-      <c r="L3" t="n">
-        <v>26</v>
-      </c>
-      <c r="M3" t="n">
-        <v>23</v>
-      </c>
-      <c r="N3" t="n">
-        <v>33</v>
-      </c>
-      <c r="O3" t="n">
-        <v>28</v>
-      </c>
-      <c r="P3" t="n">
-        <v>24</v>
-      </c>
       <c r="Q3" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R3" t="n">
+        <v>41</v>
+      </c>
+      <c r="S3" t="n">
+        <v>45</v>
+      </c>
+      <c r="T3" t="n">
         <v>34</v>
       </c>
-      <c r="S3" t="n">
-        <v>47</v>
-      </c>
-      <c r="T3" t="n">
-        <v>41</v>
-      </c>
       <c r="U3" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="V3" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="W3" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="X3" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AB3" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC3" t="n">
         <v>55</v>
       </c>
       <c r="AD3" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AE3" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AF3" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="AG3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI3" t="n">
         <v>68</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>58</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>72</v>
       </c>
       <c r="AJ3" t="n">
         <v>56</v>
       </c>
       <c r="AK3" t="n">
+        <v>71</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN3" t="n">
         <v>69</v>
       </c>
-      <c r="AL3" t="n">
-        <v>79</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>74</v>
-      </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
+        <v>73</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>86</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>82</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>77</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>102</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>91</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>94</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>93</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>99</v>
+      </c>
+      <c r="BA3" t="n">
         <v>75</v>
       </c>
-      <c r="AO3" t="n">
-        <v>79</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>79</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>86</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="BB3" t="n">
+        <v>98</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>106</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>88</v>
+      </c>
+      <c r="BE3" t="n">
         <v>96</v>
       </c>
-      <c r="AS3" t="n">
-        <v>86</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>84</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>66</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>92</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>85</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>91</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>94</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>95</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>101</v>
-      </c>
       <c r="BF3" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="BG3" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="BH3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BI3" t="n">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
@@ -989,184 +989,184 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F4" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H4" t="n">
         <v>63</v>
       </c>
       <c r="I4" t="n">
+        <v>85</v>
+      </c>
+      <c r="J4" t="n">
         <v>80</v>
       </c>
-      <c r="J4" t="n">
-        <v>81</v>
-      </c>
       <c r="K4" t="n">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L4" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M4" t="n">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="O4" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="P4" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q4" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="R4" t="n">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="S4" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T4" t="n">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="U4" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="V4" t="n">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="W4" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="X4" t="n">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="Y4" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z4" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AA4" t="n">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="AB4" t="n">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="AC4" t="n">
+        <v>222</v>
+      </c>
+      <c r="AD4" t="n">
         <v>230</v>
       </c>
-      <c r="AD4" t="n">
-        <v>221</v>
-      </c>
       <c r="AE4" t="n">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="AF4" t="n">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="AG4" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="AH4" t="n">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AI4" t="n">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AJ4" t="n">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="AK4" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AL4" t="n">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="AM4" t="n">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="AN4" t="n">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="AO4" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AP4" t="n">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="AQ4" t="n">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="AR4" t="n">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="AS4" t="n">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="AT4" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AU4" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AV4" t="n">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="AW4" t="n">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="AX4" t="n">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="AY4" t="n">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="AZ4" t="n">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BA4" t="n">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="BB4" t="n">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="BC4" t="n">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="BD4" t="n">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="BE4" t="n">
+        <v>396</v>
+      </c>
+      <c r="BF4" t="n">
         <v>401</v>
       </c>
-      <c r="BF4" t="n">
-        <v>405</v>
-      </c>
       <c r="BG4" t="n">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="BH4" t="n">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="BI4" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
@@ -1176,184 +1176,184 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
         <v>59</v>
       </c>
-      <c r="D5" t="n">
-        <v>56</v>
-      </c>
       <c r="E5" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G5" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
         <v>93</v>
       </c>
-      <c r="I5" t="n">
-        <v>99</v>
-      </c>
       <c r="J5" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K5" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L5" t="n">
         <v>127</v>
       </c>
       <c r="M5" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="N5" t="n">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="O5" t="n">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="P5" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q5" t="n">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="R5" t="n">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="S5" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="T5" t="n">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="U5" t="n">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="V5" t="n">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="W5" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="X5" t="n">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="Y5" t="n">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="Z5" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA5" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AB5" t="n">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="AC5" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AD5" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AE5" t="n">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="AF5" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AG5" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AH5" t="n">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="AI5" t="n">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="AJ5" t="n">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="AK5" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AL5" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AM5" t="n">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="AN5" t="n">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="AO5" t="n">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="AP5" t="n">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AQ5" t="n">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="AR5" t="n">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AS5" t="n">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="AT5" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AU5" t="n">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="AV5" t="n">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="AW5" t="n">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="AX5" t="n">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="AY5" t="n">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="AZ5" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="BA5" t="n">
+        <v>443</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>473</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>447</v>
+      </c>
+      <c r="BD5" t="n">
         <v>481</v>
       </c>
-      <c r="BB5" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>492</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>491</v>
-      </c>
       <c r="BE5" t="n">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="BF5" t="n">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="BG5" t="n">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="BH5" t="n">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="BI5" t="n">
-        <v>505</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6">
@@ -1399,148 +1399,148 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R6" t="n">
         <v>63</v>
       </c>
       <c r="S6" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T6" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="U6" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="V6" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W6" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X6" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="n">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="AA6" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AB6" t="n">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="AC6" t="n">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AD6" t="n">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="AE6" t="n">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AF6" t="n">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="AG6" t="n">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="AH6" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AI6" t="n">
         <v>304</v>
       </c>
       <c r="AJ6" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AK6" t="n">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AL6" t="n">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="AM6" t="n">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AN6" t="n">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="AO6" t="n">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AP6" t="n">
-        <v>669</v>
+        <v>635</v>
       </c>
       <c r="AQ6" t="n">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AR6" t="n">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="AS6" t="n">
-        <v>728</v>
+        <v>667</v>
       </c>
       <c r="AT6" t="n">
-        <v>746</v>
+        <v>723</v>
       </c>
       <c r="AU6" t="n">
-        <v>822</v>
+        <v>758</v>
       </c>
       <c r="AV6" t="n">
-        <v>846</v>
+        <v>807</v>
       </c>
       <c r="AW6" t="n">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="AX6" t="n">
-        <v>1134</v>
+        <v>1172</v>
       </c>
       <c r="AY6" t="n">
-        <v>1161</v>
+        <v>1141</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1176</v>
+        <v>1239</v>
       </c>
       <c r="BA6" t="n">
-        <v>1222</v>
+        <v>1280</v>
       </c>
       <c r="BB6" t="n">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="BC6" t="n">
-        <v>1307</v>
+        <v>1326</v>
       </c>
       <c r="BD6" t="n">
         <v>1459</v>
       </c>
       <c r="BE6" t="n">
-        <v>1500</v>
+        <v>1427</v>
       </c>
       <c r="BF6" t="n">
-        <v>1563</v>
+        <v>1513</v>
       </c>
       <c r="BG6" t="n">
-        <v>1714</v>
+        <v>1630</v>
       </c>
       <c r="BH6" t="n">
-        <v>1735</v>
+        <v>1746</v>
       </c>
       <c r="BI6" t="n">
-        <v>1815</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="7">
@@ -1550,184 +1550,184 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
         <v>7</v>
       </c>
-      <c r="C7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>18</v>
-      </c>
-      <c r="E7" t="n">
-        <v>14</v>
-      </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M7" t="n">
         <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O7" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P7" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q7" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="R7" t="n">
         <v>38</v>
       </c>
       <c r="S7" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="T7" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U7" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V7" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W7" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="X7" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>69</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>68</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>68</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>68</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>74</v>
+      </c>
+      <c r="AG7" t="n">
         <v>61</v>
       </c>
-      <c r="Z7" t="n">
-        <v>53</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>56</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AH7" t="n">
+        <v>68</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>64</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>62</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>77</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>88</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>77</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>66</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>58</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>72</v>
       </c>
-      <c r="AD7" t="n">
-        <v>64</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>58</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AR7" t="n">
+        <v>76</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AT7" t="n">
         <v>77</v>
       </c>
-      <c r="AI7" t="n">
-        <v>68</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>66</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>71</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>63</v>
-      </c>
-      <c r="AM7" t="n">
+      <c r="AU7" t="n">
+        <v>83</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>102</v>
+      </c>
+      <c r="AW7" t="n">
         <v>80</v>
       </c>
-      <c r="AN7" t="n">
-        <v>73</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>76</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>63</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>77</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>68</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>71</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>79</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>86</v>
-      </c>
       <c r="AX7" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AY7" t="n">
         <v>86</v>
       </c>
       <c r="AZ7" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>63</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>69</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>79</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>58</v>
+      </c>
+      <c r="BE7" t="n">
         <v>86</v>
       </c>
-      <c r="BA7" t="n">
-        <v>93</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>77</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>83</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>91</v>
-      </c>
       <c r="BF7" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="BG7" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="BH7" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="BI7" t="n">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1752,31 +1752,31 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1794,67 +1794,67 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
         <v>1</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG8" t="n">
         <v>3</v>
       </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
@@ -1866,10 +1866,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
@@ -1878,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>2</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" t="n">
         <v>2</v>
@@ -1893,25 +1893,25 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH8" t="n">
         <v>3</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0</v>
       </c>
       <c r="BI8" t="n">
         <v>0</v>
@@ -1927,181 +1927,181 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" t="n">
         <v>3</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="K9" t="n">
         <v>4</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
+        <v>12</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>16</v>
+      </c>
+      <c r="U9" t="n">
+        <v>12</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7</v>
+      </c>
+      <c r="W9" t="n">
         <v>11</v>
       </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="X9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN9" t="n">
         <v>10</v>
       </c>
-      <c r="L9" t="n">
-        <v>6</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="AO9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX9" t="n">
         <v>10</v>
       </c>
-      <c r="N9" t="n">
-        <v>14</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="AY9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD9" t="n">
         <v>7</v>
       </c>
-      <c r="P9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>14</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="BE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>24</v>
+      </c>
+      <c r="BG9" t="n">
         <v>9</v>
       </c>
-      <c r="T9" t="n">
-        <v>8</v>
-      </c>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
-      <c r="V9" t="n">
-        <v>10</v>
-      </c>
-      <c r="W9" t="n">
-        <v>9</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM9" t="n">
+      <c r="BH9" t="n">
         <v>19</v>
       </c>
-      <c r="AN9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
+      <c r="BI9" t="n">
         <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>14</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>27</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>20</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>23</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>21</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>12</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -2111,184 +2111,184 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
         <v>7</v>
       </c>
-      <c r="D10" t="n">
-        <v>15</v>
-      </c>
-      <c r="E10" t="n">
-        <v>13</v>
-      </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n">
         <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N10" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="O10" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P10" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>34</v>
+      </c>
+      <c r="R10" t="n">
+        <v>26</v>
+      </c>
+      <c r="S10" t="n">
+        <v>39</v>
+      </c>
+      <c r="T10" t="n">
+        <v>39</v>
+      </c>
+      <c r="U10" t="n">
         <v>31</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>38</v>
-      </c>
-      <c r="R10" t="n">
-        <v>32</v>
-      </c>
-      <c r="S10" t="n">
-        <v>44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>41</v>
-      </c>
-      <c r="U10" t="n">
-        <v>36</v>
       </c>
       <c r="V10" t="n">
         <v>40</v>
       </c>
       <c r="W10" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="X10" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AA10" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD10" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AE10" t="n">
         <v>43</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AG10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>56</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>54</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>54</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>54</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>74</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>58</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>63</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>52</v>
+      </c>
+      <c r="BA10" t="n">
         <v>44</v>
       </c>
-      <c r="AH10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>52</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>49</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>56</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>61</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>56</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>43</v>
-      </c>
-      <c r="AS10" t="n">
+      <c r="BB10" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC10" t="n">
         <v>54</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="BD10" t="n">
         <v>47</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>54</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>59</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>57</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>68</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>58</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>68</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>58</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>62</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>53</v>
       </c>
       <c r="BE10" t="n">
         <v>64</v>
       </c>
       <c r="BF10" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BG10" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="BH10" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="BI10" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
@@ -2352,130 +2352,130 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="n">
         <v>3</v>
       </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>5</v>
-      </c>
       <c r="AF11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AI11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>4</v>
       </c>
       <c r="AL11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
         <v>4</v>
       </c>
-      <c r="AM11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="n">
+      <c r="AP11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD11" t="n">
         <v>4</v>
       </c>
-      <c r="AO11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="BE11" t="n">
         <v>6</v>
       </c>
-      <c r="AS11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA11" t="n">
+      <c r="BF11" t="n">
         <v>5</v>
       </c>
-      <c r="BB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>3</v>
-      </c>
       <c r="BG11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BH11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2485,184 +2485,184 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I12" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N12" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O12" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="P12" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Q12" t="n">
         <v>43</v>
       </c>
       <c r="R12" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="S12" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="T12" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="U12" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="V12" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="W12" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X12" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Y12" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Z12" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA12" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AB12" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="AC12" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AE12" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AF12" t="n">
+        <v>68</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>74</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>69</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>83</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>71</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>78</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>93</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>87</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>89</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>77</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>84</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>73</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>77</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>94</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>104</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>87</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>83</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>96</v>
+      </c>
+      <c r="BA12" t="n">
         <v>81</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>74</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>76</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>88</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>71</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>72</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>66</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>79</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>79</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>96</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>73</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>71</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>82</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>91</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>86</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>83</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>89</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>88</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>86</v>
       </c>
       <c r="BB12" t="n">
         <v>84</v>
       </c>
       <c r="BC12" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="BD12" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="BE12" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="BF12" t="n">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="BG12" t="n">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="BH12" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="BI12" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -2675,10 +2675,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
@@ -2720,37 +2720,37 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>1</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2762,85 +2762,85 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR13" t="n">
         <v>3</v>
       </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>1</v>
-      </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW13" t="n">
         <v>2</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB13" t="n">
         <v>1</v>
       </c>
       <c r="BC13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2859,184 +2859,184 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
         <v>4</v>
       </c>
-      <c r="E14" t="n">
+      <c r="H14" t="n">
         <v>3</v>
       </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>13</v>
+      </c>
+      <c r="T14" t="n">
+        <v>11</v>
+      </c>
+      <c r="U14" t="n">
         <v>8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>11</v>
-      </c>
-      <c r="P14" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>8</v>
-      </c>
-      <c r="R14" t="n">
-        <v>13</v>
-      </c>
-      <c r="S14" t="n">
-        <v>12</v>
-      </c>
-      <c r="T14" t="n">
-        <v>9</v>
-      </c>
-      <c r="U14" t="n">
-        <v>14</v>
       </c>
       <c r="V14" t="n">
         <v>11</v>
       </c>
       <c r="W14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
         <v>12</v>
       </c>
       <c r="Z14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK14" t="n">
         <v>14</v>
       </c>
-      <c r="AA14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC14" t="n">
+      <c r="AL14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW14" t="n">
         <v>13</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AX14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY14" t="n">
         <v>16</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>11</v>
       </c>
       <c r="AZ14" t="n">
         <v>14</v>
       </c>
       <c r="BA14" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC14" t="n">
         <v>18</v>
       </c>
-      <c r="BB14" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>10</v>
-      </c>
       <c r="BD14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BE14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BF14" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BG14" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BH14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BI14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -3046,184 +3046,184 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
+        <v>18</v>
+      </c>
+      <c r="L15" t="n">
+        <v>28</v>
+      </c>
+      <c r="M15" t="n">
         <v>31</v>
       </c>
-      <c r="L15" t="n">
-        <v>25</v>
-      </c>
-      <c r="M15" t="n">
-        <v>25</v>
-      </c>
       <c r="N15" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O15" t="n">
+        <v>29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q15" t="n">
         <v>36</v>
       </c>
-      <c r="P15" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>34</v>
-      </c>
       <c r="R15" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="T15" t="n">
+        <v>31</v>
+      </c>
+      <c r="U15" t="n">
+        <v>30</v>
+      </c>
+      <c r="V15" t="n">
+        <v>30</v>
+      </c>
+      <c r="W15" t="n">
+        <v>50</v>
+      </c>
+      <c r="X15" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>49</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE15" t="n">
         <v>44</v>
       </c>
-      <c r="U15" t="n">
-        <v>38</v>
-      </c>
-      <c r="V15" t="n">
-        <v>35</v>
-      </c>
-      <c r="W15" t="n">
-        <v>42</v>
-      </c>
-      <c r="X15" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>39</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
+      <c r="AF15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>58</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>52</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>52</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL15" t="n">
         <v>45</v>
       </c>
-      <c r="AD15" t="n">
-        <v>53</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AM15" t="n">
+        <v>54</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>58</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>66</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>57</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>52</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>57</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>69</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>63</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>72</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>68</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>49</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>64</v>
+      </c>
+      <c r="BE15" t="n">
         <v>56</v>
       </c>
-      <c r="AF15" t="n">
-        <v>49</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH15" t="n">
+      <c r="BF15" t="n">
         <v>54</v>
       </c>
-      <c r="AI15" t="n">
-        <v>68</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>61</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>54</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>53</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>57</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>49</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>71</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>58</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>58</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>68</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>64</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>59</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>73</v>
-      </c>
-      <c r="AZ15" t="n">
+      <c r="BG15" t="n">
+        <v>78</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>70</v>
+      </c>
+      <c r="BI15" t="n">
         <v>65</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>67</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>65</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>58</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>78</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>64</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>67</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -3272,145 +3272,145 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
         <v>4</v>
       </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
         <v>3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>3</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6</v>
       </c>
       <c r="X16" t="n">
         <v>4</v>
       </c>
       <c r="Y16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA16" t="n">
         <v>5</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="n">
         <v>3</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AI16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK16" t="n">
         <v>4</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AL16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>3</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AR16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT16" t="n">
         <v>9</v>
       </c>
-      <c r="AD16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW16" t="n">
         <v>4</v>
       </c>
-      <c r="AF16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG16" t="n">
+      <c r="AX16" t="n">
         <v>9</v>
       </c>
-      <c r="AH16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP16" t="n">
+      <c r="AY16" t="n">
         <v>4</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>3</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BB16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
       </c>
       <c r="BD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE16" t="n">
         <v>10</v>
       </c>
-      <c r="BE16" t="n">
+      <c r="BF16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH16" t="n">
         <v>4</v>
       </c>
-      <c r="BF16" t="n">
-        <v>9</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>6</v>
-      </c>
       <c r="BI16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -3423,181 +3423,181 @@
         <v>9</v>
       </c>
       <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
         <v>11</v>
       </c>
-      <c r="D17" t="n">
-        <v>6</v>
-      </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
+        <v>20</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20</v>
+      </c>
+      <c r="H17" t="n">
+        <v>16</v>
+      </c>
+      <c r="I17" t="n">
         <v>21</v>
       </c>
-      <c r="G17" t="n">
-        <v>22</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
+        <v>28</v>
+      </c>
+      <c r="K17" t="n">
+        <v>25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>31</v>
+      </c>
+      <c r="M17" t="n">
         <v>34</v>
       </c>
-      <c r="I17" t="n">
-        <v>35</v>
-      </c>
-      <c r="J17" t="n">
-        <v>23</v>
-      </c>
-      <c r="K17" t="n">
-        <v>19</v>
-      </c>
-      <c r="L17" t="n">
-        <v>37</v>
-      </c>
-      <c r="M17" t="n">
-        <v>39</v>
-      </c>
       <c r="N17" t="n">
+        <v>74</v>
+      </c>
+      <c r="O17" t="n">
         <v>67</v>
       </c>
-      <c r="O17" t="n">
-        <v>59</v>
-      </c>
       <c r="P17" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q17" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R17" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="S17" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="T17" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="U17" t="n">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="V17" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="W17" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X17" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Y17" t="n">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="Z17" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA17" t="n">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="AB17" t="n">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AC17" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AD17" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AE17" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF17" t="n">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="AG17" t="n">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="AH17" t="n">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="AI17" t="n">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="AJ17" t="n">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="AK17" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL17" t="n">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="AM17" t="n">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="AN17" t="n">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="AO17" t="n">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="AP17" t="n">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="AQ17" t="n">
-        <v>519</v>
+        <v>558</v>
       </c>
       <c r="AR17" t="n">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="AS17" t="n">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="AT17" t="n">
-        <v>667</v>
+        <v>636</v>
       </c>
       <c r="AU17" t="n">
-        <v>730</v>
+        <v>695</v>
       </c>
       <c r="AV17" t="n">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="AW17" t="n">
-        <v>735</v>
+        <v>829</v>
       </c>
       <c r="AX17" t="n">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="AY17" t="n">
-        <v>908</v>
+        <v>857</v>
       </c>
       <c r="AZ17" t="n">
-        <v>945</v>
+        <v>919</v>
       </c>
       <c r="BA17" t="n">
-        <v>971</v>
+        <v>987</v>
       </c>
       <c r="BB17" t="n">
-        <v>970</v>
+        <v>987</v>
       </c>
       <c r="BC17" t="n">
-        <v>959</v>
+        <v>976</v>
       </c>
       <c r="BD17" t="n">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="BE17" t="n">
-        <v>1128</v>
+        <v>1001</v>
       </c>
       <c r="BF17" t="n">
-        <v>1171</v>
+        <v>1106</v>
       </c>
       <c r="BG17" t="n">
-        <v>1218</v>
+        <v>1301</v>
       </c>
       <c r="BH17" t="n">
-        <v>1193</v>
+        <v>1303</v>
       </c>
       <c r="BI17" t="n">
-        <v>1254</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="18">
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -3634,70 +3634,70 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>3</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
@@ -3709,82 +3709,82 @@
         <v>1</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18" t="n">
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD18" t="n">
         <v>1</v>
       </c>
       <c r="BE18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BF18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3794,16 +3794,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>4</v>
@@ -3812,166 +3812,166 @@
         <v>5</v>
       </c>
       <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>8</v>
+      </c>
+      <c r="N19" t="n">
+        <v>12</v>
+      </c>
+      <c r="O19" t="n">
         <v>3</v>
       </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>10</v>
-      </c>
-      <c r="M19" t="n">
-        <v>10</v>
-      </c>
-      <c r="N19" t="n">
-        <v>11</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>9</v>
+      </c>
+      <c r="R19" t="n">
         <v>7</v>
       </c>
-      <c r="P19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>6</v>
-      </c>
-      <c r="R19" t="n">
-        <v>10</v>
-      </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="U19" t="n">
         <v>10</v>
       </c>
       <c r="V19" t="n">
+        <v>3</v>
+      </c>
+      <c r="W19" t="n">
+        <v>12</v>
+      </c>
+      <c r="X19" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>5</v>
       </c>
-      <c r="W19" t="n">
-        <v>6</v>
-      </c>
-      <c r="X19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AK19" t="n">
         <v>12</v>
       </c>
-      <c r="AA19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC19" t="n">
+      <c r="AL19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP19" t="n">
         <v>14</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>13</v>
       </c>
       <c r="AR19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB19" t="n">
         <v>13</v>
       </c>
-      <c r="AS19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT19" t="n">
+      <c r="BC19" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD19" t="n">
         <v>14</v>
       </c>
-      <c r="AU19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>16</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>15</v>
-      </c>
       <c r="BE19" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>22</v>
+      </c>
+      <c r="BG19" t="n">
         <v>25</v>
       </c>
-      <c r="BF19" t="n">
-        <v>16</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>14</v>
-      </c>
       <c r="BH19" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="BI19" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -3981,184 +3981,184 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
+        <v>13</v>
+      </c>
+      <c r="D20" t="n">
         <v>9</v>
       </c>
-      <c r="D20" t="n">
-        <v>6</v>
-      </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
         <v>16</v>
       </c>
       <c r="G20" t="n">
+        <v>15</v>
+      </c>
+      <c r="H20" t="n">
+        <v>14</v>
+      </c>
+      <c r="I20" t="n">
         <v>17</v>
       </c>
-      <c r="H20" t="n">
-        <v>31</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K20" t="n">
+        <v>17</v>
+      </c>
+      <c r="L20" t="n">
+        <v>26</v>
+      </c>
+      <c r="M20" t="n">
+        <v>26</v>
+      </c>
+      <c r="N20" t="n">
+        <v>29</v>
+      </c>
+      <c r="O20" t="n">
         <v>32</v>
-      </c>
-      <c r="J20" t="n">
-        <v>17</v>
-      </c>
-      <c r="K20" t="n">
-        <v>14</v>
-      </c>
-      <c r="L20" t="n">
-        <v>24</v>
-      </c>
-      <c r="M20" t="n">
-        <v>29</v>
-      </c>
-      <c r="N20" t="n">
-        <v>24</v>
-      </c>
-      <c r="O20" t="n">
-        <v>21</v>
       </c>
       <c r="P20" t="n">
         <v>36</v>
       </c>
       <c r="Q20" t="n">
+        <v>29</v>
+      </c>
+      <c r="R20" t="n">
+        <v>32</v>
+      </c>
+      <c r="S20" t="n">
+        <v>35</v>
+      </c>
+      <c r="T20" t="n">
+        <v>26</v>
+      </c>
+      <c r="U20" t="n">
+        <v>32</v>
+      </c>
+      <c r="V20" t="n">
+        <v>36</v>
+      </c>
+      <c r="W20" t="n">
         <v>33</v>
       </c>
-      <c r="R20" t="n">
+      <c r="X20" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>56</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>64</v>
+      </c>
+      <c r="AG20" t="n">
         <v>38</v>
       </c>
-      <c r="S20" t="n">
-        <v>29</v>
-      </c>
-      <c r="T20" t="n">
-        <v>30</v>
-      </c>
-      <c r="U20" t="n">
-        <v>27</v>
-      </c>
-      <c r="V20" t="n">
-        <v>28</v>
-      </c>
-      <c r="W20" t="n">
-        <v>38</v>
-      </c>
-      <c r="X20" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y20" t="n">
+      <c r="AH20" t="n">
+        <v>66</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>56</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM20" t="n">
         <v>40</v>
       </c>
-      <c r="Z20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AN20" t="n">
         <v>55</v>
       </c>
-      <c r="AC20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>43</v>
-      </c>
-      <c r="AE20" t="n">
+      <c r="AO20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP20" t="n">
         <v>48</v>
       </c>
-      <c r="AF20" t="n">
-        <v>39</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="n">
+      <c r="AQ20" t="n">
+        <v>47</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>58</v>
+      </c>
+      <c r="AU20" t="n">
         <v>59</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AV20" t="n">
+        <v>66</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>53</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>56</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>49</v>
+      </c>
+      <c r="BB20" t="n">
         <v>59</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>53</v>
-      </c>
-      <c r="AK20" t="n">
+      <c r="BC20" t="n">
+        <v>57</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>74</v>
+      </c>
+      <c r="BE20" t="n">
         <v>51</v>
       </c>
-      <c r="AL20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>53</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>73</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="BF20" t="n">
+        <v>59</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>74</v>
+      </c>
+      <c r="BH20" t="n">
         <v>58</v>
       </c>
-      <c r="AS20" t="n">
-        <v>54</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>49</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>52</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>49</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>63</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>61</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>61</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>52</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>59</v>
-      </c>
-      <c r="BD20" t="n">
+      <c r="BI20" t="n">
         <v>67</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>71</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>58</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>64</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>52</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>66</v>
       </c>
     </row>
     <row r="21">
@@ -4204,148 +4204,148 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O21" t="n">
         <v>31</v>
       </c>
       <c r="P21" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R21" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S21" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="T21" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U21" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="V21" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W21" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X21" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="Z21" t="n">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="AA21" t="n">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AB21" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AC21" t="n">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="AD21" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AE21" t="n">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AF21" t="n">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="n">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="AH21" t="n">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="AI21" t="n">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="AJ21" t="n">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AK21" t="n">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AL21" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AM21" t="n">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="AN21" t="n">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="AO21" t="n">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="AP21" t="n">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="AQ21" t="n">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="AR21" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AS21" t="n">
-        <v>552</v>
+        <v>525</v>
       </c>
       <c r="AT21" t="n">
-        <v>605</v>
+        <v>553</v>
       </c>
       <c r="AU21" t="n">
-        <v>664</v>
+        <v>613</v>
       </c>
       <c r="AV21" t="n">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="AW21" t="n">
-        <v>669</v>
+        <v>733</v>
       </c>
       <c r="AX21" t="n">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="AY21" t="n">
-        <v>828</v>
+        <v>784</v>
       </c>
       <c r="AZ21" t="n">
-        <v>876</v>
+        <v>851</v>
       </c>
       <c r="BA21" t="n">
-        <v>893</v>
+        <v>916</v>
       </c>
       <c r="BB21" t="n">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="BC21" t="n">
-        <v>885</v>
+        <v>901</v>
       </c>
       <c r="BD21" t="n">
-        <v>948</v>
+        <v>923</v>
       </c>
       <c r="BE21" t="n">
-        <v>1029</v>
+        <v>931</v>
       </c>
       <c r="BF21" t="n">
-        <v>1097</v>
+        <v>1021</v>
       </c>
       <c r="BG21" t="n">
-        <v>1140</v>
+        <v>1201</v>
       </c>
       <c r="BH21" t="n">
-        <v>1115</v>
+        <v>1224</v>
       </c>
       <c r="BI21" t="n">
-        <v>1173</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="22">
@@ -4355,184 +4355,184 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111600</v>
+        <v>129600</v>
       </c>
       <c r="C22" t="n">
-        <v>126000</v>
+        <v>122400</v>
       </c>
       <c r="D22" t="n">
-        <v>140400</v>
+        <v>115200</v>
       </c>
       <c r="E22" t="n">
-        <v>151200</v>
+        <v>154800</v>
       </c>
       <c r="F22" t="n">
         <v>226800</v>
       </c>
       <c r="G22" t="n">
-        <v>198000</v>
+        <v>205200</v>
       </c>
       <c r="H22" t="n">
-        <v>259200</v>
+        <v>241200</v>
       </c>
       <c r="I22" t="n">
-        <v>324000</v>
+        <v>270000</v>
       </c>
       <c r="J22" t="n">
-        <v>280800</v>
+        <v>273600</v>
       </c>
       <c r="K22" t="n">
-        <v>295200</v>
+        <v>291600</v>
       </c>
       <c r="L22" t="n">
-        <v>338400</v>
+        <v>345600</v>
       </c>
       <c r="M22" t="n">
-        <v>392400</v>
+        <v>396000</v>
       </c>
       <c r="N22" t="n">
-        <v>540000</v>
+        <v>612000</v>
       </c>
       <c r="O22" t="n">
-        <v>576000</v>
+        <v>543600</v>
       </c>
       <c r="P22" t="n">
+        <v>572400</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>565200</v>
+      </c>
+      <c r="R22" t="n">
         <v>604800</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="S22" t="n">
         <v>615600</v>
       </c>
-      <c r="R22" t="n">
-        <v>698400</v>
-      </c>
-      <c r="S22" t="n">
-        <v>651600</v>
-      </c>
       <c r="T22" t="n">
-        <v>759600</v>
+        <v>702000</v>
       </c>
       <c r="U22" t="n">
-        <v>741600</v>
+        <v>662400</v>
       </c>
       <c r="V22" t="n">
-        <v>712800</v>
+        <v>716400</v>
       </c>
       <c r="W22" t="n">
-        <v>799200</v>
+        <v>802800</v>
       </c>
       <c r="X22" t="n">
         <v>856800</v>
       </c>
       <c r="Y22" t="n">
-        <v>925200</v>
+        <v>907200</v>
       </c>
       <c r="Z22" t="n">
-        <v>1220400</v>
+        <v>1260000</v>
       </c>
       <c r="AA22" t="n">
-        <v>1216800</v>
+        <v>1231200</v>
       </c>
       <c r="AB22" t="n">
-        <v>1213200</v>
+        <v>1299600</v>
       </c>
       <c r="AC22" t="n">
-        <v>1314000</v>
+        <v>1357200</v>
       </c>
       <c r="AD22" t="n">
-        <v>1483200</v>
+        <v>1454400</v>
       </c>
       <c r="AE22" t="n">
-        <v>1389600</v>
+        <v>1407600</v>
       </c>
       <c r="AF22" t="n">
-        <v>1562400</v>
+        <v>1587600</v>
       </c>
       <c r="AG22" t="n">
-        <v>1555200</v>
+        <v>1468800</v>
       </c>
       <c r="AH22" t="n">
-        <v>1692000</v>
+        <v>1612800</v>
       </c>
       <c r="AI22" t="n">
-        <v>1864800</v>
+        <v>1634400</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1850400</v>
+        <v>1702800</v>
       </c>
       <c r="AK22" t="n">
-        <v>1897200</v>
+        <v>1965600</v>
       </c>
       <c r="AL22" t="n">
+        <v>2217600</v>
+      </c>
+      <c r="AM22" t="n">
         <v>2210400</v>
       </c>
-      <c r="AM22" t="n">
-        <v>2260800</v>
-      </c>
       <c r="AN22" t="n">
-        <v>2275200</v>
+        <v>2473200</v>
       </c>
       <c r="AO22" t="n">
-        <v>2318400</v>
+        <v>2530800</v>
       </c>
       <c r="AP22" t="n">
-        <v>2433600</v>
+        <v>2559600</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2466000</v>
+        <v>2545200</v>
       </c>
       <c r="AR22" t="n">
-        <v>2671200</v>
+        <v>2721600</v>
       </c>
       <c r="AS22" t="n">
-        <v>2779200</v>
+        <v>2736000</v>
       </c>
       <c r="AT22" t="n">
-        <v>2941200</v>
+        <v>2844000</v>
       </c>
       <c r="AU22" t="n">
-        <v>3211200</v>
+        <v>3139200</v>
       </c>
       <c r="AV22" t="n">
-        <v>3200400</v>
+        <v>3380400</v>
       </c>
       <c r="AW22" t="n">
-        <v>3319200</v>
+        <v>3524400</v>
       </c>
       <c r="AX22" t="n">
-        <v>3736800</v>
+        <v>3780000</v>
       </c>
       <c r="AY22" t="n">
-        <v>3898800</v>
+        <v>3693600</v>
       </c>
       <c r="AZ22" t="n">
-        <v>4028400</v>
+        <v>3924000</v>
       </c>
       <c r="BA22" t="n">
-        <v>4140000</v>
+        <v>4071600</v>
       </c>
       <c r="BB22" t="n">
-        <v>4086000</v>
+        <v>4104000</v>
       </c>
       <c r="BC22" t="n">
-        <v>4039200</v>
+        <v>4068000</v>
       </c>
       <c r="BD22" t="n">
-        <v>4323600</v>
+        <v>4176000</v>
       </c>
       <c r="BE22" t="n">
-        <v>4690800</v>
+        <v>4204800</v>
       </c>
       <c r="BF22" t="n">
-        <v>4946400</v>
+        <v>4611600</v>
       </c>
       <c r="BG22" t="n">
-        <v>4996800</v>
+        <v>5299200</v>
       </c>
       <c r="BH22" t="n">
-        <v>4867200</v>
+        <v>5374800</v>
       </c>
       <c r="BI22" t="n">
-        <v>5065200</v>
+        <v>5554800</v>
       </c>
     </row>
     <row r="23">
@@ -4542,184 +4542,184 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>731865.6</v>
+        <v>572265.6</v>
       </c>
       <c r="C23" t="n">
-        <v>813628.7999999999</v>
+        <v>810143.9999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>690537.6000000001</v>
+        <v>623145.5999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>760531.2000000007</v>
+        <v>1182297.6</v>
       </c>
       <c r="F23" t="n">
-        <v>1089724.8</v>
+        <v>1208889.6</v>
       </c>
       <c r="G23" t="n">
-        <v>1405660.8</v>
+        <v>1339238.399999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1459583.999999999</v>
+        <v>1294051.199999998</v>
       </c>
       <c r="I23" t="n">
-        <v>1814783.999999999</v>
+        <v>1502534.400000002</v>
       </c>
       <c r="J23" t="n">
-        <v>1649769.599999996</v>
+        <v>1813583.999999991</v>
       </c>
       <c r="K23" t="n">
-        <v>1546531.199999996</v>
+        <v>1548528.000000002</v>
       </c>
       <c r="L23" t="n">
-        <v>2187964.799999999</v>
+        <v>2004518.400000002</v>
       </c>
       <c r="M23" t="n">
-        <v>1966089.599999996</v>
+        <v>2517446.400000008</v>
       </c>
       <c r="N23" t="n">
-        <v>3299548.800000001</v>
+        <v>4067615.999999994</v>
       </c>
       <c r="O23" t="n">
-        <v>3424848.000000019</v>
+        <v>3504383.999999981</v>
       </c>
       <c r="P23" t="n">
-        <v>4071321.599999983</v>
+        <v>3768115.199999988</v>
       </c>
       <c r="Q23" t="n">
-        <v>3411456.000000007</v>
+        <v>3486028.800000008</v>
       </c>
       <c r="R23" t="n">
-        <v>4927161.60000002</v>
+        <v>4003411.200000025</v>
       </c>
       <c r="S23" t="n">
-        <v>4127750.399999999</v>
+        <v>4130121.600000031</v>
       </c>
       <c r="T23" t="n">
-        <v>5054025.599999942</v>
+        <v>4946764.79999999</v>
       </c>
       <c r="U23" t="n">
-        <v>4768099.200000025</v>
+        <v>4449619.199999951</v>
       </c>
       <c r="V23" t="n">
-        <v>4935811.20000004</v>
+        <v>4576492.800000027</v>
       </c>
       <c r="W23" t="n">
-        <v>5507788.800000012</v>
+        <v>5766259.20000001</v>
       </c>
       <c r="X23" t="n">
-        <v>5847955.199999973</v>
+        <v>6225215.999999993</v>
       </c>
       <c r="Y23" t="n">
-        <v>5871148.800000027</v>
+        <v>6351782.400000036</v>
       </c>
       <c r="Z23" t="n">
-        <v>8790604.799999997</v>
+        <v>9189321.600000158</v>
       </c>
       <c r="AA23" t="n">
-        <v>9244799.99999994</v>
+        <v>8661580.800000101</v>
       </c>
       <c r="AB23" t="n">
-        <v>8848732.800000072</v>
+        <v>9587251.199999869</v>
       </c>
       <c r="AC23" t="n">
-        <v>8736700.800000042</v>
+        <v>10109894.39999992</v>
       </c>
       <c r="AD23" t="n">
-        <v>10977523.19999997</v>
+        <v>10358611.19999991</v>
       </c>
       <c r="AE23" t="n">
-        <v>10451097.59999999</v>
+        <v>10192483.20000002</v>
       </c>
       <c r="AF23" t="n">
-        <v>11561193.59999998</v>
+        <v>12180681.60000029</v>
       </c>
       <c r="AG23" t="n">
-        <v>11116857.60000014</v>
+        <v>11215689.6000002</v>
       </c>
       <c r="AH23" t="n">
-        <v>12493756.79999983</v>
+        <v>11951788.79999977</v>
       </c>
       <c r="AI23" t="n">
-        <v>14675039.99999988</v>
+        <v>12753100.79999986</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14179891.19999996</v>
+        <v>13197398.39999998</v>
       </c>
       <c r="AK23" t="n">
-        <v>14131987.19999963</v>
+        <v>15324028.8000004</v>
       </c>
       <c r="AL23" t="n">
-        <v>16988131.1999996</v>
+        <v>17604191.9999994</v>
       </c>
       <c r="AM23" t="n">
-        <v>17336121.60000011</v>
+        <v>16533311.99999985</v>
       </c>
       <c r="AN23" t="n">
-        <v>17325398.3999998</v>
+        <v>19584729.60000056</v>
       </c>
       <c r="AO23" t="n">
-        <v>17226470.40000021</v>
+        <v>20356886.40000051</v>
       </c>
       <c r="AP23" t="n">
-        <v>18828086.40000033</v>
+        <v>20631734.40000039</v>
       </c>
       <c r="AQ23" t="n">
-        <v>19755215.99999976</v>
+        <v>20291491.20000005</v>
       </c>
       <c r="AR23" t="n">
-        <v>21576739.19999999</v>
+        <v>22756396.79999989</v>
       </c>
       <c r="AS23" t="n">
-        <v>21033033.59999996</v>
+        <v>21415295.99999994</v>
       </c>
       <c r="AT23" t="n">
-        <v>24298953.59999931</v>
+        <v>22152950.4000001</v>
       </c>
       <c r="AU23" t="n">
-        <v>26722128.00000101</v>
+        <v>25502659.19999963</v>
       </c>
       <c r="AV23" t="n">
-        <v>25933996.79999965</v>
+        <v>26636169.60000086</v>
       </c>
       <c r="AW23" t="n">
-        <v>25886265.60000038</v>
+        <v>29150198.39999944</v>
       </c>
       <c r="AX23" t="n">
-        <v>30251078.40000015</v>
+        <v>31520707.19999802</v>
       </c>
       <c r="AY23" t="n">
-        <v>30882825.60000032</v>
+        <v>29845132.79999995</v>
       </c>
       <c r="AZ23" t="n">
-        <v>32311363.20000046</v>
+        <v>32560540.79999757</v>
       </c>
       <c r="BA23" t="n">
-        <v>31692796.80000055</v>
+        <v>34027315.20000064</v>
       </c>
       <c r="BB23" t="n">
-        <v>32834457.59999955</v>
+        <v>34064495.99999952</v>
       </c>
       <c r="BC23" t="n">
-        <v>33740016.00000179</v>
+        <v>33420912.00000298</v>
       </c>
       <c r="BD23" t="n">
-        <v>35555923.19999897</v>
+        <v>35944108.7999984</v>
       </c>
       <c r="BE23" t="n">
-        <v>37322092.80000091</v>
+        <v>33938169.59999704</v>
       </c>
       <c r="BF23" t="n">
-        <v>41048140.80000246</v>
+        <v>36670204.80000496</v>
       </c>
       <c r="BG23" t="n">
-        <v>42252940.79999924</v>
+        <v>45499603.20000196</v>
       </c>
       <c r="BH23" t="n">
-        <v>40515974.40000081</v>
+        <v>44340441.60000157</v>
       </c>
       <c r="BI23" t="n">
-        <v>41965718.40000331</v>
+        <v>47023737.59999776</v>
       </c>
     </row>
     <row r="24">
@@ -4732,181 +4732,181 @@
         <v>18000</v>
       </c>
       <c r="C24" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D24" t="n">
         <v>22000</v>
       </c>
-      <c r="D24" t="n">
-        <v>12000</v>
-      </c>
       <c r="E24" t="n">
-        <v>22000</v>
+        <v>36000</v>
       </c>
       <c r="F24" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32000</v>
+      </c>
+      <c r="I24" t="n">
         <v>42000</v>
       </c>
-      <c r="G24" t="n">
-        <v>44000</v>
-      </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
+        <v>56000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>62000</v>
+      </c>
+      <c r="M24" t="n">
         <v>68000</v>
       </c>
-      <c r="I24" t="n">
-        <v>70000</v>
-      </c>
-      <c r="J24" t="n">
-        <v>46000</v>
-      </c>
-      <c r="K24" t="n">
-        <v>38000</v>
-      </c>
-      <c r="L24" t="n">
-        <v>74000</v>
-      </c>
-      <c r="M24" t="n">
-        <v>78000</v>
-      </c>
       <c r="N24" t="n">
+        <v>148000</v>
+      </c>
+      <c r="O24" t="n">
         <v>134000</v>
       </c>
-      <c r="O24" t="n">
-        <v>118000</v>
-      </c>
       <c r="P24" t="n">
-        <v>164000</v>
+        <v>156000</v>
       </c>
       <c r="Q24" t="n">
-        <v>150000</v>
+        <v>146000</v>
       </c>
       <c r="R24" t="n">
-        <v>200000</v>
+        <v>182000</v>
       </c>
       <c r="S24" t="n">
-        <v>164000</v>
+        <v>174000</v>
       </c>
       <c r="T24" t="n">
-        <v>202000</v>
+        <v>192000</v>
       </c>
       <c r="U24" t="n">
-        <v>220000</v>
+        <v>196000</v>
       </c>
       <c r="V24" t="n">
-        <v>194000</v>
+        <v>214000</v>
       </c>
       <c r="W24" t="n">
-        <v>232000</v>
+        <v>230000</v>
       </c>
       <c r="X24" t="n">
-        <v>268000</v>
+        <v>258000</v>
       </c>
       <c r="Y24" t="n">
-        <v>292000</v>
+        <v>282000</v>
       </c>
       <c r="Z24" t="n">
-        <v>428000</v>
+        <v>430000</v>
       </c>
       <c r="AA24" t="n">
-        <v>478000</v>
+        <v>446000</v>
       </c>
       <c r="AB24" t="n">
-        <v>470000</v>
+        <v>486000</v>
       </c>
       <c r="AC24" t="n">
-        <v>452000</v>
+        <v>468000</v>
       </c>
       <c r="AD24" t="n">
-        <v>546000</v>
+        <v>552000</v>
       </c>
       <c r="AE24" t="n">
-        <v>522000</v>
+        <v>524000</v>
       </c>
       <c r="AF24" t="n">
-        <v>572000</v>
+        <v>598000</v>
       </c>
       <c r="AG24" t="n">
-        <v>596000</v>
+        <v>564000</v>
       </c>
       <c r="AH24" t="n">
-        <v>634000</v>
+        <v>612000</v>
       </c>
       <c r="AI24" t="n">
-        <v>698000</v>
+        <v>610000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>720000</v>
+        <v>684000</v>
       </c>
       <c r="AK24" t="n">
-        <v>770000</v>
+        <v>772000</v>
       </c>
       <c r="AL24" t="n">
-        <v>958000</v>
+        <v>930000</v>
       </c>
       <c r="AM24" t="n">
-        <v>964000</v>
+        <v>896000</v>
       </c>
       <c r="AN24" t="n">
-        <v>960000</v>
+        <v>1034000</v>
       </c>
       <c r="AO24" t="n">
-        <v>978000</v>
+        <v>1100000</v>
       </c>
       <c r="AP24" t="n">
-        <v>1078000</v>
+        <v>1128000</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1038000</v>
+        <v>1116000</v>
       </c>
       <c r="AR24" t="n">
-        <v>1212000</v>
+        <v>1192000</v>
       </c>
       <c r="AS24" t="n">
-        <v>1248000</v>
+        <v>1214000</v>
       </c>
       <c r="AT24" t="n">
-        <v>1334000</v>
+        <v>1272000</v>
       </c>
       <c r="AU24" t="n">
-        <v>1460000</v>
+        <v>1390000</v>
       </c>
       <c r="AV24" t="n">
-        <v>1448000</v>
+        <v>1466000</v>
       </c>
       <c r="AW24" t="n">
-        <v>1470000</v>
+        <v>1658000</v>
       </c>
       <c r="AX24" t="n">
-        <v>1770000</v>
+        <v>1752000</v>
       </c>
       <c r="AY24" t="n">
-        <v>1816000</v>
+        <v>1714000</v>
       </c>
       <c r="AZ24" t="n">
-        <v>1890000</v>
+        <v>1838000</v>
       </c>
       <c r="BA24" t="n">
-        <v>1942000</v>
+        <v>1974000</v>
       </c>
       <c r="BB24" t="n">
-        <v>1940000</v>
+        <v>1974000</v>
       </c>
       <c r="BC24" t="n">
-        <v>1918000</v>
+        <v>1952000</v>
       </c>
       <c r="BD24" t="n">
-        <v>2062000</v>
+        <v>2024000</v>
       </c>
       <c r="BE24" t="n">
-        <v>2256000</v>
+        <v>2002000</v>
       </c>
       <c r="BF24" t="n">
-        <v>2342000</v>
+        <v>2212000</v>
       </c>
       <c r="BG24" t="n">
-        <v>2436000</v>
+        <v>2602000</v>
       </c>
       <c r="BH24" t="n">
-        <v>2386000</v>
+        <v>2606000</v>
       </c>
       <c r="BI24" t="n">
-        <v>2508000</v>
+        <v>2706000</v>
       </c>
     </row>
     <row r="25">
@@ -4916,184 +4916,184 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>861465.6</v>
+        <v>719865.6</v>
       </c>
       <c r="C25" t="n">
-        <v>961628.7999999999</v>
+        <v>962543.9999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>842937.6000000001</v>
+        <v>760345.5999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>933731.2000000007</v>
+        <v>1373097.6</v>
       </c>
       <c r="F25" t="n">
-        <v>1358524.8</v>
+        <v>1475689.6</v>
       </c>
       <c r="G25" t="n">
-        <v>1647660.8</v>
+        <v>1584438.399999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1786783.999999999</v>
+        <v>1567251.199999998</v>
       </c>
       <c r="I25" t="n">
-        <v>2208783.999999999</v>
+        <v>1814534.400000002</v>
       </c>
       <c r="J25" t="n">
-        <v>1976569.599999996</v>
+        <v>2143183.999999991</v>
       </c>
       <c r="K25" t="n">
-        <v>1879731.199999996</v>
+        <v>1890128.000000002</v>
       </c>
       <c r="L25" t="n">
-        <v>2600364.799999999</v>
+        <v>2412118.400000002</v>
       </c>
       <c r="M25" t="n">
-        <v>2436489.599999996</v>
+        <v>2981446.400000008</v>
       </c>
       <c r="N25" t="n">
-        <v>3973548.800000001</v>
+        <v>4827615.999999994</v>
       </c>
       <c r="O25" t="n">
-        <v>4118848.000000019</v>
+        <v>4181983.999999981</v>
       </c>
       <c r="P25" t="n">
-        <v>4840121.599999983</v>
+        <v>4496515.199999988</v>
       </c>
       <c r="Q25" t="n">
-        <v>4177056.000000007</v>
+        <v>4197228.800000008</v>
       </c>
       <c r="R25" t="n">
-        <v>5825561.60000002</v>
+        <v>4790211.200000025</v>
       </c>
       <c r="S25" t="n">
-        <v>4943350.399999999</v>
+        <v>4919721.600000031</v>
       </c>
       <c r="T25" t="n">
-        <v>6015625.599999942</v>
+        <v>5840764.79999999</v>
       </c>
       <c r="U25" t="n">
-        <v>5729699.200000025</v>
+        <v>5308019.199999951</v>
       </c>
       <c r="V25" t="n">
-        <v>5842611.20000004</v>
+        <v>5506892.800000027</v>
       </c>
       <c r="W25" t="n">
-        <v>6538988.800000012</v>
+        <v>6799059.20000001</v>
       </c>
       <c r="X25" t="n">
-        <v>6972755.199999973</v>
+        <v>7340015.999999993</v>
       </c>
       <c r="Y25" t="n">
-        <v>7088348.800000027</v>
+        <v>7540982.400000036</v>
       </c>
       <c r="Z25" t="n">
-        <v>10439004.8</v>
+        <v>10879321.60000016</v>
       </c>
       <c r="AA25" t="n">
-        <v>10939599.99999994</v>
+        <v>10338780.8000001</v>
       </c>
       <c r="AB25" t="n">
-        <v>10531932.80000007</v>
+        <v>11372851.19999987</v>
       </c>
       <c r="AC25" t="n">
-        <v>10502700.80000004</v>
+        <v>11935094.39999992</v>
       </c>
       <c r="AD25" t="n">
-        <v>13006723.19999997</v>
+        <v>12365011.19999991</v>
       </c>
       <c r="AE25" t="n">
-        <v>12362697.59999999</v>
+        <v>12124083.20000002</v>
       </c>
       <c r="AF25" t="n">
-        <v>13695593.59999998</v>
+        <v>14366281.60000029</v>
       </c>
       <c r="AG25" t="n">
-        <v>13268057.60000014</v>
+        <v>13248489.6000002</v>
       </c>
       <c r="AH25" t="n">
-        <v>14819756.79999983</v>
+        <v>14176588.79999977</v>
       </c>
       <c r="AI25" t="n">
-        <v>17237839.99999988</v>
+        <v>14997500.79999986</v>
       </c>
       <c r="AJ25" t="n">
-        <v>16750291.19999996</v>
+        <v>15584198.39999998</v>
       </c>
       <c r="AK25" t="n">
-        <v>16799187.19999963</v>
+        <v>18061628.8000004</v>
       </c>
       <c r="AL25" t="n">
-        <v>20156531.1999996</v>
+        <v>20751791.9999994</v>
       </c>
       <c r="AM25" t="n">
-        <v>20560921.60000011</v>
+        <v>19639711.99999985</v>
       </c>
       <c r="AN25" t="n">
-        <v>20560598.3999998</v>
+        <v>23091929.60000056</v>
       </c>
       <c r="AO25" t="n">
-        <v>20522870.40000021</v>
+        <v>23987686.40000051</v>
       </c>
       <c r="AP25" t="n">
-        <v>22339686.40000033</v>
+        <v>24319334.40000039</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23259215.99999976</v>
+        <v>23952691.20000005</v>
       </c>
       <c r="AR25" t="n">
-        <v>25459939.19999999</v>
+        <v>26669996.79999989</v>
       </c>
       <c r="AS25" t="n">
-        <v>25060233.59999996</v>
+        <v>25365295.99999994</v>
       </c>
       <c r="AT25" t="n">
-        <v>28574153.59999931</v>
+        <v>26268950.4000001</v>
       </c>
       <c r="AU25" t="n">
-        <v>31393328.00000101</v>
+        <v>30031859.19999963</v>
       </c>
       <c r="AV25" t="n">
-        <v>30582396.79999965</v>
+        <v>31482569.60000086</v>
       </c>
       <c r="AW25" t="n">
-        <v>30675465.60000038</v>
+        <v>34332598.39999944</v>
       </c>
       <c r="AX25" t="n">
-        <v>35757878.40000015</v>
+        <v>37052707.19999802</v>
       </c>
       <c r="AY25" t="n">
-        <v>36597625.60000032</v>
+        <v>35252732.79999995</v>
       </c>
       <c r="AZ25" t="n">
-        <v>38229763.20000046</v>
+        <v>38322540.79999757</v>
       </c>
       <c r="BA25" t="n">
-        <v>37774796.80000055</v>
+        <v>40072915.20000064</v>
       </c>
       <c r="BB25" t="n">
-        <v>38860457.59999955</v>
+        <v>40142495.99999952</v>
       </c>
       <c r="BC25" t="n">
-        <v>39697216.00000179</v>
+        <v>39440912.00000298</v>
       </c>
       <c r="BD25" t="n">
-        <v>41941523.19999897</v>
+        <v>42144108.7999984</v>
       </c>
       <c r="BE25" t="n">
-        <v>44268892.80000091</v>
+        <v>40144969.59999704</v>
       </c>
       <c r="BF25" t="n">
-        <v>48336540.80000246</v>
+        <v>43493804.80000496</v>
       </c>
       <c r="BG25" t="n">
-        <v>49685740.79999924</v>
+        <v>53400803.20000196</v>
       </c>
       <c r="BH25" t="n">
-        <v>47769174.40000081</v>
+        <v>52321241.60000157</v>
       </c>
       <c r="BI25" t="n">
-        <v>49538918.40000331</v>
+        <v>55284537.59999776</v>
       </c>
     </row>
     <row r="26">
@@ -5290,16 +5290,16 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="n">
         <v>3</v>
       </c>
-      <c r="C27" t="n">
-        <v>4</v>
-      </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>4</v>
@@ -5311,7 +5311,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
         <v>5</v>
@@ -5341,52 +5341,52 @@
         <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI27" t="n">
         <v>8</v>
@@ -5401,73 +5401,73 @@
         <v>8</v>
       </c>
       <c r="AM27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AT27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BE27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BG27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BH27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -5507,7 +5507,7 @@
         <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
@@ -5522,31 +5522,31 @@
         <v>5</v>
       </c>
       <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
         <v>6</v>
       </c>
-      <c r="R28" t="n">
+      <c r="W28" t="n">
         <v>6</v>
       </c>
-      <c r="S28" t="n">
+      <c r="X28" t="n">
         <v>6</v>
       </c>
-      <c r="T28" t="n">
-        <v>7</v>
-      </c>
-      <c r="U28" t="n">
-        <v>7</v>
-      </c>
-      <c r="V28" t="n">
-        <v>7</v>
-      </c>
-      <c r="W28" t="n">
-        <v>7</v>
-      </c>
-      <c r="X28" t="n">
-        <v>7</v>
-      </c>
       <c r="Y28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z28" t="n">
         <v>7</v>
@@ -5561,22 +5561,22 @@
         <v>7</v>
       </c>
       <c r="AD28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG28" t="n">
         <v>8</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AH28" t="n">
         <v>8</v>
       </c>
-      <c r="AF28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>9</v>
-      </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
         <v>9</v>
@@ -5591,37 +5591,37 @@
         <v>9</v>
       </c>
       <c r="AN28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY28" t="n">
         <v>13</v>
@@ -5639,22 +5639,22 @@
         <v>13</v>
       </c>
       <c r="BD28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BE28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BF28" t="n">
         <v>14</v>
       </c>
       <c r="BG28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BH28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>3</v>
@@ -5697,67 +5697,67 @@
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
@@ -5772,76 +5772,76 @@
         <v>6</v>
       </c>
       <c r="AL29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT29" t="n">
         <v>7</v>
       </c>
-      <c r="AM29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN29" t="n">
+      <c r="AU29" t="n">
         <v>8</v>
       </c>
-      <c r="AO29" t="n">
+      <c r="AV29" t="n">
         <v>8</v>
       </c>
-      <c r="AP29" t="n">
+      <c r="AW29" t="n">
         <v>8</v>
       </c>
-      <c r="AQ29" t="n">
+      <c r="AX29" t="n">
         <v>8</v>
       </c>
-      <c r="AR29" t="n">
+      <c r="AY29" t="n">
         <v>8</v>
       </c>
-      <c r="AS29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU29" t="n">
+      <c r="AZ29" t="n">
         <v>9</v>
       </c>
-      <c r="AV29" t="n">
+      <c r="BA29" t="n">
         <v>9</v>
       </c>
-      <c r="AW29" t="n">
+      <c r="BB29" t="n">
         <v>9</v>
       </c>
-      <c r="AX29" t="n">
+      <c r="BC29" t="n">
         <v>9</v>
       </c>
-      <c r="AY29" t="n">
+      <c r="BD29" t="n">
         <v>9</v>
       </c>
-      <c r="AZ29" t="n">
+      <c r="BE29" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF29" t="n">
         <v>10</v>
       </c>
-      <c r="BA29" t="n">
+      <c r="BG29" t="n">
         <v>10</v>
       </c>
-      <c r="BB29" t="n">
+      <c r="BH29" t="n">
         <v>10</v>
       </c>
-      <c r="BC29" t="n">
+      <c r="BI29" t="n">
         <v>10</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>10</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>11</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>11</v>
-      </c>
-      <c r="BH29" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI29" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -5953,10 +5953,10 @@
         <v>1</v>
       </c>
       <c r="AJ30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
         <v>2</v>
@@ -5992,7 +5992,7 @@
         <v>2</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX30" t="n">
         <v>3</v>
@@ -6016,10 +6016,10 @@
         <v>3</v>
       </c>
       <c r="BE30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG30" t="n">
         <v>4</v>
@@ -6038,16 +6038,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
+        <v>12</v>
+      </c>
+      <c r="D31" t="n">
+        <v>12</v>
+      </c>
+      <c r="E31" t="n">
         <v>13</v>
-      </c>
-      <c r="D31" t="n">
-        <v>13</v>
-      </c>
-      <c r="E31" t="n">
-        <v>14</v>
       </c>
       <c r="F31" t="n">
         <v>14</v>
@@ -6059,7 +6059,7 @@
         <v>14</v>
       </c>
       <c r="I31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J31" t="n">
         <v>15</v>
@@ -6068,154 +6068,154 @@
         <v>15</v>
       </c>
       <c r="L31" t="n">
+        <v>15</v>
+      </c>
+      <c r="M31" t="n">
         <v>16</v>
       </c>
-      <c r="M31" t="n">
-        <v>18</v>
-      </c>
       <c r="N31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q31" t="n">
+        <v>16</v>
+      </c>
+      <c r="R31" t="n">
+        <v>16</v>
+      </c>
+      <c r="S31" t="n">
+        <v>17</v>
+      </c>
+      <c r="T31" t="n">
         <v>19</v>
-      </c>
-      <c r="R31" t="n">
-        <v>19</v>
-      </c>
-      <c r="S31" t="n">
-        <v>19</v>
-      </c>
-      <c r="T31" t="n">
-        <v>20</v>
       </c>
       <c r="U31" t="n">
         <v>20</v>
       </c>
       <c r="V31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA31" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AB31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF31" t="n">
         <v>24</v>
       </c>
       <c r="AG31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH31" t="n">
         <v>25</v>
       </c>
       <c r="AI31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>26</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AK31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL31" t="n">
         <v>27</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>28</v>
       </c>
       <c r="AM31" t="n">
         <v>28</v>
       </c>
       <c r="AN31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO31" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AP31" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ31" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AR31" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AS31" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AT31" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AU31" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AV31" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AW31" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AX31" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AY31" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AZ31" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BA31" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BB31" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BC31" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BD31" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BE31" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="BF31" t="n">
         <v>43</v>
       </c>
       <c r="BG31" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BH31" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI31" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -6225,184 +6225,184 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212030</v>
+        <v>163280</v>
       </c>
       <c r="C32" t="n">
-        <v>277095</v>
+        <v>267475</v>
       </c>
       <c r="D32" t="n">
-        <v>274950</v>
+        <v>265005</v>
       </c>
       <c r="E32" t="n">
-        <v>289835</v>
+        <v>281710</v>
       </c>
       <c r="F32" t="n">
-        <v>298480</v>
+        <v>296985</v>
       </c>
       <c r="G32" t="n">
-        <v>296010</v>
+        <v>296985</v>
       </c>
       <c r="H32" t="n">
-        <v>303030</v>
+        <v>297635</v>
       </c>
       <c r="I32" t="n">
-        <v>317460</v>
+        <v>299650</v>
       </c>
       <c r="J32" t="n">
-        <v>312065</v>
+        <v>313625</v>
       </c>
       <c r="K32" t="n">
-        <v>312065</v>
+        <v>314015</v>
       </c>
       <c r="L32" t="n">
-        <v>333840</v>
+        <v>320060</v>
       </c>
       <c r="M32" t="n">
-        <v>417495</v>
+        <v>335205</v>
       </c>
       <c r="N32" t="n">
-        <v>429195</v>
+        <v>357110</v>
       </c>
       <c r="O32" t="n">
-        <v>429260</v>
+        <v>351650</v>
       </c>
       <c r="P32" t="n">
-        <v>438425</v>
+        <v>356265</v>
       </c>
       <c r="Q32" t="n">
-        <v>447460</v>
+        <v>353990</v>
       </c>
       <c r="R32" t="n">
-        <v>458770</v>
+        <v>362505</v>
       </c>
       <c r="S32" t="n">
-        <v>453245</v>
+        <v>373490</v>
       </c>
       <c r="T32" t="n">
-        <v>473915</v>
+        <v>400335</v>
       </c>
       <c r="U32" t="n">
-        <v>479635</v>
+        <v>439465</v>
       </c>
       <c r="V32" t="n">
-        <v>475280</v>
+        <v>457275</v>
       </c>
       <c r="W32" t="n">
-        <v>495560</v>
+        <v>540475</v>
       </c>
       <c r="X32" t="n">
-        <v>500240</v>
+        <v>547690</v>
       </c>
       <c r="Y32" t="n">
-        <v>506675</v>
+        <v>555815</v>
       </c>
       <c r="Z32" t="n">
-        <v>536120</v>
+        <v>599040</v>
       </c>
       <c r="AA32" t="n">
-        <v>543790</v>
+        <v>599885</v>
       </c>
       <c r="AB32" t="n">
-        <v>558220</v>
+        <v>606710</v>
       </c>
       <c r="AC32" t="n">
-        <v>559780</v>
+        <v>610675</v>
       </c>
       <c r="AD32" t="n">
-        <v>595010</v>
+        <v>624780</v>
       </c>
       <c r="AE32" t="n">
-        <v>584025</v>
+        <v>620490</v>
       </c>
       <c r="AF32" t="n">
-        <v>612170</v>
+        <v>637975</v>
       </c>
       <c r="AG32" t="n">
-        <v>614770</v>
+        <v>642200</v>
       </c>
       <c r="AH32" t="n">
-        <v>662935</v>
+        <v>657605</v>
       </c>
       <c r="AI32" t="n">
-        <v>690040</v>
+        <v>659685</v>
       </c>
       <c r="AJ32" t="n">
-        <v>708370</v>
+        <v>686660</v>
       </c>
       <c r="AK32" t="n">
-        <v>718250</v>
+        <v>706095</v>
       </c>
       <c r="AL32" t="n">
-        <v>796315</v>
+        <v>755040</v>
       </c>
       <c r="AM32" t="n">
-        <v>798785</v>
+        <v>761280</v>
       </c>
       <c r="AN32" t="n">
-        <v>837980</v>
+        <v>817635</v>
       </c>
       <c r="AO32" t="n">
-        <v>842400</v>
+        <v>845455</v>
       </c>
       <c r="AP32" t="n">
-        <v>870155</v>
+        <v>849615</v>
       </c>
       <c r="AQ32" t="n">
-        <v>867425</v>
+        <v>851305</v>
       </c>
       <c r="AR32" t="n">
-        <v>911950</v>
+        <v>884130</v>
       </c>
       <c r="AS32" t="n">
-        <v>923910</v>
+        <v>892320</v>
       </c>
       <c r="AT32" t="n">
-        <v>953745</v>
+        <v>951730</v>
       </c>
       <c r="AU32" t="n">
-        <v>1026285</v>
+        <v>1014585</v>
       </c>
       <c r="AV32" t="n">
-        <v>1023880</v>
+        <v>1032330</v>
       </c>
       <c r="AW32" t="n">
-        <v>1043055</v>
+        <v>1092585</v>
       </c>
       <c r="AX32" t="n">
-        <v>1137500</v>
+        <v>1136330</v>
       </c>
       <c r="AY32" t="n">
-        <v>1158365</v>
+        <v>1136655</v>
       </c>
       <c r="AZ32" t="n">
-        <v>1207245</v>
+        <v>1192815</v>
       </c>
       <c r="BA32" t="n">
-        <v>1220700</v>
+        <v>1215045</v>
       </c>
       <c r="BB32" t="n">
-        <v>1225315</v>
+        <v>1219140</v>
       </c>
       <c r="BC32" t="n">
-        <v>1228110</v>
+        <v>1223430</v>
       </c>
       <c r="BD32" t="n">
-        <v>1283100</v>
+        <v>1248585</v>
       </c>
       <c r="BE32" t="n">
-        <v>1378715</v>
+        <v>1240330</v>
       </c>
       <c r="BF32" t="n">
-        <v>1402115</v>
+        <v>1351415</v>
       </c>
       <c r="BG32" t="n">
-        <v>1419405</v>
+        <v>1455610</v>
       </c>
       <c r="BH32" t="n">
-        <v>1412320</v>
+        <v>1461070</v>
       </c>
       <c r="BI32" t="n">
-        <v>1433055</v>
+        <v>1483950</v>
       </c>
     </row>
     <row r="33">
@@ -6412,184 +6412,184 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>89280</v>
+        <v>103680</v>
       </c>
       <c r="C33" t="n">
-        <v>100800</v>
+        <v>97920</v>
       </c>
       <c r="D33" t="n">
-        <v>112320</v>
+        <v>92160</v>
       </c>
       <c r="E33" t="n">
-        <v>120960</v>
+        <v>123840</v>
       </c>
       <c r="F33" t="n">
         <v>181440</v>
       </c>
       <c r="G33" t="n">
-        <v>158400</v>
+        <v>164160</v>
       </c>
       <c r="H33" t="n">
-        <v>207360</v>
+        <v>192960</v>
       </c>
       <c r="I33" t="n">
-        <v>259200</v>
+        <v>216000</v>
       </c>
       <c r="J33" t="n">
-        <v>224640</v>
+        <v>218880</v>
       </c>
       <c r="K33" t="n">
-        <v>236160</v>
+        <v>233280</v>
       </c>
       <c r="L33" t="n">
-        <v>270720</v>
+        <v>276480</v>
       </c>
       <c r="M33" t="n">
-        <v>313920</v>
+        <v>316800</v>
       </c>
       <c r="N33" t="n">
-        <v>432000</v>
+        <v>489600</v>
       </c>
       <c r="O33" t="n">
-        <v>460800</v>
+        <v>434880</v>
       </c>
       <c r="P33" t="n">
+        <v>457920</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>452160</v>
+      </c>
+      <c r="R33" t="n">
         <v>483840</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="S33" t="n">
         <v>492480</v>
       </c>
-      <c r="R33" t="n">
-        <v>558720</v>
-      </c>
-      <c r="S33" t="n">
-        <v>521280</v>
-      </c>
       <c r="T33" t="n">
-        <v>607680</v>
+        <v>561600</v>
       </c>
       <c r="U33" t="n">
-        <v>593280</v>
+        <v>529920</v>
       </c>
       <c r="V33" t="n">
-        <v>570240</v>
+        <v>573120</v>
       </c>
       <c r="W33" t="n">
-        <v>639360</v>
+        <v>642240</v>
       </c>
       <c r="X33" t="n">
         <v>685440</v>
       </c>
       <c r="Y33" t="n">
-        <v>740160</v>
+        <v>725760</v>
       </c>
       <c r="Z33" t="n">
-        <v>976320</v>
+        <v>1008000</v>
       </c>
       <c r="AA33" t="n">
-        <v>973440</v>
+        <v>984960</v>
       </c>
       <c r="AB33" t="n">
-        <v>970560</v>
+        <v>1039680</v>
       </c>
       <c r="AC33" t="n">
-        <v>1051200</v>
+        <v>1085760</v>
       </c>
       <c r="AD33" t="n">
-        <v>1186560</v>
+        <v>1163520</v>
       </c>
       <c r="AE33" t="n">
-        <v>1111680</v>
+        <v>1126080</v>
       </c>
       <c r="AF33" t="n">
-        <v>1249920</v>
+        <v>1270080</v>
       </c>
       <c r="AG33" t="n">
-        <v>1244160</v>
+        <v>1175040</v>
       </c>
       <c r="AH33" t="n">
-        <v>1353600</v>
+        <v>1290240</v>
       </c>
       <c r="AI33" t="n">
-        <v>1491840</v>
+        <v>1307520</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1480320</v>
+        <v>1362240</v>
       </c>
       <c r="AK33" t="n">
-        <v>1517760</v>
+        <v>1572480</v>
       </c>
       <c r="AL33" t="n">
+        <v>1774080</v>
+      </c>
+      <c r="AM33" t="n">
         <v>1768320</v>
       </c>
-      <c r="AM33" t="n">
-        <v>1808640</v>
-      </c>
       <c r="AN33" t="n">
-        <v>1820160</v>
+        <v>1978560</v>
       </c>
       <c r="AO33" t="n">
-        <v>1854720</v>
+        <v>2024640</v>
       </c>
       <c r="AP33" t="n">
-        <v>1946880</v>
+        <v>2047680</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1972800</v>
+        <v>2036160</v>
       </c>
       <c r="AR33" t="n">
-        <v>2136960</v>
+        <v>2177280</v>
       </c>
       <c r="AS33" t="n">
-        <v>2223360</v>
+        <v>2188800</v>
       </c>
       <c r="AT33" t="n">
-        <v>2352960</v>
+        <v>2275200</v>
       </c>
       <c r="AU33" t="n">
-        <v>2568960</v>
+        <v>2511360</v>
       </c>
       <c r="AV33" t="n">
-        <v>2560320</v>
+        <v>2704320</v>
       </c>
       <c r="AW33" t="n">
-        <v>2655360</v>
+        <v>2819520</v>
       </c>
       <c r="AX33" t="n">
-        <v>2989440</v>
+        <v>3024000</v>
       </c>
       <c r="AY33" t="n">
-        <v>3119040</v>
+        <v>2954880</v>
       </c>
       <c r="AZ33" t="n">
-        <v>3222720</v>
+        <v>3139200</v>
       </c>
       <c r="BA33" t="n">
-        <v>3312000</v>
+        <v>3257280</v>
       </c>
       <c r="BB33" t="n">
-        <v>3268800</v>
+        <v>3283200</v>
       </c>
       <c r="BC33" t="n">
-        <v>3231360</v>
+        <v>3254400</v>
       </c>
       <c r="BD33" t="n">
-        <v>3458880</v>
+        <v>3340800</v>
       </c>
       <c r="BE33" t="n">
-        <v>3752640</v>
+        <v>3363840</v>
       </c>
       <c r="BF33" t="n">
-        <v>3957120</v>
+        <v>3689280</v>
       </c>
       <c r="BG33" t="n">
-        <v>3997440</v>
+        <v>4239360</v>
       </c>
       <c r="BH33" t="n">
-        <v>3893760</v>
+        <v>4299840</v>
       </c>
       <c r="BI33" t="n">
-        <v>4052160</v>
+        <v>4443840</v>
       </c>
     </row>
     <row r="34">
@@ -6599,184 +6599,184 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>609888</v>
+        <v>476888</v>
       </c>
       <c r="C34" t="n">
-        <v>678024</v>
+        <v>675120</v>
       </c>
       <c r="D34" t="n">
-        <v>575448</v>
+        <v>519288</v>
       </c>
       <c r="E34" t="n">
-        <v>633776</v>
+        <v>985248</v>
       </c>
       <c r="F34" t="n">
-        <v>908104</v>
+        <v>1007408</v>
       </c>
       <c r="G34" t="n">
-        <v>1171384</v>
+        <v>1116032</v>
       </c>
       <c r="H34" t="n">
-        <v>1216320</v>
+        <v>1078376</v>
       </c>
       <c r="I34" t="n">
-        <v>1512320</v>
+        <v>1252112</v>
       </c>
       <c r="J34" t="n">
-        <v>1374808</v>
+        <v>1511320</v>
       </c>
       <c r="K34" t="n">
-        <v>1288776</v>
+        <v>1290440</v>
       </c>
       <c r="L34" t="n">
-        <v>1823304</v>
+        <v>1670432</v>
       </c>
       <c r="M34" t="n">
-        <v>1638408</v>
+        <v>2097872</v>
       </c>
       <c r="N34" t="n">
-        <v>2749624</v>
+        <v>3389680</v>
       </c>
       <c r="O34" t="n">
-        <v>2854040</v>
+        <v>2920320</v>
       </c>
       <c r="P34" t="n">
-        <v>3392768</v>
+        <v>3140096</v>
       </c>
       <c r="Q34" t="n">
-        <v>2842880</v>
+        <v>2905024</v>
       </c>
       <c r="R34" t="n">
-        <v>4105968</v>
+        <v>3336176</v>
       </c>
       <c r="S34" t="n">
-        <v>3439792</v>
+        <v>3441768</v>
       </c>
       <c r="T34" t="n">
-        <v>4211688</v>
+        <v>4122304</v>
       </c>
       <c r="U34" t="n">
-        <v>3973416</v>
+        <v>3708016</v>
       </c>
       <c r="V34" t="n">
-        <v>4113176</v>
+        <v>3813744</v>
       </c>
       <c r="W34" t="n">
-        <v>4589824</v>
+        <v>4805216</v>
       </c>
       <c r="X34" t="n">
-        <v>4873296</v>
+        <v>5187680</v>
       </c>
       <c r="Y34" t="n">
-        <v>4892624</v>
+        <v>5293152</v>
       </c>
       <c r="Z34" t="n">
-        <v>7325504</v>
+        <v>7657768</v>
       </c>
       <c r="AA34" t="n">
-        <v>7704000</v>
+        <v>7217984</v>
       </c>
       <c r="AB34" t="n">
-        <v>7373944</v>
+        <v>7989376</v>
       </c>
       <c r="AC34" t="n">
-        <v>7280584</v>
+        <v>8424912</v>
       </c>
       <c r="AD34" t="n">
-        <v>9147936</v>
+        <v>8632176</v>
       </c>
       <c r="AE34" t="n">
-        <v>8709248</v>
+        <v>8493736</v>
       </c>
       <c r="AF34" t="n">
-        <v>9634328</v>
+        <v>10150568</v>
       </c>
       <c r="AG34" t="n">
-        <v>9264048</v>
+        <v>9346408</v>
       </c>
       <c r="AH34" t="n">
-        <v>10411464</v>
+        <v>9959824</v>
       </c>
       <c r="AI34" t="n">
-        <v>12229200</v>
+        <v>10627584</v>
       </c>
       <c r="AJ34" t="n">
-        <v>11816576</v>
+        <v>10997832</v>
       </c>
       <c r="AK34" t="n">
-        <v>11776656</v>
+        <v>12770024</v>
       </c>
       <c r="AL34" t="n">
-        <v>14156776</v>
+        <v>14670160</v>
       </c>
       <c r="AM34" t="n">
-        <v>14446768</v>
+        <v>13777760</v>
       </c>
       <c r="AN34" t="n">
-        <v>14437832</v>
+        <v>16320608</v>
       </c>
       <c r="AO34" t="n">
-        <v>14355392</v>
+        <v>16964072</v>
       </c>
       <c r="AP34" t="n">
-        <v>15690072</v>
+        <v>17193112</v>
       </c>
       <c r="AQ34" t="n">
-        <v>16462680</v>
+        <v>16909576</v>
       </c>
       <c r="AR34" t="n">
-        <v>17980616</v>
+        <v>18963664</v>
       </c>
       <c r="AS34" t="n">
-        <v>17527528</v>
+        <v>17846080</v>
       </c>
       <c r="AT34" t="n">
-        <v>20249128</v>
+        <v>18460792</v>
       </c>
       <c r="AU34" t="n">
-        <v>22268440</v>
+        <v>21252216</v>
       </c>
       <c r="AV34" t="n">
-        <v>21611664</v>
+        <v>22196808</v>
       </c>
       <c r="AW34" t="n">
-        <v>21571888</v>
+        <v>24291832</v>
       </c>
       <c r="AX34" t="n">
-        <v>25209232</v>
+        <v>26267256</v>
       </c>
       <c r="AY34" t="n">
-        <v>25735688</v>
+        <v>24870944</v>
       </c>
       <c r="AZ34" t="n">
-        <v>26926136</v>
+        <v>27133784</v>
       </c>
       <c r="BA34" t="n">
-        <v>26410664</v>
+        <v>28356096</v>
       </c>
       <c r="BB34" t="n">
-        <v>27362048</v>
+        <v>28387080</v>
       </c>
       <c r="BC34" t="n">
-        <v>28116680</v>
+        <v>27850760</v>
       </c>
       <c r="BD34" t="n">
-        <v>29629936</v>
+        <v>29953424</v>
       </c>
       <c r="BE34" t="n">
-        <v>31101744</v>
+        <v>28281808</v>
       </c>
       <c r="BF34" t="n">
-        <v>34206784</v>
+        <v>30558504</v>
       </c>
       <c r="BG34" t="n">
-        <v>35210784</v>
+        <v>37916336</v>
       </c>
       <c r="BH34" t="n">
-        <v>33763312</v>
+        <v>36950368</v>
       </c>
       <c r="BI34" t="n">
-        <v>34971432</v>
+        <v>39186448</v>
       </c>
     </row>
     <row r="35">
@@ -6789,181 +6789,181 @@
         <v>23500</v>
       </c>
       <c r="C35" t="n">
+        <v>32500</v>
+      </c>
+      <c r="D35" t="n">
         <v>26500</v>
       </c>
-      <c r="D35" t="n">
-        <v>19000</v>
-      </c>
       <c r="E35" t="n">
-        <v>26500</v>
+        <v>37000</v>
       </c>
       <c r="F35" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>34000</v>
+      </c>
+      <c r="I35" t="n">
         <v>41500</v>
       </c>
-      <c r="G35" t="n">
-        <v>43000</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="J35" t="n">
+        <v>52000</v>
+      </c>
+      <c r="K35" t="n">
+        <v>47500</v>
+      </c>
+      <c r="L35" t="n">
+        <v>56500</v>
+      </c>
+      <c r="M35" t="n">
         <v>61000</v>
       </c>
-      <c r="I35" t="n">
-        <v>62500</v>
-      </c>
-      <c r="J35" t="n">
-        <v>44500</v>
-      </c>
-      <c r="K35" t="n">
-        <v>38500</v>
-      </c>
-      <c r="L35" t="n">
-        <v>65500</v>
-      </c>
-      <c r="M35" t="n">
-        <v>68500</v>
-      </c>
       <c r="N35" t="n">
+        <v>121000</v>
+      </c>
+      <c r="O35" t="n">
         <v>110500</v>
       </c>
-      <c r="O35" t="n">
-        <v>98500</v>
-      </c>
       <c r="P35" t="n">
-        <v>133000</v>
+        <v>127000</v>
       </c>
       <c r="Q35" t="n">
-        <v>122500</v>
+        <v>119500</v>
       </c>
       <c r="R35" t="n">
-        <v>160000</v>
+        <v>146500</v>
       </c>
       <c r="S35" t="n">
-        <v>133000</v>
+        <v>140500</v>
       </c>
       <c r="T35" t="n">
-        <v>161500</v>
+        <v>154000</v>
       </c>
       <c r="U35" t="n">
-        <v>175000</v>
+        <v>157000</v>
       </c>
       <c r="V35" t="n">
-        <v>155500</v>
+        <v>170500</v>
       </c>
       <c r="W35" t="n">
-        <v>184000</v>
+        <v>182500</v>
       </c>
       <c r="X35" t="n">
-        <v>211000</v>
+        <v>203500</v>
       </c>
       <c r="Y35" t="n">
-        <v>229000</v>
+        <v>221500</v>
       </c>
       <c r="Z35" t="n">
-        <v>331000</v>
+        <v>332500</v>
       </c>
       <c r="AA35" t="n">
-        <v>368500</v>
+        <v>344500</v>
       </c>
       <c r="AB35" t="n">
-        <v>362500</v>
+        <v>374500</v>
       </c>
       <c r="AC35" t="n">
-        <v>349000</v>
+        <v>361000</v>
       </c>
       <c r="AD35" t="n">
-        <v>419500</v>
+        <v>424000</v>
       </c>
       <c r="AE35" t="n">
-        <v>401500</v>
+        <v>403000</v>
       </c>
       <c r="AF35" t="n">
-        <v>439000</v>
+        <v>458500</v>
       </c>
       <c r="AG35" t="n">
-        <v>457000</v>
+        <v>433000</v>
       </c>
       <c r="AH35" t="n">
-        <v>485500</v>
+        <v>469000</v>
       </c>
       <c r="AI35" t="n">
-        <v>533500</v>
+        <v>467500</v>
       </c>
       <c r="AJ35" t="n">
-        <v>550000</v>
+        <v>523000</v>
       </c>
       <c r="AK35" t="n">
-        <v>587500</v>
+        <v>589000</v>
       </c>
       <c r="AL35" t="n">
-        <v>728500</v>
+        <v>707500</v>
       </c>
       <c r="AM35" t="n">
-        <v>733000</v>
+        <v>682000</v>
       </c>
       <c r="AN35" t="n">
-        <v>730000</v>
+        <v>785500</v>
       </c>
       <c r="AO35" t="n">
-        <v>743500</v>
+        <v>835000</v>
       </c>
       <c r="AP35" t="n">
-        <v>818500</v>
+        <v>856000</v>
       </c>
       <c r="AQ35" t="n">
-        <v>788500</v>
+        <v>847000</v>
       </c>
       <c r="AR35" t="n">
-        <v>919000</v>
+        <v>904000</v>
       </c>
       <c r="AS35" t="n">
-        <v>946000</v>
+        <v>920500</v>
       </c>
       <c r="AT35" t="n">
-        <v>1010500</v>
+        <v>964000</v>
       </c>
       <c r="AU35" t="n">
-        <v>1105000</v>
+        <v>1052500</v>
       </c>
       <c r="AV35" t="n">
-        <v>1096000</v>
+        <v>1109500</v>
       </c>
       <c r="AW35" t="n">
-        <v>1112500</v>
+        <v>1253500</v>
       </c>
       <c r="AX35" t="n">
-        <v>1337500</v>
+        <v>1324000</v>
       </c>
       <c r="AY35" t="n">
-        <v>1372000</v>
+        <v>1295500</v>
       </c>
       <c r="AZ35" t="n">
-        <v>1427500</v>
+        <v>1388500</v>
       </c>
       <c r="BA35" t="n">
-        <v>1466500</v>
+        <v>1490500</v>
       </c>
       <c r="BB35" t="n">
-        <v>1465000</v>
+        <v>1490500</v>
       </c>
       <c r="BC35" t="n">
-        <v>1448500</v>
+        <v>1474000</v>
       </c>
       <c r="BD35" t="n">
-        <v>1556500</v>
+        <v>1528000</v>
       </c>
       <c r="BE35" t="n">
-        <v>1702000</v>
+        <v>1511500</v>
       </c>
       <c r="BF35" t="n">
-        <v>1766500</v>
+        <v>1669000</v>
       </c>
       <c r="BG35" t="n">
-        <v>1837000</v>
+        <v>1961500</v>
       </c>
       <c r="BH35" t="n">
-        <v>1799500</v>
+        <v>1964500</v>
       </c>
       <c r="BI35" t="n">
-        <v>1891000</v>
+        <v>2039500</v>
       </c>
     </row>
     <row r="36">
@@ -6973,16 +6973,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>31250</v>
+        <v>25000</v>
       </c>
       <c r="C36" t="n">
+        <v>37500</v>
+      </c>
+      <c r="D36" t="n">
+        <v>37500</v>
+      </c>
+      <c r="E36" t="n">
         <v>40625</v>
-      </c>
-      <c r="D36" t="n">
-        <v>40625</v>
-      </c>
-      <c r="E36" t="n">
-        <v>43750</v>
       </c>
       <c r="F36" t="n">
         <v>43750</v>
@@ -6994,7 +6994,7 @@
         <v>43750</v>
       </c>
       <c r="I36" t="n">
-        <v>46875</v>
+        <v>43750</v>
       </c>
       <c r="J36" t="n">
         <v>46875</v>
@@ -7003,7 +7003,7 @@
         <v>46875</v>
       </c>
       <c r="L36" t="n">
-        <v>50000</v>
+        <v>46875</v>
       </c>
       <c r="M36" t="n">
         <v>50000</v>
@@ -7160,34 +7160,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17229</v>
+        <v>14397</v>
       </c>
       <c r="C37" t="n">
-        <v>19232</v>
+        <v>19250</v>
       </c>
       <c r="D37" t="n">
-        <v>16858</v>
+        <v>15206</v>
       </c>
       <c r="E37" t="n">
-        <v>18674</v>
+        <v>27461</v>
       </c>
       <c r="F37" t="n">
-        <v>27170</v>
+        <v>29513</v>
       </c>
       <c r="G37" t="n">
-        <v>32953</v>
+        <v>31688</v>
       </c>
       <c r="H37" t="n">
-        <v>35735</v>
+        <v>31345</v>
       </c>
       <c r="I37" t="n">
+        <v>36290</v>
+      </c>
+      <c r="J37" t="n">
         <v>40000</v>
       </c>
-      <c r="J37" t="n">
-        <v>39531</v>
-      </c>
       <c r="K37" t="n">
-        <v>37594</v>
+        <v>37802</v>
       </c>
       <c r="L37" t="n">
         <v>40000</v>
@@ -7347,184 +7347,184 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>983177</v>
+        <v>806745</v>
       </c>
       <c r="C38" t="n">
-        <v>1142276</v>
+        <v>1129765</v>
       </c>
       <c r="D38" t="n">
-        <v>1039201</v>
+        <v>955659</v>
       </c>
       <c r="E38" t="n">
-        <v>1133495</v>
+        <v>1495884</v>
       </c>
       <c r="F38" t="n">
-        <v>1500444</v>
+        <v>1599096</v>
       </c>
       <c r="G38" t="n">
-        <v>1745497</v>
+        <v>1692615</v>
       </c>
       <c r="H38" t="n">
-        <v>1867195</v>
+        <v>1678066</v>
       </c>
       <c r="I38" t="n">
-        <v>2238355</v>
+        <v>1889302</v>
       </c>
       <c r="J38" t="n">
-        <v>2042419</v>
+        <v>2182700</v>
       </c>
       <c r="K38" t="n">
-        <v>1959970</v>
+        <v>1969912</v>
       </c>
       <c r="L38" t="n">
-        <v>2583364</v>
+        <v>2410347</v>
       </c>
       <c r="M38" t="n">
-        <v>2528323</v>
+        <v>2900877</v>
       </c>
       <c r="N38" t="n">
-        <v>3811319</v>
+        <v>4447390</v>
       </c>
       <c r="O38" t="n">
-        <v>3932600</v>
+        <v>3907350</v>
       </c>
       <c r="P38" t="n">
-        <v>4538033</v>
+        <v>4171281</v>
       </c>
       <c r="Q38" t="n">
-        <v>3995320</v>
+        <v>3920674</v>
       </c>
       <c r="R38" t="n">
-        <v>5373458</v>
+        <v>4419021</v>
       </c>
       <c r="S38" t="n">
-        <v>4637317</v>
+        <v>4538238</v>
       </c>
       <c r="T38" t="n">
-        <v>5544783</v>
+        <v>5328239</v>
       </c>
       <c r="U38" t="n">
-        <v>5311331</v>
+        <v>4924401</v>
       </c>
       <c r="V38" t="n">
-        <v>5404196</v>
+        <v>5104639</v>
       </c>
       <c r="W38" t="n">
-        <v>5998744</v>
+        <v>6260431</v>
       </c>
       <c r="X38" t="n">
-        <v>6359976</v>
+        <v>6714310</v>
       </c>
       <c r="Y38" t="n">
-        <v>6458459</v>
+        <v>6886227</v>
       </c>
       <c r="Z38" t="n">
-        <v>9258944</v>
+        <v>9687308</v>
       </c>
       <c r="AA38" t="n">
-        <v>9679730</v>
+        <v>9237329</v>
       </c>
       <c r="AB38" t="n">
-        <v>9355224</v>
+        <v>10100266</v>
       </c>
       <c r="AC38" t="n">
-        <v>9330564</v>
+        <v>10572347</v>
       </c>
       <c r="AD38" t="n">
-        <v>11439006</v>
+        <v>10934476</v>
       </c>
       <c r="AE38" t="n">
-        <v>10896453</v>
+        <v>10733306</v>
       </c>
       <c r="AF38" t="n">
-        <v>12025418</v>
+        <v>12607123</v>
       </c>
       <c r="AG38" t="n">
-        <v>11669978</v>
+        <v>11686648</v>
       </c>
       <c r="AH38" t="n">
-        <v>13003499</v>
+        <v>12466669</v>
       </c>
       <c r="AI38" t="n">
-        <v>15034580</v>
+        <v>13152289</v>
       </c>
       <c r="AJ38" t="n">
-        <v>14645266</v>
+        <v>13659732</v>
       </c>
       <c r="AK38" t="n">
-        <v>14690166</v>
+        <v>15727599</v>
       </c>
       <c r="AL38" t="n">
-        <v>17539911</v>
+        <v>17996780</v>
       </c>
       <c r="AM38" t="n">
-        <v>17877193</v>
+        <v>17079360</v>
       </c>
       <c r="AN38" t="n">
-        <v>17915972</v>
+        <v>19992303</v>
       </c>
       <c r="AO38" t="n">
-        <v>17886012</v>
+        <v>20759167</v>
       </c>
       <c r="AP38" t="n">
-        <v>19415607</v>
+        <v>21036407</v>
       </c>
       <c r="AQ38" t="n">
-        <v>20181405</v>
+        <v>20734041</v>
       </c>
       <c r="AR38" t="n">
-        <v>22038526</v>
+        <v>23019074</v>
       </c>
       <c r="AS38" t="n">
-        <v>21710798</v>
+        <v>21937700</v>
       </c>
       <c r="AT38" t="n">
-        <v>24656333</v>
+        <v>22741722</v>
       </c>
       <c r="AU38" t="n">
-        <v>27058685</v>
+        <v>25920661</v>
       </c>
       <c r="AV38" t="n">
-        <v>26381864</v>
+        <v>27132958</v>
       </c>
       <c r="AW38" t="n">
-        <v>26472803</v>
+        <v>29547437</v>
       </c>
       <c r="AX38" t="n">
-        <v>30763672</v>
+        <v>31841586</v>
       </c>
       <c r="AY38" t="n">
-        <v>31475093</v>
+        <v>30347979</v>
       </c>
       <c r="AZ38" t="n">
-        <v>32873601</v>
+        <v>32944299</v>
       </c>
       <c r="BA38" t="n">
-        <v>32499864</v>
+        <v>34408921</v>
       </c>
       <c r="BB38" t="n">
-        <v>33411163</v>
+        <v>34469920</v>
       </c>
       <c r="BC38" t="n">
-        <v>34114650</v>
+        <v>33892590</v>
       </c>
       <c r="BD38" t="n">
-        <v>36018416</v>
+        <v>36160809</v>
       </c>
       <c r="BE38" t="n">
-        <v>38025099</v>
+        <v>34487478</v>
       </c>
       <c r="BF38" t="n">
-        <v>41422519</v>
+        <v>37358199</v>
       </c>
       <c r="BG38" t="n">
-        <v>42554629</v>
+        <v>45662806</v>
       </c>
       <c r="BH38" t="n">
-        <v>40958892</v>
+        <v>44765778</v>
       </c>
       <c r="BI38" t="n">
-        <v>42437647</v>
+        <v>47243738</v>
       </c>
     </row>
     <row r="39">
@@ -7534,184 +7534,184 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-121711.4</v>
+        <v>-86879.40000000002</v>
       </c>
       <c r="C39" t="n">
-        <v>-180647.2000000001</v>
+        <v>-167221.0000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>-196263.3999999999</v>
+        <v>-195313.4000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>-199763.7999999993</v>
+        <v>-122786.3999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>-141919.2000000002</v>
+        <v>-123406.4000000004</v>
       </c>
       <c r="G39" t="n">
-        <v>-97836.19999999972</v>
+        <v>-108176.6000000015</v>
       </c>
       <c r="H39" t="n">
-        <v>-80411.00000000093</v>
+        <v>-110814.8000000017</v>
       </c>
       <c r="I39" t="n">
-        <v>-29571.00000000093</v>
+        <v>-74767.59999999776</v>
       </c>
       <c r="J39" t="n">
-        <v>-65849.4000000041</v>
+        <v>-39516.00000000931</v>
       </c>
       <c r="K39" t="n">
-        <v>-80238.80000000447</v>
+        <v>-79783.99999999814</v>
       </c>
       <c r="L39" t="n">
-        <v>17000.79999999888</v>
+        <v>1771.400000002235</v>
       </c>
       <c r="M39" t="n">
-        <v>-91833.4000000041</v>
+        <v>80569.40000000782</v>
       </c>
       <c r="N39" t="n">
-        <v>162229.8000000007</v>
+        <v>380225.9999999944</v>
       </c>
       <c r="O39" t="n">
-        <v>186248.0000000186</v>
+        <v>274633.9999999814</v>
       </c>
       <c r="P39" t="n">
-        <v>302088.5999999829</v>
+        <v>325234.1999999881</v>
       </c>
       <c r="Q39" t="n">
-        <v>181736.0000000075</v>
+        <v>276554.8000000082</v>
       </c>
       <c r="R39" t="n">
-        <v>452103.6000000201</v>
+        <v>371190.2000000253</v>
       </c>
       <c r="S39" t="n">
-        <v>306033.3999999985</v>
+        <v>381483.6000000313</v>
       </c>
       <c r="T39" t="n">
-        <v>470842.5999999419</v>
+        <v>512525.7999999896</v>
       </c>
       <c r="U39" t="n">
-        <v>418368.2000000253</v>
+        <v>383618.1999999508</v>
       </c>
       <c r="V39" t="n">
-        <v>438415.2000000402</v>
+        <v>402253.8000000268</v>
       </c>
       <c r="W39" t="n">
-        <v>540244.8000000119</v>
+        <v>538628.2000000104</v>
       </c>
       <c r="X39" t="n">
-        <v>612779.1999999732</v>
+        <v>625705.9999999925</v>
       </c>
       <c r="Y39" t="n">
-        <v>629889.8000000268</v>
+        <v>654755.4000000358</v>
       </c>
       <c r="Z39" t="n">
-        <v>1180060.799999997</v>
+        <v>1192013.600000158</v>
       </c>
       <c r="AA39" t="n">
-        <v>1259869.99999994</v>
+        <v>1101451.800000101</v>
       </c>
       <c r="AB39" t="n">
-        <v>1176708.800000072</v>
+        <v>1272585.199999869</v>
       </c>
       <c r="AC39" t="n">
-        <v>1172136.800000042</v>
+        <v>1362747.399999917</v>
       </c>
       <c r="AD39" t="n">
-        <v>1567717.199999973</v>
+        <v>1430535.199999914</v>
       </c>
       <c r="AE39" t="n">
-        <v>1466244.599999994</v>
+        <v>1390777.200000018</v>
       </c>
       <c r="AF39" t="n">
-        <v>1670175.599999979</v>
+        <v>1759158.600000292</v>
       </c>
       <c r="AG39" t="n">
-        <v>1598079.600000143</v>
+        <v>1561841.600000203</v>
       </c>
       <c r="AH39" t="n">
-        <v>1816257.799999833</v>
+        <v>1709919.799999774</v>
       </c>
       <c r="AI39" t="n">
-        <v>2203259.999999881</v>
+        <v>1845211.799999863</v>
       </c>
       <c r="AJ39" t="n">
-        <v>2105025.199999958</v>
+        <v>1924466.399999976</v>
       </c>
       <c r="AK39" t="n">
-        <v>2109021.19999963</v>
+        <v>2334029.800000399</v>
       </c>
       <c r="AL39" t="n">
-        <v>2616620.199999601</v>
+        <v>2755011.999999404</v>
       </c>
       <c r="AM39" t="n">
-        <v>2683728.600000113</v>
+        <v>2560351.999999851</v>
       </c>
       <c r="AN39" t="n">
-        <v>2644626.399999797</v>
+        <v>3099626.60000056</v>
       </c>
       <c r="AO39" t="n">
-        <v>2636858.400000215</v>
+        <v>3228519.400000513</v>
       </c>
       <c r="AP39" t="n">
-        <v>2924079.400000334</v>
+        <v>3282927.400000393</v>
       </c>
       <c r="AQ39" t="n">
-        <v>3077810.999999762</v>
+        <v>3218650.200000048</v>
       </c>
       <c r="AR39" t="n">
-        <v>3421413.199999988</v>
+        <v>3650922.799999893</v>
       </c>
       <c r="AS39" t="n">
-        <v>3349435.599999964</v>
+        <v>3427595.99999994</v>
       </c>
       <c r="AT39" t="n">
-        <v>3917820.599999309</v>
+        <v>3527228.400000095</v>
       </c>
       <c r="AU39" t="n">
-        <v>4334643.000001013</v>
+        <v>4111198.19999963</v>
       </c>
       <c r="AV39" t="n">
-        <v>4200532.799999654</v>
+        <v>4349611.600000858</v>
       </c>
       <c r="AW39" t="n">
-        <v>4202662.600000381</v>
+        <v>4785161.39999944</v>
       </c>
       <c r="AX39" t="n">
-        <v>4994206.400000155</v>
+        <v>5211121.199998021</v>
       </c>
       <c r="AY39" t="n">
-        <v>5122532.600000322</v>
+        <v>4904753.799999952</v>
       </c>
       <c r="AZ39" t="n">
-        <v>5356162.200000465</v>
+        <v>5378241.799997568</v>
       </c>
       <c r="BA39" t="n">
-        <v>5274932.800000548</v>
+        <v>5663994.200000644</v>
       </c>
       <c r="BB39" t="n">
-        <v>5449294.599999547</v>
+        <v>5672575.999999523</v>
       </c>
       <c r="BC39" t="n">
-        <v>5582566.000001788</v>
+        <v>5548322.00000298</v>
       </c>
       <c r="BD39" t="n">
-        <v>5923107.199998975</v>
+        <v>5983299.799998403</v>
       </c>
       <c r="BE39" t="n">
-        <v>6243793.800000906</v>
+        <v>5657491.599997044</v>
       </c>
       <c r="BF39" t="n">
-        <v>6914021.800002456</v>
+        <v>6135605.800004959</v>
       </c>
       <c r="BG39" t="n">
-        <v>7131111.799999237</v>
+        <v>7737997.200001955</v>
       </c>
       <c r="BH39" t="n">
-        <v>6810282.400000811</v>
+        <v>7555463.600001574</v>
       </c>
       <c r="BI39" t="n">
-        <v>7101271.400003314</v>
+        <v>8040799.599997759</v>
       </c>
     </row>
   </sheetData>
